--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$969</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$971:$G$1035</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11798" uniqueCount="8234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12058" uniqueCount="8335">
   <si>
     <t>1994</t>
   </si>
@@ -24972,6 +24972,309 @@
   </si>
   <si>
     <t>UPDATE PHONE</t>
+  </si>
+  <si>
+    <t>Dr. (Ms.) Rupjyoti Ojah/</t>
+  </si>
+  <si>
+    <t>502 Funjan Tower Parag Das Road RP FCI P.O. Bamuni Maidam Guwahati-21 Kamrup (M)</t>
+  </si>
+  <si>
+    <t>Dr. Dipanka Choudhury /Shri Raghu Nath Choudhury</t>
+  </si>
+  <si>
+    <t>H.No.36 Brindaban path Rupnagar P.O. Indrapur Guwahati-781032.</t>
+  </si>
+  <si>
+    <t>Dr. Khagendra Nath Sarmah/</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Dr. Uday Kumar Saha/</t>
+  </si>
+  <si>
+    <t>Dr. Ratna Bahadur Pradhan/</t>
+  </si>
+  <si>
+    <t>Dr. Jadav Sarmah/Late Dandapani Sarmah</t>
+  </si>
+  <si>
+    <t>Department of Pharmacology College of Veterinary Science Assam Agricultural University Khanapara Guwahati-22</t>
+  </si>
+  <si>
+    <t>Dr. Mohanlal Smith/</t>
+  </si>
+  <si>
+    <t>H/N.-24 lane No. 9 (West) Zoo Road Tiniali R.G.B. Road Guwahati-781024</t>
+  </si>
+  <si>
+    <t>Dr. Dandeswar Deka / Sri Harendra Nath Deka</t>
+  </si>
+  <si>
+    <t>Dagaon Kamrup pin.-781133</t>
+  </si>
+  <si>
+    <t>Dr. Satya Dutta Choudhury/</t>
+  </si>
+  <si>
+    <t>Dr. Ikramul Haque/</t>
+  </si>
+  <si>
+    <t>Dr. Umesh Chandra Das/</t>
+  </si>
+  <si>
+    <t>Dr. Gagan Chandra Das/</t>
+  </si>
+  <si>
+    <t>E.O. (Vety.) Gossaigaon Dev. Block Dist. Kokrajhar Assam</t>
+  </si>
+  <si>
+    <t>Dr. Chatra Dhar Borah/</t>
+  </si>
+  <si>
+    <t>E.O. (Vety.) North Lakhimpur Dist. Lakhimpur Assam</t>
+  </si>
+  <si>
+    <t>Dr. Shirajul Hoque/</t>
+  </si>
+  <si>
+    <t>W/No.-4 (Surjyakhata) P.O.&amp; P.S. Bilasipara Dist. Dhubri pin.-783348.</t>
+  </si>
+  <si>
+    <t>Dr. Manoj Kumar Goswami / Sri Haladhar Goswami</t>
+  </si>
+  <si>
+    <t>H.No.-28A Pragati path Chandan Nagar Ghoramara Bhetapara p.o. Beltola Ghy.-28.</t>
+  </si>
+  <si>
+    <t>Dr. Digendra Talukdar /Late Debendra Nath Talukdar</t>
+  </si>
+  <si>
+    <t>Dr. Krishna Pathak/</t>
+  </si>
+  <si>
+    <t>Dr. Girindra Nath Sen / Sri Gajendra Nath Sen</t>
+  </si>
+  <si>
+    <t>VAS. Kokrajhar Vety. Hospital P.O. Titaguri Dist. Kokrajhar (BTC) Pin- 783374</t>
+  </si>
+  <si>
+    <t>Dr. Pranab Das /Sri Uttam Chandra Das</t>
+  </si>
+  <si>
+    <t>Birkuchi Malabhaban Near CanaraBank Assam carbon Road Narengi Guwahati-26.</t>
+  </si>
+  <si>
+    <t>Dr. Jayanta Kumar Talukdar /Sri Sarat Chandra Talukdar</t>
+  </si>
+  <si>
+    <t>State Vety. Dispensary Hailakandi P.O. Hailakandi Dist.Hailakandi</t>
+  </si>
+  <si>
+    <t>Dr. Nilutpal Kakati /Late Pitram Nath</t>
+  </si>
+  <si>
+    <t>Eragaon W.No.-6 Morigaon P.O. P.S. &amp; Dist. Morigaon pin.-782105.</t>
+  </si>
+  <si>
+    <t>Dr. Lalit Chandra Lahon / Late Padmeswar Lahon</t>
+  </si>
+  <si>
+    <t>H.No.-72 Homeopethic College Road Byelane No.-2(East) Panjabari Guwahati-781037.</t>
+  </si>
+  <si>
+    <t>Dr. Pranab Chandra Kalita/Sri Tarini Kanta Kalita</t>
+  </si>
+  <si>
+    <t>Asstt. Professor College of Vety. Sc. &amp; A.H. CAU Deptt. of Anatomy &amp; Histology Selesin Aizawl Mizoram Pin-796014</t>
+  </si>
+  <si>
+    <t>Dr. Md. Isfaqul Hussain / Md. Safiqul Hussain</t>
+  </si>
+  <si>
+    <t>Dr. Harabinda Saharia /Sri Baneswar Saharia</t>
+  </si>
+  <si>
+    <t>Dr. Kamal Sarma / Sri Binode Kumar Sarma</t>
+  </si>
+  <si>
+    <t>Dr. Sashanka Sekhar Dutta /Mr. Kamaleswar Dutta</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Geetima Barman /Mr. Kanak Chandra Barman</t>
+  </si>
+  <si>
+    <t>Dr. Parimal Roychoudhury /Dr. R.K. Roychoudhury</t>
+  </si>
+  <si>
+    <t>Asstt. Professor Dept. of Vety. Microbiology CVSC. &amp; A.H. CAU Selesit Aizawl Mizoram</t>
+  </si>
+  <si>
+    <t>Dr. Ditul Barman /Sri Bipin Chandra Barman</t>
+  </si>
+  <si>
+    <t>Dr. Gargo Ram Mahilary /Sri Kameswar Mahilary</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Kaberi Deka / Dr. Bhumidhar Deka</t>
+  </si>
+  <si>
+    <t>H.No.-63 Opp. T.C. Girls' School G.N.B. Road Guwahati pin.-781003</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Manika Buragohain/ Sri Kanak Buragohain (F)</t>
+  </si>
+  <si>
+    <t>Dr. Bhupesh Chandra Bhattacharyya /Sri Golok Bhattacharyya</t>
+  </si>
+  <si>
+    <t>Dr. Siddhartha Kumar Barooah/</t>
+  </si>
+  <si>
+    <t>Dr. Ikramul Hussain Sarkar /Md. Aftabuddin Ahmed</t>
+  </si>
+  <si>
+    <t>VAS. State Vety. Dispensary Fakuagram Karimganj</t>
+  </si>
+  <si>
+    <t>Dr. Deepak Sarma / Sri M.N. Sarma</t>
+  </si>
+  <si>
+    <t>Dr. Prabhat Basumatary /Sri Ramesh Chandra Basumatary</t>
+  </si>
+  <si>
+    <t>Dr. Mridul Nath /Mr. Nalini Kanta Nath</t>
+  </si>
+  <si>
+    <t>Vill. &amp; P.O. Bahalpar Dist. Dhubri</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Rumi Gogoi /Sri Jogeswar Gogoi (F)</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Monalisa Saikia /Mr. Nabin Chandra Saikia (F)</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Tripti Buragohain /Mr. Biren Buragohain</t>
+  </si>
+  <si>
+    <t>Bamun para Milan Nagar Lokhra Guwahati Assam</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Kakali Basumatary /Sri S. Basumatari (F)</t>
+  </si>
+  <si>
+    <t>Dr. Surajit Nath /Sri S.C. Nath</t>
+  </si>
+  <si>
+    <t>Dr. Hiranya Kumar Das / Sri Dinesh Chandra Das</t>
+  </si>
+  <si>
+    <t>Metuakuchi Barpeta Dist- Barpeta PIN-781301 Assam</t>
+  </si>
+  <si>
+    <t>Dr. Sanjib Khargharia /Sri Prafulla Chandra Khargharia</t>
+  </si>
+  <si>
+    <t>Dr. Runtu Gogoi /Sri Rama Kanta Gogoi</t>
+  </si>
+  <si>
+    <t>Dr. Biraj Jyoti Deuri /Sri Krishna Kanta Deuri</t>
+  </si>
+  <si>
+    <t>Dr. Subodh Kumar Singh / Sri Ram Hilish Singh</t>
+  </si>
+  <si>
+    <t>Sukadh Hotel Silapathar P.O. Silapathar Main Road Dist. Dhemaji.</t>
+  </si>
+  <si>
+    <t>Dr. Ranjan Kumar Das / Mr. Bhupen Chandra Das</t>
+  </si>
+  <si>
+    <t>Dr. Nilim Kumar Kakati / Sri Paban Kakati</t>
+  </si>
+  <si>
+    <t>Dr. Denish Gogoi /Mr. Uttam Chandra Gogoi</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Irin Jebin / (F) - Late Dr. Farid Ali</t>
+  </si>
+  <si>
+    <t>Dr. Kolhite Rhakho /(F) - Late Kelhitsuryi</t>
+  </si>
+  <si>
+    <t>Patgaon P.O. Azara Campus Pin- 781017</t>
+  </si>
+  <si>
+    <t>Dr. Kangkan Deka /(F) - Parikshit Deka</t>
+  </si>
+  <si>
+    <t>Vill. Danghapara P.O. Banekuchi Dist. Nalbari Pin- 781340</t>
+  </si>
+  <si>
+    <t>Dr. Malek Ali /(F) - Akbar Ali</t>
+  </si>
+  <si>
+    <t>Vill. Bandali P.O. Jatradia P.S. Tarabari Dist. Barpeta- 781305</t>
+  </si>
+  <si>
+    <t>Dr. Sayashree Rabha /(F) - Karuna Kanta Rabha</t>
+  </si>
+  <si>
+    <t>Vill. Mirza Near- Mirza Post Office House No. 122 Kamrup (R) Assam- 781125</t>
+  </si>
+  <si>
+    <t>Dr. Nitu Thengal /F.Namr- Punaram Thengal</t>
+  </si>
+  <si>
+    <t>Vill. Chawdung Pather Merachuk P.O. Chawdung Pather Dist. Golaghat Pin.-785705.</t>
+  </si>
+  <si>
+    <t>Dr. Neelakshi Duttabaruah /(F) - Mrinal Duttabaruah</t>
+  </si>
+  <si>
+    <t>Amingaon Madhyam Amingaon Guwahati-781031</t>
+  </si>
+  <si>
+    <t>Dr. Akash Jyoti Moral /(F) - Hiren Moral</t>
+  </si>
+  <si>
+    <t>Latakata Ganeshnagar Path H./No109 Opp. CID Quarters P.O.&amp; P.S. Basistha Chariali Guwahati-781029.</t>
+  </si>
+  <si>
+    <t>Dr. Pabitra Bortamuly / (F) - Gonesh Bortamuly</t>
+  </si>
+  <si>
+    <t>Vill. Lukumaigaon P.O. Halodhibari P.S. Dergaon Dist. Golaghat Pin.- 785618</t>
+  </si>
+  <si>
+    <t>Dr. pollabi Kachari /(F) - Punaram Kachari</t>
+  </si>
+  <si>
+    <t>Bojalbari Gaon Titabar P.O. Boruajan Dist. Jorhat Pin.-785630</t>
+  </si>
+  <si>
+    <t>Dr. Bhargab Jyoti Sarmah/Madhu Dev Sarmah</t>
+  </si>
+  <si>
+    <t>Vill: Gerimari Joy Nagar Near Law College Mangaldoi Darrang Assam - 784125</t>
+  </si>
+  <si>
+    <t>Dr. Jyoti Doley/Durgeswar Doley</t>
+  </si>
+  <si>
+    <t>House No 49 Rangaihabi Gaon Row Riah Jorhat Assam Pin 785004</t>
+  </si>
+  <si>
+    <t>Dr. Bikash Kumar Pandey/Oshihar Pandey</t>
+  </si>
+  <si>
+    <t>Sinatolia Near Asian Public School North Lakhimpur Assam Pin 787031</t>
+  </si>
+  <si>
+    <t>NEW ENTRY</t>
   </si>
 </sst>
 </file>
@@ -25045,7 +25348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -25090,6 +25393,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25479,30 +25789,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U969"/>
+  <dimension ref="A1:U1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A969" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K971" sqref="K971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="24" hidden="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="5"/>
     <col min="13" max="13" width="19.85546875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="28" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="28" customWidth="1"/>
+    <col min="16" max="16" width="27.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="37.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" customWidth="1"/>
     <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -86171,6 +86481,1286 @@
         <v>7002243237</v>
       </c>
     </row>
+    <row r="971" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="E971" s="11" t="s">
+        <v>8234</v>
+      </c>
+      <c r="F971" s="16">
+        <v>21922</v>
+      </c>
+      <c r="G971" s="11" t="s">
+        <v>8235</v>
+      </c>
+      <c r="H971" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J971" s="17">
+        <v>9864132078</v>
+      </c>
+      <c r="K971" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="972" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="E972" s="11" t="s">
+        <v>8236</v>
+      </c>
+      <c r="F972" s="16">
+        <v>22482</v>
+      </c>
+      <c r="G972" s="11" t="s">
+        <v>8237</v>
+      </c>
+      <c r="H972" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J972" s="17">
+        <v>7896194704</v>
+      </c>
+      <c r="K972" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="973" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="E973" s="11" t="s">
+        <v>8238</v>
+      </c>
+      <c r="F973" s="16">
+        <v>22706</v>
+      </c>
+      <c r="G973" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H973" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J973" s="17">
+        <v>9435185211</v>
+      </c>
+      <c r="K973" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="974" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="E974" s="11" t="s">
+        <v>8240</v>
+      </c>
+      <c r="F974" s="16">
+        <v>22288</v>
+      </c>
+      <c r="G974" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H974" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J974" s="17">
+        <v>9435007601</v>
+      </c>
+      <c r="K974" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="975" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="E975" s="11" t="s">
+        <v>8241</v>
+      </c>
+      <c r="F975" s="16">
+        <v>21620</v>
+      </c>
+      <c r="G975" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H975" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J975" s="17">
+        <v>7086329911</v>
+      </c>
+      <c r="K975" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="976" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+      <c r="E976" s="11" t="s">
+        <v>8242</v>
+      </c>
+      <c r="F976" s="16">
+        <v>23798</v>
+      </c>
+      <c r="G976" s="11" t="s">
+        <v>8243</v>
+      </c>
+      <c r="H976" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J976" s="17">
+        <v>9435749321</v>
+      </c>
+      <c r="K976" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="977" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E977" s="11" t="s">
+        <v>8244</v>
+      </c>
+      <c r="F977" s="16">
+        <v>20375</v>
+      </c>
+      <c r="G977" s="11" t="s">
+        <v>8245</v>
+      </c>
+      <c r="H977" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J977" s="17">
+        <v>9435195118</v>
+      </c>
+      <c r="K977" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="978" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E978" s="11" t="s">
+        <v>8246</v>
+      </c>
+      <c r="F978" s="16">
+        <v>24167</v>
+      </c>
+      <c r="G978" s="11" t="s">
+        <v>8247</v>
+      </c>
+      <c r="H978" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J978" s="17">
+        <v>9435110761</v>
+      </c>
+      <c r="K978" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="979" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E979" s="11" t="s">
+        <v>8248</v>
+      </c>
+      <c r="F979" s="16">
+        <v>23429</v>
+      </c>
+      <c r="G979" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H979" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J979" s="17">
+        <v>8638428450</v>
+      </c>
+      <c r="K979" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="980" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E980" s="11" t="s">
+        <v>8249</v>
+      </c>
+      <c r="F980" s="16">
+        <v>23102</v>
+      </c>
+      <c r="G980" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H980" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J980" s="17">
+        <v>9435127577</v>
+      </c>
+      <c r="K980" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="981" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E981" s="11" t="s">
+        <v>8250</v>
+      </c>
+      <c r="F981" s="16">
+        <v>22287</v>
+      </c>
+      <c r="G981" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H981" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J981" s="17">
+        <v>9577011722</v>
+      </c>
+      <c r="K981" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="982" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E982" s="11" t="s">
+        <v>8251</v>
+      </c>
+      <c r="F982" s="16">
+        <v>24110</v>
+      </c>
+      <c r="G982" s="11" t="s">
+        <v>8252</v>
+      </c>
+      <c r="H982" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J982" s="17">
+        <v>9954425354</v>
+      </c>
+      <c r="K982" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="983" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E983" s="11" t="s">
+        <v>8253</v>
+      </c>
+      <c r="F983" s="16">
+        <v>23224</v>
+      </c>
+      <c r="G983" s="11" t="s">
+        <v>8254</v>
+      </c>
+      <c r="H983" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J983" s="17"/>
+      <c r="K983" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="984" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E984" s="11" t="s">
+        <v>8255</v>
+      </c>
+      <c r="F984" s="16">
+        <v>24166</v>
+      </c>
+      <c r="G984" s="11" t="s">
+        <v>8256</v>
+      </c>
+      <c r="H984" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J984" s="17">
+        <v>7002655615</v>
+      </c>
+      <c r="K984" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="985" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E985" s="11" t="s">
+        <v>8257</v>
+      </c>
+      <c r="F985" s="16">
+        <v>24929</v>
+      </c>
+      <c r="G985" s="11" t="s">
+        <v>8258</v>
+      </c>
+      <c r="H985" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J985" s="17">
+        <v>9435082741</v>
+      </c>
+      <c r="K985" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="986" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E986" s="11" t="s">
+        <v>8259</v>
+      </c>
+      <c r="F986" s="16">
+        <v>24504</v>
+      </c>
+      <c r="G986" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H986" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J986" s="17">
+        <v>9435505584</v>
+      </c>
+      <c r="K986" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="987" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E987" s="11" t="s">
+        <v>8260</v>
+      </c>
+      <c r="F987" s="16">
+        <v>24193</v>
+      </c>
+      <c r="G987" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H987" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J987" s="17"/>
+      <c r="K987" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="988" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E988" s="11" t="s">
+        <v>8261</v>
+      </c>
+      <c r="F988" s="16">
+        <v>25263</v>
+      </c>
+      <c r="G988" s="11" t="s">
+        <v>8262</v>
+      </c>
+      <c r="H988" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J988" s="17">
+        <v>9854289976</v>
+      </c>
+      <c r="K988" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="989" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E989" s="11" t="s">
+        <v>8263</v>
+      </c>
+      <c r="F989" s="16">
+        <v>24286</v>
+      </c>
+      <c r="G989" s="11" t="s">
+        <v>8264</v>
+      </c>
+      <c r="H989" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J989" s="17">
+        <v>7002852103</v>
+      </c>
+      <c r="K989" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="990" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E990" s="11" t="s">
+        <v>8265</v>
+      </c>
+      <c r="F990" s="16">
+        <v>24898</v>
+      </c>
+      <c r="G990" s="11" t="s">
+        <v>8266</v>
+      </c>
+      <c r="H990" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J990" s="17">
+        <v>9101892538</v>
+      </c>
+      <c r="K990" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="991" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E991" s="11" t="s">
+        <v>8267</v>
+      </c>
+      <c r="F991" s="16">
+        <v>24898</v>
+      </c>
+      <c r="G991" s="11" t="s">
+        <v>8268</v>
+      </c>
+      <c r="H991" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J991" s="17">
+        <v>7086409597</v>
+      </c>
+      <c r="K991" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="992" spans="5:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="E992" s="11" t="s">
+        <v>8269</v>
+      </c>
+      <c r="F992" s="16">
+        <v>19360</v>
+      </c>
+      <c r="G992" s="11" t="s">
+        <v>8270</v>
+      </c>
+      <c r="H992" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J992" s="17">
+        <v>9435303966</v>
+      </c>
+      <c r="K992" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="993" spans="5:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="E993" s="11" t="s">
+        <v>8271</v>
+      </c>
+      <c r="F993" s="16">
+        <v>25263</v>
+      </c>
+      <c r="G993" s="11" t="s">
+        <v>8272</v>
+      </c>
+      <c r="H993" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J993" s="17"/>
+      <c r="K993" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="994" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E994" s="11" t="s">
+        <v>8273</v>
+      </c>
+      <c r="F994" s="16">
+        <v>24926</v>
+      </c>
+      <c r="G994" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H994" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J994" s="17">
+        <v>9419011945</v>
+      </c>
+      <c r="K994" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="995" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E995" s="11" t="s">
+        <v>8274</v>
+      </c>
+      <c r="F995" s="16">
+        <v>25628</v>
+      </c>
+      <c r="G995" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H995" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J995" s="17">
+        <v>9435083281</v>
+      </c>
+      <c r="K995" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="996" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E996" s="11" t="s">
+        <v>8275</v>
+      </c>
+      <c r="F996" s="16">
+        <v>26682</v>
+      </c>
+      <c r="G996" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H996" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J996" s="17"/>
+      <c r="K996" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="997" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E997" s="11" t="s">
+        <v>8276</v>
+      </c>
+      <c r="F997" s="16">
+        <v>27082</v>
+      </c>
+      <c r="G997" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H997" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J997" s="17"/>
+      <c r="K997" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="998" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E998" s="11" t="s">
+        <v>8277</v>
+      </c>
+      <c r="F998" s="16">
+        <v>27049</v>
+      </c>
+      <c r="G998" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H998" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J998" s="17">
+        <v>8811014787</v>
+      </c>
+      <c r="K998" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="999" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E999" s="11" t="s">
+        <v>8278</v>
+      </c>
+      <c r="F999" s="16">
+        <v>27287</v>
+      </c>
+      <c r="G999" s="11" t="s">
+        <v>8279</v>
+      </c>
+      <c r="H999" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J999" s="17">
+        <v>8837262227</v>
+      </c>
+      <c r="K999" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1000" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1000" s="11" t="s">
+        <v>8280</v>
+      </c>
+      <c r="F1000" s="16">
+        <v>27504</v>
+      </c>
+      <c r="G1000" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1000" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1000" s="17">
+        <v>9854047807</v>
+      </c>
+      <c r="K1000" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1001" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1001" s="11" t="s">
+        <v>8281</v>
+      </c>
+      <c r="F1001" s="16">
+        <v>25902</v>
+      </c>
+      <c r="G1001" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1001" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1001" s="17">
+        <v>8011785954</v>
+      </c>
+      <c r="K1001" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1002" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1002" s="11" t="s">
+        <v>8282</v>
+      </c>
+      <c r="F1002" s="16">
+        <v>26011</v>
+      </c>
+      <c r="G1002" s="11" t="s">
+        <v>8283</v>
+      </c>
+      <c r="H1002" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1002" s="17">
+        <v>9435702388</v>
+      </c>
+      <c r="K1002" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1003" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E1003" s="11" t="s">
+        <v>8284</v>
+      </c>
+      <c r="F1003" s="16">
+        <v>27334</v>
+      </c>
+      <c r="G1003" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1003" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1003" s="17">
+        <v>8753885884</v>
+      </c>
+      <c r="K1003" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1004" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E1004" s="11" t="s">
+        <v>8285</v>
+      </c>
+      <c r="F1004" s="16">
+        <v>26724</v>
+      </c>
+      <c r="G1004" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1004" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1004" s="17">
+        <v>9435041951</v>
+      </c>
+      <c r="K1004" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1005" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1005" s="11" t="s">
+        <v>8286</v>
+      </c>
+      <c r="F1005" s="16">
+        <v>27426</v>
+      </c>
+      <c r="G1005" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1005" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1005" s="17">
+        <v>8402046333</v>
+      </c>
+      <c r="K1005" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1006" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E1006" s="11" t="s">
+        <v>8287</v>
+      </c>
+      <c r="F1006" s="16">
+        <v>26724</v>
+      </c>
+      <c r="G1006" s="11" t="s">
+        <v>8288</v>
+      </c>
+      <c r="H1006" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1006" s="17">
+        <v>7002585745</v>
+      </c>
+      <c r="K1006" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1007" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1007" s="11" t="s">
+        <v>8289</v>
+      </c>
+      <c r="F1007" s="16">
+        <v>25993</v>
+      </c>
+      <c r="G1007" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1007" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1007" s="17">
+        <v>9435182806</v>
+      </c>
+      <c r="K1007" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1008" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E1008" s="11" t="s">
+        <v>8290</v>
+      </c>
+      <c r="F1008" s="16">
+        <v>24926</v>
+      </c>
+      <c r="G1008" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1008" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1008" s="17">
+        <v>9435125082</v>
+      </c>
+      <c r="K1008" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1009" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1009" s="11" t="s">
+        <v>8291</v>
+      </c>
+      <c r="F1009" s="16">
+        <v>27072</v>
+      </c>
+      <c r="G1009" s="11" t="s">
+        <v>8292</v>
+      </c>
+      <c r="H1009" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1009" s="17">
+        <v>7002324548</v>
+      </c>
+      <c r="K1009" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1010" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1010" s="11" t="s">
+        <v>8293</v>
+      </c>
+      <c r="F1010" s="16">
+        <v>27791</v>
+      </c>
+      <c r="G1010" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1010" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1010" s="17">
+        <v>8473906605</v>
+      </c>
+      <c r="K1010" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1011" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E1011" s="11" t="s">
+        <v>8294</v>
+      </c>
+      <c r="F1011" s="16">
+        <v>27608</v>
+      </c>
+      <c r="G1011" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1011" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1011" s="17"/>
+      <c r="K1011" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1012" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1012" s="11" t="s">
+        <v>8295</v>
+      </c>
+      <c r="F1012" s="16">
+        <v>27691</v>
+      </c>
+      <c r="G1012" s="11" t="s">
+        <v>8296</v>
+      </c>
+      <c r="H1012" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1012" s="17">
+        <v>8981558104</v>
+      </c>
+      <c r="K1012" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1013" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1013" s="11" t="s">
+        <v>8297</v>
+      </c>
+      <c r="F1013" s="16">
+        <v>26944</v>
+      </c>
+      <c r="G1013" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1013" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1013" s="17">
+        <v>9401057456</v>
+      </c>
+      <c r="K1013" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1014" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1014" s="11" t="s">
+        <v>8298</v>
+      </c>
+      <c r="F1014" s="16">
+        <v>27023</v>
+      </c>
+      <c r="G1014" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1014" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1014" s="17">
+        <v>9818941573</v>
+      </c>
+      <c r="K1014" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1015" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1015" s="11" t="s">
+        <v>8299</v>
+      </c>
+      <c r="F1015" s="16">
+        <v>27819</v>
+      </c>
+      <c r="G1015" s="11" t="s">
+        <v>8300</v>
+      </c>
+      <c r="H1015" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1015" s="17">
+        <v>9854243438</v>
+      </c>
+      <c r="K1015" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1016" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E1016" s="11" t="s">
+        <v>8301</v>
+      </c>
+      <c r="F1016" s="16">
+        <v>28185</v>
+      </c>
+      <c r="G1016" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1016" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1016" s="17"/>
+      <c r="K1016" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1017" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1017" s="11" t="s">
+        <v>8302</v>
+      </c>
+      <c r="F1017" s="16">
+        <v>27638</v>
+      </c>
+      <c r="G1017" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1017" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1017" s="17"/>
+      <c r="K1017" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1018" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1018" s="11" t="s">
+        <v>8303</v>
+      </c>
+      <c r="F1018" s="16">
+        <v>28156</v>
+      </c>
+      <c r="G1018" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1018" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1018" s="17"/>
+      <c r="K1018" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1019" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1019" s="11" t="s">
+        <v>8304</v>
+      </c>
+      <c r="F1019" s="16">
+        <v>27682</v>
+      </c>
+      <c r="G1019" s="11" t="s">
+        <v>8305</v>
+      </c>
+      <c r="H1019" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1019" s="17">
+        <v>7002039865</v>
+      </c>
+      <c r="K1019" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1020" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1020" s="11" t="s">
+        <v>8306</v>
+      </c>
+      <c r="F1020" s="16">
+        <v>29027</v>
+      </c>
+      <c r="G1020" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1020" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1020" s="17">
+        <v>9866421693</v>
+      </c>
+      <c r="K1020" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1021" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1021" s="11" t="s">
+        <v>8307</v>
+      </c>
+      <c r="F1021" s="16">
+        <v>29646</v>
+      </c>
+      <c r="G1021" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1021" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1021" s="17"/>
+      <c r="K1021" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1022" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1022" s="11" t="s">
+        <v>8308</v>
+      </c>
+      <c r="F1022" s="16">
+        <v>29281</v>
+      </c>
+      <c r="G1022" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1022" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1022" s="17"/>
+      <c r="K1022" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1023" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1023" s="11" t="s">
+        <v>8309</v>
+      </c>
+      <c r="F1023" s="16">
+        <v>31803</v>
+      </c>
+      <c r="G1023" s="11" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1023" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1023" s="17"/>
+      <c r="K1023" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1024" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1024" s="11" t="s">
+        <v>8310</v>
+      </c>
+      <c r="F1024" s="16">
+        <v>25628</v>
+      </c>
+      <c r="G1024" s="11" t="s">
+        <v>8311</v>
+      </c>
+      <c r="H1024" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1024" s="17">
+        <v>8473085326</v>
+      </c>
+      <c r="K1024" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1025" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1025" s="11" t="s">
+        <v>8312</v>
+      </c>
+      <c r="F1025" s="16">
+        <v>34360</v>
+      </c>
+      <c r="G1025" s="11" t="s">
+        <v>8313</v>
+      </c>
+      <c r="H1025" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1025" s="17">
+        <v>7002739184</v>
+      </c>
+      <c r="K1025" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1026" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1026" s="11" t="s">
+        <v>8314</v>
+      </c>
+      <c r="F1026" s="16">
+        <v>34366</v>
+      </c>
+      <c r="G1026" s="11" t="s">
+        <v>8315</v>
+      </c>
+      <c r="H1026" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1026" s="17">
+        <v>9707989486</v>
+      </c>
+      <c r="K1026" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1027" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E1027" s="11" t="s">
+        <v>8316</v>
+      </c>
+      <c r="F1027" s="16"/>
+      <c r="G1027" s="11" t="s">
+        <v>8317</v>
+      </c>
+      <c r="H1027" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1027" s="17">
+        <v>7086644885</v>
+      </c>
+      <c r="K1027" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1028" spans="5:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="E1028" s="11" t="s">
+        <v>8318</v>
+      </c>
+      <c r="F1028" s="16">
+        <v>35751</v>
+      </c>
+      <c r="G1028" s="11" t="s">
+        <v>8319</v>
+      </c>
+      <c r="H1028" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1028" s="17">
+        <v>8638086379</v>
+      </c>
+      <c r="K1028" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1029" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1029" s="11" t="s">
+        <v>8320</v>
+      </c>
+      <c r="F1029" s="16">
+        <v>35363</v>
+      </c>
+      <c r="G1029" s="11" t="s">
+        <v>8321</v>
+      </c>
+      <c r="H1029" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1029" s="17">
+        <v>8486568013</v>
+      </c>
+      <c r="K1029" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1030" spans="5:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="E1030" s="11" t="s">
+        <v>8322</v>
+      </c>
+      <c r="F1030" s="16">
+        <v>35474</v>
+      </c>
+      <c r="G1030" s="11" t="s">
+        <v>8323</v>
+      </c>
+      <c r="H1030" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1030" s="17">
+        <v>9085388367</v>
+      </c>
+      <c r="K1030" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1031" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E1031" s="11" t="s">
+        <v>8324</v>
+      </c>
+      <c r="F1031" s="16">
+        <v>35080</v>
+      </c>
+      <c r="G1031" s="11" t="s">
+        <v>8325</v>
+      </c>
+      <c r="H1031" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1031" s="17">
+        <v>8822340659</v>
+      </c>
+      <c r="K1031" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1032" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1032" s="11" t="s">
+        <v>8326</v>
+      </c>
+      <c r="F1032" s="16">
+        <v>35869</v>
+      </c>
+      <c r="G1032" s="11" t="s">
+        <v>8327</v>
+      </c>
+      <c r="H1032" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1032" s="17">
+        <v>8135949992</v>
+      </c>
+      <c r="K1032" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1033" spans="5:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="E1033" s="11" t="s">
+        <v>8328</v>
+      </c>
+      <c r="F1033" s="16">
+        <v>35861</v>
+      </c>
+      <c r="G1033" s="11" t="s">
+        <v>8329</v>
+      </c>
+      <c r="H1033" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1033" s="17">
+        <v>9101370189</v>
+      </c>
+      <c r="K1033" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1034" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1034" s="11" t="s">
+        <v>8330</v>
+      </c>
+      <c r="F1034" s="16">
+        <v>35828</v>
+      </c>
+      <c r="G1034" s="11" t="s">
+        <v>8331</v>
+      </c>
+      <c r="H1034" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1034" s="17">
+        <v>9101126144</v>
+      </c>
+      <c r="K1034" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1035" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1035" s="11" t="s">
+        <v>8332</v>
+      </c>
+      <c r="F1035" s="16">
+        <v>36011</v>
+      </c>
+      <c r="G1035" s="11" t="s">
+        <v>8333</v>
+      </c>
+      <c r="H1035" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1035" s="17">
+        <v>6000925311</v>
+      </c>
+      <c r="K1035" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="1036" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="H1036" s="18"/>
+    </row>
+    <row r="1037" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="H1037" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12058" uniqueCount="8335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12123" uniqueCount="8400">
   <si>
     <t>1994</t>
   </si>
@@ -25275,6 +25275,201 @@
   </si>
   <si>
     <t>NEW ENTRY</t>
+  </si>
+  <si>
+    <t>ASM/0013/1984</t>
+  </si>
+  <si>
+    <t>ASM/0410/1985</t>
+  </si>
+  <si>
+    <t>ASM/0440/1985</t>
+  </si>
+  <si>
+    <t>ASM/0635/1988</t>
+  </si>
+  <si>
+    <t>ASM/0654/1988</t>
+  </si>
+  <si>
+    <t>ASM/0690/1988</t>
+  </si>
+  <si>
+    <t>ASM/0714/1988</t>
+  </si>
+  <si>
+    <t>ASM/0842/1989</t>
+  </si>
+  <si>
+    <t>ASM/0856/1989</t>
+  </si>
+  <si>
+    <t>ASM/0863/1989</t>
+  </si>
+  <si>
+    <t>ASM/0870/1989</t>
+  </si>
+  <si>
+    <t>ASM/0884/1990</t>
+  </si>
+  <si>
+    <t>ASM/0979/1991</t>
+  </si>
+  <si>
+    <t>ASM/1036/1991</t>
+  </si>
+  <si>
+    <t>ASM/1061/1991</t>
+  </si>
+  <si>
+    <t>ASM/1089/1991</t>
+  </si>
+  <si>
+    <t>ASM/1105/1991</t>
+  </si>
+  <si>
+    <t>ASM/1136/1992</t>
+  </si>
+  <si>
+    <t>ASM/1184/1992</t>
+  </si>
+  <si>
+    <t>ASM/1196/1992</t>
+  </si>
+  <si>
+    <t>ASM/1208/1992</t>
+  </si>
+  <si>
+    <t>ASM/1250/1993</t>
+  </si>
+  <si>
+    <t>ASM/1287/1994</t>
+  </si>
+  <si>
+    <t>ASM/1289/1994</t>
+  </si>
+  <si>
+    <t>ASM/1469/1995</t>
+  </si>
+  <si>
+    <t>ASM/1523/1996</t>
+  </si>
+  <si>
+    <t>ASM/1608/1997</t>
+  </si>
+  <si>
+    <t>ASM/1626/1997</t>
+  </si>
+  <si>
+    <t>ASM/1651/1997</t>
+  </si>
+  <si>
+    <t>ASM/1681/1998</t>
+  </si>
+  <si>
+    <t>ASM/1684/1998</t>
+  </si>
+  <si>
+    <t>ASM/1690/1998</t>
+  </si>
+  <si>
+    <t>ASM/1698/1998</t>
+  </si>
+  <si>
+    <t>ASM/1713/1998</t>
+  </si>
+  <si>
+    <t>ASM/1722/1998</t>
+  </si>
+  <si>
+    <t>ASM/1730/1998</t>
+  </si>
+  <si>
+    <t>ASM/1765/1998</t>
+  </si>
+  <si>
+    <t>ASM/1766/1998</t>
+  </si>
+  <si>
+    <t>ASM/1793/1998</t>
+  </si>
+  <si>
+    <t>ASM/1806/1999</t>
+  </si>
+  <si>
+    <t>ASM/1832/1999</t>
+  </si>
+  <si>
+    <t>ASM/1833/1999</t>
+  </si>
+  <si>
+    <t>ASM/1870/1999</t>
+  </si>
+  <si>
+    <t>ASM/1871/1999</t>
+  </si>
+  <si>
+    <t>ASM/1888/2000</t>
+  </si>
+  <si>
+    <t>ASM/1942/2001</t>
+  </si>
+  <si>
+    <t>ASM/1961/2001</t>
+  </si>
+  <si>
+    <t>ASM/1965/2001</t>
+  </si>
+  <si>
+    <t>ASM/1966/2001</t>
+  </si>
+  <si>
+    <t>ASM/2149/2004</t>
+  </si>
+  <si>
+    <t>ASM/2426/2009</t>
+  </si>
+  <si>
+    <t>ASM/2427/2009</t>
+  </si>
+  <si>
+    <t>ASM/2585/2011</t>
+  </si>
+  <si>
+    <t>ASM/2912/2017</t>
+  </si>
+  <si>
+    <t>ASM/2986/2018</t>
+  </si>
+  <si>
+    <t>ASM/3042/2019</t>
+  </si>
+  <si>
+    <t>ASM/3185/2020</t>
+  </si>
+  <si>
+    <t>ASM/3212/2022</t>
+  </si>
+  <si>
+    <t>ASM/3221/2022</t>
+  </si>
+  <si>
+    <t>ASM/3222/2022</t>
+  </si>
+  <si>
+    <t>ASM/3224/2022</t>
+  </si>
+  <si>
+    <t>ASM/3225/2022</t>
+  </si>
+  <si>
+    <t>ASM/3278/2023</t>
+  </si>
+  <si>
+    <t>ASM/3280/2023</t>
+  </si>
+  <si>
+    <t>ASM/3281/2023</t>
   </si>
 </sst>
 </file>
@@ -25395,11 +25590,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25791,8 +25988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A969" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K971" sqref="K971"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86482,1284 +86679,1739 @@
       </c>
     </row>
     <row r="971" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="E971" s="11" t="s">
+      <c r="A971" s="1"/>
+      <c r="B971" s="1"/>
+      <c r="C971" s="1"/>
+      <c r="D971" s="1"/>
+      <c r="E971" s="1" t="s">
         <v>8234</v>
       </c>
-      <c r="F971" s="16">
+      <c r="F971" s="17">
         <v>21922</v>
       </c>
-      <c r="G971" s="11" t="s">
+      <c r="G971" s="1" t="s">
         <v>8235</v>
       </c>
       <c r="H971" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J971" s="17">
+      <c r="I971" s="1" t="s">
+        <v>8335</v>
+      </c>
+      <c r="J971" s="15">
         <v>9864132078</v>
       </c>
-      <c r="K971" t="s">
+      <c r="K971" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="972" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="E972" s="11" t="s">
+      <c r="A972" s="1"/>
+      <c r="B972" s="1"/>
+      <c r="C972" s="1"/>
+      <c r="D972" s="1"/>
+      <c r="E972" s="1" t="s">
         <v>8236</v>
       </c>
-      <c r="F972" s="16">
+      <c r="F972" s="17">
         <v>22482</v>
       </c>
-      <c r="G972" s="11" t="s">
+      <c r="G972" s="1" t="s">
         <v>8237</v>
       </c>
       <c r="H972" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J972" s="17">
+      <c r="I972" s="1" t="s">
+        <v>8336</v>
+      </c>
+      <c r="J972" s="15">
         <v>7896194704</v>
       </c>
-      <c r="K972" t="s">
+      <c r="K972" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="973" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="E973" s="11" t="s">
+      <c r="A973" s="1"/>
+      <c r="B973" s="1"/>
+      <c r="C973" s="1"/>
+      <c r="D973" s="1"/>
+      <c r="E973" s="1" t="s">
         <v>8238</v>
       </c>
-      <c r="F973" s="16">
+      <c r="F973" s="17">
         <v>22706</v>
       </c>
-      <c r="G973" s="11" t="s">
+      <c r="G973" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H973" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J973" s="17">
+      <c r="I973" s="1" t="s">
+        <v>8337</v>
+      </c>
+      <c r="J973" s="15">
         <v>9435185211</v>
       </c>
-      <c r="K973" t="s">
+      <c r="K973" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="974" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="E974" s="11" t="s">
+      <c r="A974" s="1"/>
+      <c r="B974" s="1"/>
+      <c r="C974" s="1"/>
+      <c r="D974" s="1"/>
+      <c r="E974" s="1" t="s">
         <v>8240</v>
       </c>
-      <c r="F974" s="16">
+      <c r="F974" s="17">
         <v>22288</v>
       </c>
-      <c r="G974" s="11" t="s">
+      <c r="G974" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H974" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J974" s="17">
+      <c r="I974" s="1" t="s">
+        <v>8338</v>
+      </c>
+      <c r="J974" s="15">
         <v>9435007601</v>
       </c>
-      <c r="K974" t="s">
+      <c r="K974" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="975" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="E975" s="11" t="s">
+      <c r="A975" s="1"/>
+      <c r="B975" s="1"/>
+      <c r="C975" s="1"/>
+      <c r="D975" s="1"/>
+      <c r="E975" s="1" t="s">
         <v>8241</v>
       </c>
-      <c r="F975" s="16">
+      <c r="F975" s="17">
         <v>21620</v>
       </c>
-      <c r="G975" s="11" t="s">
+      <c r="G975" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H975" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J975" s="17">
+      <c r="I975" s="1" t="s">
+        <v>8339</v>
+      </c>
+      <c r="J975" s="15">
         <v>7086329911</v>
       </c>
-      <c r="K975" t="s">
+      <c r="K975" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="976" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="E976" s="11" t="s">
+      <c r="A976" s="1"/>
+      <c r="B976" s="1"/>
+      <c r="C976" s="1"/>
+      <c r="D976" s="1"/>
+      <c r="E976" s="1" t="s">
         <v>8242</v>
       </c>
-      <c r="F976" s="16">
+      <c r="F976" s="17">
         <v>23798</v>
       </c>
-      <c r="G976" s="11" t="s">
+      <c r="G976" s="1" t="s">
         <v>8243</v>
       </c>
       <c r="H976" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J976" s="17">
+      <c r="I976" s="1" t="s">
+        <v>8340</v>
+      </c>
+      <c r="J976" s="15">
         <v>9435749321</v>
       </c>
-      <c r="K976" t="s">
+      <c r="K976" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="977" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E977" s="11" t="s">
+    <row r="977" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A977" s="1"/>
+      <c r="B977" s="1"/>
+      <c r="C977" s="1"/>
+      <c r="D977" s="1"/>
+      <c r="E977" s="1" t="s">
         <v>8244</v>
       </c>
-      <c r="F977" s="16">
+      <c r="F977" s="17">
         <v>20375</v>
       </c>
-      <c r="G977" s="11" t="s">
+      <c r="G977" s="1" t="s">
         <v>8245</v>
       </c>
       <c r="H977" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J977" s="17">
+      <c r="I977" s="1" t="s">
+        <v>8341</v>
+      </c>
+      <c r="J977" s="15">
         <v>9435195118</v>
       </c>
-      <c r="K977" t="s">
+      <c r="K977" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="978" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E978" s="11" t="s">
+    <row r="978" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A978" s="1"/>
+      <c r="B978" s="1"/>
+      <c r="C978" s="1"/>
+      <c r="D978" s="1"/>
+      <c r="E978" s="1" t="s">
         <v>8246</v>
       </c>
-      <c r="F978" s="16">
+      <c r="F978" s="17">
         <v>24167</v>
       </c>
-      <c r="G978" s="11" t="s">
+      <c r="G978" s="1" t="s">
         <v>8247</v>
       </c>
       <c r="H978" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J978" s="17">
+      <c r="I978" s="1" t="s">
+        <v>8342</v>
+      </c>
+      <c r="J978" s="15">
         <v>9435110761</v>
       </c>
-      <c r="K978" t="s">
+      <c r="K978" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="979" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E979" s="11" t="s">
+    <row r="979" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A979" s="1"/>
+      <c r="B979" s="1"/>
+      <c r="C979" s="1"/>
+      <c r="D979" s="1"/>
+      <c r="E979" s="1" t="s">
         <v>8248</v>
       </c>
-      <c r="F979" s="16">
+      <c r="F979" s="17">
         <v>23429</v>
       </c>
-      <c r="G979" s="11" t="s">
+      <c r="G979" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H979" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J979" s="17">
+      <c r="I979" s="1" t="s">
+        <v>8343</v>
+      </c>
+      <c r="J979" s="15">
         <v>8638428450</v>
       </c>
-      <c r="K979" t="s">
+      <c r="K979" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="980" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E980" s="11" t="s">
+    <row r="980" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A980" s="1"/>
+      <c r="B980" s="1"/>
+      <c r="C980" s="1"/>
+      <c r="D980" s="1"/>
+      <c r="E980" s="1" t="s">
         <v>8249</v>
       </c>
-      <c r="F980" s="16">
+      <c r="F980" s="17">
         <v>23102</v>
       </c>
-      <c r="G980" s="11" t="s">
+      <c r="G980" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H980" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J980" s="17">
+      <c r="I980" s="1" t="s">
+        <v>8344</v>
+      </c>
+      <c r="J980" s="15">
         <v>9435127577</v>
       </c>
-      <c r="K980" t="s">
+      <c r="K980" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="981" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E981" s="11" t="s">
+    <row r="981" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A981" s="1"/>
+      <c r="B981" s="1"/>
+      <c r="C981" s="1"/>
+      <c r="D981" s="1"/>
+      <c r="E981" s="1" t="s">
         <v>8250</v>
       </c>
-      <c r="F981" s="16">
+      <c r="F981" s="17">
         <v>22287</v>
       </c>
-      <c r="G981" s="11" t="s">
+      <c r="G981" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H981" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J981" s="17">
+      <c r="I981" s="1" t="s">
+        <v>8345</v>
+      </c>
+      <c r="J981" s="15">
         <v>9577011722</v>
       </c>
-      <c r="K981" t="s">
+      <c r="K981" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="982" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E982" s="11" t="s">
+    <row r="982" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A982" s="1"/>
+      <c r="B982" s="1"/>
+      <c r="C982" s="1"/>
+      <c r="D982" s="1"/>
+      <c r="E982" s="1" t="s">
         <v>8251</v>
       </c>
-      <c r="F982" s="16">
+      <c r="F982" s="17">
         <v>24110</v>
       </c>
-      <c r="G982" s="11" t="s">
+      <c r="G982" s="1" t="s">
         <v>8252</v>
       </c>
       <c r="H982" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J982" s="17">
+      <c r="I982" s="1" t="s">
+        <v>8346</v>
+      </c>
+      <c r="J982" s="15">
         <v>9954425354</v>
       </c>
-      <c r="K982" t="s">
+      <c r="K982" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="983" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E983" s="11" t="s">
+    <row r="983" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A983" s="1"/>
+      <c r="B983" s="1"/>
+      <c r="C983" s="1"/>
+      <c r="D983" s="1"/>
+      <c r="E983" s="1" t="s">
         <v>8253</v>
       </c>
-      <c r="F983" s="16">
+      <c r="F983" s="17">
         <v>23224</v>
       </c>
-      <c r="G983" s="11" t="s">
+      <c r="G983" s="1" t="s">
         <v>8254</v>
       </c>
       <c r="H983" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J983" s="17"/>
-      <c r="K983" t="s">
+      <c r="I983" s="1" t="s">
+        <v>8347</v>
+      </c>
+      <c r="J983" s="15"/>
+      <c r="K983" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="984" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E984" s="11" t="s">
+    <row r="984" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A984" s="1"/>
+      <c r="B984" s="1"/>
+      <c r="C984" s="1"/>
+      <c r="D984" s="1"/>
+      <c r="E984" s="1" t="s">
         <v>8255</v>
       </c>
-      <c r="F984" s="16">
+      <c r="F984" s="17">
         <v>24166</v>
       </c>
-      <c r="G984" s="11" t="s">
+      <c r="G984" s="1" t="s">
         <v>8256</v>
       </c>
       <c r="H984" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J984" s="17">
+      <c r="I984" s="1" t="s">
+        <v>8348</v>
+      </c>
+      <c r="J984" s="15">
         <v>7002655615</v>
       </c>
-      <c r="K984" t="s">
+      <c r="K984" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="985" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E985" s="11" t="s">
+    <row r="985" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A985" s="1"/>
+      <c r="B985" s="1"/>
+      <c r="C985" s="1"/>
+      <c r="D985" s="1"/>
+      <c r="E985" s="1" t="s">
         <v>8257</v>
       </c>
-      <c r="F985" s="16">
+      <c r="F985" s="17">
         <v>24929</v>
       </c>
-      <c r="G985" s="11" t="s">
+      <c r="G985" s="1" t="s">
         <v>8258</v>
       </c>
       <c r="H985" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J985" s="17">
+      <c r="I985" s="1" t="s">
+        <v>8349</v>
+      </c>
+      <c r="J985" s="15">
         <v>9435082741</v>
       </c>
-      <c r="K985" t="s">
+      <c r="K985" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="986" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E986" s="11" t="s">
+    <row r="986" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A986" s="1"/>
+      <c r="B986" s="1"/>
+      <c r="C986" s="1"/>
+      <c r="D986" s="1"/>
+      <c r="E986" s="1" t="s">
         <v>8259</v>
       </c>
-      <c r="F986" s="16">
+      <c r="F986" s="17">
         <v>24504</v>
       </c>
-      <c r="G986" s="11" t="s">
+      <c r="G986" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H986" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J986" s="17">
+      <c r="I986" s="1" t="s">
+        <v>8350</v>
+      </c>
+      <c r="J986" s="15">
         <v>9435505584</v>
       </c>
-      <c r="K986" t="s">
+      <c r="K986" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="987" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E987" s="11" t="s">
+    <row r="987" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A987" s="1"/>
+      <c r="B987" s="1"/>
+      <c r="C987" s="1"/>
+      <c r="D987" s="1"/>
+      <c r="E987" s="1" t="s">
         <v>8260</v>
       </c>
-      <c r="F987" s="16">
+      <c r="F987" s="17">
         <v>24193</v>
       </c>
-      <c r="G987" s="11" t="s">
+      <c r="G987" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H987" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J987" s="17"/>
-      <c r="K987" t="s">
+      <c r="I987" s="1" t="s">
+        <v>8351</v>
+      </c>
+      <c r="J987" s="15"/>
+      <c r="K987" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="988" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E988" s="11" t="s">
+    <row r="988" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A988" s="1"/>
+      <c r="B988" s="1"/>
+      <c r="C988" s="1"/>
+      <c r="D988" s="1"/>
+      <c r="E988" s="1" t="s">
         <v>8261</v>
       </c>
-      <c r="F988" s="16">
+      <c r="F988" s="17">
         <v>25263</v>
       </c>
-      <c r="G988" s="11" t="s">
+      <c r="G988" s="1" t="s">
         <v>8262</v>
       </c>
       <c r="H988" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J988" s="17">
+      <c r="I988" s="1" t="s">
+        <v>8352</v>
+      </c>
+      <c r="J988" s="15">
         <v>9854289976</v>
       </c>
-      <c r="K988" t="s">
+      <c r="K988" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="989" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E989" s="11" t="s">
+    <row r="989" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A989" s="1"/>
+      <c r="B989" s="1"/>
+      <c r="C989" s="1"/>
+      <c r="D989" s="1"/>
+      <c r="E989" s="1" t="s">
         <v>8263</v>
       </c>
-      <c r="F989" s="16">
+      <c r="F989" s="17">
         <v>24286</v>
       </c>
-      <c r="G989" s="11" t="s">
+      <c r="G989" s="1" t="s">
         <v>8264</v>
       </c>
       <c r="H989" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J989" s="17">
+      <c r="I989" s="1" t="s">
+        <v>8353</v>
+      </c>
+      <c r="J989" s="15">
         <v>7002852103</v>
       </c>
-      <c r="K989" t="s">
+      <c r="K989" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="990" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E990" s="11" t="s">
+    <row r="990" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A990" s="1"/>
+      <c r="B990" s="1"/>
+      <c r="C990" s="1"/>
+      <c r="D990" s="1"/>
+      <c r="E990" s="1" t="s">
         <v>8265</v>
       </c>
-      <c r="F990" s="16">
+      <c r="F990" s="17">
         <v>24898</v>
       </c>
-      <c r="G990" s="11" t="s">
+      <c r="G990" s="1" t="s">
         <v>8266</v>
       </c>
       <c r="H990" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J990" s="17">
+      <c r="I990" s="1" t="s">
+        <v>8354</v>
+      </c>
+      <c r="J990" s="15">
         <v>9101892538</v>
       </c>
-      <c r="K990" t="s">
+      <c r="K990" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="991" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E991" s="11" t="s">
+    <row r="991" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A991" s="1"/>
+      <c r="B991" s="1"/>
+      <c r="C991" s="1"/>
+      <c r="D991" s="1"/>
+      <c r="E991" s="1" t="s">
         <v>8267</v>
       </c>
-      <c r="F991" s="16">
+      <c r="F991" s="17">
         <v>24898</v>
       </c>
-      <c r="G991" s="11" t="s">
+      <c r="G991" s="1" t="s">
         <v>8268</v>
       </c>
       <c r="H991" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J991" s="17">
+      <c r="I991" s="1" t="s">
+        <v>8355</v>
+      </c>
+      <c r="J991" s="15">
         <v>7086409597</v>
       </c>
-      <c r="K991" t="s">
+      <c r="K991" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="992" spans="5:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="E992" s="11" t="s">
+    <row r="992" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A992" s="1"/>
+      <c r="B992" s="1"/>
+      <c r="C992" s="1"/>
+      <c r="D992" s="1"/>
+      <c r="E992" s="1" t="s">
         <v>8269</v>
       </c>
-      <c r="F992" s="16">
+      <c r="F992" s="17">
         <v>19360</v>
       </c>
-      <c r="G992" s="11" t="s">
+      <c r="G992" s="1" t="s">
         <v>8270</v>
       </c>
       <c r="H992" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J992" s="17">
+      <c r="I992" s="1" t="s">
+        <v>8356</v>
+      </c>
+      <c r="J992" s="15">
         <v>9435303966</v>
       </c>
-      <c r="K992" t="s">
+      <c r="K992" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="993" spans="5:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="E993" s="11" t="s">
+    <row r="993" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A993" s="1"/>
+      <c r="B993" s="1"/>
+      <c r="C993" s="1"/>
+      <c r="D993" s="1"/>
+      <c r="E993" s="1" t="s">
         <v>8271</v>
       </c>
-      <c r="F993" s="16">
+      <c r="F993" s="17">
         <v>25263</v>
       </c>
-      <c r="G993" s="11" t="s">
+      <c r="G993" s="1" t="s">
         <v>8272</v>
       </c>
       <c r="H993" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J993" s="17"/>
-      <c r="K993" t="s">
+      <c r="I993" s="1" t="s">
+        <v>8357</v>
+      </c>
+      <c r="J993" s="15"/>
+      <c r="K993" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="994" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E994" s="11" t="s">
+    <row r="994" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A994" s="1"/>
+      <c r="B994" s="1"/>
+      <c r="C994" s="1"/>
+      <c r="D994" s="1"/>
+      <c r="E994" s="1" t="s">
         <v>8273</v>
       </c>
-      <c r="F994" s="16">
+      <c r="F994" s="17">
         <v>24926</v>
       </c>
-      <c r="G994" s="11" t="s">
+      <c r="G994" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H994" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J994" s="17">
+      <c r="I994" s="1" t="s">
+        <v>8358</v>
+      </c>
+      <c r="J994" s="15">
         <v>9419011945</v>
       </c>
-      <c r="K994" t="s">
+      <c r="K994" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="995" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E995" s="11" t="s">
+    <row r="995" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A995" s="1"/>
+      <c r="B995" s="1"/>
+      <c r="C995" s="1"/>
+      <c r="D995" s="1"/>
+      <c r="E995" s="1" t="s">
         <v>8274</v>
       </c>
-      <c r="F995" s="16">
+      <c r="F995" s="17">
         <v>25628</v>
       </c>
-      <c r="G995" s="11" t="s">
+      <c r="G995" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H995" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J995" s="17">
+      <c r="I995" s="1" t="s">
+        <v>8359</v>
+      </c>
+      <c r="J995" s="15">
         <v>9435083281</v>
       </c>
-      <c r="K995" t="s">
+      <c r="K995" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="996" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E996" s="11" t="s">
+    <row r="996" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A996" s="1"/>
+      <c r="B996" s="1"/>
+      <c r="C996" s="1"/>
+      <c r="D996" s="1"/>
+      <c r="E996" s="1" t="s">
         <v>8275</v>
       </c>
-      <c r="F996" s="16">
+      <c r="F996" s="17">
         <v>26682</v>
       </c>
-      <c r="G996" s="11" t="s">
+      <c r="G996" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H996" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J996" s="17"/>
-      <c r="K996" t="s">
+      <c r="I996" s="1" t="s">
+        <v>8360</v>
+      </c>
+      <c r="J996" s="15"/>
+      <c r="K996" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="997" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E997" s="11" t="s">
+    <row r="997" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A997" s="1"/>
+      <c r="B997" s="1"/>
+      <c r="C997" s="1"/>
+      <c r="D997" s="1"/>
+      <c r="E997" s="1" t="s">
         <v>8276</v>
       </c>
-      <c r="F997" s="16">
+      <c r="F997" s="17">
         <v>27082</v>
       </c>
-      <c r="G997" s="11" t="s">
+      <c r="G997" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H997" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J997" s="17"/>
-      <c r="K997" t="s">
+      <c r="I997" s="1" t="s">
+        <v>8361</v>
+      </c>
+      <c r="J997" s="15"/>
+      <c r="K997" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="998" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E998" s="11" t="s">
+    <row r="998" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A998" s="1"/>
+      <c r="B998" s="1"/>
+      <c r="C998" s="1"/>
+      <c r="D998" s="1"/>
+      <c r="E998" s="1" t="s">
         <v>8277</v>
       </c>
-      <c r="F998" s="16">
+      <c r="F998" s="17">
         <v>27049</v>
       </c>
-      <c r="G998" s="11" t="s">
+      <c r="G998" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H998" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J998" s="17">
+      <c r="I998" s="1" t="s">
+        <v>8362</v>
+      </c>
+      <c r="J998" s="15">
         <v>8811014787</v>
       </c>
-      <c r="K998" t="s">
+      <c r="K998" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="999" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E999" s="11" t="s">
+    <row r="999" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A999" s="1"/>
+      <c r="B999" s="1"/>
+      <c r="C999" s="1"/>
+      <c r="D999" s="1"/>
+      <c r="E999" s="1" t="s">
         <v>8278</v>
       </c>
-      <c r="F999" s="16">
+      <c r="F999" s="17">
         <v>27287</v>
       </c>
-      <c r="G999" s="11" t="s">
+      <c r="G999" s="1" t="s">
         <v>8279</v>
       </c>
       <c r="H999" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J999" s="17">
+      <c r="I999" s="1" t="s">
+        <v>8363</v>
+      </c>
+      <c r="J999" s="15">
         <v>8837262227</v>
       </c>
-      <c r="K999" t="s">
+      <c r="K999" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1000" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1000" s="11" t="s">
+    <row r="1000" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="1" t="s">
         <v>8280</v>
       </c>
-      <c r="F1000" s="16">
+      <c r="F1000" s="17">
         <v>27504</v>
       </c>
-      <c r="G1000" s="11" t="s">
+      <c r="G1000" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1000" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1000" s="17">
+      <c r="I1000" s="1" t="s">
+        <v>8364</v>
+      </c>
+      <c r="J1000" s="15">
         <v>9854047807</v>
       </c>
-      <c r="K1000" t="s">
+      <c r="K1000" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1001" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1001" s="11" t="s">
+    <row r="1001" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1" t="s">
         <v>8281</v>
       </c>
-      <c r="F1001" s="16">
+      <c r="F1001" s="17">
         <v>25902</v>
       </c>
-      <c r="G1001" s="11" t="s">
+      <c r="G1001" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1001" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1001" s="17">
+      <c r="I1001" s="1" t="s">
+        <v>8365</v>
+      </c>
+      <c r="J1001" s="15">
         <v>8011785954</v>
       </c>
-      <c r="K1001" t="s">
+      <c r="K1001" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1002" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1002" s="11" t="s">
+    <row r="1002" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1" t="s">
         <v>8282</v>
       </c>
-      <c r="F1002" s="16">
+      <c r="F1002" s="17">
         <v>26011</v>
       </c>
-      <c r="G1002" s="11" t="s">
+      <c r="G1002" s="1" t="s">
         <v>8283</v>
       </c>
       <c r="H1002" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1002" s="17">
+      <c r="I1002" s="1" t="s">
+        <v>8366</v>
+      </c>
+      <c r="J1002" s="15">
         <v>9435702388</v>
       </c>
-      <c r="K1002" t="s">
+      <c r="K1002" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1003" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E1003" s="11" t="s">
+    <row r="1003" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="1" t="s">
         <v>8284</v>
       </c>
-      <c r="F1003" s="16">
+      <c r="F1003" s="17">
         <v>27334</v>
       </c>
-      <c r="G1003" s="11" t="s">
+      <c r="G1003" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1003" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1003" s="17">
+      <c r="I1003" s="1" t="s">
+        <v>8367</v>
+      </c>
+      <c r="J1003" s="15">
         <v>8753885884</v>
       </c>
-      <c r="K1003" t="s">
+      <c r="K1003" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1004" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E1004" s="11" t="s">
+    <row r="1004" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="1" t="s">
         <v>8285</v>
       </c>
-      <c r="F1004" s="16">
+      <c r="F1004" s="17">
         <v>26724</v>
       </c>
-      <c r="G1004" s="11" t="s">
+      <c r="G1004" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1004" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1004" s="17">
+      <c r="I1004" s="1" t="s">
+        <v>8368</v>
+      </c>
+      <c r="J1004" s="15">
         <v>9435041951</v>
       </c>
-      <c r="K1004" t="s">
+      <c r="K1004" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1005" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E1005" s="11" t="s">
+    <row r="1005" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="1" t="s">
         <v>8286</v>
       </c>
-      <c r="F1005" s="16">
+      <c r="F1005" s="17">
         <v>27426</v>
       </c>
-      <c r="G1005" s="11" t="s">
+      <c r="G1005" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1005" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1005" s="17">
+      <c r="I1005" s="1" t="s">
+        <v>8369</v>
+      </c>
+      <c r="J1005" s="15">
         <v>8402046333</v>
       </c>
-      <c r="K1005" t="s">
+      <c r="K1005" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1006" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E1006" s="11" t="s">
+    <row r="1006" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="1" t="s">
         <v>8287</v>
       </c>
-      <c r="F1006" s="16">
+      <c r="F1006" s="17">
         <v>26724</v>
       </c>
-      <c r="G1006" s="11" t="s">
+      <c r="G1006" s="1" t="s">
         <v>8288</v>
       </c>
       <c r="H1006" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1006" s="17">
+      <c r="I1006" s="1" t="s">
+        <v>8370</v>
+      </c>
+      <c r="J1006" s="15">
         <v>7002585745</v>
       </c>
-      <c r="K1006" t="s">
+      <c r="K1006" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1007" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E1007" s="11" t="s">
+    <row r="1007" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="1" t="s">
         <v>8289</v>
       </c>
-      <c r="F1007" s="16">
+      <c r="F1007" s="17">
         <v>25993</v>
       </c>
-      <c r="G1007" s="11" t="s">
+      <c r="G1007" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1007" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1007" s="17">
+      <c r="I1007" s="1" t="s">
+        <v>8371</v>
+      </c>
+      <c r="J1007" s="15">
         <v>9435182806</v>
       </c>
-      <c r="K1007" t="s">
+      <c r="K1007" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1008" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E1008" s="11" t="s">
+    <row r="1008" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="1" t="s">
         <v>8290</v>
       </c>
-      <c r="F1008" s="16">
+      <c r="F1008" s="17">
         <v>24926</v>
       </c>
-      <c r="G1008" s="11" t="s">
+      <c r="G1008" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1008" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1008" s="17">
+      <c r="I1008" s="1" t="s">
+        <v>8372</v>
+      </c>
+      <c r="J1008" s="15">
         <v>9435125082</v>
       </c>
-      <c r="K1008" t="s">
+      <c r="K1008" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1009" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E1009" s="11" t="s">
+    <row r="1009" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="1"/>
+      <c r="C1009" s="1"/>
+      <c r="D1009" s="1"/>
+      <c r="E1009" s="1" t="s">
         <v>8291</v>
       </c>
-      <c r="F1009" s="16">
+      <c r="F1009" s="17">
         <v>27072</v>
       </c>
-      <c r="G1009" s="11" t="s">
+      <c r="G1009" s="1" t="s">
         <v>8292</v>
       </c>
       <c r="H1009" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1009" s="17">
+      <c r="I1009" s="1" t="s">
+        <v>8373</v>
+      </c>
+      <c r="J1009" s="15">
         <v>7002324548</v>
       </c>
-      <c r="K1009" t="s">
+      <c r="K1009" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1010" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1010" s="11" t="s">
+    <row r="1010" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="1" t="s">
         <v>8293</v>
       </c>
-      <c r="F1010" s="16">
+      <c r="F1010" s="17">
         <v>27791</v>
       </c>
-      <c r="G1010" s="11" t="s">
+      <c r="G1010" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1010" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1010" s="17">
+      <c r="I1010" s="1" t="s">
+        <v>8374</v>
+      </c>
+      <c r="J1010" s="15">
         <v>8473906605</v>
       </c>
-      <c r="K1010" t="s">
+      <c r="K1010" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1011" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E1011" s="11" t="s">
+    <row r="1011" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="1" t="s">
         <v>8294</v>
       </c>
-      <c r="F1011" s="16">
+      <c r="F1011" s="17">
         <v>27608</v>
       </c>
-      <c r="G1011" s="11" t="s">
+      <c r="G1011" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1011" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1011" s="17"/>
-      <c r="K1011" t="s">
+      <c r="I1011" s="1" t="s">
+        <v>8375</v>
+      </c>
+      <c r="J1011" s="15"/>
+      <c r="K1011" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1012" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1012" s="11" t="s">
+    <row r="1012" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="1"/>
+      <c r="D1012" s="1"/>
+      <c r="E1012" s="1" t="s">
         <v>8295</v>
       </c>
-      <c r="F1012" s="16">
+      <c r="F1012" s="17">
         <v>27691</v>
       </c>
-      <c r="G1012" s="11" t="s">
+      <c r="G1012" s="1" t="s">
         <v>8296</v>
       </c>
       <c r="H1012" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1012" s="17">
+      <c r="I1012" s="1" t="s">
+        <v>8376</v>
+      </c>
+      <c r="J1012" s="15">
         <v>8981558104</v>
       </c>
-      <c r="K1012" t="s">
+      <c r="K1012" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1013" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1013" s="11" t="s">
+    <row r="1013" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1013" s="1"/>
+      <c r="B1013" s="1"/>
+      <c r="C1013" s="1"/>
+      <c r="D1013" s="1"/>
+      <c r="E1013" s="1" t="s">
         <v>8297</v>
       </c>
-      <c r="F1013" s="16">
+      <c r="F1013" s="17">
         <v>26944</v>
       </c>
-      <c r="G1013" s="11" t="s">
+      <c r="G1013" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1013" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1013" s="17">
+      <c r="I1013" s="1" t="s">
+        <v>8377</v>
+      </c>
+      <c r="J1013" s="15">
         <v>9401057456</v>
       </c>
-      <c r="K1013" t="s">
+      <c r="K1013" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1014" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E1014" s="11" t="s">
+    <row r="1014" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1014" s="1"/>
+      <c r="B1014" s="1"/>
+      <c r="C1014" s="1"/>
+      <c r="D1014" s="1"/>
+      <c r="E1014" s="1" t="s">
         <v>8298</v>
       </c>
-      <c r="F1014" s="16">
+      <c r="F1014" s="17">
         <v>27023</v>
       </c>
-      <c r="G1014" s="11" t="s">
+      <c r="G1014" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1014" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1014" s="17">
+      <c r="I1014" s="1" t="s">
+        <v>8378</v>
+      </c>
+      <c r="J1014" s="15">
         <v>9818941573</v>
       </c>
-      <c r="K1014" t="s">
+      <c r="K1014" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1015" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1015" s="11" t="s">
+    <row r="1015" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="1" t="s">
         <v>8299</v>
       </c>
-      <c r="F1015" s="16">
+      <c r="F1015" s="17">
         <v>27819</v>
       </c>
-      <c r="G1015" s="11" t="s">
+      <c r="G1015" s="1" t="s">
         <v>8300</v>
       </c>
       <c r="H1015" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1015" s="17">
+      <c r="I1015" s="1" t="s">
+        <v>8379</v>
+      </c>
+      <c r="J1015" s="15">
         <v>9854243438</v>
       </c>
-      <c r="K1015" t="s">
+      <c r="K1015" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1016" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E1016" s="11" t="s">
+    <row r="1016" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1016" s="1"/>
+      <c r="B1016" s="1"/>
+      <c r="C1016" s="1"/>
+      <c r="D1016" s="1"/>
+      <c r="E1016" s="1" t="s">
         <v>8301</v>
       </c>
-      <c r="F1016" s="16">
+      <c r="F1016" s="17">
         <v>28185</v>
       </c>
-      <c r="G1016" s="11" t="s">
+      <c r="G1016" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1016" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1016" s="17"/>
-      <c r="K1016" t="s">
+      <c r="I1016" s="1" t="s">
+        <v>8380</v>
+      </c>
+      <c r="J1016" s="15"/>
+      <c r="K1016" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1017" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1017" s="11" t="s">
+    <row r="1017" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="1"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="1" t="s">
         <v>8302</v>
       </c>
-      <c r="F1017" s="16">
+      <c r="F1017" s="17">
         <v>27638</v>
       </c>
-      <c r="G1017" s="11" t="s">
+      <c r="G1017" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1017" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1017" s="17"/>
-      <c r="K1017" t="s">
+      <c r="I1017" s="1" t="s">
+        <v>8381</v>
+      </c>
+      <c r="J1017" s="15"/>
+      <c r="K1017" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1018" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1018" s="11" t="s">
+    <row r="1018" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="1"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="1" t="s">
         <v>8303</v>
       </c>
-      <c r="F1018" s="16">
+      <c r="F1018" s="17">
         <v>28156</v>
       </c>
-      <c r="G1018" s="11" t="s">
+      <c r="G1018" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1018" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1018" s="17"/>
-      <c r="K1018" t="s">
+      <c r="I1018" s="1" t="s">
+        <v>8382</v>
+      </c>
+      <c r="J1018" s="15"/>
+      <c r="K1018" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1019" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1019" s="11" t="s">
+    <row r="1019" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1019" s="1"/>
+      <c r="B1019" s="1"/>
+      <c r="C1019" s="1"/>
+      <c r="D1019" s="1"/>
+      <c r="E1019" s="1" t="s">
         <v>8304</v>
       </c>
-      <c r="F1019" s="16">
+      <c r="F1019" s="17">
         <v>27682</v>
       </c>
-      <c r="G1019" s="11" t="s">
+      <c r="G1019" s="1" t="s">
         <v>8305</v>
       </c>
       <c r="H1019" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1019" s="17">
+      <c r="I1019" s="1" t="s">
+        <v>8383</v>
+      </c>
+      <c r="J1019" s="15">
         <v>7002039865</v>
       </c>
-      <c r="K1019" t="s">
+      <c r="K1019" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1020" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1020" s="11" t="s">
+    <row r="1020" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1020" s="1"/>
+      <c r="B1020" s="1"/>
+      <c r="C1020" s="1"/>
+      <c r="D1020" s="1"/>
+      <c r="E1020" s="1" t="s">
         <v>8306</v>
       </c>
-      <c r="F1020" s="16">
+      <c r="F1020" s="17">
         <v>29027</v>
       </c>
-      <c r="G1020" s="11" t="s">
+      <c r="G1020" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1020" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1020" s="17">
+      <c r="I1020" s="1" t="s">
+        <v>8384</v>
+      </c>
+      <c r="J1020" s="15">
         <v>9866421693</v>
       </c>
-      <c r="K1020" t="s">
+      <c r="K1020" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1021" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1021" s="11" t="s">
+    <row r="1021" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1021" s="1"/>
+      <c r="B1021" s="1"/>
+      <c r="C1021" s="1"/>
+      <c r="D1021" s="1"/>
+      <c r="E1021" s="1" t="s">
         <v>8307</v>
       </c>
-      <c r="F1021" s="16">
+      <c r="F1021" s="17">
         <v>29646</v>
       </c>
-      <c r="G1021" s="11" t="s">
+      <c r="G1021" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1021" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1021" s="17"/>
-      <c r="K1021" t="s">
+      <c r="I1021" s="1" t="s">
+        <v>8385</v>
+      </c>
+      <c r="J1021" s="15"/>
+      <c r="K1021" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1022" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1022" s="11" t="s">
+    <row r="1022" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1022" s="1"/>
+      <c r="B1022" s="1"/>
+      <c r="C1022" s="1"/>
+      <c r="D1022" s="1"/>
+      <c r="E1022" s="1" t="s">
         <v>8308</v>
       </c>
-      <c r="F1022" s="16">
+      <c r="F1022" s="17">
         <v>29281</v>
       </c>
-      <c r="G1022" s="11" t="s">
+      <c r="G1022" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1022" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1022" s="17"/>
-      <c r="K1022" t="s">
+      <c r="I1022" s="1" t="s">
+        <v>8386</v>
+      </c>
+      <c r="J1022" s="15"/>
+      <c r="K1022" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1023" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1023" s="11" t="s">
+    <row r="1023" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1023" s="1"/>
+      <c r="B1023" s="1"/>
+      <c r="C1023" s="1"/>
+      <c r="D1023" s="1"/>
+      <c r="E1023" s="1" t="s">
         <v>8309</v>
       </c>
-      <c r="F1023" s="16">
+      <c r="F1023" s="17">
         <v>31803</v>
       </c>
-      <c r="G1023" s="11" t="s">
+      <c r="G1023" s="1" t="s">
         <v>8239</v>
       </c>
       <c r="H1023" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1023" s="17"/>
-      <c r="K1023" t="s">
+      <c r="I1023" s="1" t="s">
+        <v>8387</v>
+      </c>
+      <c r="J1023" s="15"/>
+      <c r="K1023" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1024" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1024" s="11" t="s">
+    <row r="1024" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1024" s="1"/>
+      <c r="B1024" s="1"/>
+      <c r="C1024" s="1"/>
+      <c r="D1024" s="1"/>
+      <c r="E1024" s="1" t="s">
         <v>8310</v>
       </c>
-      <c r="F1024" s="16">
+      <c r="F1024" s="17">
         <v>25628</v>
       </c>
-      <c r="G1024" s="11" t="s">
+      <c r="G1024" s="1" t="s">
         <v>8311</v>
       </c>
       <c r="H1024" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1024" s="17">
+      <c r="I1024" s="1" t="s">
+        <v>8388</v>
+      </c>
+      <c r="J1024" s="15">
         <v>8473085326</v>
       </c>
-      <c r="K1024" t="s">
+      <c r="K1024" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1025" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E1025" s="11" t="s">
+    <row r="1025" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1025" s="1"/>
+      <c r="B1025" s="1"/>
+      <c r="C1025" s="1"/>
+      <c r="D1025" s="1"/>
+      <c r="E1025" s="1" t="s">
         <v>8312</v>
       </c>
-      <c r="F1025" s="16">
+      <c r="F1025" s="17">
         <v>34360</v>
       </c>
-      <c r="G1025" s="11" t="s">
+      <c r="G1025" s="1" t="s">
         <v>8313</v>
       </c>
       <c r="H1025" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1025" s="17">
+      <c r="I1025" s="1" t="s">
+        <v>8389</v>
+      </c>
+      <c r="J1025" s="15">
         <v>7002739184</v>
       </c>
-      <c r="K1025" t="s">
+      <c r="K1025" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1026" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="E1026" s="11" t="s">
+    <row r="1026" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1026" s="1"/>
+      <c r="B1026" s="1"/>
+      <c r="C1026" s="1"/>
+      <c r="D1026" s="1"/>
+      <c r="E1026" s="1" t="s">
         <v>8314</v>
       </c>
-      <c r="F1026" s="16">
+      <c r="F1026" s="17">
         <v>34366</v>
       </c>
-      <c r="G1026" s="11" t="s">
+      <c r="G1026" s="1" t="s">
         <v>8315</v>
       </c>
       <c r="H1026" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1026" s="17">
+      <c r="I1026" s="1" t="s">
+        <v>8390</v>
+      </c>
+      <c r="J1026" s="15">
         <v>9707989486</v>
       </c>
-      <c r="K1026" t="s">
+      <c r="K1026" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1027" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E1027" s="11" t="s">
+    <row r="1027" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1027" s="1"/>
+      <c r="B1027" s="1"/>
+      <c r="C1027" s="1"/>
+      <c r="D1027" s="1"/>
+      <c r="E1027" s="1" t="s">
         <v>8316</v>
       </c>
-      <c r="F1027" s="16"/>
-      <c r="G1027" s="11" t="s">
+      <c r="F1027" s="17"/>
+      <c r="G1027" s="1" t="s">
         <v>8317</v>
       </c>
       <c r="H1027" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1027" s="17">
+      <c r="I1027" s="1" t="s">
+        <v>8391</v>
+      </c>
+      <c r="J1027" s="15">
         <v>7086644885</v>
       </c>
-      <c r="K1027" t="s">
+      <c r="K1027" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1028" spans="5:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="E1028" s="11" t="s">
+    <row r="1028" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1028" s="1"/>
+      <c r="B1028" s="1"/>
+      <c r="C1028" s="1"/>
+      <c r="D1028" s="1"/>
+      <c r="E1028" s="1" t="s">
         <v>8318</v>
       </c>
-      <c r="F1028" s="16">
+      <c r="F1028" s="17">
         <v>35751</v>
       </c>
-      <c r="G1028" s="11" t="s">
+      <c r="G1028" s="1" t="s">
         <v>8319</v>
       </c>
       <c r="H1028" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1028" s="17">
+      <c r="I1028" s="1" t="s">
+        <v>8392</v>
+      </c>
+      <c r="J1028" s="15">
         <v>8638086379</v>
       </c>
-      <c r="K1028" t="s">
+      <c r="K1028" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1029" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1029" s="11" t="s">
+    <row r="1029" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1029" s="1"/>
+      <c r="B1029" s="1"/>
+      <c r="C1029" s="1"/>
+      <c r="D1029" s="1"/>
+      <c r="E1029" s="1" t="s">
         <v>8320</v>
       </c>
-      <c r="F1029" s="16">
+      <c r="F1029" s="17">
         <v>35363</v>
       </c>
-      <c r="G1029" s="11" t="s">
+      <c r="G1029" s="1" t="s">
         <v>8321</v>
       </c>
       <c r="H1029" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1029" s="17">
+      <c r="I1029" s="1" t="s">
+        <v>8393</v>
+      </c>
+      <c r="J1029" s="15">
         <v>8486568013</v>
       </c>
-      <c r="K1029" t="s">
+      <c r="K1029" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1030" spans="5:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="E1030" s="11" t="s">
+    <row r="1030" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1030" s="1"/>
+      <c r="B1030" s="1"/>
+      <c r="C1030" s="1"/>
+      <c r="D1030" s="1"/>
+      <c r="E1030" s="1" t="s">
         <v>8322</v>
       </c>
-      <c r="F1030" s="16">
+      <c r="F1030" s="17">
         <v>35474</v>
       </c>
-      <c r="G1030" s="11" t="s">
+      <c r="G1030" s="1" t="s">
         <v>8323</v>
       </c>
       <c r="H1030" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1030" s="17">
+      <c r="I1030" s="1" t="s">
+        <v>8394</v>
+      </c>
+      <c r="J1030" s="15">
         <v>9085388367</v>
       </c>
-      <c r="K1030" t="s">
+      <c r="K1030" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1031" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E1031" s="11" t="s">
+    <row r="1031" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1031" s="1"/>
+      <c r="B1031" s="1"/>
+      <c r="C1031" s="1"/>
+      <c r="D1031" s="1"/>
+      <c r="E1031" s="1" t="s">
         <v>8324</v>
       </c>
-      <c r="F1031" s="16">
+      <c r="F1031" s="17">
         <v>35080</v>
       </c>
-      <c r="G1031" s="11" t="s">
+      <c r="G1031" s="1" t="s">
         <v>8325</v>
       </c>
       <c r="H1031" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1031" s="17">
+      <c r="I1031" s="1" t="s">
+        <v>8395</v>
+      </c>
+      <c r="J1031" s="15">
         <v>8822340659</v>
       </c>
-      <c r="K1031" t="s">
+      <c r="K1031" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1032" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1032" s="11" t="s">
+    <row r="1032" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1032" s="1"/>
+      <c r="B1032" s="1"/>
+      <c r="C1032" s="1"/>
+      <c r="D1032" s="1"/>
+      <c r="E1032" s="1" t="s">
         <v>8326</v>
       </c>
-      <c r="F1032" s="16">
+      <c r="F1032" s="17">
         <v>35869</v>
       </c>
-      <c r="G1032" s="11" t="s">
+      <c r="G1032" s="1" t="s">
         <v>8327</v>
       </c>
       <c r="H1032" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1032" s="17">
+      <c r="I1032" s="1" t="s">
+        <v>8396</v>
+      </c>
+      <c r="J1032" s="15">
         <v>8135949992</v>
       </c>
-      <c r="K1032" t="s">
+      <c r="K1032" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1033" spans="5:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="E1033" s="11" t="s">
+    <row r="1033" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1033" s="1"/>
+      <c r="B1033" s="1"/>
+      <c r="C1033" s="1"/>
+      <c r="D1033" s="1"/>
+      <c r="E1033" s="1" t="s">
         <v>8328</v>
       </c>
-      <c r="F1033" s="16">
+      <c r="F1033" s="17">
         <v>35861</v>
       </c>
-      <c r="G1033" s="11" t="s">
+      <c r="G1033" s="1" t="s">
         <v>8329</v>
       </c>
       <c r="H1033" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1033" s="17">
+      <c r="I1033" s="1" t="s">
+        <v>8397</v>
+      </c>
+      <c r="J1033" s="15">
         <v>9101370189</v>
       </c>
-      <c r="K1033" t="s">
+      <c r="K1033" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1034" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1034" s="11" t="s">
+    <row r="1034" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1034" s="1"/>
+      <c r="B1034" s="1"/>
+      <c r="C1034" s="1"/>
+      <c r="D1034" s="1"/>
+      <c r="E1034" s="1" t="s">
         <v>8330</v>
       </c>
-      <c r="F1034" s="16">
+      <c r="F1034" s="17">
         <v>35828</v>
       </c>
-      <c r="G1034" s="11" t="s">
+      <c r="G1034" s="1" t="s">
         <v>8331</v>
       </c>
       <c r="H1034" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1034" s="17">
+      <c r="I1034" s="1" t="s">
+        <v>8398</v>
+      </c>
+      <c r="J1034" s="15">
         <v>9101126144</v>
       </c>
-      <c r="K1034" t="s">
+      <c r="K1034" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1035" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E1035" s="11" t="s">
+    <row r="1035" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1035" s="1"/>
+      <c r="B1035" s="1"/>
+      <c r="C1035" s="1"/>
+      <c r="D1035" s="1"/>
+      <c r="E1035" s="1" t="s">
         <v>8332</v>
       </c>
-      <c r="F1035" s="16">
+      <c r="F1035" s="17">
         <v>36011</v>
       </c>
-      <c r="G1035" s="11" t="s">
+      <c r="G1035" s="1" t="s">
         <v>8333</v>
       </c>
       <c r="H1035" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J1035" s="17">
+      <c r="I1035" s="1" t="s">
+        <v>8399</v>
+      </c>
+      <c r="J1035" s="15">
         <v>6000925311</v>
       </c>
-      <c r="K1035" t="s">
+      <c r="K1035" s="1" t="s">
         <v>8334</v>
       </c>
     </row>
-    <row r="1036" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="H1036" s="18"/>
-    </row>
-    <row r="1037" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="H1037" s="18"/>
+    <row r="1036" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1036" s="16"/>
+    </row>
+    <row r="1037" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1037" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12123" uniqueCount="8400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13144" uniqueCount="8914">
   <si>
     <t>1994</t>
   </si>
@@ -25470,6 +25470,1554 @@
   </si>
   <si>
     <t>ASM/3281/2023</t>
+  </si>
+  <si>
+    <t>ASM/0138/1984</t>
+  </si>
+  <si>
+    <t>ASM/0149/2019</t>
+  </si>
+  <si>
+    <t>ASM/0198/1984</t>
+  </si>
+  <si>
+    <t>ASM/0211/1984</t>
+  </si>
+  <si>
+    <t>ASM/0369/1984</t>
+  </si>
+  <si>
+    <t>ASM/0404/1985</t>
+  </si>
+  <si>
+    <t>ASM/0414/1985</t>
+  </si>
+  <si>
+    <t>ASM/0425/1985</t>
+  </si>
+  <si>
+    <t>ASM/0428/1985</t>
+  </si>
+  <si>
+    <t>ASM/0429/1985</t>
+  </si>
+  <si>
+    <t>ASM/0507/1987</t>
+  </si>
+  <si>
+    <t>ASM/0522/1987</t>
+  </si>
+  <si>
+    <t>ASM/0583/1987</t>
+  </si>
+  <si>
+    <t>ASM/0664/1988</t>
+  </si>
+  <si>
+    <t>ASM/0668/1988</t>
+  </si>
+  <si>
+    <t>ASM/0669/1988</t>
+  </si>
+  <si>
+    <t>ASM/0675/1988</t>
+  </si>
+  <si>
+    <t>ASM/0679/1988</t>
+  </si>
+  <si>
+    <t>ASM/0694/1988</t>
+  </si>
+  <si>
+    <t>ASM/0696/1988</t>
+  </si>
+  <si>
+    <t>ASM/0709/1988</t>
+  </si>
+  <si>
+    <t>ASM/0746/1988</t>
+  </si>
+  <si>
+    <t>ASM/0757/1988</t>
+  </si>
+  <si>
+    <t>ASM/0819/1989</t>
+  </si>
+  <si>
+    <t>ASM/0825/1989</t>
+  </si>
+  <si>
+    <t>ASM/0829/1989</t>
+  </si>
+  <si>
+    <t>ASM/0850/1989</t>
+  </si>
+  <si>
+    <t>ASM/0873/1989</t>
+  </si>
+  <si>
+    <t>ASM/0877/1990</t>
+  </si>
+  <si>
+    <t>ASM/0882/1990</t>
+  </si>
+  <si>
+    <t>ASM/0904/1990</t>
+  </si>
+  <si>
+    <t>ASM/0918/1990</t>
+  </si>
+  <si>
+    <t>ASM/0924/1990</t>
+  </si>
+  <si>
+    <t>ASM/0925/1990</t>
+  </si>
+  <si>
+    <t>ASM/0959/1990</t>
+  </si>
+  <si>
+    <t>ASM/0962/1990</t>
+  </si>
+  <si>
+    <t>ASM/0964/1990</t>
+  </si>
+  <si>
+    <t>ASM/0992/1991</t>
+  </si>
+  <si>
+    <t>ASM/1006/1991</t>
+  </si>
+  <si>
+    <t>ASM/1024/1991</t>
+  </si>
+  <si>
+    <t>ASM/1030/1991</t>
+  </si>
+  <si>
+    <t>ASM/1082/1991</t>
+  </si>
+  <si>
+    <t>ASM/1108/1992</t>
+  </si>
+  <si>
+    <t>ASM/1113/1992</t>
+  </si>
+  <si>
+    <t>ASM/1135/1992</t>
+  </si>
+  <si>
+    <t>ASM/1148/1992</t>
+  </si>
+  <si>
+    <t>ASM/1160/1992</t>
+  </si>
+  <si>
+    <t>ASM/1183/1992</t>
+  </si>
+  <si>
+    <t>ASM/1185/1992</t>
+  </si>
+  <si>
+    <t>ASM/1214/1992</t>
+  </si>
+  <si>
+    <t>ASM/1224/1992</t>
+  </si>
+  <si>
+    <t>ASM/1232/1993</t>
+  </si>
+  <si>
+    <t>ASM/1240/1993</t>
+  </si>
+  <si>
+    <t>ASM/1269/1993</t>
+  </si>
+  <si>
+    <t>ASM/1296/1994</t>
+  </si>
+  <si>
+    <t>ASM/1321/1994</t>
+  </si>
+  <si>
+    <t>ASM/1363/1994</t>
+  </si>
+  <si>
+    <t>ASM/1375/1994</t>
+  </si>
+  <si>
+    <t>ASM/1383/1995</t>
+  </si>
+  <si>
+    <t>ASM/1398/1995</t>
+  </si>
+  <si>
+    <t>ASM/1403/1995</t>
+  </si>
+  <si>
+    <t>ASM/1421/1995</t>
+  </si>
+  <si>
+    <t>ASM/1467/1995</t>
+  </si>
+  <si>
+    <t>ASM/1473/1995</t>
+  </si>
+  <si>
+    <t>ASM/1501/1996</t>
+  </si>
+  <si>
+    <t>ASM/1522/1996</t>
+  </si>
+  <si>
+    <t>ASM/1526/1996</t>
+  </si>
+  <si>
+    <t>ASM/1535/1996</t>
+  </si>
+  <si>
+    <t>ASM/1538/1996</t>
+  </si>
+  <si>
+    <t>ASM/1540/1996</t>
+  </si>
+  <si>
+    <t>ASM/1548/1996</t>
+  </si>
+  <si>
+    <t>ASM/1572/1996</t>
+  </si>
+  <si>
+    <t>ASM/1599/1997</t>
+  </si>
+  <si>
+    <t>ASM/1602/1997</t>
+  </si>
+  <si>
+    <t>ASM/1603/1997</t>
+  </si>
+  <si>
+    <t>ASM/1604/1997</t>
+  </si>
+  <si>
+    <t>ASM/1606/1997</t>
+  </si>
+  <si>
+    <t>ASM/1631/1997</t>
+  </si>
+  <si>
+    <t>ASM/1639/1997</t>
+  </si>
+  <si>
+    <t>ASM/1648/1997</t>
+  </si>
+  <si>
+    <t>ASM/1658/1997</t>
+  </si>
+  <si>
+    <t>ASM/1666/1997</t>
+  </si>
+  <si>
+    <t>ASM/1689/1998</t>
+  </si>
+  <si>
+    <t>ASM/1707/1998</t>
+  </si>
+  <si>
+    <t>ASM/1731/1998</t>
+  </si>
+  <si>
+    <t>ASM/1732/1998</t>
+  </si>
+  <si>
+    <t>ASM/1759/1998</t>
+  </si>
+  <si>
+    <t>ASM/1768/1998</t>
+  </si>
+  <si>
+    <t>ASM/1772/1998</t>
+  </si>
+  <si>
+    <t>ASM/1775/1998</t>
+  </si>
+  <si>
+    <t>ASM/1790/1998</t>
+  </si>
+  <si>
+    <t>ASM/1860/1999</t>
+  </si>
+  <si>
+    <t>ASM/1872/1999</t>
+  </si>
+  <si>
+    <t>ASM/1906/2000</t>
+  </si>
+  <si>
+    <t>ASM/1908/2000</t>
+  </si>
+  <si>
+    <t>ASM/1916/2000</t>
+  </si>
+  <si>
+    <t>ASM/1918/2000</t>
+  </si>
+  <si>
+    <t>ASM/1927/2000</t>
+  </si>
+  <si>
+    <t>ASM/1935/2000</t>
+  </si>
+  <si>
+    <t>ASM/1940/2001</t>
+  </si>
+  <si>
+    <t>ASM/1982/2001</t>
+  </si>
+  <si>
+    <t>ASM/1985/2001</t>
+  </si>
+  <si>
+    <t>ASM/1986/2001</t>
+  </si>
+  <si>
+    <t>ASM/2019/2002</t>
+  </si>
+  <si>
+    <t>ASM/2028/2002</t>
+  </si>
+  <si>
+    <t>ASM/2032/2003</t>
+  </si>
+  <si>
+    <t>ASM/2042/2002</t>
+  </si>
+  <si>
+    <t>ASM/2045/2002</t>
+  </si>
+  <si>
+    <t>ASM/2065/2002</t>
+  </si>
+  <si>
+    <t>ASM/2072/2003</t>
+  </si>
+  <si>
+    <t>ASM/2085/2003</t>
+  </si>
+  <si>
+    <t>ASM/2092/2003</t>
+  </si>
+  <si>
+    <t>ASM/2129/2004</t>
+  </si>
+  <si>
+    <t>ASM/2146/2004</t>
+  </si>
+  <si>
+    <t>ASM/2157/2004</t>
+  </si>
+  <si>
+    <t>ASM/2187/2005</t>
+  </si>
+  <si>
+    <t>ASM/2218/2005</t>
+  </si>
+  <si>
+    <t>ASM/2229/2005</t>
+  </si>
+  <si>
+    <t>ASM/2245/2006</t>
+  </si>
+  <si>
+    <t>ASM/2252/2006</t>
+  </si>
+  <si>
+    <t>ASM/2271/2007</t>
+  </si>
+  <si>
+    <t>ASM/2276/2007</t>
+  </si>
+  <si>
+    <t>ASM/2278/2007</t>
+  </si>
+  <si>
+    <t>ASM/2282/2007</t>
+  </si>
+  <si>
+    <t>ASM/2283/2007</t>
+  </si>
+  <si>
+    <t>ASM/2284/2007</t>
+  </si>
+  <si>
+    <t>ASM/2290/2007</t>
+  </si>
+  <si>
+    <t>ASM/2303/2007</t>
+  </si>
+  <si>
+    <t>ASM/2304/2007</t>
+  </si>
+  <si>
+    <t>ASM/2308/2007</t>
+  </si>
+  <si>
+    <t>ASM/2313/2007</t>
+  </si>
+  <si>
+    <t>ASM/2318/2007</t>
+  </si>
+  <si>
+    <t>ASM/2324/2007</t>
+  </si>
+  <si>
+    <t>ASM/2329/2008</t>
+  </si>
+  <si>
+    <t>ASM/2338/2008</t>
+  </si>
+  <si>
+    <t>ASM/2339/2008</t>
+  </si>
+  <si>
+    <t>ASM/2349/2008</t>
+  </si>
+  <si>
+    <t>ASM/2353/2008</t>
+  </si>
+  <si>
+    <t>ASM/2364/2008</t>
+  </si>
+  <si>
+    <t>ASM/2367/2008</t>
+  </si>
+  <si>
+    <t>ASM/2372/2008</t>
+  </si>
+  <si>
+    <t>ASM/2374/2008</t>
+  </si>
+  <si>
+    <t>ASM/2383/2008</t>
+  </si>
+  <si>
+    <t>ASM/2385/2008</t>
+  </si>
+  <si>
+    <t>ASM/2397/2008</t>
+  </si>
+  <si>
+    <t>ASM/2402/2008</t>
+  </si>
+  <si>
+    <t>ASM/2407/2008</t>
+  </si>
+  <si>
+    <t>ASM/2418/2009</t>
+  </si>
+  <si>
+    <t>ASM/2420/2009</t>
+  </si>
+  <si>
+    <t>ASM/2433/2009</t>
+  </si>
+  <si>
+    <t>ASM/2441/2009</t>
+  </si>
+  <si>
+    <t>ASM/2450/2009</t>
+  </si>
+  <si>
+    <t>ASM/2451/2009</t>
+  </si>
+  <si>
+    <t>ASM/2501/2010</t>
+  </si>
+  <si>
+    <t>ASM/2516/2010</t>
+  </si>
+  <si>
+    <t>ASM/2555/2011</t>
+  </si>
+  <si>
+    <t>ASM/2558/2011</t>
+  </si>
+  <si>
+    <t>ASM/2586/2011</t>
+  </si>
+  <si>
+    <t>ASM/2593/2011</t>
+  </si>
+  <si>
+    <t>ASM/2595/2011</t>
+  </si>
+  <si>
+    <t>ASM/2600/2012</t>
+  </si>
+  <si>
+    <t>ASM/2602/2012</t>
+  </si>
+  <si>
+    <t>ASM/2619/2012</t>
+  </si>
+  <si>
+    <t>ASM/2620/2012</t>
+  </si>
+  <si>
+    <t>ASM/2624/2012</t>
+  </si>
+  <si>
+    <t>ASM/2631/2012</t>
+  </si>
+  <si>
+    <t>ASM/2647/2012</t>
+  </si>
+  <si>
+    <t>ASM/2658/2013</t>
+  </si>
+  <si>
+    <t>ASM/2671/2013</t>
+  </si>
+  <si>
+    <t>ASM/2672/2013</t>
+  </si>
+  <si>
+    <t>ASM/2684/2013</t>
+  </si>
+  <si>
+    <t>ASM/2690/2013</t>
+  </si>
+  <si>
+    <t>ASM/2704/2013</t>
+  </si>
+  <si>
+    <t>ASM/2712/2014</t>
+  </si>
+  <si>
+    <t>ASM/2736/2014</t>
+  </si>
+  <si>
+    <t>ASM/2753/2014</t>
+  </si>
+  <si>
+    <t>ASM/2757/2014</t>
+  </si>
+  <si>
+    <t>ASM/2760/2015</t>
+  </si>
+  <si>
+    <t>ASM/2762/2015</t>
+  </si>
+  <si>
+    <t>ASM/2770/2015</t>
+  </si>
+  <si>
+    <t>ASM/2773/2015</t>
+  </si>
+  <si>
+    <t>ASM/2785/2015</t>
+  </si>
+  <si>
+    <t>ASM/2786/2015</t>
+  </si>
+  <si>
+    <t>ASM/2798/2015</t>
+  </si>
+  <si>
+    <t>ASM/2811/2015</t>
+  </si>
+  <si>
+    <t>ASM/2835/2016</t>
+  </si>
+  <si>
+    <t>ASM/2841/2016</t>
+  </si>
+  <si>
+    <t>ASM/2856/2016</t>
+  </si>
+  <si>
+    <t>ASM/2862/2016</t>
+  </si>
+  <si>
+    <t>ASM/2874/2016</t>
+  </si>
+  <si>
+    <t>ASM/2892/2016</t>
+  </si>
+  <si>
+    <t>ASM/2906/2016</t>
+  </si>
+  <si>
+    <t>ASM/2907/2017</t>
+  </si>
+  <si>
+    <t>ASM/2908/2017</t>
+  </si>
+  <si>
+    <t>ASM/2911/2017</t>
+  </si>
+  <si>
+    <t>ASM/2921/2017</t>
+  </si>
+  <si>
+    <t>ASM/2938/2017</t>
+  </si>
+  <si>
+    <t>ASM/2943/2017</t>
+  </si>
+  <si>
+    <t>ASM/2955/2017</t>
+  </si>
+  <si>
+    <t>ASM/2956/2017</t>
+  </si>
+  <si>
+    <t>ASM/2968/2018</t>
+  </si>
+  <si>
+    <t>ASM/2980/2018</t>
+  </si>
+  <si>
+    <t>ASM/2998/2018</t>
+  </si>
+  <si>
+    <t>ASM/3028/2018</t>
+  </si>
+  <si>
+    <t>Dr. Gauranga Mahato/</t>
+  </si>
+  <si>
+    <t>Dr. (Mrs.) Arundhuti Das (Bora)/Dr. Ranjit Kumar Borah (H)</t>
+  </si>
+  <si>
+    <t>Dr. Subimal Laskar/Late Bihari Laskar</t>
+  </si>
+  <si>
+    <t>Dr. Jitendra Goswami/</t>
+  </si>
+  <si>
+    <t>Dr. Tapan Barthakur/</t>
+  </si>
+  <si>
+    <t>Dr.Mobir Rahman / Md. Faizur Rahman</t>
+  </si>
+  <si>
+    <t>Dr. Prithviraj Mazinder Barua/Late Deva Mazinder Barua</t>
+  </si>
+  <si>
+    <t>Dr. Ranjeet Neog/Late Bholanath Neog</t>
+  </si>
+  <si>
+    <t>Dr. Nagendra Nath Barman/Late Harendra Nath Barman</t>
+  </si>
+  <si>
+    <t>Dr. Robin Bhuyan/Late S. Bhuyan</t>
+  </si>
+  <si>
+    <t>Dr. Pankaj Kumar Goswami/</t>
+  </si>
+  <si>
+    <t>Dr. Jogi Raj Bora/Late Prabhat Kumar Bora</t>
+  </si>
+  <si>
+    <t>Dr. Galib Uz Zaman/Monir Uz Zaman</t>
+  </si>
+  <si>
+    <t>Dr.Gunaram Saikia/Late Lerala Saikia</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Bula Das/Sri Pradip Kumar Saikia (H)</t>
+  </si>
+  <si>
+    <t>Dr. Bimal Chandra Bhattacharyya /Sri Ramesh Ch. Bhattacharyya</t>
+  </si>
+  <si>
+    <t>Dr. Dilip Kumar Deka/Late R.C. Deka</t>
+  </si>
+  <si>
+    <t>Dr. Manmath Talukdar/Late Bhogiram Talukdar</t>
+  </si>
+  <si>
+    <t>Dr. Atom Gohain/</t>
+  </si>
+  <si>
+    <t>Dr. Pritam Mohan/Late Dimbeswar Mohan</t>
+  </si>
+  <si>
+    <t>Dr. Prasanta Kumar Das/</t>
+  </si>
+  <si>
+    <t>Dr. Dipak Bhuyan /Sri Jitendra Nath Bhuyan</t>
+  </si>
+  <si>
+    <t>Dr. Sudip Sinha / Sri Syamdas Sinha</t>
+  </si>
+  <si>
+    <t>Dr. Jyoti Prasad Hatiboruah/ Sri Tholok Kumar Hatiboruah</t>
+  </si>
+  <si>
+    <t>Dr. Birendra Nath Bhattacharyya/Late D.N. Bhattacharyya</t>
+  </si>
+  <si>
+    <t>Dr. Pradip Chandra Medhi /Mr. B.C. Medhi</t>
+  </si>
+  <si>
+    <t>Dr. Debananda Gogoi /Late Khumeswar Gogoi</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Arpana Das/Late Prasanna Kumar Das</t>
+  </si>
+  <si>
+    <t>Dr. Dilip Kumar Nath/</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Anjana Choudhury /Dr. Bibeka Nanda Saikia (H)</t>
+  </si>
+  <si>
+    <t>Dr. Ajay Kumar Sarma / Late Braja Nath Sarma</t>
+  </si>
+  <si>
+    <t>Dr. (Ms.) Manju Goswami/</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Barnalee Saikia/</t>
+  </si>
+  <si>
+    <t>Dr. Raju Kumar Kalita/ Sjt. Bhaba Dhar Kalita</t>
+  </si>
+  <si>
+    <t>Dr. Tulsi Prasad Phayal/</t>
+  </si>
+  <si>
+    <t>Dr. Saurabh Kumar Laskar/Late Suryya Kanta Laskar</t>
+  </si>
+  <si>
+    <t>Dr. Janak Ch. Saikia/</t>
+  </si>
+  <si>
+    <t>Dr. Haripad Bhagabati /Late Tarani Kanta Bhagabati</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Pranita Das / Dr. Pradip Chandra Medhi (H)</t>
+  </si>
+  <si>
+    <t>Dr. Abdur Rahman /Md. Mahmud Ali</t>
+  </si>
+  <si>
+    <t>Dr. Abdul Mukit/Late Abdul Sattar</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Nasim Banu/</t>
+  </si>
+  <si>
+    <t>Dr. Subodh Barman / Sri Thaneswar Barman</t>
+  </si>
+  <si>
+    <t>Dr. Mohan Baruah / Late Adhik Chandra Baruah</t>
+  </si>
+  <si>
+    <t>Dr. Nayanjit Bordoloi /</t>
+  </si>
+  <si>
+    <t>Dr. Pratul Mahanta /Sri Khagendra Nath Mahanta</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Rina Baishnob /Dr. Sarukan Chandra Deka (H)</t>
+  </si>
+  <si>
+    <t>Dr. Samar Talukdar/S/O Arun chandran Talukdar</t>
+  </si>
+  <si>
+    <t>Dr. Dondi Ram Malakar / Sri Uma Ram Malakar</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Sahana Begum /Dr. Poznur Hussain (H)</t>
+  </si>
+  <si>
+    <t>Dr. Ambika Deka /Late Gobinda Chandra Deka</t>
+  </si>
+  <si>
+    <t>Dr. Mriganka Sekhar Baruah/ Late Durgeswar Baruah</t>
+  </si>
+  <si>
+    <t>Dr. Utpal Chandra Das/</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Dipti Mani Baruah /Mr. Rajendra Barah (F)</t>
+  </si>
+  <si>
+    <t>Dr. Kalyan Sarma / Mr. Manmath Nath Sarma</t>
+  </si>
+  <si>
+    <t>Sri Pranjal Kumar Saikia /Sri Murari Kumar Saikia</t>
+  </si>
+  <si>
+    <t>Dr. Utpal Kumar Sarma /Sri Shiva Nath Sarma</t>
+  </si>
+  <si>
+    <t>Dr. Sushil Chandra Deka / Sri Bhubas Chandra Deka</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Churchis Villee Phangcho/Late G. Phangcho(F)</t>
+  </si>
+  <si>
+    <t>Dr. Fazal Ali Ahmed / Md. Dilbahar Ali</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Leena Bora/Dr. J. Bora</t>
+  </si>
+  <si>
+    <t>Dr. Swaraj Rajkhowa /Late Kondhan Rajkhowa</t>
+  </si>
+  <si>
+    <t>Dr. Hitesh Chandra Das / Sri Guru Prasad Das</t>
+  </si>
+  <si>
+    <t>Dr. Hitu Choudhury /Md. Romoni Choudhury</t>
+  </si>
+  <si>
+    <t>Dr. Apurba Goswami /Late Kanak Chandra Goswami</t>
+  </si>
+  <si>
+    <t>Dr. Tapan Kumar Das / Sri Khagen Ch. Das</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Mitali Dutta / Sri Nanda Kanta Dutta (F)</t>
+  </si>
+  <si>
+    <t>Dr. Dipak Kumar Malakar /Sri Fatik Chandra Malakar</t>
+  </si>
+  <si>
+    <t>Dr. Balen Choudhury / Late Pratap Choudhury</t>
+  </si>
+  <si>
+    <t>Dr. Diganta Sarmah /Sri Prafulla Chandra Sarmah</t>
+  </si>
+  <si>
+    <t>Dr. Rafiqul Islam / Md. Hanifuddin Ahmed</t>
+  </si>
+  <si>
+    <t>Dr. Pramod Kumar Patowary/</t>
+  </si>
+  <si>
+    <t>Dr. Smriti Rani Gogoi /Sri Boluram Gogoi (F)</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Leema Bora / Sri Jojjeneswar Bora (F)</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Farzin Akhtar /Late Jahur Uddin Ahmed(F)
+Dr. Fazal Ali Ahmed(H)</t>
+  </si>
+  <si>
+    <t>Dr. Miftahul Islam Barbaruah / Dr. Mafidul Islam</t>
+  </si>
+  <si>
+    <t>Dr. Debajit Deka /Sri Abhay Chandra Deka</t>
+  </si>
+  <si>
+    <t>Dr. Kanak Chandra Barman /Late Padma Ram Barman</t>
+  </si>
+  <si>
+    <t>Dr. Utpal Borah/ Sri Dhaneswar Borah</t>
+  </si>
+  <si>
+    <t>Dr. Mihir Sarma / Sri Harendra Nath Sarma</t>
+  </si>
+  <si>
+    <t>Dr. Mridul Kumar Borah /Late Bhugiram Borah</t>
+  </si>
+  <si>
+    <t>Dr. Dibakar Sarma / Mr. Prabhakar Sarma</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Pallabi Devi /Late Gangadhar Sharma (F)</t>
+  </si>
+  <si>
+    <t>Dr. Devanan Boro / Sri Tanu Ram Boro</t>
+  </si>
+  <si>
+    <t>Dr. Rupak Kumar Nath /Late Tilendra Kumar Nath</t>
+  </si>
+  <si>
+    <t>Dr. Rafiqul Islam / Md. Ibad Ullah Sarkar</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Monideepa Bhattacharya/</t>
+  </si>
+  <si>
+    <t>Dr. Parsha Jyoti Nath / Sri Sibaram Saikia</t>
+  </si>
+  <si>
+    <t>Dr. Manashi Bhuyan /Late Siba Bhuyan (F)</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Pragati Hazarika / Mr. Joydev Hazarika (F)</t>
+  </si>
+  <si>
+    <t>DR. Gagan Kalita / Sri Madhab Chandra Kalita</t>
+  </si>
+  <si>
+    <t>Dr. Jiten Rajkhowa /Late Matiram Rajkhowa</t>
+  </si>
+  <si>
+    <t>Dr. Debashis Dutta /Late Radha Raman Dutta</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Rumi Gogoi /Late Rabi Ram Gogoi (F)</t>
+  </si>
+  <si>
+    <t>Dr. Kamal Behari Dev Choudhury /Sri Pulin Behari Dev Choudhury</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Mitali Senapati /Sri Rupeswar Senapati (F)</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Monika Bordoloi /Late Prafulla Sarma Bordoloi (F)</t>
+  </si>
+  <si>
+    <t>Dr. Sourabh Deori / Sri Umesh Chandra Deori</t>
+  </si>
+  <si>
+    <t>Dr. Nikhil Ranjan Nath / Sri Upen Nath</t>
+  </si>
+  <si>
+    <t>Dr. Arundhati Phookan /Sri Mahendra Mohan Phookan (F)</t>
+  </si>
+  <si>
+    <t>Dr. Ratul Kalita / Sri Mathur Chandra Kalita</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Hiramani Deka /Mr. Ramoni Mohan Deka (F)</t>
+  </si>
+  <si>
+    <t>Dr. Shiekh Shahjahan Ali Ahmed /Md. Talebar Rahman</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Kanta Bhattacharjee/Dr. Pradip Kumar Sarma</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Shiney George /Mr. George Mathai (F), Dr. K.K. Das (H)</t>
+  </si>
+  <si>
+    <t>Dr. Parag Sarma / Sri Harihar Sarma</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Kuntola Roy /Sri Sushil Kumar Roy(F)</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Hiramoni Das /Mr. Ahindra Nath Das (F)</t>
+  </si>
+  <si>
+    <t>Dr. Pankaj Dutta / Sri Dhaneswar Dutta</t>
+  </si>
+  <si>
+    <t>Dr. Durlav Prasad Bora / Sri Parama Prasad Bora</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Lakshya Jyoti Dutta /Sri Kanta Nath Dutta (F)</t>
+  </si>
+  <si>
+    <t>Dr. Pabitra Das /Sri Kumud Chandra Das</t>
+  </si>
+  <si>
+    <t>Dr. Pritam Kishore Saikia /Mr. Debeswar Saikia</t>
+  </si>
+  <si>
+    <t>Dr. Debajit Deori /Mr. Umesh Chandra Deori</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Sagarika Borah / Sri Chandra Kanta Borah</t>
+  </si>
+  <si>
+    <t>Dr. Bayjut Bostami /Md. Ali Ahmed</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Aparupa Borgohain/ Lt. Dilip Kumar Borgohain</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Debanita Saikia / Late Debananda Saikia (F)</t>
+  </si>
+  <si>
+    <t>Dr. Nirmal Basnet / Mr. Tek Bahadur Chetry</t>
+  </si>
+  <si>
+    <t>Dr. Md. Ziaur Rahman / Md. Mafibur Rahman</t>
+  </si>
+  <si>
+    <t>Dr. Bidya Baruah /Mr. Thagit Chandra Baruah</t>
+  </si>
+  <si>
+    <t>Dr. (Mrs.) Yesmina Ahmed/ Md. Tabiur Rahman</t>
+  </si>
+  <si>
+    <t>Dr. Tarun Kumar Saikia /Sri Jinaram Saikia</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Mrinalee Devi / Sri Amiya Kumar Nath</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Madhumita Das /Sri Bhaskar Das</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Sonuwara Begum /Md. Nasiruddin Ahmed</t>
+  </si>
+  <si>
+    <t>Dr. Himangshu Raj /Dr. Baloram Deka</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Soni Doimari /Mr. Mahendra Doimari</t>
+  </si>
+  <si>
+    <t>Dr.(Ms) Mousumi Hazorika /Mr. K.P. Hazarika</t>
+  </si>
+  <si>
+    <t>Dr. Hiranya Chutia/ Sri Chandra Nath Chutia</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Bitupona Deuri / Sri Prithibar Deuri (F)</t>
+  </si>
+  <si>
+    <t>Dr. Dibyajyoti Talukdar /Mr. Kanak Chandra Talukdar</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Afrina Hussain / Md. Afzal Hussain</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Mayuri Chetia / Sri Jiten Chetia (F)</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Loopamudra Sarma /Dr. Nikhil Ranjan Sarma (F)</t>
+  </si>
+  <si>
+    <t>Dr. Santos Upadhyay / Sri Chet Narayan Upadhyay</t>
+  </si>
+  <si>
+    <t>Dr. Palash Kumar Das / Sri Sarat Chandra Das</t>
+  </si>
+  <si>
+    <t>Dr. Kalyan Kumar Bora /Mr. Hem Chandra Bora</t>
+  </si>
+  <si>
+    <t>Dr. Digonta Hazarika / Sri Nakul Hazarika</t>
+  </si>
+  <si>
+    <t>Dr. Karuna Dutta /Late Kuleswar Dutta</t>
+  </si>
+  <si>
+    <t>Dr. Babul Borgohain /Late Titheswar Borgohain</t>
+  </si>
+  <si>
+    <t>Dr. Nipu Deka /Sri Chandrakanta Deka</t>
+  </si>
+  <si>
+    <t>Dr. Joy Prakash Sarma / Mr. Sarbeswar Sarma</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Nashrin Jebin / Late Dr. Farid Ali</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Safeeda Sultana Begum /Md. Sirajuddullah (F)</t>
+  </si>
+  <si>
+    <t>Dr. Mahi Uddin Ahmed /Md. Riaz Uddin Ahmed</t>
+  </si>
+  <si>
+    <t>Dr. Raj Kishore Gogoi / Mr. Phanindra Nath Gogoi</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Madhusmita Dutta /Mr. Aditya Kumar Dutta (F)</t>
+  </si>
+  <si>
+    <t>Dr. Javeed Rahman /Md. Mucklichur Rahman</t>
+  </si>
+  <si>
+    <t>Dr. (Ms.) Pori Talukdar / Late Suren Talukdar (F)</t>
+  </si>
+  <si>
+    <t>Dr. Dibyajyoti Sarmah / Mr. Sarat Sarmah</t>
+  </si>
+  <si>
+    <t>Dr. Anil Deka / Sri Nandeswar Deka</t>
+  </si>
+  <si>
+    <t>Dr. Pranjal Thakuria / Sri Aswini Thakuria</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Lipsy Sonowal /(F) - Sri Joyram Sonowal</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Protiva Gogoi /(F) - Mr. Purna Kanta Gogoi</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Mohua Das Gupta/ (F) - Mr. Sanjay Kr. Das Gupta</t>
+  </si>
+  <si>
+    <t>Dr. Md. Jahan Ahmed/ (F) Derajuddin Ahmed</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Arundhati Purkayastha /(F) - Mr. Kamalendu Purkayastha</t>
+  </si>
+  <si>
+    <t>Dr. Maradona Nath /(F) - Mr. Bishnuram Nath</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Dwina Doley /(F) - Mr. Lakhya Nath Doley</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Arpita Bharali /(F) - Mr. Annada Kumar Bharali</t>
+  </si>
+  <si>
+    <t>Dr. Lukumoni Buragohain /(F) - Mr. Ramen Buragohain</t>
+  </si>
+  <si>
+    <t>Dr. Nripendra Mahanta /(F) - Mr. Hari Ch. Mahanta</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Sumi Handique /(F) - Late Haren Handique</t>
+  </si>
+  <si>
+    <t>Dr. Bijoy Kumar Nath /(F) - Late Basudev Nath</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Maitrayee Devi /(F) - Nripendra Ch. Sarma</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Deepshikha Deuri/ (F) - Mr. Munindra Deuri</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Konsam Ormilla /(F) - Mr. Konsam Ibohal Singh</t>
+  </si>
+  <si>
+    <t>Dr. Mokadesh Ali / (F) - Mohammad Ali</t>
+  </si>
+  <si>
+    <t>Dr. Pratim Hazarika /(F) - Mr. Chandra Kanta Hazarika</t>
+  </si>
+  <si>
+    <t>Mridusmrita Buragohain/Mr. Madan Buragohain</t>
+  </si>
+  <si>
+    <t>Dr. Raj Kumar Mili / (F) - Dr. Binod Kumar Mili</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Nirmali Das /(F) - Late Rajen Das</t>
+  </si>
+  <si>
+    <t>Dr. Aditya Baruah /(F) - Dipak Baruah</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Smita Kakati /(F) - Late Jogot Kakoti</t>
+  </si>
+  <si>
+    <t>Mr. Mrinmoy Kalita /(F) - Mr. Kandarpa Kalita</t>
+  </si>
+  <si>
+    <t>Dr. Bhaskar Jyoti Das /(F) - Mr. Hemodhar Das</t>
+  </si>
+  <si>
+    <t>Dr. Derhasar Brahma /(F) - Manhari Brahma</t>
+  </si>
+  <si>
+    <t>Dr. Manoj Kumar Kalita /(F) - Mr. Bolen Kalita</t>
+  </si>
+  <si>
+    <t>Dr. Brindavan Phangcho /(F) - Mr. Sunil Phangcho</t>
+  </si>
+  <si>
+    <t>Dr. Risha Saikia /(F) - Mr. Jogeswar Saikia</t>
+  </si>
+  <si>
+    <t>Dr. Priyanka Doley /(F) - Sri Henna Doley</t>
+  </si>
+  <si>
+    <t>Dr. Preeti Doley /(F) - Mr. Pradip Doley</t>
+  </si>
+  <si>
+    <t>Dr. Suraj Protim Kakati /(F) - Sri Ranjit Kakati</t>
+  </si>
+  <si>
+    <t>Dr. Kabir Humayun Bin Khabir / (F) - Khabiruddin Ahmed</t>
+  </si>
+  <si>
+    <t>Dr. Kanan Ruangmei /(F) - Powlin Ruangmei</t>
+  </si>
+  <si>
+    <t>Dr. Rishov Bhattacharjya /(F) - Bokul Bhattacharjya</t>
+  </si>
+  <si>
+    <t>Dr. Kashmiri Begum/(F) - Md. Kasem Ali</t>
+  </si>
+  <si>
+    <t>Dr. Chinmoy Dutta /(F) - Ajit Dutta</t>
+  </si>
+  <si>
+    <t>Dr. Ankurjyoti Talukdar /(F) - Mr. Arjun Ch. Talukdar</t>
+  </si>
+  <si>
+    <t>Dr. Dwipjyoti Mahanta /(F) - Late Ramani Mahanta</t>
+  </si>
+  <si>
+    <t>Dr. Abhijit Deka /(F) - Ramesh Chandra Deka</t>
+  </si>
+  <si>
+    <t>Dr. Dhrubajyoti Borpujari /(F) - Pradip Kumar Sarma</t>
+  </si>
+  <si>
+    <t>Dr. Dimpal Gogoi/(F) - Mr. Bijan Kr. Gogoi</t>
+  </si>
+  <si>
+    <t>Dr. Lakshya Jyoti Kakati /(F) - Mr. Mridul Kumar Kakati</t>
+  </si>
+  <si>
+    <t>Dr. Sayed Nabil Abedin /(F) - Joynal Abedin</t>
+  </si>
+  <si>
+    <t>Dr. Biswajit Chutia /(F) - Mr. Girish Chutia</t>
+  </si>
+  <si>
+    <t>Dr. Salma Omar Ahmed /(F) - Omar Ali Ahmed</t>
+  </si>
+  <si>
+    <t>Dr. Monoshree Sarma /(F) Jatin Kr. Sarma</t>
+  </si>
+  <si>
+    <t>Dr. Mrinmoyee Sarma /(F) Jatin Kr. Sarma</t>
+  </si>
+  <si>
+    <t>Dr. Nethee Deori /(F) - Dilip Deori</t>
+  </si>
+  <si>
+    <t>Dr. Sunita Kalita /(F) - Manohari Kalita</t>
+  </si>
+  <si>
+    <t>Dr. Gyandeep Choudhury /(F) - Dr. Damodar Choudhury</t>
+  </si>
+  <si>
+    <t>Dr. Dipika Deb /(F) - Mohit R. Deb</t>
+  </si>
+  <si>
+    <t>31/09/1977</t>
+  </si>
+  <si>
+    <t>NEW ENTRY B</t>
+  </si>
+  <si>
+    <t>Flat A2, Jiabhoroli Apartment, Nabagiri road, Chandmari, Guwahati-781003</t>
+  </si>
+  <si>
+    <t>HN 73, Manimugdha Nagar, VIP Road, Chachal, Sixmile, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>Departement of ARGO, CVSc, AAU, Khanapara, Guwahati-22, Assam</t>
+  </si>
+  <si>
+    <t>Lichubari Path, Near Ganesh Mandir Higher Secondary School, HN 18, Flat 02B, Ward NO 46, Khanapara, Guwahati-22, Assam</t>
+  </si>
+  <si>
+    <t>Santi path, HN 2, Bylane 2, Zoo Road, Guwahati-781024</t>
+  </si>
+  <si>
+    <t>Madhab Nagar, Near Greenwood Resort, HN 14, Guwahati-22</t>
+  </si>
+  <si>
+    <t>Lotus Villa, Anu Baruah Path, Gandhi Basti, Guwahati-03, PO Silpukhuri, Assam</t>
+  </si>
+  <si>
+    <t>Department of AGB, CVSc, AAU, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>Department of Animal Nutrition, CVSc, AAU,Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>HN 32, Parijat Path, Homeo College Road, PO Bagharbari, Guwahati-37</t>
+  </si>
+  <si>
+    <t>HN 10, Manikanchan Path, Lakhimi Path, Beltola, Guwahati-781028</t>
+  </si>
+  <si>
+    <t>Department of Anatomy and Histology, CVSc, AAU, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>HN 325, Survey, Beltola, Guwahati-28</t>
+  </si>
+  <si>
+    <t>HN 29, 11 Bylane, Jyotipath, Lakhiminagar, PO-Hatigaon, Guwahati-781038</t>
+  </si>
+  <si>
+    <t>Maidam-Bakarapara, House No 45, 5th Byelane, PO- Basistha, Kamrup, Guwahati, 781029, Assam</t>
+  </si>
+  <si>
+    <t>Dy. Director of Research,Directorate of Research (Vety) AAU, Khanapara</t>
+  </si>
+  <si>
+    <t>R. VAS. Chenikuthi, Guwahati-3, Bonda A.I. Sub Centre Guwahati-26</t>
+  </si>
+  <si>
+    <t>HN 29, 11 Bylane, Jyotipath, Lakhiminagar, Guwahati-781003</t>
+  </si>
+  <si>
+    <t>Production Officer. Institute of Vety. Biologicals, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>VAS. State Vety. Hospital, Nalbari, Dist. Nalbari</t>
+  </si>
+  <si>
+    <t>Epidemiologist, NERDDL, Animal Health Centre, Khanapara,</t>
+  </si>
+  <si>
+    <t>E.O. (Vety.) Titabar Dev. Block, TitabarDist. Jorhat, Assam</t>
+  </si>
+  <si>
+    <t>Chachal, Sixmile, Khanapara, Guwahati</t>
+  </si>
+  <si>
+    <t>VAS. State Vety. Dispensary, Nankarbhaira, Dist. Nalbari, Assam</t>
+  </si>
+  <si>
+    <t>VAS. Ganak Kuchi State Vety. Dispensary</t>
+  </si>
+  <si>
+    <t>HN 3, Santi path, Jayanagar, Sixmile, Khanapara</t>
+  </si>
+  <si>
+    <t>VAS. Sotemari State Vety. Dispensary, Nalbari, Dist. Nalbari, Assam</t>
+  </si>
+  <si>
+    <t>Block Veterinary officer, Pub Nalbari Block Veterinary Dispensary, Nandagaon, AMAYAPUR, Nalbari</t>
+  </si>
+  <si>
+    <t>Mangaldai, Ward no.8, Darrang, Assam- 784125</t>
+  </si>
+  <si>
+    <t>Associate Professor, Deppt. Of Pathology,CV Sc. AAU, Khanapara</t>
+  </si>
+  <si>
+    <t>HN 32, Masjid Road, Bagharbari, Satgaon, Guwahati-37</t>
+  </si>
+  <si>
+    <t>HN 39, Janapath, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>Krishi Vigyan Kendra, Dudhnoi, Goalpara, Assam</t>
+  </si>
+  <si>
+    <t>PALACIA PARK APARTMENT
+RADHANAGAR, SIXMILE, GUWAHATI -22</t>
+  </si>
+  <si>
+    <t>Department of ARGO, CVSc, AAU, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>VAS. State Vety. Dispensary, Thekeraguli, Morigaon, P.O. &amp; Dist. Morigaon, Assam</t>
+  </si>
+  <si>
+    <t>Vill &amp; PO Bori, Dist Nalbari, Pin 781338, Assam</t>
+  </si>
+  <si>
+    <t>Directorate of Research(Veterinary), AAU, Khanapara, Guwahati-22,Assam</t>
+  </si>
+  <si>
+    <t>Veterinary Clinical Complex, CVSc, AAU, Khanapara,Guwahati-22</t>
+  </si>
+  <si>
+    <t>Dept.. Of Poultry Science, CV. SC. AAU, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>HNO 4, Milan Path, Ambikagiri Nagar, PO- Zoo Road, PIN-781024</t>
+  </si>
+  <si>
+    <t>College of Veterinary Science and Animal Husbandry, CAU, SELESIH, AIZAWL, MIZORAM-796015</t>
+  </si>
+  <si>
+    <t>Department of Veterinary Anatomy and Histology, LCVSc, Lakhimpur, Assam</t>
+  </si>
+  <si>
+    <t>Department of Anatomy, College of Veterinary Science, Khanapara, Guwahati-781022</t>
+  </si>
+  <si>
+    <t>C/O: Lt Rupeswar Senapati,Phulaguri, Pachim Salmora, Nagaon, Assam- 782103 P.O - Phulaguri</t>
+  </si>
+  <si>
+    <t>Department of Animal Genetics and Breeding, CVSc, AAU, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>Vill Kochdiga,PO Hclana, Dist- Barpeta, PIN- 781375, Assam</t>
+  </si>
+  <si>
+    <t>Department of Paracytology, College of Veterinary Science, Khanapara, Guwahati-781022</t>
+  </si>
+  <si>
+    <t>Asstt. Prof. Deptt. of Microbiology, C,V. Sc. AAU, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>Department of Parasitology, CVSc,AAU, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>Vill PO Lahalial PS Bihpuria, Lakhimpur, Assam</t>
+  </si>
+  <si>
+    <t>Designation: Vety Officer 
+Place of posting: RAIC, Lahowal
+Dist: Dibrugarh
+Permanent address: C/o Umesh Ch Deori
+Sector 3, Bylane 7, Amrit Tamuli Path, Bordoloi Nagar, Tinsukia</t>
+  </si>
+  <si>
+    <t>Department of Veterinary Public Health, College of Veterinary Science Khanapara, Assam</t>
+  </si>
+  <si>
+    <t>Veterinary Clinical Complex, CVSc, AAU, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>HN 25, Navodoy Path, Hengarabari, Guwahati</t>
+  </si>
+  <si>
+    <t>Department of LPT, CVSc, AAU, Khanapara</t>
+  </si>
+  <si>
+    <t>Seujpur, Near Oil Well No 86, Moranhat, Pin-785670, Dist Saraideu</t>
+  </si>
+  <si>
+    <t>Jayanagar, Sixmile, Guwahati, Assam</t>
+  </si>
+  <si>
+    <t>Gotrisha Station, AO Byrnihaat</t>
+  </si>
+  <si>
+    <t>Department of ARGO, CVSc, Khanapara, Guwahati-22</t>
+  </si>
+  <si>
+    <t>Hatighuli, Amlokhitol, PS Gaurisagar, PO Hatighuli, PIN 785664</t>
+  </si>
+  <si>
+    <t>Jyotinagar Tiniali, Near- Nirmal Saikia water supply, P.O. Bamunimaidan, Guwahati- 781021</t>
+  </si>
+  <si>
+    <t>Vill. Kulapathar, Gohain Colony, Rly. Station Road, P.O. Arabhul, Dist. Dhemaji, Pin- 787057</t>
+  </si>
+  <si>
+    <t>Vill. Pukhuripar, P.O. Maharipara, Baksa, Pin- 781364</t>
+  </si>
+  <si>
+    <t>Sivasagar, Jugamaya Path</t>
+  </si>
+  <si>
+    <t>Vill. Kekerikuchi, P.O. Maranjana, Dist. Kamrup</t>
+  </si>
+  <si>
+    <t>Vill. Borparu (Pawan Kr. Road), P.O. + Dist. Bongaigaon,Pin- 783380</t>
+  </si>
+  <si>
+    <t>C/o. Mr. M. Deuri, Vill. Padmapur, P.O. Gabharu Tunijan, Dist. Lakhimpur</t>
+  </si>
+  <si>
+    <t>C/o. Sri Parag Saikia Junior Engineer, Bodoland University, Kokrajhar, Pin- 783370 (BTAD)</t>
+  </si>
+  <si>
+    <t>Vill. Kadamtala Bagisha, P.O. Bhakatpara, Dist. Darrang, Pin-784190</t>
+  </si>
+  <si>
+    <t>Vill. No.2, Goreswar, P.O. Goreswar, Dist. Baksa (BTAD), Pin- 781366</t>
+  </si>
+  <si>
+    <t>Vill. Amguri Ahomgaon, P.O.Batuamukh, P.S. Silapathar, Dist. Dhemaji, Pin- 787057</t>
+  </si>
+  <si>
+    <t>C/o. Dr.Binod Kumar Mili, Vill + P.O. Chariduar, P.S. Chariduar, Sonitpur, Pin- 784103</t>
+  </si>
+  <si>
+    <t>Rangia,ward no.3, Dist. Kamrup, Assam, Pin- 781354</t>
+  </si>
+  <si>
+    <t>Bordoloi Nagar, Tinsukia, Dist. Tinsukia, Pin- 786125</t>
+  </si>
+  <si>
+    <t>Pub Sarania Main Road, Kamrup, Pin- 781003</t>
+  </si>
+  <si>
+    <t>Vill. Bhotanta Mohitora, P.O. Bhotanta Saderi, P.S. Patacharkuchi, Dist. Barpeta, Pin- 781325</t>
+  </si>
+  <si>
+    <t>Bijulibari, P.O. Maroi, Dist. Darrang, Pin- 784145</t>
+  </si>
+  <si>
+    <t>Laokhata (Vill + P.O.) Baksa (BTC), Assam, Pin- 781327</t>
+  </si>
+  <si>
+    <t>CRCS Research Centre, Kahikuchi, Azara, Pin- 781017</t>
+  </si>
+  <si>
+    <t>Vill. Nihany chany P.O. Rahehoi, P.S. B. Chariali, Dist. Sonitpur, Pin- 784174</t>
+  </si>
+  <si>
+    <t>Nij Kodomoni, Near Thermal Colony, Boiragi Math, Dibrugarh, Pin- 786003</t>
+  </si>
+  <si>
+    <t>Lishang, Vill. Jonai, Dist. Dhemaji, P.O. Jonai, Pin- 787060</t>
+  </si>
+  <si>
+    <t>Town, Bantow, Ward No. 14, P.O. + P.S. Khelmati, Dist. Lakhimpur, Pin- 787001</t>
+  </si>
+  <si>
+    <t>Vill + P.O. Pubtharia, Dist. Kamrup, Pin- 781380</t>
+  </si>
+  <si>
+    <t>Vill. Deharkuriha, P.S. Saniadi, P.S. Hajo, Dist. Kamrup, Pin- 781102</t>
+  </si>
+  <si>
+    <t>Bimakanoi Part - II, Bimakanoi Ghat, P.O. Lakhimpur, Cachar, Pin- 788126</t>
+  </si>
+  <si>
+    <t>P.O. + P.S. Dergaon, H/No. 1, Jyotinagar, Dist. Golaghat, Assam, 785614, Ph. No. 88760 77138</t>
+  </si>
+  <si>
+    <t>Mangaldoi, Ward No.2, Khwajanagar, Dist. Kamrup, Pin- 781123</t>
+  </si>
+  <si>
+    <t>Khanikar gaon, P.O. Missamara, P.S. Dergaon, Dist. Golaghat, Pin- 785614</t>
+  </si>
+  <si>
+    <t>P.W.D. Colony, Rajagaon, Morigaon, Pin- 782105</t>
+  </si>
+  <si>
+    <t>Vill + P.O. - Arara, Dist. Nalbari, Pin- 7813311</t>
+  </si>
+  <si>
+    <t>Vill. Sonkuriha, P.O. Baga Road Chowk, Dist. Nalbari, Pin- 781353</t>
+  </si>
+  <si>
+    <t>Balikaria Kharjara, Gopalbazar, Nalbari, Pin- 781353</t>
+  </si>
+  <si>
+    <t>Chowkham gaon, P.O. Saboti, N. Lakhimpur, Assam 787051</t>
+  </si>
+  <si>
+    <t>Vill. Basanaghat, P.O. Manipur, Dist. + P.S. Morigaon, Pin- 782105</t>
+  </si>
+  <si>
+    <t>C/o. Joynal Abedin, Gouripur, Ward No. 4, P.O. &amp; P.S. Gouripur, Dist. Dhubri, Pin- 783331</t>
+  </si>
+  <si>
+    <t>Vill. Bhehpara Gaon, P.O. &amp; Dist. Dhemaji, Assam, Pin- 787057</t>
+  </si>
+  <si>
+    <t>Vill. Dalbari, P.O. Salmari, Dist. Morigaon, Pin- 782104</t>
+  </si>
+  <si>
+    <t>L.K. Path, Na-Ali, Bongal Pukhuri, Jorhat- 785001</t>
+  </si>
+  <si>
+    <t>Tetelia, Near Aloo Godown, P.O. Gotanagar, P.S. Goshala, Pin- 781033</t>
+  </si>
+  <si>
+    <t>Qtr. 202, Beltola, Guwahati-781028</t>
+  </si>
+  <si>
+    <t>Vill + P.O. Bhagawatipara, Dist. Kamrup, Pin- 781132</t>
+  </si>
+  <si>
+    <t>C/o. Suvantik Batertal, H/No. 305, Ward No. 6, L.B. Road, Karimganj, Pin- 788710</t>
   </si>
 </sst>
 </file>
@@ -25497,12 +27045,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -25543,7 +27103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -25593,10 +27153,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25986,10 +27555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1037"/>
+  <dimension ref="A1:U1240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1037" sqref="G1037:G1240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -86679,1739 +88248,7104 @@
       </c>
     </row>
     <row r="971" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A971" s="1"/>
-      <c r="B971" s="1"/>
-      <c r="C971" s="1"/>
-      <c r="D971" s="1"/>
-      <c r="E971" s="1" t="s">
+      <c r="A971" s="17"/>
+      <c r="B971" s="17"/>
+      <c r="C971" s="17"/>
+      <c r="D971" s="17"/>
+      <c r="E971" s="17" t="s">
         <v>8234</v>
       </c>
-      <c r="F971" s="17">
+      <c r="F971" s="18">
         <v>21922</v>
       </c>
-      <c r="G971" s="1" t="s">
+      <c r="G971" s="17" t="s">
         <v>8235</v>
       </c>
-      <c r="H971" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I971" s="1" t="s">
+      <c r="H971" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I971" s="17" t="s">
         <v>8335</v>
       </c>
-      <c r="J971" s="15">
+      <c r="J971" s="19">
         <v>9864132078</v>
       </c>
-      <c r="K971" s="1" t="s">
+      <c r="K971" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="972" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A972" s="1"/>
-      <c r="B972" s="1"/>
-      <c r="C972" s="1"/>
-      <c r="D972" s="1"/>
-      <c r="E972" s="1" t="s">
+      <c r="A972" s="17"/>
+      <c r="B972" s="17"/>
+      <c r="C972" s="17"/>
+      <c r="D972" s="17"/>
+      <c r="E972" s="17" t="s">
         <v>8236</v>
       </c>
-      <c r="F972" s="17">
+      <c r="F972" s="18">
         <v>22482</v>
       </c>
-      <c r="G972" s="1" t="s">
+      <c r="G972" s="17" t="s">
         <v>8237</v>
       </c>
-      <c r="H972" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I972" s="1" t="s">
+      <c r="H972" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I972" s="17" t="s">
         <v>8336</v>
       </c>
-      <c r="J972" s="15">
+      <c r="J972" s="19">
         <v>7896194704</v>
       </c>
-      <c r="K972" s="1" t="s">
+      <c r="K972" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="973" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A973" s="1"/>
-      <c r="B973" s="1"/>
-      <c r="C973" s="1"/>
-      <c r="D973" s="1"/>
-      <c r="E973" s="1" t="s">
+      <c r="A973" s="17"/>
+      <c r="B973" s="17"/>
+      <c r="C973" s="17"/>
+      <c r="D973" s="17"/>
+      <c r="E973" s="17" t="s">
         <v>8238</v>
       </c>
-      <c r="F973" s="17">
+      <c r="F973" s="18">
         <v>22706</v>
       </c>
-      <c r="G973" s="1" t="s">
+      <c r="G973" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H973" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I973" s="1" t="s">
+      <c r="H973" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I973" s="17" t="s">
         <v>8337</v>
       </c>
-      <c r="J973" s="15">
+      <c r="J973" s="19">
         <v>9435185211</v>
       </c>
-      <c r="K973" s="1" t="s">
+      <c r="K973" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="974" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A974" s="1"/>
-      <c r="B974" s="1"/>
-      <c r="C974" s="1"/>
-      <c r="D974" s="1"/>
-      <c r="E974" s="1" t="s">
+      <c r="A974" s="17"/>
+      <c r="B974" s="17"/>
+      <c r="C974" s="17"/>
+      <c r="D974" s="17"/>
+      <c r="E974" s="17" t="s">
         <v>8240</v>
       </c>
-      <c r="F974" s="17">
+      <c r="F974" s="18">
         <v>22288</v>
       </c>
-      <c r="G974" s="1" t="s">
+      <c r="G974" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H974" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I974" s="1" t="s">
+      <c r="H974" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I974" s="17" t="s">
         <v>8338</v>
       </c>
-      <c r="J974" s="15">
+      <c r="J974" s="19">
         <v>9435007601</v>
       </c>
-      <c r="K974" s="1" t="s">
+      <c r="K974" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="975" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A975" s="1"/>
-      <c r="B975" s="1"/>
-      <c r="C975" s="1"/>
-      <c r="D975" s="1"/>
-      <c r="E975" s="1" t="s">
+      <c r="A975" s="17"/>
+      <c r="B975" s="17"/>
+      <c r="C975" s="17"/>
+      <c r="D975" s="17"/>
+      <c r="E975" s="17" t="s">
         <v>8241</v>
       </c>
-      <c r="F975" s="17">
+      <c r="F975" s="18">
         <v>21620</v>
       </c>
-      <c r="G975" s="1" t="s">
+      <c r="G975" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H975" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I975" s="1" t="s">
+      <c r="H975" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I975" s="17" t="s">
         <v>8339</v>
       </c>
-      <c r="J975" s="15">
+      <c r="J975" s="19">
         <v>7086329911</v>
       </c>
-      <c r="K975" s="1" t="s">
+      <c r="K975" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="976" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A976" s="1"/>
-      <c r="B976" s="1"/>
-      <c r="C976" s="1"/>
-      <c r="D976" s="1"/>
-      <c r="E976" s="1" t="s">
+      <c r="A976" s="17"/>
+      <c r="B976" s="17"/>
+      <c r="C976" s="17"/>
+      <c r="D976" s="17"/>
+      <c r="E976" s="17" t="s">
         <v>8242</v>
       </c>
-      <c r="F976" s="17">
+      <c r="F976" s="18">
         <v>23798</v>
       </c>
-      <c r="G976" s="1" t="s">
+      <c r="G976" s="17" t="s">
         <v>8243</v>
       </c>
-      <c r="H976" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I976" s="1" t="s">
+      <c r="H976" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I976" s="17" t="s">
         <v>8340</v>
       </c>
-      <c r="J976" s="15">
+      <c r="J976" s="19">
         <v>9435749321</v>
       </c>
-      <c r="K976" s="1" t="s">
+      <c r="K976" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="977" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A977" s="1"/>
-      <c r="B977" s="1"/>
-      <c r="C977" s="1"/>
-      <c r="D977" s="1"/>
-      <c r="E977" s="1" t="s">
+      <c r="A977" s="17"/>
+      <c r="B977" s="17"/>
+      <c r="C977" s="17"/>
+      <c r="D977" s="17"/>
+      <c r="E977" s="17" t="s">
         <v>8244</v>
       </c>
-      <c r="F977" s="17">
+      <c r="F977" s="18">
         <v>20375</v>
       </c>
-      <c r="G977" s="1" t="s">
+      <c r="G977" s="17" t="s">
         <v>8245</v>
       </c>
-      <c r="H977" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I977" s="1" t="s">
+      <c r="H977" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I977" s="17" t="s">
         <v>8341</v>
       </c>
-      <c r="J977" s="15">
+      <c r="J977" s="19">
         <v>9435195118</v>
       </c>
-      <c r="K977" s="1" t="s">
+      <c r="K977" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="978" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A978" s="1"/>
-      <c r="B978" s="1"/>
-      <c r="C978" s="1"/>
-      <c r="D978" s="1"/>
-      <c r="E978" s="1" t="s">
+      <c r="A978" s="17"/>
+      <c r="B978" s="17"/>
+      <c r="C978" s="17"/>
+      <c r="D978" s="17"/>
+      <c r="E978" s="17" t="s">
         <v>8246</v>
       </c>
-      <c r="F978" s="17">
+      <c r="F978" s="18">
         <v>24167</v>
       </c>
-      <c r="G978" s="1" t="s">
+      <c r="G978" s="17" t="s">
         <v>8247</v>
       </c>
-      <c r="H978" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I978" s="1" t="s">
+      <c r="H978" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I978" s="17" t="s">
         <v>8342</v>
       </c>
-      <c r="J978" s="15">
+      <c r="J978" s="19">
         <v>9435110761</v>
       </c>
-      <c r="K978" s="1" t="s">
+      <c r="K978" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="979" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A979" s="1"/>
-      <c r="B979" s="1"/>
-      <c r="C979" s="1"/>
-      <c r="D979" s="1"/>
-      <c r="E979" s="1" t="s">
+      <c r="A979" s="17"/>
+      <c r="B979" s="17"/>
+      <c r="C979" s="17"/>
+      <c r="D979" s="17"/>
+      <c r="E979" s="17" t="s">
         <v>8248</v>
       </c>
-      <c r="F979" s="17">
+      <c r="F979" s="18">
         <v>23429</v>
       </c>
-      <c r="G979" s="1" t="s">
+      <c r="G979" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H979" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I979" s="1" t="s">
+      <c r="H979" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I979" s="17" t="s">
         <v>8343</v>
       </c>
-      <c r="J979" s="15">
+      <c r="J979" s="19">
         <v>8638428450</v>
       </c>
-      <c r="K979" s="1" t="s">
+      <c r="K979" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="980" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A980" s="1"/>
-      <c r="B980" s="1"/>
-      <c r="C980" s="1"/>
-      <c r="D980" s="1"/>
-      <c r="E980" s="1" t="s">
+      <c r="A980" s="17"/>
+      <c r="B980" s="17"/>
+      <c r="C980" s="17"/>
+      <c r="D980" s="17"/>
+      <c r="E980" s="17" t="s">
         <v>8249</v>
       </c>
-      <c r="F980" s="17">
+      <c r="F980" s="18">
         <v>23102</v>
       </c>
-      <c r="G980" s="1" t="s">
+      <c r="G980" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H980" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I980" s="1" t="s">
+      <c r="H980" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I980" s="17" t="s">
         <v>8344</v>
       </c>
-      <c r="J980" s="15">
+      <c r="J980" s="19">
         <v>9435127577</v>
       </c>
-      <c r="K980" s="1" t="s">
+      <c r="K980" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="981" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A981" s="1"/>
-      <c r="B981" s="1"/>
-      <c r="C981" s="1"/>
-      <c r="D981" s="1"/>
-      <c r="E981" s="1" t="s">
+      <c r="A981" s="17"/>
+      <c r="B981" s="17"/>
+      <c r="C981" s="17"/>
+      <c r="D981" s="17"/>
+      <c r="E981" s="17" t="s">
         <v>8250</v>
       </c>
-      <c r="F981" s="17">
+      <c r="F981" s="18">
         <v>22287</v>
       </c>
-      <c r="G981" s="1" t="s">
+      <c r="G981" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H981" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I981" s="1" t="s">
+      <c r="H981" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I981" s="17" t="s">
         <v>8345</v>
       </c>
-      <c r="J981" s="15">
+      <c r="J981" s="19">
         <v>9577011722</v>
       </c>
-      <c r="K981" s="1" t="s">
+      <c r="K981" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="982" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A982" s="1"/>
-      <c r="B982" s="1"/>
-      <c r="C982" s="1"/>
-      <c r="D982" s="1"/>
-      <c r="E982" s="1" t="s">
+      <c r="A982" s="17"/>
+      <c r="B982" s="17"/>
+      <c r="C982" s="17"/>
+      <c r="D982" s="17"/>
+      <c r="E982" s="17" t="s">
         <v>8251</v>
       </c>
-      <c r="F982" s="17">
+      <c r="F982" s="18">
         <v>24110</v>
       </c>
-      <c r="G982" s="1" t="s">
+      <c r="G982" s="17" t="s">
         <v>8252</v>
       </c>
-      <c r="H982" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I982" s="1" t="s">
+      <c r="H982" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I982" s="17" t="s">
         <v>8346</v>
       </c>
-      <c r="J982" s="15">
+      <c r="J982" s="19">
         <v>9954425354</v>
       </c>
-      <c r="K982" s="1" t="s">
+      <c r="K982" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="983" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A983" s="1"/>
-      <c r="B983" s="1"/>
-      <c r="C983" s="1"/>
-      <c r="D983" s="1"/>
-      <c r="E983" s="1" t="s">
+      <c r="A983" s="17"/>
+      <c r="B983" s="17"/>
+      <c r="C983" s="17"/>
+      <c r="D983" s="17"/>
+      <c r="E983" s="17" t="s">
         <v>8253</v>
       </c>
-      <c r="F983" s="17">
+      <c r="F983" s="18">
         <v>23224</v>
       </c>
-      <c r="G983" s="1" t="s">
+      <c r="G983" s="17" t="s">
         <v>8254</v>
       </c>
-      <c r="H983" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I983" s="1" t="s">
+      <c r="H983" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I983" s="17" t="s">
         <v>8347</v>
       </c>
-      <c r="J983" s="15"/>
-      <c r="K983" s="1" t="s">
+      <c r="J983" s="19"/>
+      <c r="K983" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="984" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A984" s="1"/>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="1"/>
-      <c r="E984" s="1" t="s">
+      <c r="A984" s="17"/>
+      <c r="B984" s="17"/>
+      <c r="C984" s="17"/>
+      <c r="D984" s="17"/>
+      <c r="E984" s="17" t="s">
         <v>8255</v>
       </c>
-      <c r="F984" s="17">
+      <c r="F984" s="18">
         <v>24166</v>
       </c>
-      <c r="G984" s="1" t="s">
+      <c r="G984" s="17" t="s">
         <v>8256</v>
       </c>
-      <c r="H984" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I984" s="1" t="s">
+      <c r="H984" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I984" s="17" t="s">
         <v>8348</v>
       </c>
-      <c r="J984" s="15">
+      <c r="J984" s="19">
         <v>7002655615</v>
       </c>
-      <c r="K984" s="1" t="s">
+      <c r="K984" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="985" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A985" s="1"/>
-      <c r="B985" s="1"/>
-      <c r="C985" s="1"/>
-      <c r="D985" s="1"/>
-      <c r="E985" s="1" t="s">
+      <c r="A985" s="17"/>
+      <c r="B985" s="17"/>
+      <c r="C985" s="17"/>
+      <c r="D985" s="17"/>
+      <c r="E985" s="17" t="s">
         <v>8257</v>
       </c>
-      <c r="F985" s="17">
+      <c r="F985" s="18">
         <v>24929</v>
       </c>
-      <c r="G985" s="1" t="s">
+      <c r="G985" s="17" t="s">
         <v>8258</v>
       </c>
-      <c r="H985" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I985" s="1" t="s">
+      <c r="H985" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I985" s="17" t="s">
         <v>8349</v>
       </c>
-      <c r="J985" s="15">
+      <c r="J985" s="19">
         <v>9435082741</v>
       </c>
-      <c r="K985" s="1" t="s">
+      <c r="K985" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="986" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="1"/>
-      <c r="E986" s="1" t="s">
+      <c r="A986" s="17"/>
+      <c r="B986" s="17"/>
+      <c r="C986" s="17"/>
+      <c r="D986" s="17"/>
+      <c r="E986" s="17" t="s">
         <v>8259</v>
       </c>
-      <c r="F986" s="17">
+      <c r="F986" s="18">
         <v>24504</v>
       </c>
-      <c r="G986" s="1" t="s">
+      <c r="G986" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H986" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I986" s="1" t="s">
+      <c r="H986" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I986" s="17" t="s">
         <v>8350</v>
       </c>
-      <c r="J986" s="15">
+      <c r="J986" s="19">
         <v>9435505584</v>
       </c>
-      <c r="K986" s="1" t="s">
+      <c r="K986" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="987" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="1"/>
-      <c r="D987" s="1"/>
-      <c r="E987" s="1" t="s">
+      <c r="A987" s="17"/>
+      <c r="B987" s="17"/>
+      <c r="C987" s="17"/>
+      <c r="D987" s="17"/>
+      <c r="E987" s="17" t="s">
         <v>8260</v>
       </c>
-      <c r="F987" s="17">
+      <c r="F987" s="18">
         <v>24193</v>
       </c>
-      <c r="G987" s="1" t="s">
+      <c r="G987" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H987" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I987" s="1" t="s">
+      <c r="H987" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I987" s="17" t="s">
         <v>8351</v>
       </c>
-      <c r="J987" s="15"/>
-      <c r="K987" s="1" t="s">
+      <c r="J987" s="19"/>
+      <c r="K987" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="988" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
-      <c r="C988" s="1"/>
-      <c r="D988" s="1"/>
-      <c r="E988" s="1" t="s">
+      <c r="A988" s="17"/>
+      <c r="B988" s="17"/>
+      <c r="C988" s="17"/>
+      <c r="D988" s="17"/>
+      <c r="E988" s="17" t="s">
         <v>8261</v>
       </c>
-      <c r="F988" s="17">
+      <c r="F988" s="18">
         <v>25263</v>
       </c>
-      <c r="G988" s="1" t="s">
+      <c r="G988" s="17" t="s">
         <v>8262</v>
       </c>
-      <c r="H988" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I988" s="1" t="s">
+      <c r="H988" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I988" s="17" t="s">
         <v>8352</v>
       </c>
-      <c r="J988" s="15">
+      <c r="J988" s="19">
         <v>9854289976</v>
       </c>
-      <c r="K988" s="1" t="s">
+      <c r="K988" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="989" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A989" s="1"/>
-      <c r="B989" s="1"/>
-      <c r="C989" s="1"/>
-      <c r="D989" s="1"/>
-      <c r="E989" s="1" t="s">
+      <c r="A989" s="17"/>
+      <c r="B989" s="17"/>
+      <c r="C989" s="17"/>
+      <c r="D989" s="17"/>
+      <c r="E989" s="17" t="s">
         <v>8263</v>
       </c>
-      <c r="F989" s="17">
+      <c r="F989" s="18">
         <v>24286</v>
       </c>
-      <c r="G989" s="1" t="s">
+      <c r="G989" s="17" t="s">
         <v>8264</v>
       </c>
-      <c r="H989" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I989" s="1" t="s">
+      <c r="H989" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I989" s="17" t="s">
         <v>8353</v>
       </c>
-      <c r="J989" s="15">
+      <c r="J989" s="19">
         <v>7002852103</v>
       </c>
-      <c r="K989" s="1" t="s">
+      <c r="K989" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="990" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-      <c r="E990" s="1" t="s">
+      <c r="A990" s="17"/>
+      <c r="B990" s="17"/>
+      <c r="C990" s="17"/>
+      <c r="D990" s="17"/>
+      <c r="E990" s="17" t="s">
         <v>8265</v>
       </c>
-      <c r="F990" s="17">
+      <c r="F990" s="18">
         <v>24898</v>
       </c>
-      <c r="G990" s="1" t="s">
+      <c r="G990" s="17" t="s">
         <v>8266</v>
       </c>
-      <c r="H990" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I990" s="1" t="s">
+      <c r="H990" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I990" s="17" t="s">
         <v>8354</v>
       </c>
-      <c r="J990" s="15">
+      <c r="J990" s="19">
         <v>9101892538</v>
       </c>
-      <c r="K990" s="1" t="s">
+      <c r="K990" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="991" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-      <c r="E991" s="1" t="s">
+      <c r="A991" s="17"/>
+      <c r="B991" s="17"/>
+      <c r="C991" s="17"/>
+      <c r="D991" s="17"/>
+      <c r="E991" s="17" t="s">
         <v>8267</v>
       </c>
-      <c r="F991" s="17">
+      <c r="F991" s="18">
         <v>24898</v>
       </c>
-      <c r="G991" s="1" t="s">
+      <c r="G991" s="17" t="s">
         <v>8268</v>
       </c>
-      <c r="H991" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I991" s="1" t="s">
+      <c r="H991" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I991" s="17" t="s">
         <v>8355</v>
       </c>
-      <c r="J991" s="15">
+      <c r="J991" s="19">
         <v>7086409597</v>
       </c>
-      <c r="K991" s="1" t="s">
+      <c r="K991" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="992" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
-      <c r="E992" s="1" t="s">
+      <c r="A992" s="17"/>
+      <c r="B992" s="17"/>
+      <c r="C992" s="17"/>
+      <c r="D992" s="17"/>
+      <c r="E992" s="17" t="s">
         <v>8269</v>
       </c>
-      <c r="F992" s="17">
+      <c r="F992" s="18">
         <v>19360</v>
       </c>
-      <c r="G992" s="1" t="s">
+      <c r="G992" s="17" t="s">
         <v>8270</v>
       </c>
-      <c r="H992" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I992" s="1" t="s">
+      <c r="H992" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I992" s="17" t="s">
         <v>8356</v>
       </c>
-      <c r="J992" s="15">
+      <c r="J992" s="19">
         <v>9435303966</v>
       </c>
-      <c r="K992" s="1" t="s">
+      <c r="K992" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="993" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-      <c r="E993" s="1" t="s">
+      <c r="A993" s="17"/>
+      <c r="B993" s="17"/>
+      <c r="C993" s="17"/>
+      <c r="D993" s="17"/>
+      <c r="E993" s="17" t="s">
         <v>8271</v>
       </c>
-      <c r="F993" s="17">
+      <c r="F993" s="18">
         <v>25263</v>
       </c>
-      <c r="G993" s="1" t="s">
+      <c r="G993" s="17" t="s">
         <v>8272</v>
       </c>
-      <c r="H993" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I993" s="1" t="s">
+      <c r="H993" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I993" s="17" t="s">
         <v>8357</v>
       </c>
-      <c r="J993" s="15"/>
-      <c r="K993" s="1" t="s">
+      <c r="J993" s="19"/>
+      <c r="K993" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="994" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1" t="s">
+      <c r="A994" s="17"/>
+      <c r="B994" s="17"/>
+      <c r="C994" s="17"/>
+      <c r="D994" s="17"/>
+      <c r="E994" s="17" t="s">
         <v>8273</v>
       </c>
-      <c r="F994" s="17">
+      <c r="F994" s="18">
         <v>24926</v>
       </c>
-      <c r="G994" s="1" t="s">
+      <c r="G994" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H994" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I994" s="1" t="s">
+      <c r="H994" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I994" s="17" t="s">
         <v>8358</v>
       </c>
-      <c r="J994" s="15">
+      <c r="J994" s="19">
         <v>9419011945</v>
       </c>
-      <c r="K994" s="1" t="s">
+      <c r="K994" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="995" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1" t="s">
+      <c r="A995" s="17"/>
+      <c r="B995" s="17"/>
+      <c r="C995" s="17"/>
+      <c r="D995" s="17"/>
+      <c r="E995" s="17" t="s">
         <v>8274</v>
       </c>
-      <c r="F995" s="17">
+      <c r="F995" s="18">
         <v>25628</v>
       </c>
-      <c r="G995" s="1" t="s">
+      <c r="G995" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H995" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I995" s="1" t="s">
+      <c r="H995" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I995" s="17" t="s">
         <v>8359</v>
       </c>
-      <c r="J995" s="15">
+      <c r="J995" s="19">
         <v>9435083281</v>
       </c>
-      <c r="K995" s="1" t="s">
+      <c r="K995" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="996" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1" t="s">
+      <c r="A996" s="17"/>
+      <c r="B996" s="17"/>
+      <c r="C996" s="17"/>
+      <c r="D996" s="17"/>
+      <c r="E996" s="17" t="s">
         <v>8275</v>
       </c>
-      <c r="F996" s="17">
+      <c r="F996" s="18">
         <v>26682</v>
       </c>
-      <c r="G996" s="1" t="s">
+      <c r="G996" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H996" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I996" s="1" t="s">
+      <c r="H996" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I996" s="17" t="s">
         <v>8360</v>
       </c>
-      <c r="J996" s="15"/>
-      <c r="K996" s="1" t="s">
+      <c r="J996" s="19"/>
+      <c r="K996" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="997" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1" t="s">
+      <c r="A997" s="17"/>
+      <c r="B997" s="17"/>
+      <c r="C997" s="17"/>
+      <c r="D997" s="17"/>
+      <c r="E997" s="17" t="s">
         <v>8276</v>
       </c>
-      <c r="F997" s="17">
+      <c r="F997" s="18">
         <v>27082</v>
       </c>
-      <c r="G997" s="1" t="s">
+      <c r="G997" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H997" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I997" s="1" t="s">
+      <c r="H997" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I997" s="17" t="s">
         <v>8361</v>
       </c>
-      <c r="J997" s="15"/>
-      <c r="K997" s="1" t="s">
+      <c r="J997" s="19"/>
+      <c r="K997" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="998" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1" t="s">
+      <c r="A998" s="17"/>
+      <c r="B998" s="17"/>
+      <c r="C998" s="17"/>
+      <c r="D998" s="17"/>
+      <c r="E998" s="17" t="s">
         <v>8277</v>
       </c>
-      <c r="F998" s="17">
+      <c r="F998" s="18">
         <v>27049</v>
       </c>
-      <c r="G998" s="1" t="s">
+      <c r="G998" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H998" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I998" s="1" t="s">
+      <c r="H998" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I998" s="17" t="s">
         <v>8362</v>
       </c>
-      <c r="J998" s="15">
+      <c r="J998" s="19">
         <v>8811014787</v>
       </c>
-      <c r="K998" s="1" t="s">
+      <c r="K998" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="999" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1" t="s">
+      <c r="A999" s="17"/>
+      <c r="B999" s="17"/>
+      <c r="C999" s="17"/>
+      <c r="D999" s="17"/>
+      <c r="E999" s="17" t="s">
         <v>8278</v>
       </c>
-      <c r="F999" s="17">
+      <c r="F999" s="18">
         <v>27287</v>
       </c>
-      <c r="G999" s="1" t="s">
+      <c r="G999" s="17" t="s">
         <v>8279</v>
       </c>
-      <c r="H999" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I999" s="1" t="s">
+      <c r="H999" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I999" s="17" t="s">
         <v>8363</v>
       </c>
-      <c r="J999" s="15">
+      <c r="J999" s="19">
         <v>8837262227</v>
       </c>
-      <c r="K999" s="1" t="s">
+      <c r="K999" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1000" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1" t="s">
+      <c r="A1000" s="17"/>
+      <c r="B1000" s="17"/>
+      <c r="C1000" s="17"/>
+      <c r="D1000" s="17"/>
+      <c r="E1000" s="17" t="s">
         <v>8280</v>
       </c>
-      <c r="F1000" s="17">
+      <c r="F1000" s="18">
         <v>27504</v>
       </c>
-      <c r="G1000" s="1" t="s">
+      <c r="G1000" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1000" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1000" s="1" t="s">
+      <c r="H1000" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1000" s="17" t="s">
         <v>8364</v>
       </c>
-      <c r="J1000" s="15">
+      <c r="J1000" s="19">
         <v>9854047807</v>
       </c>
-      <c r="K1000" s="1" t="s">
+      <c r="K1000" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1001" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1" t="s">
+      <c r="A1001" s="17"/>
+      <c r="B1001" s="17"/>
+      <c r="C1001" s="17"/>
+      <c r="D1001" s="17"/>
+      <c r="E1001" s="17" t="s">
         <v>8281</v>
       </c>
-      <c r="F1001" s="17">
+      <c r="F1001" s="18">
         <v>25902</v>
       </c>
-      <c r="G1001" s="1" t="s">
+      <c r="G1001" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1001" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1001" s="1" t="s">
+      <c r="H1001" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1001" s="17" t="s">
         <v>8365</v>
       </c>
-      <c r="J1001" s="15">
+      <c r="J1001" s="19">
         <v>8011785954</v>
       </c>
-      <c r="K1001" s="1" t="s">
+      <c r="K1001" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1002" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1"/>
-      <c r="E1002" s="1" t="s">
+      <c r="A1002" s="17"/>
+      <c r="B1002" s="17"/>
+      <c r="C1002" s="17"/>
+      <c r="D1002" s="17"/>
+      <c r="E1002" s="17" t="s">
         <v>8282</v>
       </c>
-      <c r="F1002" s="17">
+      <c r="F1002" s="18">
         <v>26011</v>
       </c>
-      <c r="G1002" s="1" t="s">
+      <c r="G1002" s="17" t="s">
         <v>8283</v>
       </c>
-      <c r="H1002" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1002" s="1" t="s">
+      <c r="H1002" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1002" s="17" t="s">
         <v>8366</v>
       </c>
-      <c r="J1002" s="15">
+      <c r="J1002" s="19">
         <v>9435702388</v>
       </c>
-      <c r="K1002" s="1" t="s">
+      <c r="K1002" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1003" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1" t="s">
+      <c r="A1003" s="17"/>
+      <c r="B1003" s="17"/>
+      <c r="C1003" s="17"/>
+      <c r="D1003" s="17"/>
+      <c r="E1003" s="17" t="s">
         <v>8284</v>
       </c>
-      <c r="F1003" s="17">
+      <c r="F1003" s="18">
         <v>27334</v>
       </c>
-      <c r="G1003" s="1" t="s">
+      <c r="G1003" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1003" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1003" s="1" t="s">
+      <c r="H1003" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1003" s="17" t="s">
         <v>8367</v>
       </c>
-      <c r="J1003" s="15">
+      <c r="J1003" s="19">
         <v>8753885884</v>
       </c>
-      <c r="K1003" s="1" t="s">
+      <c r="K1003" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1004" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1004" s="1"/>
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="1"/>
-      <c r="D1004" s="1"/>
-      <c r="E1004" s="1" t="s">
+      <c r="A1004" s="17"/>
+      <c r="B1004" s="17"/>
+      <c r="C1004" s="17"/>
+      <c r="D1004" s="17"/>
+      <c r="E1004" s="17" t="s">
         <v>8285</v>
       </c>
-      <c r="F1004" s="17">
+      <c r="F1004" s="18">
         <v>26724</v>
       </c>
-      <c r="G1004" s="1" t="s">
+      <c r="G1004" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1004" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1004" s="1" t="s">
+      <c r="H1004" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1004" s="17" t="s">
         <v>8368</v>
       </c>
-      <c r="J1004" s="15">
+      <c r="J1004" s="19">
         <v>9435041951</v>
       </c>
-      <c r="K1004" s="1" t="s">
+      <c r="K1004" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1005" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1005" s="1"/>
-      <c r="B1005" s="1"/>
-      <c r="C1005" s="1"/>
-      <c r="D1005" s="1"/>
-      <c r="E1005" s="1" t="s">
+      <c r="A1005" s="17"/>
+      <c r="B1005" s="17"/>
+      <c r="C1005" s="17"/>
+      <c r="D1005" s="17"/>
+      <c r="E1005" s="17" t="s">
         <v>8286</v>
       </c>
-      <c r="F1005" s="17">
+      <c r="F1005" s="18">
         <v>27426</v>
       </c>
-      <c r="G1005" s="1" t="s">
+      <c r="G1005" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1005" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1005" s="1" t="s">
+      <c r="H1005" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1005" s="17" t="s">
         <v>8369</v>
       </c>
-      <c r="J1005" s="15">
+      <c r="J1005" s="19">
         <v>8402046333</v>
       </c>
-      <c r="K1005" s="1" t="s">
+      <c r="K1005" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1006" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1006" s="1"/>
-      <c r="B1006" s="1"/>
-      <c r="C1006" s="1"/>
-      <c r="D1006" s="1"/>
-      <c r="E1006" s="1" t="s">
+      <c r="A1006" s="17"/>
+      <c r="B1006" s="17"/>
+      <c r="C1006" s="17"/>
+      <c r="D1006" s="17"/>
+      <c r="E1006" s="17" t="s">
         <v>8287</v>
       </c>
-      <c r="F1006" s="17">
+      <c r="F1006" s="18">
         <v>26724</v>
       </c>
-      <c r="G1006" s="1" t="s">
+      <c r="G1006" s="17" t="s">
         <v>8288</v>
       </c>
-      <c r="H1006" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1006" s="1" t="s">
+      <c r="H1006" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1006" s="17" t="s">
         <v>8370</v>
       </c>
-      <c r="J1006" s="15">
+      <c r="J1006" s="19">
         <v>7002585745</v>
       </c>
-      <c r="K1006" s="1" t="s">
+      <c r="K1006" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1007" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1007" s="1"/>
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="1"/>
-      <c r="E1007" s="1" t="s">
+      <c r="A1007" s="17"/>
+      <c r="B1007" s="17"/>
+      <c r="C1007" s="17"/>
+      <c r="D1007" s="17"/>
+      <c r="E1007" s="17" t="s">
         <v>8289</v>
       </c>
-      <c r="F1007" s="17">
+      <c r="F1007" s="18">
         <v>25993</v>
       </c>
-      <c r="G1007" s="1" t="s">
+      <c r="G1007" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1007" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1007" s="1" t="s">
+      <c r="H1007" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1007" s="17" t="s">
         <v>8371</v>
       </c>
-      <c r="J1007" s="15">
+      <c r="J1007" s="19">
         <v>9435182806</v>
       </c>
-      <c r="K1007" s="1" t="s">
+      <c r="K1007" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1008" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1008" s="1"/>
-      <c r="B1008" s="1"/>
-      <c r="C1008" s="1"/>
-      <c r="D1008" s="1"/>
-      <c r="E1008" s="1" t="s">
+      <c r="A1008" s="17"/>
+      <c r="B1008" s="17"/>
+      <c r="C1008" s="17"/>
+      <c r="D1008" s="17"/>
+      <c r="E1008" s="17" t="s">
         <v>8290</v>
       </c>
-      <c r="F1008" s="17">
+      <c r="F1008" s="18">
         <v>24926</v>
       </c>
-      <c r="G1008" s="1" t="s">
+      <c r="G1008" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1008" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1008" s="1" t="s">
+      <c r="H1008" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1008" s="17" t="s">
         <v>8372</v>
       </c>
-      <c r="J1008" s="15">
+      <c r="J1008" s="19">
         <v>9435125082</v>
       </c>
-      <c r="K1008" s="1" t="s">
+      <c r="K1008" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1009" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1009" s="1"/>
-      <c r="B1009" s="1"/>
-      <c r="C1009" s="1"/>
-      <c r="D1009" s="1"/>
-      <c r="E1009" s="1" t="s">
+      <c r="A1009" s="17"/>
+      <c r="B1009" s="17"/>
+      <c r="C1009" s="17"/>
+      <c r="D1009" s="17"/>
+      <c r="E1009" s="17" t="s">
         <v>8291</v>
       </c>
-      <c r="F1009" s="17">
+      <c r="F1009" s="18">
         <v>27072</v>
       </c>
-      <c r="G1009" s="1" t="s">
+      <c r="G1009" s="17" t="s">
         <v>8292</v>
       </c>
-      <c r="H1009" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1009" s="1" t="s">
+      <c r="H1009" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1009" s="17" t="s">
         <v>8373</v>
       </c>
-      <c r="J1009" s="15">
+      <c r="J1009" s="19">
         <v>7002324548</v>
       </c>
-      <c r="K1009" s="1" t="s">
+      <c r="K1009" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1010" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1010" s="1"/>
-      <c r="B1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="1"/>
-      <c r="E1010" s="1" t="s">
+      <c r="A1010" s="17"/>
+      <c r="B1010" s="17"/>
+      <c r="C1010" s="17"/>
+      <c r="D1010" s="17"/>
+      <c r="E1010" s="17" t="s">
         <v>8293</v>
       </c>
-      <c r="F1010" s="17">
+      <c r="F1010" s="18">
         <v>27791</v>
       </c>
-      <c r="G1010" s="1" t="s">
+      <c r="G1010" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1010" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1010" s="1" t="s">
+      <c r="H1010" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1010" s="17" t="s">
         <v>8374</v>
       </c>
-      <c r="J1010" s="15">
+      <c r="J1010" s="19">
         <v>8473906605</v>
       </c>
-      <c r="K1010" s="1" t="s">
+      <c r="K1010" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1011" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1011" s="1"/>
-      <c r="B1011" s="1"/>
-      <c r="C1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1" t="s">
+      <c r="A1011" s="17"/>
+      <c r="B1011" s="17"/>
+      <c r="C1011" s="17"/>
+      <c r="D1011" s="17"/>
+      <c r="E1011" s="17" t="s">
         <v>8294</v>
       </c>
-      <c r="F1011" s="17">
+      <c r="F1011" s="18">
         <v>27608</v>
       </c>
-      <c r="G1011" s="1" t="s">
+      <c r="G1011" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1011" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1011" s="1" t="s">
+      <c r="H1011" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1011" s="17" t="s">
         <v>8375</v>
       </c>
-      <c r="J1011" s="15"/>
-      <c r="K1011" s="1" t="s">
+      <c r="J1011" s="19"/>
+      <c r="K1011" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1012" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1012" s="1"/>
-      <c r="B1012" s="1"/>
-      <c r="C1012" s="1"/>
-      <c r="D1012" s="1"/>
-      <c r="E1012" s="1" t="s">
+      <c r="A1012" s="17"/>
+      <c r="B1012" s="17"/>
+      <c r="C1012" s="17"/>
+      <c r="D1012" s="17"/>
+      <c r="E1012" s="17" t="s">
         <v>8295</v>
       </c>
-      <c r="F1012" s="17">
+      <c r="F1012" s="18">
         <v>27691</v>
       </c>
-      <c r="G1012" s="1" t="s">
+      <c r="G1012" s="17" t="s">
         <v>8296</v>
       </c>
-      <c r="H1012" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1012" s="1" t="s">
+      <c r="H1012" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1012" s="17" t="s">
         <v>8376</v>
       </c>
-      <c r="J1012" s="15">
+      <c r="J1012" s="19">
         <v>8981558104</v>
       </c>
-      <c r="K1012" s="1" t="s">
+      <c r="K1012" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1013" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1013" s="1"/>
-      <c r="B1013" s="1"/>
-      <c r="C1013" s="1"/>
-      <c r="D1013" s="1"/>
-      <c r="E1013" s="1" t="s">
+      <c r="A1013" s="17"/>
+      <c r="B1013" s="17"/>
+      <c r="C1013" s="17"/>
+      <c r="D1013" s="17"/>
+      <c r="E1013" s="17" t="s">
         <v>8297</v>
       </c>
-      <c r="F1013" s="17">
+      <c r="F1013" s="18">
         <v>26944</v>
       </c>
-      <c r="G1013" s="1" t="s">
+      <c r="G1013" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1013" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1013" s="1" t="s">
+      <c r="H1013" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1013" s="17" t="s">
         <v>8377</v>
       </c>
-      <c r="J1013" s="15">
+      <c r="J1013" s="19">
         <v>9401057456</v>
       </c>
-      <c r="K1013" s="1" t="s">
+      <c r="K1013" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1014" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1014" s="1"/>
-      <c r="B1014" s="1"/>
-      <c r="C1014" s="1"/>
-      <c r="D1014" s="1"/>
-      <c r="E1014" s="1" t="s">
+      <c r="A1014" s="17"/>
+      <c r="B1014" s="17"/>
+      <c r="C1014" s="17"/>
+      <c r="D1014" s="17"/>
+      <c r="E1014" s="17" t="s">
         <v>8298</v>
       </c>
-      <c r="F1014" s="17">
+      <c r="F1014" s="18">
         <v>27023</v>
       </c>
-      <c r="G1014" s="1" t="s">
+      <c r="G1014" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1014" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1014" s="1" t="s">
+      <c r="H1014" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1014" s="17" t="s">
         <v>8378</v>
       </c>
-      <c r="J1014" s="15">
+      <c r="J1014" s="19">
         <v>9818941573</v>
       </c>
-      <c r="K1014" s="1" t="s">
+      <c r="K1014" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1015" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1015" s="1"/>
-      <c r="B1015" s="1"/>
-      <c r="C1015" s="1"/>
-      <c r="D1015" s="1"/>
-      <c r="E1015" s="1" t="s">
+      <c r="A1015" s="17"/>
+      <c r="B1015" s="17"/>
+      <c r="C1015" s="17"/>
+      <c r="D1015" s="17"/>
+      <c r="E1015" s="17" t="s">
         <v>8299</v>
       </c>
-      <c r="F1015" s="17">
+      <c r="F1015" s="18">
         <v>27819</v>
       </c>
-      <c r="G1015" s="1" t="s">
+      <c r="G1015" s="17" t="s">
         <v>8300</v>
       </c>
-      <c r="H1015" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1015" s="1" t="s">
+      <c r="H1015" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1015" s="17" t="s">
         <v>8379</v>
       </c>
-      <c r="J1015" s="15">
+      <c r="J1015" s="19">
         <v>9854243438</v>
       </c>
-      <c r="K1015" s="1" t="s">
+      <c r="K1015" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1016" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1016" s="1"/>
-      <c r="B1016" s="1"/>
-      <c r="C1016" s="1"/>
-      <c r="D1016" s="1"/>
-      <c r="E1016" s="1" t="s">
+      <c r="A1016" s="17"/>
+      <c r="B1016" s="17"/>
+      <c r="C1016" s="17"/>
+      <c r="D1016" s="17"/>
+      <c r="E1016" s="17" t="s">
         <v>8301</v>
       </c>
-      <c r="F1016" s="17">
+      <c r="F1016" s="18">
         <v>28185</v>
       </c>
-      <c r="G1016" s="1" t="s">
+      <c r="G1016" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1016" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1016" s="1" t="s">
+      <c r="H1016" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1016" s="17" t="s">
         <v>8380</v>
       </c>
-      <c r="J1016" s="15"/>
-      <c r="K1016" s="1" t="s">
+      <c r="J1016" s="19"/>
+      <c r="K1016" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1017" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1017" s="1"/>
-      <c r="B1017" s="1"/>
-      <c r="C1017" s="1"/>
-      <c r="D1017" s="1"/>
-      <c r="E1017" s="1" t="s">
+      <c r="A1017" s="17"/>
+      <c r="B1017" s="17"/>
+      <c r="C1017" s="17"/>
+      <c r="D1017" s="17"/>
+      <c r="E1017" s="17" t="s">
         <v>8302</v>
       </c>
-      <c r="F1017" s="17">
+      <c r="F1017" s="18">
         <v>27638</v>
       </c>
-      <c r="G1017" s="1" t="s">
+      <c r="G1017" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1017" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1017" s="1" t="s">
+      <c r="H1017" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1017" s="17" t="s">
         <v>8381</v>
       </c>
-      <c r="J1017" s="15"/>
-      <c r="K1017" s="1" t="s">
+      <c r="J1017" s="19"/>
+      <c r="K1017" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1018" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1018" s="1"/>
-      <c r="B1018" s="1"/>
-      <c r="C1018" s="1"/>
-      <c r="D1018" s="1"/>
-      <c r="E1018" s="1" t="s">
+      <c r="A1018" s="17"/>
+      <c r="B1018" s="17"/>
+      <c r="C1018" s="17"/>
+      <c r="D1018" s="17"/>
+      <c r="E1018" s="17" t="s">
         <v>8303</v>
       </c>
-      <c r="F1018" s="17">
+      <c r="F1018" s="18">
         <v>28156</v>
       </c>
-      <c r="G1018" s="1" t="s">
+      <c r="G1018" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1018" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1018" s="1" t="s">
+      <c r="H1018" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1018" s="17" t="s">
         <v>8382</v>
       </c>
-      <c r="J1018" s="15"/>
-      <c r="K1018" s="1" t="s">
+      <c r="J1018" s="19"/>
+      <c r="K1018" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1019" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1019" s="1"/>
-      <c r="B1019" s="1"/>
-      <c r="C1019" s="1"/>
-      <c r="D1019" s="1"/>
-      <c r="E1019" s="1" t="s">
+      <c r="A1019" s="17"/>
+      <c r="B1019" s="17"/>
+      <c r="C1019" s="17"/>
+      <c r="D1019" s="17"/>
+      <c r="E1019" s="17" t="s">
         <v>8304</v>
       </c>
-      <c r="F1019" s="17">
+      <c r="F1019" s="18">
         <v>27682</v>
       </c>
-      <c r="G1019" s="1" t="s">
+      <c r="G1019" s="17" t="s">
         <v>8305</v>
       </c>
-      <c r="H1019" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1019" s="1" t="s">
+      <c r="H1019" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1019" s="17" t="s">
         <v>8383</v>
       </c>
-      <c r="J1019" s="15">
+      <c r="J1019" s="19">
         <v>7002039865</v>
       </c>
-      <c r="K1019" s="1" t="s">
+      <c r="K1019" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1020" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1020" s="1"/>
-      <c r="B1020" s="1"/>
-      <c r="C1020" s="1"/>
-      <c r="D1020" s="1"/>
-      <c r="E1020" s="1" t="s">
+      <c r="A1020" s="17"/>
+      <c r="B1020" s="17"/>
+      <c r="C1020" s="17"/>
+      <c r="D1020" s="17"/>
+      <c r="E1020" s="17" t="s">
         <v>8306</v>
       </c>
-      <c r="F1020" s="17">
+      <c r="F1020" s="18">
         <v>29027</v>
       </c>
-      <c r="G1020" s="1" t="s">
+      <c r="G1020" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1020" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1020" s="1" t="s">
+      <c r="H1020" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1020" s="17" t="s">
         <v>8384</v>
       </c>
-      <c r="J1020" s="15">
+      <c r="J1020" s="19">
         <v>9866421693</v>
       </c>
-      <c r="K1020" s="1" t="s">
+      <c r="K1020" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1021" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1021" s="1"/>
-      <c r="B1021" s="1"/>
-      <c r="C1021" s="1"/>
-      <c r="D1021" s="1"/>
-      <c r="E1021" s="1" t="s">
+      <c r="A1021" s="17"/>
+      <c r="B1021" s="17"/>
+      <c r="C1021" s="17"/>
+      <c r="D1021" s="17"/>
+      <c r="E1021" s="17" t="s">
         <v>8307</v>
       </c>
-      <c r="F1021" s="17">
+      <c r="F1021" s="18">
         <v>29646</v>
       </c>
-      <c r="G1021" s="1" t="s">
+      <c r="G1021" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1021" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1021" s="1" t="s">
+      <c r="H1021" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1021" s="17" t="s">
         <v>8385</v>
       </c>
-      <c r="J1021" s="15"/>
-      <c r="K1021" s="1" t="s">
+      <c r="J1021" s="19"/>
+      <c r="K1021" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1022" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1022" s="1"/>
-      <c r="B1022" s="1"/>
-      <c r="C1022" s="1"/>
-      <c r="D1022" s="1"/>
-      <c r="E1022" s="1" t="s">
+      <c r="A1022" s="17"/>
+      <c r="B1022" s="17"/>
+      <c r="C1022" s="17"/>
+      <c r="D1022" s="17"/>
+      <c r="E1022" s="17" t="s">
         <v>8308</v>
       </c>
-      <c r="F1022" s="17">
+      <c r="F1022" s="18">
         <v>29281</v>
       </c>
-      <c r="G1022" s="1" t="s">
+      <c r="G1022" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1022" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1022" s="1" t="s">
+      <c r="H1022" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1022" s="17" t="s">
         <v>8386</v>
       </c>
-      <c r="J1022" s="15"/>
-      <c r="K1022" s="1" t="s">
+      <c r="J1022" s="19"/>
+      <c r="K1022" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1023" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1023" s="1"/>
-      <c r="B1023" s="1"/>
-      <c r="C1023" s="1"/>
-      <c r="D1023" s="1"/>
-      <c r="E1023" s="1" t="s">
+      <c r="A1023" s="17"/>
+      <c r="B1023" s="17"/>
+      <c r="C1023" s="17"/>
+      <c r="D1023" s="17"/>
+      <c r="E1023" s="17" t="s">
         <v>8309</v>
       </c>
-      <c r="F1023" s="17">
+      <c r="F1023" s="18">
         <v>31803</v>
       </c>
-      <c r="G1023" s="1" t="s">
+      <c r="G1023" s="17" t="s">
         <v>8239</v>
       </c>
-      <c r="H1023" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1023" s="1" t="s">
+      <c r="H1023" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1023" s="17" t="s">
         <v>8387</v>
       </c>
-      <c r="J1023" s="15"/>
-      <c r="K1023" s="1" t="s">
+      <c r="J1023" s="19"/>
+      <c r="K1023" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1024" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1024" s="1"/>
-      <c r="B1024" s="1"/>
-      <c r="C1024" s="1"/>
-      <c r="D1024" s="1"/>
-      <c r="E1024" s="1" t="s">
+      <c r="A1024" s="17"/>
+      <c r="B1024" s="17"/>
+      <c r="C1024" s="17"/>
+      <c r="D1024" s="17"/>
+      <c r="E1024" s="17" t="s">
         <v>8310</v>
       </c>
-      <c r="F1024" s="17">
+      <c r="F1024" s="18">
         <v>25628</v>
       </c>
-      <c r="G1024" s="1" t="s">
+      <c r="G1024" s="17" t="s">
         <v>8311</v>
       </c>
-      <c r="H1024" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1024" s="1" t="s">
+      <c r="H1024" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1024" s="17" t="s">
         <v>8388</v>
       </c>
-      <c r="J1024" s="15">
+      <c r="J1024" s="19">
         <v>8473085326</v>
       </c>
-      <c r="K1024" s="1" t="s">
+      <c r="K1024" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1025" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1025" s="1"/>
-      <c r="B1025" s="1"/>
-      <c r="C1025" s="1"/>
-      <c r="D1025" s="1"/>
-      <c r="E1025" s="1" t="s">
+      <c r="A1025" s="17"/>
+      <c r="B1025" s="17"/>
+      <c r="C1025" s="17"/>
+      <c r="D1025" s="17"/>
+      <c r="E1025" s="17" t="s">
         <v>8312</v>
       </c>
-      <c r="F1025" s="17">
+      <c r="F1025" s="18">
         <v>34360</v>
       </c>
-      <c r="G1025" s="1" t="s">
+      <c r="G1025" s="17" t="s">
         <v>8313</v>
       </c>
-      <c r="H1025" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1025" s="1" t="s">
+      <c r="H1025" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1025" s="17" t="s">
         <v>8389</v>
       </c>
-      <c r="J1025" s="15">
+      <c r="J1025" s="19">
         <v>7002739184</v>
       </c>
-      <c r="K1025" s="1" t="s">
+      <c r="K1025" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1026" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1026" s="1"/>
-      <c r="B1026" s="1"/>
-      <c r="C1026" s="1"/>
-      <c r="D1026" s="1"/>
-      <c r="E1026" s="1" t="s">
+      <c r="A1026" s="17"/>
+      <c r="B1026" s="17"/>
+      <c r="C1026" s="17"/>
+      <c r="D1026" s="17"/>
+      <c r="E1026" s="17" t="s">
         <v>8314</v>
       </c>
-      <c r="F1026" s="17">
+      <c r="F1026" s="18">
         <v>34366</v>
       </c>
-      <c r="G1026" s="1" t="s">
+      <c r="G1026" s="17" t="s">
         <v>8315</v>
       </c>
-      <c r="H1026" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1026" s="1" t="s">
+      <c r="H1026" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1026" s="17" t="s">
         <v>8390</v>
       </c>
-      <c r="J1026" s="15">
+      <c r="J1026" s="19">
         <v>9707989486</v>
       </c>
-      <c r="K1026" s="1" t="s">
+      <c r="K1026" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1027" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1027" s="1"/>
-      <c r="B1027" s="1"/>
-      <c r="C1027" s="1"/>
-      <c r="D1027" s="1"/>
-      <c r="E1027" s="1" t="s">
+      <c r="A1027" s="17"/>
+      <c r="B1027" s="17"/>
+      <c r="C1027" s="17"/>
+      <c r="D1027" s="17"/>
+      <c r="E1027" s="17" t="s">
         <v>8316</v>
       </c>
-      <c r="F1027" s="17"/>
-      <c r="G1027" s="1" t="s">
+      <c r="F1027" s="18"/>
+      <c r="G1027" s="17" t="s">
         <v>8317</v>
       </c>
-      <c r="H1027" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1027" s="1" t="s">
+      <c r="H1027" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1027" s="17" t="s">
         <v>8391</v>
       </c>
-      <c r="J1027" s="15">
+      <c r="J1027" s="19">
         <v>7086644885</v>
       </c>
-      <c r="K1027" s="1" t="s">
+      <c r="K1027" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1028" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1028" s="1"/>
-      <c r="B1028" s="1"/>
-      <c r="C1028" s="1"/>
-      <c r="D1028" s="1"/>
-      <c r="E1028" s="1" t="s">
+      <c r="A1028" s="17"/>
+      <c r="B1028" s="17"/>
+      <c r="C1028" s="17"/>
+      <c r="D1028" s="17"/>
+      <c r="E1028" s="17" t="s">
         <v>8318</v>
       </c>
-      <c r="F1028" s="17">
+      <c r="F1028" s="18">
         <v>35751</v>
       </c>
-      <c r="G1028" s="1" t="s">
+      <c r="G1028" s="17" t="s">
         <v>8319</v>
       </c>
-      <c r="H1028" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1028" s="1" t="s">
+      <c r="H1028" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1028" s="17" t="s">
         <v>8392</v>
       </c>
-      <c r="J1028" s="15">
+      <c r="J1028" s="19">
         <v>8638086379</v>
       </c>
-      <c r="K1028" s="1" t="s">
+      <c r="K1028" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1029" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1029" s="1"/>
-      <c r="B1029" s="1"/>
-      <c r="C1029" s="1"/>
-      <c r="D1029" s="1"/>
-      <c r="E1029" s="1" t="s">
+      <c r="A1029" s="17"/>
+      <c r="B1029" s="17"/>
+      <c r="C1029" s="17"/>
+      <c r="D1029" s="17"/>
+      <c r="E1029" s="17" t="s">
         <v>8320</v>
       </c>
-      <c r="F1029" s="17">
+      <c r="F1029" s="18">
         <v>35363</v>
       </c>
-      <c r="G1029" s="1" t="s">
+      <c r="G1029" s="17" t="s">
         <v>8321</v>
       </c>
-      <c r="H1029" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1029" s="1" t="s">
+      <c r="H1029" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1029" s="17" t="s">
         <v>8393</v>
       </c>
-      <c r="J1029" s="15">
+      <c r="J1029" s="19">
         <v>8486568013</v>
       </c>
-      <c r="K1029" s="1" t="s">
+      <c r="K1029" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1030" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1030" s="1"/>
-      <c r="B1030" s="1"/>
-      <c r="C1030" s="1"/>
-      <c r="D1030" s="1"/>
-      <c r="E1030" s="1" t="s">
+      <c r="A1030" s="17"/>
+      <c r="B1030" s="17"/>
+      <c r="C1030" s="17"/>
+      <c r="D1030" s="17"/>
+      <c r="E1030" s="17" t="s">
         <v>8322</v>
       </c>
-      <c r="F1030" s="17">
+      <c r="F1030" s="18">
         <v>35474</v>
       </c>
-      <c r="G1030" s="1" t="s">
+      <c r="G1030" s="17" t="s">
         <v>8323</v>
       </c>
-      <c r="H1030" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1030" s="1" t="s">
+      <c r="H1030" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1030" s="17" t="s">
         <v>8394</v>
       </c>
-      <c r="J1030" s="15">
+      <c r="J1030" s="19">
         <v>9085388367</v>
       </c>
-      <c r="K1030" s="1" t="s">
+      <c r="K1030" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1031" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1031" s="1"/>
-      <c r="B1031" s="1"/>
-      <c r="C1031" s="1"/>
-      <c r="D1031" s="1"/>
-      <c r="E1031" s="1" t="s">
+      <c r="A1031" s="17"/>
+      <c r="B1031" s="17"/>
+      <c r="C1031" s="17"/>
+      <c r="D1031" s="17"/>
+      <c r="E1031" s="17" t="s">
         <v>8324</v>
       </c>
-      <c r="F1031" s="17">
+      <c r="F1031" s="18">
         <v>35080</v>
       </c>
-      <c r="G1031" s="1" t="s">
+      <c r="G1031" s="17" t="s">
         <v>8325</v>
       </c>
-      <c r="H1031" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1031" s="1" t="s">
+      <c r="H1031" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1031" s="17" t="s">
         <v>8395</v>
       </c>
-      <c r="J1031" s="15">
+      <c r="J1031" s="19">
         <v>8822340659</v>
       </c>
-      <c r="K1031" s="1" t="s">
+      <c r="K1031" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1032" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1032" s="1"/>
-      <c r="B1032" s="1"/>
-      <c r="C1032" s="1"/>
-      <c r="D1032" s="1"/>
-      <c r="E1032" s="1" t="s">
+      <c r="A1032" s="17"/>
+      <c r="B1032" s="17"/>
+      <c r="C1032" s="17"/>
+      <c r="D1032" s="17"/>
+      <c r="E1032" s="17" t="s">
         <v>8326</v>
       </c>
-      <c r="F1032" s="17">
+      <c r="F1032" s="18">
         <v>35869</v>
       </c>
-      <c r="G1032" s="1" t="s">
+      <c r="G1032" s="17" t="s">
         <v>8327</v>
       </c>
-      <c r="H1032" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1032" s="1" t="s">
+      <c r="H1032" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1032" s="17" t="s">
         <v>8396</v>
       </c>
-      <c r="J1032" s="15">
+      <c r="J1032" s="19">
         <v>8135949992</v>
       </c>
-      <c r="K1032" s="1" t="s">
+      <c r="K1032" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1033" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1033" s="1"/>
-      <c r="B1033" s="1"/>
-      <c r="C1033" s="1"/>
-      <c r="D1033" s="1"/>
-      <c r="E1033" s="1" t="s">
+      <c r="A1033" s="17"/>
+      <c r="B1033" s="17"/>
+      <c r="C1033" s="17"/>
+      <c r="D1033" s="17"/>
+      <c r="E1033" s="17" t="s">
         <v>8328</v>
       </c>
-      <c r="F1033" s="17">
+      <c r="F1033" s="18">
         <v>35861</v>
       </c>
-      <c r="G1033" s="1" t="s">
+      <c r="G1033" s="17" t="s">
         <v>8329</v>
       </c>
-      <c r="H1033" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1033" s="1" t="s">
+      <c r="H1033" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1033" s="17" t="s">
         <v>8397</v>
       </c>
-      <c r="J1033" s="15">
+      <c r="J1033" s="19">
         <v>9101370189</v>
       </c>
-      <c r="K1033" s="1" t="s">
+      <c r="K1033" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1034" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1034" s="1"/>
-      <c r="B1034" s="1"/>
-      <c r="C1034" s="1"/>
-      <c r="D1034" s="1"/>
-      <c r="E1034" s="1" t="s">
+      <c r="A1034" s="17"/>
+      <c r="B1034" s="17"/>
+      <c r="C1034" s="17"/>
+      <c r="D1034" s="17"/>
+      <c r="E1034" s="17" t="s">
         <v>8330</v>
       </c>
-      <c r="F1034" s="17">
+      <c r="F1034" s="18">
         <v>35828</v>
       </c>
-      <c r="G1034" s="1" t="s">
+      <c r="G1034" s="17" t="s">
         <v>8331</v>
       </c>
-      <c r="H1034" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1034" s="1" t="s">
+      <c r="H1034" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1034" s="17" t="s">
         <v>8398</v>
       </c>
-      <c r="J1034" s="15">
+      <c r="J1034" s="19">
         <v>9101126144</v>
       </c>
-      <c r="K1034" s="1" t="s">
+      <c r="K1034" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1035" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1035" s="1"/>
-      <c r="B1035" s="1"/>
-      <c r="C1035" s="1"/>
-      <c r="D1035" s="1"/>
-      <c r="E1035" s="1" t="s">
+      <c r="A1035" s="17"/>
+      <c r="B1035" s="17"/>
+      <c r="C1035" s="17"/>
+      <c r="D1035" s="17"/>
+      <c r="E1035" s="17" t="s">
         <v>8332</v>
       </c>
-      <c r="F1035" s="17">
+      <c r="F1035" s="18">
         <v>36011</v>
       </c>
-      <c r="G1035" s="1" t="s">
+      <c r="G1035" s="17" t="s">
         <v>8333</v>
       </c>
-      <c r="H1035" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1035" s="1" t="s">
+      <c r="H1035" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1035" s="17" t="s">
         <v>8399</v>
       </c>
-      <c r="J1035" s="15">
+      <c r="J1035" s="19">
         <v>6000925311</v>
       </c>
-      <c r="K1035" s="1" t="s">
+      <c r="K1035" s="17" t="s">
         <v>8334</v>
       </c>
     </row>
     <row r="1036" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H1036" s="16"/>
     </row>
-    <row r="1037" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H1037" s="16"/>
+    <row r="1037" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1037" s="20"/>
+      <c r="B1037" s="20"/>
+      <c r="C1037" s="20"/>
+      <c r="D1037" s="20"/>
+      <c r="E1037" s="20" t="s">
+        <v>8604</v>
+      </c>
+      <c r="F1037" s="21">
+        <v>21489</v>
+      </c>
+      <c r="G1037" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1037" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1037" s="20" t="s">
+        <v>8400</v>
+      </c>
+      <c r="J1037" s="20">
+        <v>9435346950</v>
+      </c>
+      <c r="K1037" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1038" s="20"/>
+      <c r="B1038" s="20"/>
+      <c r="C1038" s="20"/>
+      <c r="D1038" s="20"/>
+      <c r="E1038" s="20" t="s">
+        <v>8605</v>
+      </c>
+      <c r="F1038" s="21">
+        <v>21765</v>
+      </c>
+      <c r="G1038" s="20" t="s">
+        <v>8810</v>
+      </c>
+      <c r="H1038" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1038" s="20" t="s">
+        <v>8401</v>
+      </c>
+      <c r="J1038" s="20">
+        <v>9435013717</v>
+      </c>
+      <c r="K1038" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1039" s="20"/>
+      <c r="B1039" s="20"/>
+      <c r="C1039" s="20"/>
+      <c r="D1039" s="20"/>
+      <c r="E1039" s="20" t="s">
+        <v>8606</v>
+      </c>
+      <c r="F1039" s="21">
+        <v>21855</v>
+      </c>
+      <c r="G1039" s="20" t="s">
+        <v>8811</v>
+      </c>
+      <c r="H1039" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1039" s="20" t="s">
+        <v>8402</v>
+      </c>
+      <c r="J1039" s="20">
+        <v>9508080227</v>
+      </c>
+      <c r="K1039" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1040" s="20"/>
+      <c r="B1040" s="20"/>
+      <c r="C1040" s="20"/>
+      <c r="D1040" s="20"/>
+      <c r="E1040" s="20" t="s">
+        <v>8607</v>
+      </c>
+      <c r="F1040" s="21">
+        <v>19993</v>
+      </c>
+      <c r="G1040" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1040" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1040" s="20" t="s">
+        <v>8403</v>
+      </c>
+      <c r="J1040" s="20">
+        <v>9864049712</v>
+      </c>
+      <c r="K1040" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1041" s="20"/>
+      <c r="B1041" s="20"/>
+      <c r="C1041" s="20"/>
+      <c r="D1041" s="20"/>
+      <c r="E1041" s="20" t="s">
+        <v>8608</v>
+      </c>
+      <c r="F1041" s="21">
+        <v>17292</v>
+      </c>
+      <c r="G1041" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1041" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1041" s="20" t="s">
+        <v>8404</v>
+      </c>
+      <c r="J1041" s="20"/>
+      <c r="K1041" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1042" s="20"/>
+      <c r="B1042" s="20"/>
+      <c r="C1042" s="20"/>
+      <c r="D1042" s="20"/>
+      <c r="E1042" s="20" t="s">
+        <v>8609</v>
+      </c>
+      <c r="F1042" s="21">
+        <v>19996</v>
+      </c>
+      <c r="G1042" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1042" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1042" s="20" t="s">
+        <v>8405</v>
+      </c>
+      <c r="J1042" s="20"/>
+      <c r="K1042" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1043" s="20"/>
+      <c r="B1043" s="20"/>
+      <c r="C1043" s="20"/>
+      <c r="D1043" s="20"/>
+      <c r="E1043" s="20" t="s">
+        <v>8610</v>
+      </c>
+      <c r="F1043" s="21">
+        <v>21916</v>
+      </c>
+      <c r="G1043" s="20" t="s">
+        <v>8812</v>
+      </c>
+      <c r="H1043" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1043" s="20" t="s">
+        <v>8406</v>
+      </c>
+      <c r="J1043" s="20">
+        <v>9435303948</v>
+      </c>
+      <c r="K1043" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1044" s="20"/>
+      <c r="B1044" s="20"/>
+      <c r="C1044" s="20"/>
+      <c r="D1044" s="20"/>
+      <c r="E1044" s="20" t="s">
+        <v>8611</v>
+      </c>
+      <c r="F1044" s="21">
+        <v>21794</v>
+      </c>
+      <c r="G1044" s="20" t="s">
+        <v>8813</v>
+      </c>
+      <c r="H1044" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1044" s="20" t="s">
+        <v>8407</v>
+      </c>
+      <c r="J1044" s="20">
+        <v>9435301365</v>
+      </c>
+      <c r="K1044" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1045" s="20"/>
+      <c r="B1045" s="20"/>
+      <c r="C1045" s="20"/>
+      <c r="D1045" s="20"/>
+      <c r="E1045" s="20" t="s">
+        <v>8612</v>
+      </c>
+      <c r="F1045" s="21">
+        <v>22463</v>
+      </c>
+      <c r="G1045" s="20" t="s">
+        <v>8814</v>
+      </c>
+      <c r="H1045" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1045" s="20" t="s">
+        <v>8408</v>
+      </c>
+      <c r="J1045" s="20">
+        <v>9435558788</v>
+      </c>
+      <c r="K1045" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1046" s="20"/>
+      <c r="B1046" s="20"/>
+      <c r="C1046" s="20"/>
+      <c r="D1046" s="20"/>
+      <c r="E1046" s="20" t="s">
+        <v>8613</v>
+      </c>
+      <c r="F1046" s="21">
+        <v>22680</v>
+      </c>
+      <c r="G1046" s="20" t="s">
+        <v>8815</v>
+      </c>
+      <c r="H1046" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1046" s="20" t="s">
+        <v>8409</v>
+      </c>
+      <c r="J1046" s="20">
+        <v>9435303854</v>
+      </c>
+      <c r="K1046" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1047" s="20"/>
+      <c r="B1047" s="20"/>
+      <c r="C1047" s="20"/>
+      <c r="D1047" s="20"/>
+      <c r="E1047" s="20" t="s">
+        <v>8614</v>
+      </c>
+      <c r="F1047" s="21">
+        <v>22240</v>
+      </c>
+      <c r="G1047" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1047" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1047" s="20" t="s">
+        <v>8410</v>
+      </c>
+      <c r="J1047" s="20">
+        <v>9435061608</v>
+      </c>
+      <c r="K1047" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1048" s="20"/>
+      <c r="B1048" s="20"/>
+      <c r="C1048" s="20"/>
+      <c r="D1048" s="20"/>
+      <c r="E1048" s="20" t="s">
+        <v>8615</v>
+      </c>
+      <c r="F1048" s="21">
+        <v>22941</v>
+      </c>
+      <c r="G1048" s="20" t="s">
+        <v>8816</v>
+      </c>
+      <c r="H1048" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1048" s="20" t="s">
+        <v>8411</v>
+      </c>
+      <c r="J1048" s="20">
+        <v>9864088585</v>
+      </c>
+      <c r="K1048" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1049" s="20"/>
+      <c r="B1049" s="20"/>
+      <c r="C1049" s="20"/>
+      <c r="D1049" s="20"/>
+      <c r="E1049" s="20" t="s">
+        <v>8616</v>
+      </c>
+      <c r="F1049" s="21">
+        <v>31837</v>
+      </c>
+      <c r="G1049" s="20" t="s">
+        <v>8817</v>
+      </c>
+      <c r="H1049" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1049" s="20" t="s">
+        <v>8412</v>
+      </c>
+      <c r="J1049" s="20">
+        <v>9435046150</v>
+      </c>
+      <c r="K1049" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1050" s="20"/>
+      <c r="B1050" s="20"/>
+      <c r="C1050" s="20"/>
+      <c r="D1050" s="20"/>
+      <c r="E1050" s="20" t="s">
+        <v>8617</v>
+      </c>
+      <c r="F1050" s="21">
+        <v>23621</v>
+      </c>
+      <c r="G1050" s="20" t="s">
+        <v>8818</v>
+      </c>
+      <c r="H1050" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1050" s="20" t="s">
+        <v>8413</v>
+      </c>
+      <c r="J1050" s="20">
+        <v>9508076090</v>
+      </c>
+      <c r="K1050" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1051" s="20"/>
+      <c r="B1051" s="20"/>
+      <c r="C1051" s="20"/>
+      <c r="D1051" s="20"/>
+      <c r="E1051" s="20" t="s">
+        <v>8618</v>
+      </c>
+      <c r="F1051" s="21">
+        <v>23774</v>
+      </c>
+      <c r="G1051" s="20" t="s">
+        <v>8819</v>
+      </c>
+      <c r="H1051" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1051" s="20" t="s">
+        <v>8414</v>
+      </c>
+      <c r="J1051" s="20">
+        <v>9435105093</v>
+      </c>
+      <c r="K1051" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1052" s="20"/>
+      <c r="B1052" s="20"/>
+      <c r="C1052" s="20"/>
+      <c r="D1052" s="20"/>
+      <c r="E1052" s="20" t="s">
+        <v>8619</v>
+      </c>
+      <c r="F1052" s="21">
+        <v>23377</v>
+      </c>
+      <c r="G1052" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1052" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1052" s="20" t="s">
+        <v>8415</v>
+      </c>
+      <c r="J1052" s="20">
+        <v>9678195103</v>
+      </c>
+      <c r="K1052" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1053" s="20"/>
+      <c r="B1053" s="20"/>
+      <c r="C1053" s="20"/>
+      <c r="D1053" s="20"/>
+      <c r="E1053" s="20" t="s">
+        <v>8620</v>
+      </c>
+      <c r="F1053" s="21">
+        <v>22678</v>
+      </c>
+      <c r="G1053" s="20" t="s">
+        <v>8820</v>
+      </c>
+      <c r="H1053" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1053" s="20" t="s">
+        <v>8416</v>
+      </c>
+      <c r="J1053" s="20">
+        <v>9954135017</v>
+      </c>
+      <c r="K1053" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1054" s="20"/>
+      <c r="B1054" s="20"/>
+      <c r="C1054" s="20"/>
+      <c r="D1054" s="20"/>
+      <c r="E1054" s="20" t="s">
+        <v>8621</v>
+      </c>
+      <c r="F1054" s="21">
+        <v>23101</v>
+      </c>
+      <c r="G1054" s="20" t="s">
+        <v>8821</v>
+      </c>
+      <c r="H1054" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1054" s="20" t="s">
+        <v>8417</v>
+      </c>
+      <c r="J1054" s="20">
+        <v>9435101850</v>
+      </c>
+      <c r="K1054" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1055" s="20"/>
+      <c r="B1055" s="20"/>
+      <c r="C1055" s="20"/>
+      <c r="D1055" s="20"/>
+      <c r="E1055" s="20" t="s">
+        <v>8622</v>
+      </c>
+      <c r="F1055" s="21"/>
+      <c r="G1055" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1055" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1055" s="20" t="s">
+        <v>8418</v>
+      </c>
+      <c r="J1055" s="20">
+        <v>9435068249</v>
+      </c>
+      <c r="K1055" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1056" s="20"/>
+      <c r="B1056" s="20"/>
+      <c r="C1056" s="20"/>
+      <c r="D1056" s="20"/>
+      <c r="E1056" s="20" t="s">
+        <v>8623</v>
+      </c>
+      <c r="F1056" s="21">
+        <v>23275</v>
+      </c>
+      <c r="G1056" s="20" t="s">
+        <v>8822</v>
+      </c>
+      <c r="H1056" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1056" s="20" t="s">
+        <v>8419</v>
+      </c>
+      <c r="J1056" s="20">
+        <v>9678844427</v>
+      </c>
+      <c r="K1056" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1057" s="20"/>
+      <c r="B1057" s="20"/>
+      <c r="C1057" s="20"/>
+      <c r="D1057" s="20"/>
+      <c r="E1057" s="20" t="s">
+        <v>8624</v>
+      </c>
+      <c r="F1057" s="21">
+        <v>21980</v>
+      </c>
+      <c r="G1057" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1057" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1057" s="20" t="s">
+        <v>8420</v>
+      </c>
+      <c r="J1057" s="20">
+        <v>8876718938</v>
+      </c>
+      <c r="K1057" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1058" s="20"/>
+      <c r="B1058" s="20"/>
+      <c r="C1058" s="20"/>
+      <c r="D1058" s="20"/>
+      <c r="E1058" s="20" t="s">
+        <v>8625</v>
+      </c>
+      <c r="F1058" s="21">
+        <v>22859</v>
+      </c>
+      <c r="G1058" s="20" t="s">
+        <v>8823</v>
+      </c>
+      <c r="H1058" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1058" s="20" t="s">
+        <v>8421</v>
+      </c>
+      <c r="J1058" s="20">
+        <v>9957103023</v>
+      </c>
+      <c r="K1058" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1059" s="20"/>
+      <c r="B1059" s="20"/>
+      <c r="C1059" s="20"/>
+      <c r="D1059" s="20"/>
+      <c r="E1059" s="20" t="s">
+        <v>8626</v>
+      </c>
+      <c r="F1059" s="21">
+        <v>22657</v>
+      </c>
+      <c r="G1059" s="20" t="s">
+        <v>8824</v>
+      </c>
+      <c r="H1059" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1059" s="20" t="s">
+        <v>8422</v>
+      </c>
+      <c r="J1059" s="20">
+        <v>6001749158</v>
+      </c>
+      <c r="K1059" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1060" s="20"/>
+      <c r="B1060" s="20"/>
+      <c r="C1060" s="20"/>
+      <c r="D1060" s="20"/>
+      <c r="E1060" s="20" t="s">
+        <v>8627</v>
+      </c>
+      <c r="F1060" s="21">
+        <v>23285</v>
+      </c>
+      <c r="G1060" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1060" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1060" s="20" t="s">
+        <v>8423</v>
+      </c>
+      <c r="J1060" s="20">
+        <v>9435031780</v>
+      </c>
+      <c r="K1060" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1061" s="20"/>
+      <c r="B1061" s="20"/>
+      <c r="C1061" s="20"/>
+      <c r="D1061" s="20"/>
+      <c r="E1061" s="20" t="s">
+        <v>8628</v>
+      </c>
+      <c r="F1061" s="21">
+        <v>22843</v>
+      </c>
+      <c r="G1061" s="20" t="s">
+        <v>8825</v>
+      </c>
+      <c r="H1061" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1061" s="20" t="s">
+        <v>8424</v>
+      </c>
+      <c r="J1061" s="20">
+        <v>9864044485</v>
+      </c>
+      <c r="K1061" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1062" s="20"/>
+      <c r="B1062" s="20"/>
+      <c r="C1062" s="20"/>
+      <c r="D1062" s="20"/>
+      <c r="E1062" s="20" t="s">
+        <v>8629</v>
+      </c>
+      <c r="F1062" s="21">
+        <v>23855</v>
+      </c>
+      <c r="G1062" s="20" t="s">
+        <v>8826</v>
+      </c>
+      <c r="H1062" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1062" s="20" t="s">
+        <v>8425</v>
+      </c>
+      <c r="J1062" s="20">
+        <v>9854185645</v>
+      </c>
+      <c r="K1062" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1063" s="20"/>
+      <c r="B1063" s="20"/>
+      <c r="C1063" s="20"/>
+      <c r="D1063" s="20"/>
+      <c r="E1063" s="20" t="s">
+        <v>8630</v>
+      </c>
+      <c r="F1063" s="21">
+        <v>23773</v>
+      </c>
+      <c r="G1063" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1063" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1063" s="20" t="s">
+        <v>8426</v>
+      </c>
+      <c r="J1063" s="20">
+        <v>6001497496</v>
+      </c>
+      <c r="K1063" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1064" s="20"/>
+      <c r="B1064" s="20"/>
+      <c r="C1064" s="20"/>
+      <c r="D1064" s="20"/>
+      <c r="E1064" s="20" t="s">
+        <v>8631</v>
+      </c>
+      <c r="F1064" s="21">
+        <v>24108</v>
+      </c>
+      <c r="G1064" s="20" t="s">
+        <v>8827</v>
+      </c>
+      <c r="H1064" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1064" s="20" t="s">
+        <v>8427</v>
+      </c>
+      <c r="J1064" s="20">
+        <v>9435101916</v>
+      </c>
+      <c r="K1064" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1065" s="20"/>
+      <c r="B1065" s="20"/>
+      <c r="C1065" s="20"/>
+      <c r="D1065" s="20"/>
+      <c r="E1065" s="20" t="s">
+        <v>8632</v>
+      </c>
+      <c r="F1065" s="21">
+        <v>23802</v>
+      </c>
+      <c r="G1065" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1065" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1065" s="20" t="s">
+        <v>8428</v>
+      </c>
+      <c r="J1065" s="20">
+        <v>9864107951</v>
+      </c>
+      <c r="K1065" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1066" s="20"/>
+      <c r="B1066" s="20"/>
+      <c r="C1066" s="20"/>
+      <c r="D1066" s="20"/>
+      <c r="E1066" s="20" t="s">
+        <v>8633</v>
+      </c>
+      <c r="F1066" s="21">
+        <v>24167</v>
+      </c>
+      <c r="G1066" s="20" t="s">
+        <v>8828</v>
+      </c>
+      <c r="H1066" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1066" s="20" t="s">
+        <v>8429</v>
+      </c>
+      <c r="J1066" s="20">
+        <v>9435014662</v>
+      </c>
+      <c r="K1066" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1067" s="20"/>
+      <c r="B1067" s="20"/>
+      <c r="C1067" s="20"/>
+      <c r="D1067" s="20"/>
+      <c r="E1067" s="20" t="s">
+        <v>8634</v>
+      </c>
+      <c r="F1067" s="21">
+        <v>24108</v>
+      </c>
+      <c r="G1067" s="20" t="s">
+        <v>8829</v>
+      </c>
+      <c r="H1067" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1067" s="20" t="s">
+        <v>8430</v>
+      </c>
+      <c r="J1067" s="20"/>
+      <c r="K1067" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1068" s="20"/>
+      <c r="B1068" s="20"/>
+      <c r="C1068" s="20"/>
+      <c r="D1068" s="20"/>
+      <c r="E1068" s="20" t="s">
+        <v>8635</v>
+      </c>
+      <c r="F1068" s="21">
+        <v>24167</v>
+      </c>
+      <c r="G1068" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1068" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1068" s="20" t="s">
+        <v>8431</v>
+      </c>
+      <c r="J1068" s="20">
+        <v>9435741789</v>
+      </c>
+      <c r="K1068" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1069" s="20"/>
+      <c r="B1069" s="20"/>
+      <c r="C1069" s="20"/>
+      <c r="D1069" s="20"/>
+      <c r="E1069" s="20" t="s">
+        <v>8636</v>
+      </c>
+      <c r="F1069" s="21">
+        <v>24529</v>
+      </c>
+      <c r="G1069" s="20" t="s">
+        <v>8830</v>
+      </c>
+      <c r="H1069" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1069" s="20" t="s">
+        <v>8432</v>
+      </c>
+      <c r="J1069" s="20">
+        <v>9435045542</v>
+      </c>
+      <c r="K1069" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1070" s="20"/>
+      <c r="B1070" s="20"/>
+      <c r="C1070" s="20"/>
+      <c r="D1070" s="20"/>
+      <c r="E1070" s="20" t="s">
+        <v>8637</v>
+      </c>
+      <c r="F1070" s="21">
+        <v>23986</v>
+      </c>
+      <c r="G1070" s="20" t="s">
+        <v>8831</v>
+      </c>
+      <c r="H1070" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1070" s="20" t="s">
+        <v>8433</v>
+      </c>
+      <c r="J1070" s="20"/>
+      <c r="K1070" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1071" s="20"/>
+      <c r="B1071" s="20"/>
+      <c r="C1071" s="20"/>
+      <c r="D1071" s="20"/>
+      <c r="E1071" s="20" t="s">
+        <v>8638</v>
+      </c>
+      <c r="F1071" s="21">
+        <v>22883</v>
+      </c>
+      <c r="G1071" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1071" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1071" s="20" t="s">
+        <v>8434</v>
+      </c>
+      <c r="J1071" s="20">
+        <v>7578051388</v>
+      </c>
+      <c r="K1071" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1072" s="20"/>
+      <c r="B1072" s="20"/>
+      <c r="C1072" s="20"/>
+      <c r="D1072" s="20"/>
+      <c r="E1072" s="20" t="s">
+        <v>8639</v>
+      </c>
+      <c r="F1072" s="21">
+        <v>23380</v>
+      </c>
+      <c r="G1072" s="20" t="s">
+        <v>8832</v>
+      </c>
+      <c r="H1072" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1072" s="20" t="s">
+        <v>8435</v>
+      </c>
+      <c r="J1072" s="20">
+        <v>9435100509</v>
+      </c>
+      <c r="K1072" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1073" s="20"/>
+      <c r="B1073" s="20"/>
+      <c r="C1073" s="20"/>
+      <c r="D1073" s="20"/>
+      <c r="E1073" s="20" t="s">
+        <v>8640</v>
+      </c>
+      <c r="F1073" s="21">
+        <v>23071</v>
+      </c>
+      <c r="G1073" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1073" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1073" s="20" t="s">
+        <v>8436</v>
+      </c>
+      <c r="J1073" s="20"/>
+      <c r="K1073" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1074" s="20"/>
+      <c r="B1074" s="20"/>
+      <c r="C1074" s="20"/>
+      <c r="D1074" s="20"/>
+      <c r="E1074" s="20" t="s">
+        <v>8641</v>
+      </c>
+      <c r="F1074" s="21">
+        <v>24532</v>
+      </c>
+      <c r="G1074" s="20" t="s">
+        <v>8833</v>
+      </c>
+      <c r="H1074" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1074" s="20" t="s">
+        <v>8437</v>
+      </c>
+      <c r="J1074" s="20">
+        <v>6000371439</v>
+      </c>
+      <c r="K1074" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1075" s="20"/>
+      <c r="B1075" s="20"/>
+      <c r="C1075" s="20"/>
+      <c r="D1075" s="20"/>
+      <c r="E1075" s="20" t="s">
+        <v>8642</v>
+      </c>
+      <c r="F1075" s="21">
+        <v>24504</v>
+      </c>
+      <c r="G1075" s="20" t="s">
+        <v>8834</v>
+      </c>
+      <c r="H1075" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1075" s="20" t="s">
+        <v>8438</v>
+      </c>
+      <c r="J1075" s="20">
+        <v>8876411084</v>
+      </c>
+      <c r="K1075" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1076" s="20"/>
+      <c r="B1076" s="20"/>
+      <c r="C1076" s="20"/>
+      <c r="D1076" s="20"/>
+      <c r="E1076" s="20" t="s">
+        <v>8643</v>
+      </c>
+      <c r="F1076" s="21">
+        <v>24109</v>
+      </c>
+      <c r="G1076" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1076" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1076" s="20" t="s">
+        <v>8439</v>
+      </c>
+      <c r="J1076" s="20"/>
+      <c r="K1076" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1077" s="20"/>
+      <c r="B1077" s="20"/>
+      <c r="C1077" s="20"/>
+      <c r="D1077" s="20"/>
+      <c r="E1077" s="20" t="s">
+        <v>8644</v>
+      </c>
+      <c r="F1077" s="21">
+        <v>19176</v>
+      </c>
+      <c r="G1077" s="20" t="s">
+        <v>8835</v>
+      </c>
+      <c r="H1077" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1077" s="20" t="s">
+        <v>8440</v>
+      </c>
+      <c r="J1077" s="20">
+        <v>9864043330</v>
+      </c>
+      <c r="K1077" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1078" s="20"/>
+      <c r="B1078" s="20"/>
+      <c r="C1078" s="20"/>
+      <c r="D1078" s="20"/>
+      <c r="E1078" s="20" t="s">
+        <v>8645</v>
+      </c>
+      <c r="F1078" s="21">
+        <v>24706</v>
+      </c>
+      <c r="G1078" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1078" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1078" s="20" t="s">
+        <v>8441</v>
+      </c>
+      <c r="J1078" s="20">
+        <v>8638277147</v>
+      </c>
+      <c r="K1078" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1079" s="20"/>
+      <c r="B1079" s="20"/>
+      <c r="C1079" s="20"/>
+      <c r="D1079" s="20"/>
+      <c r="E1079" s="20" t="s">
+        <v>8646</v>
+      </c>
+      <c r="F1079" s="21">
+        <v>24869</v>
+      </c>
+      <c r="G1079" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1079" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1079" s="20" t="s">
+        <v>8442</v>
+      </c>
+      <c r="J1079" s="20">
+        <v>9435308739</v>
+      </c>
+      <c r="K1079" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1080" s="20"/>
+      <c r="B1080" s="20"/>
+      <c r="C1080" s="20"/>
+      <c r="D1080" s="20"/>
+      <c r="E1080" s="20" t="s">
+        <v>8647</v>
+      </c>
+      <c r="F1080" s="21">
+        <v>24504</v>
+      </c>
+      <c r="G1080" s="20" t="s">
+        <v>8836</v>
+      </c>
+      <c r="H1080" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1080" s="20" t="s">
+        <v>8443</v>
+      </c>
+      <c r="J1080" s="20">
+        <v>9864438120</v>
+      </c>
+      <c r="K1080" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1081" s="20"/>
+      <c r="B1081" s="20"/>
+      <c r="C1081" s="20"/>
+      <c r="D1081" s="20"/>
+      <c r="E1081" s="20" t="s">
+        <v>8648</v>
+      </c>
+      <c r="F1081" s="21">
+        <v>25263</v>
+      </c>
+      <c r="G1081" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1081" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1081" s="20" t="s">
+        <v>8444</v>
+      </c>
+      <c r="J1081" s="20">
+        <v>9435002210</v>
+      </c>
+      <c r="K1081" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1082" s="20"/>
+      <c r="B1082" s="20"/>
+      <c r="C1082" s="20"/>
+      <c r="D1082" s="20"/>
+      <c r="E1082" s="20" t="s">
+        <v>8649</v>
+      </c>
+      <c r="F1082" s="21">
+        <v>24898</v>
+      </c>
+      <c r="G1082" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1082" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1082" s="20" t="s">
+        <v>8445</v>
+      </c>
+      <c r="J1082" s="20">
+        <v>7002339477</v>
+      </c>
+      <c r="K1082" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1083" s="20"/>
+      <c r="B1083" s="20"/>
+      <c r="C1083" s="20"/>
+      <c r="D1083" s="20"/>
+      <c r="E1083" s="20" t="s">
+        <v>8650</v>
+      </c>
+      <c r="F1083" s="21">
+        <v>24616</v>
+      </c>
+      <c r="G1083" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1083" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1083" s="20" t="s">
+        <v>8446</v>
+      </c>
+      <c r="J1083" s="20">
+        <v>9365414711</v>
+      </c>
+      <c r="K1083" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1084" s="20"/>
+      <c r="B1084" s="20"/>
+      <c r="C1084" s="20"/>
+      <c r="D1084" s="20"/>
+      <c r="E1084" s="20" t="s">
+        <v>8651</v>
+      </c>
+      <c r="F1084" s="21">
+        <v>24838</v>
+      </c>
+      <c r="G1084" s="20" t="s">
+        <v>8837</v>
+      </c>
+      <c r="H1084" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1084" s="20" t="s">
+        <v>8447</v>
+      </c>
+      <c r="J1084" s="20">
+        <v>8638693996</v>
+      </c>
+      <c r="K1084" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1085" s="20"/>
+      <c r="B1085" s="20"/>
+      <c r="C1085" s="20"/>
+      <c r="D1085" s="20"/>
+      <c r="E1085" s="20" t="s">
+        <v>8652</v>
+      </c>
+      <c r="F1085" s="21">
+        <v>25370</v>
+      </c>
+      <c r="G1085" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1085" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1085" s="20" t="s">
+        <v>8448</v>
+      </c>
+      <c r="J1085" s="20"/>
+      <c r="K1085" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1086" s="20"/>
+      <c r="B1086" s="20"/>
+      <c r="C1086" s="20"/>
+      <c r="D1086" s="20"/>
+      <c r="E1086" s="20" t="s">
+        <v>8653</v>
+      </c>
+      <c r="F1086" s="21">
+        <v>25110</v>
+      </c>
+      <c r="G1086" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1086" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1086" s="20" t="s">
+        <v>8449</v>
+      </c>
+      <c r="J1086" s="20">
+        <v>9706012998</v>
+      </c>
+      <c r="K1086" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1087" s="20"/>
+      <c r="B1087" s="20"/>
+      <c r="C1087" s="20"/>
+      <c r="D1087" s="20"/>
+      <c r="E1087" s="20" t="s">
+        <v>8654</v>
+      </c>
+      <c r="F1087" s="21">
+        <v>24898</v>
+      </c>
+      <c r="G1087" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1087" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1087" s="20" t="s">
+        <v>8450</v>
+      </c>
+      <c r="J1087" s="20"/>
+      <c r="K1087" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1088" s="20"/>
+      <c r="B1088" s="20"/>
+      <c r="C1088" s="20"/>
+      <c r="D1088" s="20"/>
+      <c r="E1088" s="20" t="s">
+        <v>8655</v>
+      </c>
+      <c r="F1088" s="21">
+        <v>25419</v>
+      </c>
+      <c r="G1088" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1088" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1088" s="20" t="s">
+        <v>8451</v>
+      </c>
+      <c r="J1088" s="20">
+        <v>8486671399</v>
+      </c>
+      <c r="K1088" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1089" s="20"/>
+      <c r="B1089" s="20"/>
+      <c r="C1089" s="20"/>
+      <c r="D1089" s="20"/>
+      <c r="E1089" s="20" t="s">
+        <v>8656</v>
+      </c>
+      <c r="F1089" s="21">
+        <v>24898</v>
+      </c>
+      <c r="G1089" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1089" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1089" s="20" t="s">
+        <v>8452</v>
+      </c>
+      <c r="J1089" s="20"/>
+      <c r="K1089" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1090" s="20"/>
+      <c r="B1090" s="20"/>
+      <c r="C1090" s="20"/>
+      <c r="D1090" s="20"/>
+      <c r="E1090" s="20" t="s">
+        <v>8657</v>
+      </c>
+      <c r="F1090" s="21">
+        <v>23822</v>
+      </c>
+      <c r="G1090" s="20" t="s">
+        <v>8838</v>
+      </c>
+      <c r="H1090" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1090" s="20" t="s">
+        <v>8453</v>
+      </c>
+      <c r="J1090" s="20">
+        <v>7896916032</v>
+      </c>
+      <c r="K1090" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1091" s="20"/>
+      <c r="B1091" s="20"/>
+      <c r="C1091" s="20"/>
+      <c r="D1091" s="20"/>
+      <c r="E1091" s="20" t="s">
+        <v>8658</v>
+      </c>
+      <c r="F1091" s="21">
+        <v>25628</v>
+      </c>
+      <c r="G1091" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1091" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1091" s="20" t="s">
+        <v>8454</v>
+      </c>
+      <c r="J1091" s="20">
+        <v>8006400472</v>
+      </c>
+      <c r="K1091" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1092" s="20"/>
+      <c r="B1092" s="20"/>
+      <c r="C1092" s="20"/>
+      <c r="D1092" s="20"/>
+      <c r="E1092" s="20" t="s">
+        <v>8659</v>
+      </c>
+      <c r="F1092" s="21">
+        <v>25138</v>
+      </c>
+      <c r="G1092" s="20" t="s">
+        <v>5334</v>
+      </c>
+      <c r="H1092" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1092" s="20" t="s">
+        <v>8455</v>
+      </c>
+      <c r="J1092" s="20">
+        <v>9864207119</v>
+      </c>
+      <c r="K1092" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1093" s="20"/>
+      <c r="B1093" s="20"/>
+      <c r="C1093" s="20"/>
+      <c r="D1093" s="20"/>
+      <c r="E1093" s="20" t="s">
+        <v>8660</v>
+      </c>
+      <c r="F1093" s="21">
+        <v>24504</v>
+      </c>
+      <c r="G1093" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1093" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1093" s="20" t="s">
+        <v>8456</v>
+      </c>
+      <c r="J1093" s="20">
+        <v>9735974724</v>
+      </c>
+      <c r="K1093" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1094" s="20"/>
+      <c r="B1094" s="20"/>
+      <c r="C1094" s="20"/>
+      <c r="D1094" s="20"/>
+      <c r="E1094" s="20" t="s">
+        <v>8661</v>
+      </c>
+      <c r="F1094" s="21">
+        <v>25204</v>
+      </c>
+      <c r="G1094" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1094" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1094" s="20" t="s">
+        <v>8457</v>
+      </c>
+      <c r="J1094" s="20"/>
+      <c r="K1094" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1095" s="20"/>
+      <c r="B1095" s="20"/>
+      <c r="C1095" s="20"/>
+      <c r="D1095" s="20"/>
+      <c r="E1095" s="20" t="s">
+        <v>8662</v>
+      </c>
+      <c r="F1095" s="21">
+        <v>21667</v>
+      </c>
+      <c r="G1095" s="20" t="s">
+        <v>8839</v>
+      </c>
+      <c r="H1095" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1095" s="20" t="s">
+        <v>8458</v>
+      </c>
+      <c r="J1095" s="20">
+        <v>9957193324</v>
+      </c>
+      <c r="K1095" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1096" s="20"/>
+      <c r="B1096" s="20"/>
+      <c r="C1096" s="20"/>
+      <c r="D1096" s="20"/>
+      <c r="E1096" s="20" t="s">
+        <v>8663</v>
+      </c>
+      <c r="F1096" s="21">
+        <v>25842</v>
+      </c>
+      <c r="G1096" s="20" t="s">
+        <v>8840</v>
+      </c>
+      <c r="H1096" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1096" s="20" t="s">
+        <v>8459</v>
+      </c>
+      <c r="J1096" s="20">
+        <v>9436352984</v>
+      </c>
+      <c r="K1096" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1097" s="20"/>
+      <c r="B1097" s="20"/>
+      <c r="C1097" s="20"/>
+      <c r="D1097" s="20"/>
+      <c r="E1097" s="20" t="s">
+        <v>8664</v>
+      </c>
+      <c r="F1097" s="21">
+        <v>26360</v>
+      </c>
+      <c r="G1097" s="20" t="s">
+        <v>8841</v>
+      </c>
+      <c r="H1097" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1097" s="20" t="s">
+        <v>8460</v>
+      </c>
+      <c r="J1097" s="20">
+        <v>9890623260</v>
+      </c>
+      <c r="K1097" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1098" s="20"/>
+      <c r="B1098" s="20"/>
+      <c r="C1098" s="20"/>
+      <c r="D1098" s="20"/>
+      <c r="E1098" s="20" t="s">
+        <v>8665</v>
+      </c>
+      <c r="F1098" s="21">
+        <v>26299</v>
+      </c>
+      <c r="G1098" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1098" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1098" s="20" t="s">
+        <v>8461</v>
+      </c>
+      <c r="J1098" s="20"/>
+      <c r="K1098" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1099" s="20"/>
+      <c r="B1099" s="20"/>
+      <c r="C1099" s="20"/>
+      <c r="D1099" s="20"/>
+      <c r="E1099" s="20" t="s">
+        <v>8666</v>
+      </c>
+      <c r="F1099" s="21">
+        <v>25173</v>
+      </c>
+      <c r="G1099" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1099" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1099" s="20" t="s">
+        <v>8462</v>
+      </c>
+      <c r="J1099" s="20">
+        <v>9678771763</v>
+      </c>
+      <c r="K1099" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1100" s="20"/>
+      <c r="B1100" s="20"/>
+      <c r="C1100" s="20"/>
+      <c r="D1100" s="20"/>
+      <c r="E1100" s="20" t="s">
+        <v>8667</v>
+      </c>
+      <c r="F1100" s="21">
+        <v>25263</v>
+      </c>
+      <c r="G1100" s="20" t="s">
+        <v>8842</v>
+      </c>
+      <c r="H1100" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1100" s="20" t="s">
+        <v>8463</v>
+      </c>
+      <c r="J1100" s="20">
+        <v>9435560369</v>
+      </c>
+      <c r="K1100" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1101" s="20"/>
+      <c r="B1101" s="20"/>
+      <c r="C1101" s="20"/>
+      <c r="D1101" s="20"/>
+      <c r="E1101" s="20" t="s">
+        <v>8668</v>
+      </c>
+      <c r="F1101" s="21">
+        <v>23833</v>
+      </c>
+      <c r="G1101" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1101" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1101" s="20" t="s">
+        <v>8464</v>
+      </c>
+      <c r="J1101" s="20">
+        <v>6003582750</v>
+      </c>
+      <c r="K1101" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1102" s="20"/>
+      <c r="B1102" s="20"/>
+      <c r="C1102" s="20"/>
+      <c r="D1102" s="20"/>
+      <c r="E1102" s="20" t="s">
+        <v>8669</v>
+      </c>
+      <c r="F1102" s="21">
+        <v>26665</v>
+      </c>
+      <c r="G1102" s="20" t="s">
+        <v>8843</v>
+      </c>
+      <c r="H1102" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1102" s="20" t="s">
+        <v>8465</v>
+      </c>
+      <c r="J1102" s="20">
+        <v>8472880802</v>
+      </c>
+      <c r="K1102" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1103" s="20"/>
+      <c r="B1103" s="20"/>
+      <c r="C1103" s="20"/>
+      <c r="D1103" s="20"/>
+      <c r="E1103" s="20" t="s">
+        <v>8670</v>
+      </c>
+      <c r="F1103" s="21">
+        <v>26765</v>
+      </c>
+      <c r="G1103" s="20" t="s">
+        <v>8844</v>
+      </c>
+      <c r="H1103" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1103" s="20" t="s">
+        <v>8466</v>
+      </c>
+      <c r="J1103" s="20">
+        <v>9435725345</v>
+      </c>
+      <c r="K1103" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1104" s="20"/>
+      <c r="B1104" s="20"/>
+      <c r="C1104" s="20"/>
+      <c r="D1104" s="20"/>
+      <c r="E1104" s="20" t="s">
+        <v>8671</v>
+      </c>
+      <c r="F1104" s="21">
+        <v>25630</v>
+      </c>
+      <c r="G1104" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1104" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1104" s="20" t="s">
+        <v>8467</v>
+      </c>
+      <c r="J1104" s="20">
+        <v>9957830751</v>
+      </c>
+      <c r="K1104" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1105" s="20"/>
+      <c r="B1105" s="20"/>
+      <c r="C1105" s="20"/>
+      <c r="D1105" s="20"/>
+      <c r="E1105" s="20" t="s">
+        <v>8672</v>
+      </c>
+      <c r="F1105" s="21">
+        <v>26032</v>
+      </c>
+      <c r="G1105" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1105" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1105" s="20" t="s">
+        <v>8468</v>
+      </c>
+      <c r="J1105" s="20">
+        <v>9695741744</v>
+      </c>
+      <c r="K1105" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1106" s="20"/>
+      <c r="B1106" s="20"/>
+      <c r="C1106" s="20"/>
+      <c r="D1106" s="20"/>
+      <c r="E1106" s="20" t="s">
+        <v>8673</v>
+      </c>
+      <c r="F1106" s="21">
+        <v>26531</v>
+      </c>
+      <c r="G1106" s="20" t="s">
+        <v>8845</v>
+      </c>
+      <c r="H1106" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1106" s="20" t="s">
+        <v>8469</v>
+      </c>
+      <c r="J1106" s="20">
+        <v>9435200104</v>
+      </c>
+      <c r="K1106" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1107" s="20"/>
+      <c r="B1107" s="20"/>
+      <c r="C1107" s="20"/>
+      <c r="D1107" s="20"/>
+      <c r="E1107" s="20" t="s">
+        <v>8674</v>
+      </c>
+      <c r="F1107" s="21">
+        <v>26359</v>
+      </c>
+      <c r="G1107" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1107" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1107" s="20" t="s">
+        <v>8470</v>
+      </c>
+      <c r="J1107" s="20"/>
+      <c r="K1107" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1108" s="20"/>
+      <c r="B1108" s="20"/>
+      <c r="C1108" s="20"/>
+      <c r="D1108" s="20"/>
+      <c r="E1108" s="20" t="s">
+        <v>8675</v>
+      </c>
+      <c r="F1108" s="21">
+        <v>26665</v>
+      </c>
+      <c r="G1108" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1108" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1108" s="20" t="s">
+        <v>8471</v>
+      </c>
+      <c r="J1108" s="20">
+        <v>9435323542</v>
+      </c>
+      <c r="K1108" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1109" s="20"/>
+      <c r="B1109" s="20"/>
+      <c r="C1109" s="20"/>
+      <c r="D1109" s="20"/>
+      <c r="E1109" s="20" t="s">
+        <v>8676</v>
+      </c>
+      <c r="F1109" s="21">
+        <v>26481</v>
+      </c>
+      <c r="G1109" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1109" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1109" s="20" t="s">
+        <v>8472</v>
+      </c>
+      <c r="J1109" s="20"/>
+      <c r="K1109" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1110" s="20"/>
+      <c r="B1110" s="20"/>
+      <c r="C1110" s="20"/>
+      <c r="D1110" s="20"/>
+      <c r="E1110" s="20" t="s">
+        <v>8677</v>
+      </c>
+      <c r="F1110" s="21">
+        <v>27215</v>
+      </c>
+      <c r="G1110" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1110" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1110" s="20" t="s">
+        <v>8473</v>
+      </c>
+      <c r="J1110" s="20">
+        <v>9436228003</v>
+      </c>
+      <c r="K1110" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1111" s="20"/>
+      <c r="B1111" s="20"/>
+      <c r="C1111" s="20"/>
+      <c r="D1111" s="20"/>
+      <c r="E1111" s="20" t="s">
+        <v>8678</v>
+      </c>
+      <c r="F1111" s="21">
+        <v>26313</v>
+      </c>
+      <c r="G1111" s="20" t="s">
+        <v>8840</v>
+      </c>
+      <c r="H1111" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1111" s="20" t="s">
+        <v>8474</v>
+      </c>
+      <c r="J1111" s="20">
+        <v>9435307661</v>
+      </c>
+      <c r="K1111" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1112" s="20"/>
+      <c r="B1112" s="20"/>
+      <c r="C1112" s="20"/>
+      <c r="D1112" s="20"/>
+      <c r="E1112" s="20" t="s">
+        <v>8679</v>
+      </c>
+      <c r="F1112" s="21">
+        <v>26936</v>
+      </c>
+      <c r="G1112" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1112" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1112" s="20" t="s">
+        <v>8475</v>
+      </c>
+      <c r="J1112" s="20">
+        <v>9435558835</v>
+      </c>
+      <c r="K1112" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1113" s="20"/>
+      <c r="B1113" s="20"/>
+      <c r="C1113" s="20"/>
+      <c r="D1113" s="20"/>
+      <c r="E1113" s="20" t="s">
+        <v>8680</v>
+      </c>
+      <c r="F1113" s="21">
+        <v>27030</v>
+      </c>
+      <c r="G1113" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1113" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1113" s="20" t="s">
+        <v>8476</v>
+      </c>
+      <c r="J1113" s="20">
+        <v>9957618073</v>
+      </c>
+      <c r="K1113" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1114" s="20"/>
+      <c r="B1114" s="20"/>
+      <c r="C1114" s="20"/>
+      <c r="D1114" s="20"/>
+      <c r="E1114" s="20" t="s">
+        <v>8681</v>
+      </c>
+      <c r="F1114" s="21">
+        <v>27065</v>
+      </c>
+      <c r="G1114" s="20" t="s">
+        <v>8846</v>
+      </c>
+      <c r="H1114" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1114" s="20" t="s">
+        <v>8477</v>
+      </c>
+      <c r="J1114" s="20">
+        <v>9859938851</v>
+      </c>
+      <c r="K1114" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1115" s="20"/>
+      <c r="B1115" s="20"/>
+      <c r="C1115" s="20"/>
+      <c r="D1115" s="20"/>
+      <c r="E1115" s="20" t="s">
+        <v>8682</v>
+      </c>
+      <c r="F1115" s="21">
+        <v>27031</v>
+      </c>
+      <c r="G1115" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1115" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1115" s="20" t="s">
+        <v>8478</v>
+      </c>
+      <c r="J1115" s="20"/>
+      <c r="K1115" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1116" s="20"/>
+      <c r="B1116" s="20"/>
+      <c r="C1116" s="20"/>
+      <c r="D1116" s="20"/>
+      <c r="E1116" s="20" t="s">
+        <v>8683</v>
+      </c>
+      <c r="F1116" s="21">
+        <v>26359</v>
+      </c>
+      <c r="G1116" s="20" t="s">
+        <v>8847</v>
+      </c>
+      <c r="H1116" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1116" s="20" t="s">
+        <v>8479</v>
+      </c>
+      <c r="J1116" s="20">
+        <v>9435087901</v>
+      </c>
+      <c r="K1116" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1117" s="20"/>
+      <c r="B1117" s="20"/>
+      <c r="C1117" s="20"/>
+      <c r="D1117" s="20"/>
+      <c r="E1117" s="20" t="s">
+        <v>8684</v>
+      </c>
+      <c r="F1117" s="21"/>
+      <c r="G1117" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1117" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1117" s="20" t="s">
+        <v>8480</v>
+      </c>
+      <c r="J1117" s="20"/>
+      <c r="K1117" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1118" s="20"/>
+      <c r="B1118" s="20"/>
+      <c r="C1118" s="20"/>
+      <c r="D1118" s="20"/>
+      <c r="E1118" s="20" t="s">
+        <v>8685</v>
+      </c>
+      <c r="F1118" s="21"/>
+      <c r="G1118" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1118" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1118" s="20" t="s">
+        <v>8481</v>
+      </c>
+      <c r="J1118" s="20">
+        <v>9854147614</v>
+      </c>
+      <c r="K1118" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1119" s="20"/>
+      <c r="B1119" s="20"/>
+      <c r="C1119" s="20"/>
+      <c r="D1119" s="20"/>
+      <c r="E1119" s="20" t="s">
+        <v>8686</v>
+      </c>
+      <c r="F1119" s="21">
+        <v>26951</v>
+      </c>
+      <c r="G1119" s="20" t="s">
+        <v>8848</v>
+      </c>
+      <c r="H1119" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1119" s="20" t="s">
+        <v>8482</v>
+      </c>
+      <c r="J1119" s="20">
+        <v>9864355662</v>
+      </c>
+      <c r="K1119" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1120" s="20"/>
+      <c r="B1120" s="20"/>
+      <c r="C1120" s="20"/>
+      <c r="D1120" s="20"/>
+      <c r="E1120" s="20" t="s">
+        <v>8687</v>
+      </c>
+      <c r="F1120" s="21">
+        <v>26314</v>
+      </c>
+      <c r="G1120" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1120" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1120" s="20" t="s">
+        <v>8483</v>
+      </c>
+      <c r="J1120" s="20"/>
+      <c r="K1120" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1121" s="20"/>
+      <c r="B1121" s="20"/>
+      <c r="C1121" s="20"/>
+      <c r="D1121" s="20"/>
+      <c r="E1121" s="20" t="s">
+        <v>8688</v>
+      </c>
+      <c r="F1121" s="21">
+        <v>26723</v>
+      </c>
+      <c r="G1121" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1121" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1121" s="20" t="s">
+        <v>8484</v>
+      </c>
+      <c r="J1121" s="20">
+        <v>9435360028</v>
+      </c>
+      <c r="K1121" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1122" s="20"/>
+      <c r="B1122" s="20"/>
+      <c r="C1122" s="20"/>
+      <c r="D1122" s="20"/>
+      <c r="E1122" s="20" t="s">
+        <v>8689</v>
+      </c>
+      <c r="F1122" s="21">
+        <v>27030</v>
+      </c>
+      <c r="G1122" s="20" t="s">
+        <v>8849</v>
+      </c>
+      <c r="H1122" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1122" s="20" t="s">
+        <v>8485</v>
+      </c>
+      <c r="J1122" s="20">
+        <v>9613851428</v>
+      </c>
+      <c r="K1122" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1123" s="20"/>
+      <c r="B1123" s="20"/>
+      <c r="C1123" s="20"/>
+      <c r="D1123" s="20"/>
+      <c r="E1123" s="20" t="s">
+        <v>8690</v>
+      </c>
+      <c r="F1123" s="21">
+        <v>27061</v>
+      </c>
+      <c r="G1123" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1123" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1123" s="20" t="s">
+        <v>8486</v>
+      </c>
+      <c r="J1123" s="20"/>
+      <c r="K1123" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1124" s="20"/>
+      <c r="B1124" s="20"/>
+      <c r="C1124" s="20"/>
+      <c r="D1124" s="20"/>
+      <c r="E1124" s="20" t="s">
+        <v>8691</v>
+      </c>
+      <c r="F1124" s="21">
+        <v>27271</v>
+      </c>
+      <c r="G1124" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1124" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1124" s="20" t="s">
+        <v>8487</v>
+      </c>
+      <c r="J1124" s="20"/>
+      <c r="K1124" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1125" s="20"/>
+      <c r="B1125" s="20"/>
+      <c r="C1125" s="20"/>
+      <c r="D1125" s="20"/>
+      <c r="E1125" s="20" t="s">
+        <v>8692</v>
+      </c>
+      <c r="F1125" s="21">
+        <v>27454</v>
+      </c>
+      <c r="G1125" s="20" t="s">
+        <v>8850</v>
+      </c>
+      <c r="H1125" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1125" s="20" t="s">
+        <v>8488</v>
+      </c>
+      <c r="J1125" s="20">
+        <v>8638040516</v>
+      </c>
+      <c r="K1125" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1126" s="20"/>
+      <c r="B1126" s="20"/>
+      <c r="C1126" s="20"/>
+      <c r="D1126" s="20"/>
+      <c r="E1126" s="20" t="s">
+        <v>8693</v>
+      </c>
+      <c r="F1126" s="21">
+        <v>27089</v>
+      </c>
+      <c r="G1126" s="20" t="s">
+        <v>8851</v>
+      </c>
+      <c r="H1126" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1126" s="20" t="s">
+        <v>8489</v>
+      </c>
+      <c r="J1126" s="20">
+        <v>9436374061</v>
+      </c>
+      <c r="K1126" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1127" s="20"/>
+      <c r="B1127" s="20"/>
+      <c r="C1127" s="20"/>
+      <c r="D1127" s="20"/>
+      <c r="E1127" s="20" t="s">
+        <v>8694</v>
+      </c>
+      <c r="F1127" s="21">
+        <v>25263</v>
+      </c>
+      <c r="G1127" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1127" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1127" s="20" t="s">
+        <v>8490</v>
+      </c>
+      <c r="J1127" s="20"/>
+      <c r="K1127" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1128" s="20"/>
+      <c r="B1128" s="20"/>
+      <c r="C1128" s="20"/>
+      <c r="D1128" s="20"/>
+      <c r="E1128" s="20" t="s">
+        <v>8695</v>
+      </c>
+      <c r="F1128" s="21">
+        <v>27058</v>
+      </c>
+      <c r="G1128" s="20" t="s">
+        <v>8852</v>
+      </c>
+      <c r="H1128" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1128" s="20" t="s">
+        <v>8491</v>
+      </c>
+      <c r="J1128" s="20">
+        <v>9435526792</v>
+      </c>
+      <c r="K1128" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1129" s="20"/>
+      <c r="B1129" s="20"/>
+      <c r="C1129" s="20"/>
+      <c r="D1129" s="20"/>
+      <c r="E1129" s="20" t="s">
+        <v>8696</v>
+      </c>
+      <c r="F1129" s="21">
+        <v>27119</v>
+      </c>
+      <c r="G1129" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1129" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1129" s="20" t="s">
+        <v>8492</v>
+      </c>
+      <c r="J1129" s="20"/>
+      <c r="K1129" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1130" s="20"/>
+      <c r="B1130" s="20"/>
+      <c r="C1130" s="20"/>
+      <c r="D1130" s="20"/>
+      <c r="E1130" s="20" t="s">
+        <v>8697</v>
+      </c>
+      <c r="F1130" s="21">
+        <v>28002</v>
+      </c>
+      <c r="G1130" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1130" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1130" s="20" t="s">
+        <v>8493</v>
+      </c>
+      <c r="J1130" s="20"/>
+      <c r="K1130" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1131" s="20"/>
+      <c r="B1131" s="20"/>
+      <c r="C1131" s="20"/>
+      <c r="D1131" s="20"/>
+      <c r="E1131" s="20" t="s">
+        <v>8698</v>
+      </c>
+      <c r="F1131" s="21">
+        <v>28127</v>
+      </c>
+      <c r="G1131" s="20" t="s">
+        <v>8853</v>
+      </c>
+      <c r="H1131" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1131" s="20" t="s">
+        <v>8494</v>
+      </c>
+      <c r="J1131" s="20">
+        <v>9864011036</v>
+      </c>
+      <c r="K1131" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1132" s="20"/>
+      <c r="B1132" s="20"/>
+      <c r="C1132" s="20"/>
+      <c r="D1132" s="20"/>
+      <c r="E1132" s="20" t="s">
+        <v>8699</v>
+      </c>
+      <c r="F1132" s="21">
+        <v>27303</v>
+      </c>
+      <c r="G1132" s="20" t="s">
+        <v>8854</v>
+      </c>
+      <c r="H1132" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1132" s="20" t="s">
+        <v>8495</v>
+      </c>
+      <c r="J1132" s="20">
+        <v>8960853297</v>
+      </c>
+      <c r="K1132" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1133" s="20"/>
+      <c r="B1133" s="20"/>
+      <c r="C1133" s="20"/>
+      <c r="D1133" s="20"/>
+      <c r="E1133" s="20" t="s">
+        <v>8700</v>
+      </c>
+      <c r="F1133" s="21">
+        <v>26052</v>
+      </c>
+      <c r="G1133" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1133" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1133" s="20" t="s">
+        <v>8496</v>
+      </c>
+      <c r="J1133" s="20">
+        <v>7002701156</v>
+      </c>
+      <c r="K1133" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1134" s="20"/>
+      <c r="B1134" s="20"/>
+      <c r="C1134" s="20"/>
+      <c r="D1134" s="20"/>
+      <c r="E1134" s="20" t="s">
+        <v>8701</v>
+      </c>
+      <c r="F1134" s="21">
+        <v>28449</v>
+      </c>
+      <c r="G1134" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1134" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1134" s="20" t="s">
+        <v>8497</v>
+      </c>
+      <c r="J1134" s="20"/>
+      <c r="K1134" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1135" s="20"/>
+      <c r="B1135" s="20"/>
+      <c r="C1135" s="20"/>
+      <c r="D1135" s="20"/>
+      <c r="E1135" s="20" t="s">
+        <v>8702</v>
+      </c>
+      <c r="F1135" s="21">
+        <v>25764</v>
+      </c>
+      <c r="G1135" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1135" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1135" s="20" t="s">
+        <v>8498</v>
+      </c>
+      <c r="J1135" s="20"/>
+      <c r="K1135" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1136" s="20"/>
+      <c r="B1136" s="20"/>
+      <c r="C1136" s="20"/>
+      <c r="D1136" s="20"/>
+      <c r="E1136" s="20" t="s">
+        <v>8703</v>
+      </c>
+      <c r="F1136" s="21">
+        <v>28229</v>
+      </c>
+      <c r="G1136" s="20" t="s">
+        <v>8855</v>
+      </c>
+      <c r="H1136" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1136" s="20" t="s">
+        <v>8499</v>
+      </c>
+      <c r="J1136" s="20">
+        <v>9957235921</v>
+      </c>
+      <c r="K1136" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1137" s="20"/>
+      <c r="B1137" s="20"/>
+      <c r="C1137" s="20"/>
+      <c r="D1137" s="20"/>
+      <c r="E1137" s="20" t="s">
+        <v>8704</v>
+      </c>
+      <c r="F1137" s="21">
+        <v>27420</v>
+      </c>
+      <c r="G1137" s="20" t="s">
+        <v>8856</v>
+      </c>
+      <c r="H1137" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1137" s="20" t="s">
+        <v>8500</v>
+      </c>
+      <c r="J1137" s="20">
+        <v>8638152625</v>
+      </c>
+      <c r="K1137" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1138" s="20"/>
+      <c r="B1138" s="20"/>
+      <c r="C1138" s="20"/>
+      <c r="D1138" s="20"/>
+      <c r="E1138" s="20" t="s">
+        <v>8705</v>
+      </c>
+      <c r="F1138" s="21">
+        <v>27820</v>
+      </c>
+      <c r="G1138" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1138" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1138" s="20" t="s">
+        <v>8501</v>
+      </c>
+      <c r="J1138" s="20">
+        <v>9435389809</v>
+      </c>
+      <c r="K1138" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1139" s="20"/>
+      <c r="B1139" s="20"/>
+      <c r="C1139" s="20"/>
+      <c r="D1139" s="20"/>
+      <c r="E1139" s="20" t="s">
+        <v>8706</v>
+      </c>
+      <c r="F1139" s="21">
+        <v>27820</v>
+      </c>
+      <c r="G1139" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1139" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1139" s="20" t="s">
+        <v>8502</v>
+      </c>
+      <c r="J1139" s="20"/>
+      <c r="K1139" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1140" s="20"/>
+      <c r="B1140" s="20"/>
+      <c r="C1140" s="20"/>
+      <c r="D1140" s="20"/>
+      <c r="E1140" s="20" t="s">
+        <v>8707</v>
+      </c>
+      <c r="F1140" s="21">
+        <v>28725</v>
+      </c>
+      <c r="G1140" s="20" t="s">
+        <v>8857</v>
+      </c>
+      <c r="H1140" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1140" s="20" t="s">
+        <v>8503</v>
+      </c>
+      <c r="J1140" s="20">
+        <v>9864357161</v>
+      </c>
+      <c r="K1140" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1141" s="20"/>
+      <c r="B1141" s="20"/>
+      <c r="C1141" s="20"/>
+      <c r="D1141" s="20"/>
+      <c r="E1141" s="20" t="s">
+        <v>8708</v>
+      </c>
+      <c r="F1141" s="21">
+        <v>28516</v>
+      </c>
+      <c r="G1141" s="20" t="s">
+        <v>8858</v>
+      </c>
+      <c r="H1141" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1141" s="20" t="s">
+        <v>8504</v>
+      </c>
+      <c r="J1141" s="20"/>
+      <c r="K1141" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1142" s="20"/>
+      <c r="B1142" s="20"/>
+      <c r="C1142" s="20"/>
+      <c r="D1142" s="20"/>
+      <c r="E1142" s="20" t="s">
+        <v>8709</v>
+      </c>
+      <c r="F1142" s="21">
+        <v>28915</v>
+      </c>
+      <c r="G1142" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1142" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1142" s="20" t="s">
+        <v>8505</v>
+      </c>
+      <c r="J1142" s="20">
+        <v>9101643820</v>
+      </c>
+      <c r="K1142" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1143" s="20"/>
+      <c r="B1143" s="20"/>
+      <c r="C1143" s="20"/>
+      <c r="D1143" s="20"/>
+      <c r="E1143" s="20" t="s">
+        <v>8710</v>
+      </c>
+      <c r="F1143" s="21">
+        <v>29038</v>
+      </c>
+      <c r="G1143" s="20" t="s">
+        <v>8859</v>
+      </c>
+      <c r="H1143" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1143" s="20" t="s">
+        <v>8506</v>
+      </c>
+      <c r="J1143" s="20">
+        <v>7086692677</v>
+      </c>
+      <c r="K1143" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1144" s="20"/>
+      <c r="B1144" s="20"/>
+      <c r="C1144" s="20"/>
+      <c r="D1144" s="20"/>
+      <c r="E1144" s="20" t="s">
+        <v>8711</v>
+      </c>
+      <c r="F1144" s="21">
+        <v>28915</v>
+      </c>
+      <c r="G1144" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1144" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1144" s="20" t="s">
+        <v>8507</v>
+      </c>
+      <c r="J1144" s="20"/>
+      <c r="K1144" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1145" s="20"/>
+      <c r="B1145" s="20"/>
+      <c r="C1145" s="20"/>
+      <c r="D1145" s="20"/>
+      <c r="E1145" s="20" t="s">
+        <v>8712</v>
+      </c>
+      <c r="F1145" s="21">
+        <v>28915</v>
+      </c>
+      <c r="G1145" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1145" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1145" s="20" t="s">
+        <v>8508</v>
+      </c>
+      <c r="J1145" s="20"/>
+      <c r="K1145" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1146" s="20"/>
+      <c r="B1146" s="20"/>
+      <c r="C1146" s="20"/>
+      <c r="D1146" s="20"/>
+      <c r="E1146" s="20" t="s">
+        <v>8713</v>
+      </c>
+      <c r="F1146" s="21">
+        <v>28887</v>
+      </c>
+      <c r="G1146" s="20" t="s">
+        <v>8860</v>
+      </c>
+      <c r="H1146" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1146" s="20" t="s">
+        <v>8509</v>
+      </c>
+      <c r="J1146" s="20">
+        <v>9435594808</v>
+      </c>
+      <c r="K1146" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1147" s="20"/>
+      <c r="B1147" s="20"/>
+      <c r="C1147" s="20"/>
+      <c r="D1147" s="20"/>
+      <c r="E1147" s="20" t="s">
+        <v>8714</v>
+      </c>
+      <c r="F1147" s="21">
+        <v>29281</v>
+      </c>
+      <c r="G1147" s="20" t="s">
+        <v>8844</v>
+      </c>
+      <c r="H1147" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1147" s="20" t="s">
+        <v>8510</v>
+      </c>
+      <c r="J1147" s="20">
+        <v>6900735453</v>
+      </c>
+      <c r="K1147" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1148" s="20"/>
+      <c r="B1148" s="20"/>
+      <c r="C1148" s="20"/>
+      <c r="D1148" s="20"/>
+      <c r="E1148" s="20" t="s">
+        <v>8715</v>
+      </c>
+      <c r="F1148" s="21">
+        <v>28522</v>
+      </c>
+      <c r="G1148" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1148" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1148" s="20" t="s">
+        <v>8511</v>
+      </c>
+      <c r="J1148" s="20"/>
+      <c r="K1148" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1149" s="20"/>
+      <c r="B1149" s="20"/>
+      <c r="C1149" s="20"/>
+      <c r="D1149" s="20"/>
+      <c r="E1149" s="20" t="s">
+        <v>8716</v>
+      </c>
+      <c r="F1149" s="21" t="s">
+        <v>8808</v>
+      </c>
+      <c r="G1149" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1149" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1149" s="20" t="s">
+        <v>8512</v>
+      </c>
+      <c r="J1149" s="20">
+        <v>9925957679</v>
+      </c>
+      <c r="K1149" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A1150" s="20"/>
+      <c r="B1150" s="20"/>
+      <c r="C1150" s="20"/>
+      <c r="D1150" s="20"/>
+      <c r="E1150" s="20" t="s">
+        <v>8717</v>
+      </c>
+      <c r="F1150" s="21">
+        <v>29271</v>
+      </c>
+      <c r="G1150" s="20" t="s">
+        <v>8861</v>
+      </c>
+      <c r="H1150" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1150" s="20" t="s">
+        <v>8513</v>
+      </c>
+      <c r="J1150" s="20">
+        <v>9678644300</v>
+      </c>
+      <c r="K1150" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1151" s="20"/>
+      <c r="B1151" s="20"/>
+      <c r="C1151" s="20"/>
+      <c r="D1151" s="20"/>
+      <c r="E1151" s="20" t="s">
+        <v>8718</v>
+      </c>
+      <c r="F1151" s="21">
+        <v>28915</v>
+      </c>
+      <c r="G1151" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1151" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1151" s="20" t="s">
+        <v>8514</v>
+      </c>
+      <c r="J1151" s="20">
+        <v>8787303105</v>
+      </c>
+      <c r="K1151" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1152" s="20"/>
+      <c r="B1152" s="20"/>
+      <c r="C1152" s="20"/>
+      <c r="D1152" s="20"/>
+      <c r="E1152" s="20" t="s">
+        <v>8719</v>
+      </c>
+      <c r="F1152" s="21">
+        <v>29314</v>
+      </c>
+      <c r="G1152" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1152" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1152" s="20" t="s">
+        <v>8515</v>
+      </c>
+      <c r="J1152" s="20"/>
+      <c r="K1152" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1153" s="20"/>
+      <c r="B1153" s="20"/>
+      <c r="C1153" s="20"/>
+      <c r="D1153" s="20"/>
+      <c r="E1153" s="20" t="s">
+        <v>8720</v>
+      </c>
+      <c r="F1153" s="21">
+        <v>29187</v>
+      </c>
+      <c r="G1153" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1153" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1153" s="20" t="s">
+        <v>8516</v>
+      </c>
+      <c r="J1153" s="20">
+        <v>9957344764</v>
+      </c>
+      <c r="K1153" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1154" s="20"/>
+      <c r="B1154" s="20"/>
+      <c r="C1154" s="20"/>
+      <c r="D1154" s="20"/>
+      <c r="E1154" s="20" t="s">
+        <v>8721</v>
+      </c>
+      <c r="F1154" s="21">
+        <v>28231</v>
+      </c>
+      <c r="G1154" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1154" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1154" s="20" t="s">
+        <v>8517</v>
+      </c>
+      <c r="J1154" s="20">
+        <v>9954076250</v>
+      </c>
+      <c r="K1154" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1155" s="20"/>
+      <c r="B1155" s="20"/>
+      <c r="C1155" s="20"/>
+      <c r="D1155" s="20"/>
+      <c r="E1155" s="20" t="s">
+        <v>8722</v>
+      </c>
+      <c r="F1155" s="21">
+        <v>30133</v>
+      </c>
+      <c r="G1155" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1155" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1155" s="20" t="s">
+        <v>8518</v>
+      </c>
+      <c r="J1155" s="20"/>
+      <c r="K1155" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1156" s="20"/>
+      <c r="B1156" s="20"/>
+      <c r="C1156" s="20"/>
+      <c r="D1156" s="20"/>
+      <c r="E1156" s="20" t="s">
+        <v>8723</v>
+      </c>
+      <c r="F1156" s="21">
+        <v>28855</v>
+      </c>
+      <c r="G1156" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1156" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1156" s="20" t="s">
+        <v>8519</v>
+      </c>
+      <c r="J1156" s="20"/>
+      <c r="K1156" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1157" s="20"/>
+      <c r="B1157" s="20"/>
+      <c r="C1157" s="20"/>
+      <c r="D1157" s="20"/>
+      <c r="E1157" s="20" t="s">
+        <v>8724</v>
+      </c>
+      <c r="F1157" s="21">
+        <v>30195</v>
+      </c>
+      <c r="G1157" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1157" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1157" s="20" t="s">
+        <v>8520</v>
+      </c>
+      <c r="J1157" s="20"/>
+      <c r="K1157" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1158" s="20"/>
+      <c r="B1158" s="20"/>
+      <c r="C1158" s="20"/>
+      <c r="D1158" s="20"/>
+      <c r="E1158" s="20" t="s">
+        <v>8725</v>
+      </c>
+      <c r="F1158" s="21">
+        <v>29377</v>
+      </c>
+      <c r="G1158" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1158" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1158" s="20" t="s">
+        <v>8521</v>
+      </c>
+      <c r="J1158" s="20">
+        <v>9864320128</v>
+      </c>
+      <c r="K1158" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1159" s="20"/>
+      <c r="B1159" s="20"/>
+      <c r="C1159" s="20"/>
+      <c r="D1159" s="20"/>
+      <c r="E1159" s="20" t="s">
+        <v>8726</v>
+      </c>
+      <c r="F1159" s="21">
+        <v>30132</v>
+      </c>
+      <c r="G1159" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1159" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1159" s="20" t="s">
+        <v>8522</v>
+      </c>
+      <c r="J1159" s="20"/>
+      <c r="K1159" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1160" s="20"/>
+      <c r="B1160" s="20"/>
+      <c r="C1160" s="20"/>
+      <c r="D1160" s="20"/>
+      <c r="E1160" s="20" t="s">
+        <v>8727</v>
+      </c>
+      <c r="F1160" s="21">
+        <v>30376</v>
+      </c>
+      <c r="G1160" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1160" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1160" s="20" t="s">
+        <v>8523</v>
+      </c>
+      <c r="J1160" s="20"/>
+      <c r="K1160" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1161" s="20"/>
+      <c r="B1161" s="20"/>
+      <c r="C1161" s="20"/>
+      <c r="D1161" s="20"/>
+      <c r="E1161" s="20" t="s">
+        <v>8728</v>
+      </c>
+      <c r="F1161" s="21">
+        <v>30581</v>
+      </c>
+      <c r="G1161" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1161" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1161" s="20" t="s">
+        <v>8524</v>
+      </c>
+      <c r="J1161" s="20"/>
+      <c r="K1161" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1162" s="20"/>
+      <c r="B1162" s="20"/>
+      <c r="C1162" s="20"/>
+      <c r="D1162" s="20"/>
+      <c r="E1162" s="20" t="s">
+        <v>8729</v>
+      </c>
+      <c r="F1162" s="21">
+        <v>30798</v>
+      </c>
+      <c r="G1162" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1162" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1162" s="20" t="s">
+        <v>8525</v>
+      </c>
+      <c r="J1162" s="20"/>
+      <c r="K1162" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1163" s="20"/>
+      <c r="B1163" s="20"/>
+      <c r="C1163" s="20"/>
+      <c r="D1163" s="20"/>
+      <c r="E1163" s="20" t="s">
+        <v>8730</v>
+      </c>
+      <c r="F1163" s="21">
+        <v>30376</v>
+      </c>
+      <c r="G1163" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1163" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1163" s="20" t="s">
+        <v>8526</v>
+      </c>
+      <c r="J1163" s="20"/>
+      <c r="K1163" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1164" s="20"/>
+      <c r="B1164" s="20"/>
+      <c r="C1164" s="20"/>
+      <c r="D1164" s="20"/>
+      <c r="E1164" s="20" t="s">
+        <v>8731</v>
+      </c>
+      <c r="F1164" s="21">
+        <v>30637</v>
+      </c>
+      <c r="G1164" s="20" t="s">
+        <v>8862</v>
+      </c>
+      <c r="H1164" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1164" s="20" t="s">
+        <v>8527</v>
+      </c>
+      <c r="J1164" s="20">
+        <v>9864622727</v>
+      </c>
+      <c r="K1164" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1165" s="20"/>
+      <c r="B1165" s="20"/>
+      <c r="C1165" s="20"/>
+      <c r="D1165" s="20"/>
+      <c r="E1165" s="20" t="s">
+        <v>8732</v>
+      </c>
+      <c r="F1165" s="21">
+        <v>30852</v>
+      </c>
+      <c r="G1165" s="20" t="s">
+        <v>8863</v>
+      </c>
+      <c r="H1165" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1165" s="20" t="s">
+        <v>8528</v>
+      </c>
+      <c r="J1165" s="20">
+        <v>7896353934</v>
+      </c>
+      <c r="K1165" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1166" s="20"/>
+      <c r="B1166" s="20"/>
+      <c r="C1166" s="20"/>
+      <c r="D1166" s="20"/>
+      <c r="E1166" s="20" t="s">
+        <v>8733</v>
+      </c>
+      <c r="F1166" s="21">
+        <v>30051</v>
+      </c>
+      <c r="G1166" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1166" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1166" s="20" t="s">
+        <v>8529</v>
+      </c>
+      <c r="J1166" s="20"/>
+      <c r="K1166" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1167" s="20"/>
+      <c r="B1167" s="20"/>
+      <c r="C1167" s="20"/>
+      <c r="D1167" s="20"/>
+      <c r="E1167" s="20" t="s">
+        <v>8734</v>
+      </c>
+      <c r="F1167" s="21">
+        <v>30907</v>
+      </c>
+      <c r="G1167" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1167" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1167" s="20" t="s">
+        <v>8530</v>
+      </c>
+      <c r="J1167" s="20"/>
+      <c r="K1167" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1168" s="20"/>
+      <c r="B1168" s="20"/>
+      <c r="C1168" s="20"/>
+      <c r="D1168" s="20"/>
+      <c r="E1168" s="20" t="s">
+        <v>8735</v>
+      </c>
+      <c r="F1168" s="21">
+        <v>30498</v>
+      </c>
+      <c r="G1168" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1168" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1168" s="20" t="s">
+        <v>8531</v>
+      </c>
+      <c r="J1168" s="20">
+        <v>9864097628</v>
+      </c>
+      <c r="K1168" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1169" s="20"/>
+      <c r="B1169" s="20"/>
+      <c r="C1169" s="20"/>
+      <c r="D1169" s="20"/>
+      <c r="E1169" s="20" t="s">
+        <v>8736</v>
+      </c>
+      <c r="F1169" s="21">
+        <v>29255</v>
+      </c>
+      <c r="G1169" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1169" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1169" s="20" t="s">
+        <v>8532</v>
+      </c>
+      <c r="J1169" s="20"/>
+      <c r="K1169" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1170" s="20"/>
+      <c r="B1170" s="20"/>
+      <c r="C1170" s="20"/>
+      <c r="D1170" s="20"/>
+      <c r="E1170" s="20" t="s">
+        <v>8737</v>
+      </c>
+      <c r="F1170" s="21">
+        <v>30593</v>
+      </c>
+      <c r="G1170" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1170" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1170" s="20" t="s">
+        <v>8533</v>
+      </c>
+      <c r="J1170" s="20"/>
+      <c r="K1170" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1171" s="20"/>
+      <c r="B1171" s="20"/>
+      <c r="C1171" s="20"/>
+      <c r="D1171" s="20"/>
+      <c r="E1171" s="20" t="s">
+        <v>8738</v>
+      </c>
+      <c r="F1171" s="21">
+        <v>30830</v>
+      </c>
+      <c r="G1171" s="20" t="s">
+        <v>8864</v>
+      </c>
+      <c r="H1171" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1171" s="20" t="s">
+        <v>8534</v>
+      </c>
+      <c r="J1171" s="20">
+        <v>8812850485</v>
+      </c>
+      <c r="K1171" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1172" s="20"/>
+      <c r="B1172" s="20"/>
+      <c r="C1172" s="20"/>
+      <c r="D1172" s="20"/>
+      <c r="E1172" s="20" t="s">
+        <v>8739</v>
+      </c>
+      <c r="F1172" s="21">
+        <v>30920</v>
+      </c>
+      <c r="G1172" s="20" t="s">
+        <v>8865</v>
+      </c>
+      <c r="H1172" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1172" s="20" t="s">
+        <v>8535</v>
+      </c>
+      <c r="J1172" s="20">
+        <v>9101551901</v>
+      </c>
+      <c r="K1172" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1173" s="20"/>
+      <c r="B1173" s="20"/>
+      <c r="C1173" s="20"/>
+      <c r="D1173" s="20"/>
+      <c r="E1173" s="20" t="s">
+        <v>8740</v>
+      </c>
+      <c r="F1173" s="21">
+        <v>30512</v>
+      </c>
+      <c r="G1173" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1173" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1173" s="20" t="s">
+        <v>8536</v>
+      </c>
+      <c r="J1173" s="20"/>
+      <c r="K1173" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1174" s="20"/>
+      <c r="B1174" s="20"/>
+      <c r="C1174" s="20"/>
+      <c r="D1174" s="20"/>
+      <c r="E1174" s="20" t="s">
+        <v>8741</v>
+      </c>
+      <c r="F1174" s="21">
+        <v>29494</v>
+      </c>
+      <c r="G1174" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1174" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1174" s="20" t="s">
+        <v>8537</v>
+      </c>
+      <c r="J1174" s="20"/>
+      <c r="K1174" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1175" s="20"/>
+      <c r="B1175" s="20"/>
+      <c r="C1175" s="20"/>
+      <c r="D1175" s="20"/>
+      <c r="E1175" s="20" t="s">
+        <v>8742</v>
+      </c>
+      <c r="F1175" s="21">
+        <v>29753</v>
+      </c>
+      <c r="G1175" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1175" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1175" s="20" t="s">
+        <v>8538</v>
+      </c>
+      <c r="J1175" s="20"/>
+      <c r="K1175" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1176" s="20"/>
+      <c r="B1176" s="20"/>
+      <c r="C1176" s="20"/>
+      <c r="D1176" s="20"/>
+      <c r="E1176" s="20" t="s">
+        <v>8743</v>
+      </c>
+      <c r="F1176" s="21">
+        <v>30011</v>
+      </c>
+      <c r="G1176" s="20" t="s">
+        <v>8866</v>
+      </c>
+      <c r="H1176" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1176" s="20" t="s">
+        <v>8539</v>
+      </c>
+      <c r="J1176" s="20">
+        <v>7002640314</v>
+      </c>
+      <c r="K1176" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1177" s="20"/>
+      <c r="B1177" s="20"/>
+      <c r="C1177" s="20"/>
+      <c r="D1177" s="20"/>
+      <c r="E1177" s="20" t="s">
+        <v>8744</v>
+      </c>
+      <c r="F1177" s="21">
+        <v>30725</v>
+      </c>
+      <c r="G1177" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1177" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1177" s="20" t="s">
+        <v>8540</v>
+      </c>
+      <c r="J1177" s="20">
+        <v>9435388858</v>
+      </c>
+      <c r="K1177" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1178" s="20"/>
+      <c r="B1178" s="20"/>
+      <c r="C1178" s="20"/>
+      <c r="D1178" s="20"/>
+      <c r="E1178" s="20" t="s">
+        <v>8745</v>
+      </c>
+      <c r="F1178" s="21">
+        <v>30742</v>
+      </c>
+      <c r="G1178" s="20" t="s">
+        <v>8867</v>
+      </c>
+      <c r="H1178" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1178" s="20" t="s">
+        <v>8541</v>
+      </c>
+      <c r="J1178" s="20">
+        <v>9864585559</v>
+      </c>
+      <c r="K1178" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1179" s="20"/>
+      <c r="B1179" s="20"/>
+      <c r="C1179" s="20"/>
+      <c r="D1179" s="20"/>
+      <c r="E1179" s="20" t="s">
+        <v>8746</v>
+      </c>
+      <c r="F1179" s="21">
+        <v>30681</v>
+      </c>
+      <c r="G1179" s="20" t="s">
+        <v>8868</v>
+      </c>
+      <c r="H1179" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1179" s="20" t="s">
+        <v>8542</v>
+      </c>
+      <c r="J1179" s="20">
+        <v>8638109474</v>
+      </c>
+      <c r="K1179" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1180" s="20"/>
+      <c r="B1180" s="20"/>
+      <c r="C1180" s="20"/>
+      <c r="D1180" s="20"/>
+      <c r="E1180" s="20" t="s">
+        <v>8747</v>
+      </c>
+      <c r="F1180" s="21">
+        <v>31388</v>
+      </c>
+      <c r="G1180" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1180" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1180" s="20" t="s">
+        <v>8543</v>
+      </c>
+      <c r="J1180" s="20"/>
+      <c r="K1180" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1181" s="20"/>
+      <c r="B1181" s="20"/>
+      <c r="C1181" s="20"/>
+      <c r="D1181" s="20"/>
+      <c r="E1181" s="20" t="s">
+        <v>8748</v>
+      </c>
+      <c r="F1181" s="21">
+        <v>30783</v>
+      </c>
+      <c r="G1181" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1181" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1181" s="20" t="s">
+        <v>8544</v>
+      </c>
+      <c r="J1181" s="20">
+        <v>9864655626</v>
+      </c>
+      <c r="K1181" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1182" s="20"/>
+      <c r="B1182" s="20"/>
+      <c r="C1182" s="20"/>
+      <c r="D1182" s="20"/>
+      <c r="E1182" s="20" t="s">
+        <v>8749</v>
+      </c>
+      <c r="F1182" s="21">
+        <v>29699</v>
+      </c>
+      <c r="G1182" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1182" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1182" s="20" t="s">
+        <v>8545</v>
+      </c>
+      <c r="J1182" s="20">
+        <v>8638461068</v>
+      </c>
+      <c r="K1182" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1183" s="20"/>
+      <c r="B1183" s="20"/>
+      <c r="C1183" s="20"/>
+      <c r="D1183" s="20"/>
+      <c r="E1183" s="20" t="s">
+        <v>8750</v>
+      </c>
+      <c r="F1183" s="21">
+        <v>30965</v>
+      </c>
+      <c r="G1183" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1183" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1183" s="20" t="s">
+        <v>8546</v>
+      </c>
+      <c r="J1183" s="20"/>
+      <c r="K1183" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1184" s="20"/>
+      <c r="B1184" s="20"/>
+      <c r="C1184" s="20"/>
+      <c r="D1184" s="20"/>
+      <c r="E1184" s="20" t="s">
+        <v>8751</v>
+      </c>
+      <c r="F1184" s="21">
+        <v>31409</v>
+      </c>
+      <c r="G1184" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1184" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1184" s="20" t="s">
+        <v>8547</v>
+      </c>
+      <c r="J1184" s="20"/>
+      <c r="K1184" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1185" s="20"/>
+      <c r="B1185" s="20"/>
+      <c r="C1185" s="20"/>
+      <c r="D1185" s="20"/>
+      <c r="E1185" s="20" t="s">
+        <v>8752</v>
+      </c>
+      <c r="F1185" s="21">
+        <v>30208</v>
+      </c>
+      <c r="G1185" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1185" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1185" s="20" t="s">
+        <v>8548</v>
+      </c>
+      <c r="J1185" s="20"/>
+      <c r="K1185" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1186" s="20"/>
+      <c r="B1186" s="20"/>
+      <c r="C1186" s="20"/>
+      <c r="D1186" s="20"/>
+      <c r="E1186" s="20" t="s">
+        <v>8753</v>
+      </c>
+      <c r="F1186" s="21">
+        <v>29785</v>
+      </c>
+      <c r="G1186" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1186" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1186" s="20" t="s">
+        <v>8549</v>
+      </c>
+      <c r="J1186" s="20"/>
+      <c r="K1186" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1187" s="20"/>
+      <c r="B1187" s="20"/>
+      <c r="C1187" s="20"/>
+      <c r="D1187" s="20"/>
+      <c r="E1187" s="20" t="s">
+        <v>8754</v>
+      </c>
+      <c r="F1187" s="21">
+        <v>31243</v>
+      </c>
+      <c r="G1187" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1187" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1187" s="20" t="s">
+        <v>8550</v>
+      </c>
+      <c r="J1187" s="20"/>
+      <c r="K1187" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1188" s="20"/>
+      <c r="B1188" s="20"/>
+      <c r="C1188" s="20"/>
+      <c r="D1188" s="20"/>
+      <c r="E1188" s="20" t="s">
+        <v>8755</v>
+      </c>
+      <c r="F1188" s="21">
+        <v>30317</v>
+      </c>
+      <c r="G1188" s="20" t="s">
+        <v>8821</v>
+      </c>
+      <c r="H1188" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1188" s="20" t="s">
+        <v>8551</v>
+      </c>
+      <c r="J1188" s="20">
+        <v>9957008529</v>
+      </c>
+      <c r="K1188" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1189" s="20"/>
+      <c r="B1189" s="20"/>
+      <c r="C1189" s="20"/>
+      <c r="D1189" s="20"/>
+      <c r="E1189" s="20" t="s">
+        <v>8756</v>
+      </c>
+      <c r="F1189" s="21">
+        <v>31424</v>
+      </c>
+      <c r="G1189" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1189" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1189" s="20" t="s">
+        <v>8552</v>
+      </c>
+      <c r="J1189" s="20"/>
+      <c r="K1189" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1190" s="20"/>
+      <c r="B1190" s="20"/>
+      <c r="C1190" s="20"/>
+      <c r="D1190" s="20"/>
+      <c r="E1190" s="20" t="s">
+        <v>8757</v>
+      </c>
+      <c r="F1190" s="21">
+        <v>31934</v>
+      </c>
+      <c r="G1190" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1190" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1190" s="20" t="s">
+        <v>8553</v>
+      </c>
+      <c r="J1190" s="20"/>
+      <c r="K1190" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1191" s="20"/>
+      <c r="B1191" s="20"/>
+      <c r="C1191" s="20"/>
+      <c r="D1191" s="20"/>
+      <c r="E1191" s="20" t="s">
+        <v>8758</v>
+      </c>
+      <c r="F1191" s="21">
+        <v>31442</v>
+      </c>
+      <c r="G1191" s="20" t="s">
+        <v>8865</v>
+      </c>
+      <c r="H1191" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1191" s="20" t="s">
+        <v>8554</v>
+      </c>
+      <c r="J1191" s="20">
+        <v>7002962867</v>
+      </c>
+      <c r="K1191" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1192" s="20"/>
+      <c r="B1192" s="20"/>
+      <c r="C1192" s="20"/>
+      <c r="D1192" s="20"/>
+      <c r="E1192" s="20" t="s">
+        <v>8759</v>
+      </c>
+      <c r="F1192" s="21">
+        <v>31494</v>
+      </c>
+      <c r="G1192" s="20" t="s">
+        <v>8869</v>
+      </c>
+      <c r="H1192" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1192" s="20" t="s">
+        <v>8555</v>
+      </c>
+      <c r="J1192" s="20">
+        <v>8698556075</v>
+      </c>
+      <c r="K1192" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1193" s="20"/>
+      <c r="B1193" s="20"/>
+      <c r="C1193" s="20"/>
+      <c r="D1193" s="20"/>
+      <c r="E1193" s="20" t="s">
+        <v>8760</v>
+      </c>
+      <c r="F1193" s="21">
+        <v>31005</v>
+      </c>
+      <c r="G1193" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1193" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1193" s="20" t="s">
+        <v>8556</v>
+      </c>
+      <c r="J1193" s="20"/>
+      <c r="K1193" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1194" s="20"/>
+      <c r="B1194" s="20"/>
+      <c r="C1194" s="20"/>
+      <c r="D1194" s="20"/>
+      <c r="E1194" s="20" t="s">
+        <v>8761</v>
+      </c>
+      <c r="F1194" s="21">
+        <v>31973</v>
+      </c>
+      <c r="G1194" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1194" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1194" s="20" t="s">
+        <v>8557</v>
+      </c>
+      <c r="J1194" s="20"/>
+      <c r="K1194" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1195" s="20"/>
+      <c r="B1195" s="20"/>
+      <c r="C1195" s="20"/>
+      <c r="D1195" s="20"/>
+      <c r="E1195" s="20" t="s">
+        <v>8762</v>
+      </c>
+      <c r="F1195" s="21">
+        <v>31837</v>
+      </c>
+      <c r="G1195" s="20" t="s">
+        <v>8870</v>
+      </c>
+      <c r="H1195" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1195" s="20" t="s">
+        <v>8558</v>
+      </c>
+      <c r="J1195" s="20">
+        <v>9957033566</v>
+      </c>
+      <c r="K1195" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1196" s="20"/>
+      <c r="B1196" s="20"/>
+      <c r="C1196" s="20"/>
+      <c r="D1196" s="20"/>
+      <c r="E1196" s="20" t="s">
+        <v>8763</v>
+      </c>
+      <c r="F1196" s="21">
+        <v>30045</v>
+      </c>
+      <c r="G1196" s="20" t="s">
+        <v>8239</v>
+      </c>
+      <c r="H1196" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1196" s="20" t="s">
+        <v>8559</v>
+      </c>
+      <c r="J1196" s="20"/>
+      <c r="K1196" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1197" s="20"/>
+      <c r="B1197" s="20"/>
+      <c r="C1197" s="20"/>
+      <c r="D1197" s="20"/>
+      <c r="E1197" s="20" t="s">
+        <v>8764</v>
+      </c>
+      <c r="F1197" s="21">
+        <v>32539</v>
+      </c>
+      <c r="G1197" s="20" t="s">
+        <v>8871</v>
+      </c>
+      <c r="H1197" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1197" s="20" t="s">
+        <v>8560</v>
+      </c>
+      <c r="J1197" s="20"/>
+      <c r="K1197" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1198" s="20"/>
+      <c r="B1198" s="20"/>
+      <c r="C1198" s="20"/>
+      <c r="D1198" s="20"/>
+      <c r="E1198" s="20" t="s">
+        <v>8765</v>
+      </c>
+      <c r="F1198" s="21">
+        <v>32178</v>
+      </c>
+      <c r="G1198" s="20" t="s">
+        <v>8872</v>
+      </c>
+      <c r="H1198" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1198" s="20" t="s">
+        <v>8561</v>
+      </c>
+      <c r="J1198" s="20"/>
+      <c r="K1198" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1199" s="20"/>
+      <c r="B1199" s="20"/>
+      <c r="C1199" s="20"/>
+      <c r="D1199" s="20"/>
+      <c r="E1199" s="20" t="s">
+        <v>8766</v>
+      </c>
+      <c r="F1199" s="21">
+        <v>32568</v>
+      </c>
+      <c r="G1199" s="20" t="s">
+        <v>8873</v>
+      </c>
+      <c r="H1199" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1199" s="20" t="s">
+        <v>8562</v>
+      </c>
+      <c r="J1199" s="20">
+        <v>9859779881</v>
+      </c>
+      <c r="K1199" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1200" s="20"/>
+      <c r="B1200" s="20"/>
+      <c r="C1200" s="20"/>
+      <c r="D1200" s="20"/>
+      <c r="E1200" s="20" t="s">
+        <v>8767</v>
+      </c>
+      <c r="F1200" s="21">
+        <v>32504</v>
+      </c>
+      <c r="G1200" s="20" t="s">
+        <v>8874</v>
+      </c>
+      <c r="H1200" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1200" s="20" t="s">
+        <v>8563</v>
+      </c>
+      <c r="J1200" s="20">
+        <v>9101373476</v>
+      </c>
+      <c r="K1200" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1201" s="20"/>
+      <c r="B1201" s="20"/>
+      <c r="C1201" s="20"/>
+      <c r="D1201" s="20"/>
+      <c r="E1201" s="20" t="s">
+        <v>8768</v>
+      </c>
+      <c r="F1201" s="21">
+        <v>29646</v>
+      </c>
+      <c r="G1201" s="20" t="s">
+        <v>8875</v>
+      </c>
+      <c r="H1201" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1201" s="20" t="s">
+        <v>8564</v>
+      </c>
+      <c r="J1201" s="20"/>
+      <c r="K1201" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1202" s="20"/>
+      <c r="B1202" s="20"/>
+      <c r="C1202" s="20"/>
+      <c r="D1202" s="20"/>
+      <c r="E1202" s="20" t="s">
+        <v>8769</v>
+      </c>
+      <c r="F1202" s="21">
+        <v>31331</v>
+      </c>
+      <c r="G1202" s="20" t="s">
+        <v>8876</v>
+      </c>
+      <c r="H1202" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1202" s="20" t="s">
+        <v>8565</v>
+      </c>
+      <c r="J1202" s="20"/>
+      <c r="K1202" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1203" s="20"/>
+      <c r="B1203" s="20"/>
+      <c r="C1203" s="20"/>
+      <c r="D1203" s="20"/>
+      <c r="E1203" s="20" t="s">
+        <v>8770</v>
+      </c>
+      <c r="F1203" s="21">
+        <v>31833</v>
+      </c>
+      <c r="G1203" s="20" t="s">
+        <v>8877</v>
+      </c>
+      <c r="H1203" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1203" s="20" t="s">
+        <v>8566</v>
+      </c>
+      <c r="J1203" s="20">
+        <v>9613726783</v>
+      </c>
+      <c r="K1203" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1204" s="20"/>
+      <c r="B1204" s="20"/>
+      <c r="C1204" s="20"/>
+      <c r="D1204" s="20"/>
+      <c r="E1204" s="20" t="s">
+        <v>8771</v>
+      </c>
+      <c r="F1204" s="21">
+        <v>28785</v>
+      </c>
+      <c r="G1204" s="20" t="s">
+        <v>8878</v>
+      </c>
+      <c r="H1204" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1204" s="20" t="s">
+        <v>8567</v>
+      </c>
+      <c r="J1204" s="20"/>
+      <c r="K1204" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1205" s="20"/>
+      <c r="B1205" s="20"/>
+      <c r="C1205" s="20"/>
+      <c r="D1205" s="20"/>
+      <c r="E1205" s="20" t="s">
+        <v>8772</v>
+      </c>
+      <c r="F1205" s="21">
+        <v>32403</v>
+      </c>
+      <c r="G1205" s="20" t="s">
+        <v>8879</v>
+      </c>
+      <c r="H1205" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1205" s="20" t="s">
+        <v>8568</v>
+      </c>
+      <c r="J1205" s="20"/>
+      <c r="K1205" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1206" s="20"/>
+      <c r="B1206" s="20"/>
+      <c r="C1206" s="20"/>
+      <c r="D1206" s="20"/>
+      <c r="E1206" s="20" t="s">
+        <v>8773</v>
+      </c>
+      <c r="F1206" s="21">
+        <v>32164</v>
+      </c>
+      <c r="G1206" s="20" t="s">
+        <v>8880</v>
+      </c>
+      <c r="H1206" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1206" s="20" t="s">
+        <v>8569</v>
+      </c>
+      <c r="J1206" s="20">
+        <v>8876245825</v>
+      </c>
+      <c r="K1206" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1207" s="20"/>
+      <c r="B1207" s="20"/>
+      <c r="C1207" s="20"/>
+      <c r="D1207" s="20"/>
+      <c r="E1207" s="20" t="s">
+        <v>8774</v>
+      </c>
+      <c r="F1207" s="21">
+        <v>32870</v>
+      </c>
+      <c r="G1207" s="20" t="s">
+        <v>8881</v>
+      </c>
+      <c r="H1207" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1207" s="20" t="s">
+        <v>8570</v>
+      </c>
+      <c r="J1207" s="20">
+        <v>8811989349</v>
+      </c>
+      <c r="K1207" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1208" s="20"/>
+      <c r="B1208" s="20"/>
+      <c r="C1208" s="20"/>
+      <c r="D1208" s="20"/>
+      <c r="E1208" s="20" t="s">
+        <v>8775</v>
+      </c>
+      <c r="F1208" s="21">
+        <v>32774</v>
+      </c>
+      <c r="G1208" s="20" t="s">
+        <v>8882</v>
+      </c>
+      <c r="H1208" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1208" s="20" t="s">
+        <v>8571</v>
+      </c>
+      <c r="J1208" s="20"/>
+      <c r="K1208" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1209" s="20"/>
+      <c r="B1209" s="20"/>
+      <c r="C1209" s="20"/>
+      <c r="D1209" s="20"/>
+      <c r="E1209" s="20" t="s">
+        <v>8776</v>
+      </c>
+      <c r="F1209" s="21">
+        <v>33266</v>
+      </c>
+      <c r="G1209" s="20" t="s">
+        <v>8883</v>
+      </c>
+      <c r="H1209" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1209" s="20" t="s">
+        <v>8572</v>
+      </c>
+      <c r="J1209" s="20"/>
+      <c r="K1209" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1210" s="20"/>
+      <c r="B1210" s="20"/>
+      <c r="C1210" s="20"/>
+      <c r="D1210" s="20"/>
+      <c r="E1210" s="20" t="s">
+        <v>8777</v>
+      </c>
+      <c r="F1210" s="21">
+        <v>33693</v>
+      </c>
+      <c r="G1210" s="20" t="s">
+        <v>8884</v>
+      </c>
+      <c r="H1210" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1210" s="20" t="s">
+        <v>8573</v>
+      </c>
+      <c r="J1210" s="20">
+        <v>8876349101</v>
+      </c>
+      <c r="K1210" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1211" s="20"/>
+      <c r="B1211" s="20"/>
+      <c r="C1211" s="20"/>
+      <c r="D1211" s="20"/>
+      <c r="E1211" s="20" t="s">
+        <v>8778</v>
+      </c>
+      <c r="F1211" s="21">
+        <v>32842</v>
+      </c>
+      <c r="G1211" s="20" t="s">
+        <v>8885</v>
+      </c>
+      <c r="H1211" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1211" s="20" t="s">
+        <v>8574</v>
+      </c>
+      <c r="J1211" s="20"/>
+      <c r="K1211" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1212" s="20"/>
+      <c r="B1212" s="20"/>
+      <c r="C1212" s="20"/>
+      <c r="D1212" s="20"/>
+      <c r="E1212" s="20" t="s">
+        <v>8779</v>
+      </c>
+      <c r="F1212" s="21">
+        <v>32690</v>
+      </c>
+      <c r="G1212" s="20" t="s">
+        <v>8886</v>
+      </c>
+      <c r="H1212" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1212" s="20" t="s">
+        <v>8575</v>
+      </c>
+      <c r="J1212" s="20"/>
+      <c r="K1212" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1213" s="20"/>
+      <c r="B1213" s="20"/>
+      <c r="C1213" s="20"/>
+      <c r="D1213" s="20"/>
+      <c r="E1213" s="20" t="s">
+        <v>8780</v>
+      </c>
+      <c r="F1213" s="21">
+        <v>31199</v>
+      </c>
+      <c r="G1213" s="20" t="s">
+        <v>8887</v>
+      </c>
+      <c r="H1213" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1213" s="20" t="s">
+        <v>8576</v>
+      </c>
+      <c r="J1213" s="20"/>
+      <c r="K1213" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1214" s="20"/>
+      <c r="B1214" s="20"/>
+      <c r="C1214" s="20"/>
+      <c r="D1214" s="20"/>
+      <c r="E1214" s="20" t="s">
+        <v>8781</v>
+      </c>
+      <c r="F1214" s="21">
+        <v>32896</v>
+      </c>
+      <c r="G1214" s="20" t="s">
+        <v>8888</v>
+      </c>
+      <c r="H1214" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1214" s="20" t="s">
+        <v>8577</v>
+      </c>
+      <c r="J1214" s="20"/>
+      <c r="K1214" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1215" s="20"/>
+      <c r="B1215" s="20"/>
+      <c r="C1215" s="20"/>
+      <c r="D1215" s="20"/>
+      <c r="E1215" s="20" t="s">
+        <v>8782</v>
+      </c>
+      <c r="F1215" s="21">
+        <v>33216</v>
+      </c>
+      <c r="G1215" s="20" t="s">
+        <v>8889</v>
+      </c>
+      <c r="H1215" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1215" s="20" t="s">
+        <v>8578</v>
+      </c>
+      <c r="J1215" s="20">
+        <v>9706886706</v>
+      </c>
+      <c r="K1215" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1216" s="20"/>
+      <c r="B1216" s="20"/>
+      <c r="C1216" s="20"/>
+      <c r="D1216" s="20"/>
+      <c r="E1216" s="20" t="s">
+        <v>8783</v>
+      </c>
+      <c r="F1216" s="21">
+        <v>31826</v>
+      </c>
+      <c r="G1216" s="20" t="s">
+        <v>8890</v>
+      </c>
+      <c r="H1216" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1216" s="20" t="s">
+        <v>8579</v>
+      </c>
+      <c r="J1216" s="20">
+        <v>7896747434</v>
+      </c>
+      <c r="K1216" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1217" s="20"/>
+      <c r="B1217" s="20"/>
+      <c r="C1217" s="20"/>
+      <c r="D1217" s="20"/>
+      <c r="E1217" s="20" t="s">
+        <v>8784</v>
+      </c>
+      <c r="F1217" s="21">
+        <v>33134</v>
+      </c>
+      <c r="G1217" s="20" t="s">
+        <v>8891</v>
+      </c>
+      <c r="H1217" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1217" s="20" t="s">
+        <v>8580</v>
+      </c>
+      <c r="J1217" s="20">
+        <v>8822525240</v>
+      </c>
+      <c r="K1217" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1218" s="20"/>
+      <c r="B1218" s="20"/>
+      <c r="C1218" s="20"/>
+      <c r="D1218" s="20"/>
+      <c r="E1218" s="20" t="s">
+        <v>8785</v>
+      </c>
+      <c r="F1218" s="21">
+        <v>33078</v>
+      </c>
+      <c r="G1218" s="20" t="s">
+        <v>8892</v>
+      </c>
+      <c r="H1218" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1218" s="20" t="s">
+        <v>8581</v>
+      </c>
+      <c r="J1218" s="20">
+        <v>8724909098</v>
+      </c>
+      <c r="K1218" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1219" s="20"/>
+      <c r="B1219" s="20"/>
+      <c r="C1219" s="20"/>
+      <c r="D1219" s="20"/>
+      <c r="E1219" s="20" t="s">
+        <v>8786</v>
+      </c>
+      <c r="F1219" s="21">
+        <v>33451</v>
+      </c>
+      <c r="G1219" s="20" t="s">
+        <v>8893</v>
+      </c>
+      <c r="H1219" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1219" s="20" t="s">
+        <v>8582</v>
+      </c>
+      <c r="J1219" s="20">
+        <v>9706760141</v>
+      </c>
+      <c r="K1219" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1220" s="20"/>
+      <c r="B1220" s="20"/>
+      <c r="C1220" s="20"/>
+      <c r="D1220" s="20"/>
+      <c r="E1220" s="20" t="s">
+        <v>8787</v>
+      </c>
+      <c r="F1220" s="21">
+        <v>33238</v>
+      </c>
+      <c r="G1220" s="20" t="s">
+        <v>8894</v>
+      </c>
+      <c r="H1220" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1220" s="20" t="s">
+        <v>8583</v>
+      </c>
+      <c r="J1220" s="20">
+        <v>8011011568</v>
+      </c>
+      <c r="K1220" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1221" s="20"/>
+      <c r="B1221" s="20"/>
+      <c r="C1221" s="20"/>
+      <c r="D1221" s="20"/>
+      <c r="E1221" s="20" t="s">
+        <v>8788</v>
+      </c>
+      <c r="F1221" s="21">
+        <v>32143</v>
+      </c>
+      <c r="G1221" s="20" t="s">
+        <v>8895</v>
+      </c>
+      <c r="H1221" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1221" s="20" t="s">
+        <v>8584</v>
+      </c>
+      <c r="J1221" s="20">
+        <v>9864467291</v>
+      </c>
+      <c r="K1221" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1222" s="20"/>
+      <c r="B1222" s="20"/>
+      <c r="C1222" s="20"/>
+      <c r="D1222" s="20"/>
+      <c r="E1222" s="20" t="s">
+        <v>8789</v>
+      </c>
+      <c r="F1222" s="21">
+        <v>33680</v>
+      </c>
+      <c r="G1222" s="20" t="s">
+        <v>8896</v>
+      </c>
+      <c r="H1222" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1222" s="20" t="s">
+        <v>8585</v>
+      </c>
+      <c r="J1222" s="20">
+        <v>7399793867</v>
+      </c>
+      <c r="K1222" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1223" s="20"/>
+      <c r="B1223" s="20"/>
+      <c r="C1223" s="20"/>
+      <c r="D1223" s="20"/>
+      <c r="E1223" s="20" t="s">
+        <v>8790</v>
+      </c>
+      <c r="F1223" s="21">
+        <v>33159</v>
+      </c>
+      <c r="G1223" s="20" t="s">
+        <v>8897</v>
+      </c>
+      <c r="H1223" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1223" s="20" t="s">
+        <v>8586</v>
+      </c>
+      <c r="J1223" s="20">
+        <v>8876077138</v>
+      </c>
+      <c r="K1223" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1224" s="20"/>
+      <c r="B1224" s="20"/>
+      <c r="C1224" s="20"/>
+      <c r="D1224" s="20"/>
+      <c r="E1224" s="20" t="s">
+        <v>8791</v>
+      </c>
+      <c r="F1224" s="21">
+        <v>33099</v>
+      </c>
+      <c r="G1224" s="20" t="s">
+        <v>8898</v>
+      </c>
+      <c r="H1224" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1224" s="20" t="s">
+        <v>8587</v>
+      </c>
+      <c r="J1224" s="20">
+        <v>8133098708</v>
+      </c>
+      <c r="K1224" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1225" s="20"/>
+      <c r="B1225" s="20"/>
+      <c r="C1225" s="20"/>
+      <c r="D1225" s="20"/>
+      <c r="E1225" s="20" t="s">
+        <v>8792</v>
+      </c>
+      <c r="F1225" s="21">
+        <v>33645</v>
+      </c>
+      <c r="G1225" s="20" t="s">
+        <v>8899</v>
+      </c>
+      <c r="H1225" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1225" s="20" t="s">
+        <v>8588</v>
+      </c>
+      <c r="J1225" s="20">
+        <v>8474044880</v>
+      </c>
+      <c r="K1225" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1226" s="20"/>
+      <c r="B1226" s="20"/>
+      <c r="C1226" s="20"/>
+      <c r="D1226" s="20"/>
+      <c r="E1226" s="20" t="s">
+        <v>8793</v>
+      </c>
+      <c r="F1226" s="21">
+        <v>33820</v>
+      </c>
+      <c r="G1226" s="20" t="s">
+        <v>8900</v>
+      </c>
+      <c r="H1226" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1226" s="20" t="s">
+        <v>8589</v>
+      </c>
+      <c r="J1226" s="20">
+        <v>8876141556</v>
+      </c>
+      <c r="K1226" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1227" s="20"/>
+      <c r="B1227" s="20"/>
+      <c r="C1227" s="20"/>
+      <c r="D1227" s="20"/>
+      <c r="E1227" s="20" t="s">
+        <v>8794</v>
+      </c>
+      <c r="F1227" s="21">
+        <v>33970</v>
+      </c>
+      <c r="G1227" s="20" t="s">
+        <v>8901</v>
+      </c>
+      <c r="H1227" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1227" s="20" t="s">
+        <v>8590</v>
+      </c>
+      <c r="J1227" s="20">
+        <v>8876942380</v>
+      </c>
+      <c r="K1227" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1228" s="20"/>
+      <c r="B1228" s="20"/>
+      <c r="C1228" s="20"/>
+      <c r="D1228" s="20"/>
+      <c r="E1228" s="20" t="s">
+        <v>8795</v>
+      </c>
+      <c r="F1228" s="21">
+        <v>33848</v>
+      </c>
+      <c r="G1228" s="20" t="s">
+        <v>8902</v>
+      </c>
+      <c r="H1228" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1228" s="20" t="s">
+        <v>8591</v>
+      </c>
+      <c r="J1228" s="20">
+        <v>9864531247</v>
+      </c>
+      <c r="K1228" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1229" s="20"/>
+      <c r="B1229" s="20"/>
+      <c r="C1229" s="20"/>
+      <c r="D1229" s="20"/>
+      <c r="E1229" s="20" t="s">
+        <v>8796</v>
+      </c>
+      <c r="F1229" s="21">
+        <v>34022</v>
+      </c>
+      <c r="G1229" s="20" t="s">
+        <v>8903</v>
+      </c>
+      <c r="H1229" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1229" s="20" t="s">
+        <v>8592</v>
+      </c>
+      <c r="J1229" s="20">
+        <v>8812844376</v>
+      </c>
+      <c r="K1229" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1230" s="20"/>
+      <c r="B1230" s="20"/>
+      <c r="C1230" s="20"/>
+      <c r="D1230" s="20"/>
+      <c r="E1230" s="20" t="s">
+        <v>8797</v>
+      </c>
+      <c r="F1230" s="21">
+        <v>33258</v>
+      </c>
+      <c r="G1230" s="20" t="s">
+        <v>8904</v>
+      </c>
+      <c r="H1230" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1230" s="20" t="s">
+        <v>8593</v>
+      </c>
+      <c r="J1230" s="20">
+        <v>9678775510</v>
+      </c>
+      <c r="K1230" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1231" s="20"/>
+      <c r="B1231" s="20"/>
+      <c r="C1231" s="20"/>
+      <c r="D1231" s="20"/>
+      <c r="E1231" s="20" t="s">
+        <v>8798</v>
+      </c>
+      <c r="F1231" s="21">
+        <v>33580</v>
+      </c>
+      <c r="G1231" s="20" t="s">
+        <v>8905</v>
+      </c>
+      <c r="H1231" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1231" s="20" t="s">
+        <v>8594</v>
+      </c>
+      <c r="J1231" s="20">
+        <v>8485970847</v>
+      </c>
+      <c r="K1231" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1232" s="20"/>
+      <c r="B1232" s="20"/>
+      <c r="C1232" s="20"/>
+      <c r="D1232" s="20"/>
+      <c r="E1232" s="20" t="s">
+        <v>8799</v>
+      </c>
+      <c r="F1232" s="21">
+        <v>34161</v>
+      </c>
+      <c r="G1232" s="20" t="s">
+        <v>8906</v>
+      </c>
+      <c r="H1232" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1232" s="20" t="s">
+        <v>8595</v>
+      </c>
+      <c r="J1232" s="20">
+        <v>7086795912</v>
+      </c>
+      <c r="K1232" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1233" s="20"/>
+      <c r="B1233" s="20"/>
+      <c r="C1233" s="20"/>
+      <c r="D1233" s="20"/>
+      <c r="E1233" s="20" t="s">
+        <v>8800</v>
+      </c>
+      <c r="F1233" s="21">
+        <v>34394</v>
+      </c>
+      <c r="G1233" s="20" t="s">
+        <v>8907</v>
+      </c>
+      <c r="H1233" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1233" s="20" t="s">
+        <v>8596</v>
+      </c>
+      <c r="J1233" s="20">
+        <v>8486090175</v>
+      </c>
+      <c r="K1233" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1234" s="20"/>
+      <c r="B1234" s="20"/>
+      <c r="C1234" s="20"/>
+      <c r="D1234" s="20"/>
+      <c r="E1234" s="20" t="s">
+        <v>8801</v>
+      </c>
+      <c r="F1234" s="21">
+        <v>33425</v>
+      </c>
+      <c r="G1234" s="20" t="s">
+        <v>8908</v>
+      </c>
+      <c r="H1234" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1234" s="20" t="s">
+        <v>8597</v>
+      </c>
+      <c r="J1234" s="20">
+        <v>9706538946</v>
+      </c>
+      <c r="K1234" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1235" s="20"/>
+      <c r="B1235" s="20"/>
+      <c r="C1235" s="20"/>
+      <c r="D1235" s="20"/>
+      <c r="E1235" s="20" t="s">
+        <v>8802</v>
+      </c>
+      <c r="F1235" s="21">
+        <v>33434</v>
+      </c>
+      <c r="G1235" s="20" t="s">
+        <v>8909</v>
+      </c>
+      <c r="H1235" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1235" s="20" t="s">
+        <v>8598</v>
+      </c>
+      <c r="J1235" s="20">
+        <v>9706321875</v>
+      </c>
+      <c r="K1235" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1236" s="20"/>
+      <c r="B1236" s="20"/>
+      <c r="C1236" s="20"/>
+      <c r="D1236" s="20"/>
+      <c r="E1236" s="20" t="s">
+        <v>8803</v>
+      </c>
+      <c r="F1236" s="21">
+        <v>33434</v>
+      </c>
+      <c r="G1236" s="20" t="s">
+        <v>8909</v>
+      </c>
+      <c r="H1236" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1236" s="20" t="s">
+        <v>8599</v>
+      </c>
+      <c r="J1236" s="20">
+        <v>9706321875</v>
+      </c>
+      <c r="K1236" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1237" s="20"/>
+      <c r="B1237" s="20"/>
+      <c r="C1237" s="20"/>
+      <c r="D1237" s="20"/>
+      <c r="E1237" s="20" t="s">
+        <v>8804</v>
+      </c>
+      <c r="F1237" s="21">
+        <v>33586</v>
+      </c>
+      <c r="G1237" s="20" t="s">
+        <v>8910</v>
+      </c>
+      <c r="H1237" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1237" s="20" t="s">
+        <v>8600</v>
+      </c>
+      <c r="J1237" s="20">
+        <v>9706441462</v>
+      </c>
+      <c r="K1237" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1238" s="20"/>
+      <c r="B1238" s="20"/>
+      <c r="C1238" s="20"/>
+      <c r="D1238" s="20"/>
+      <c r="E1238" s="20" t="s">
+        <v>8805</v>
+      </c>
+      <c r="F1238" s="21">
+        <v>34608</v>
+      </c>
+      <c r="G1238" s="20" t="s">
+        <v>8911</v>
+      </c>
+      <c r="H1238" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1238" s="20" t="s">
+        <v>8601</v>
+      </c>
+      <c r="J1238" s="20">
+        <v>7086254702</v>
+      </c>
+      <c r="K1238" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1239" s="20"/>
+      <c r="B1239" s="20"/>
+      <c r="C1239" s="20"/>
+      <c r="D1239" s="20"/>
+      <c r="E1239" s="20" t="s">
+        <v>8806</v>
+      </c>
+      <c r="F1239" s="21">
+        <v>34000</v>
+      </c>
+      <c r="G1239" s="20" t="s">
+        <v>8912</v>
+      </c>
+      <c r="H1239" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1239" s="20" t="s">
+        <v>8602</v>
+      </c>
+      <c r="J1239" s="20">
+        <v>8876287176</v>
+      </c>
+      <c r="K1239" s="20" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1240" s="20"/>
+      <c r="B1240" s="20"/>
+      <c r="C1240" s="20"/>
+      <c r="D1240" s="20"/>
+      <c r="E1240" s="20" t="s">
+        <v>8807</v>
+      </c>
+      <c r="F1240" s="21">
+        <v>33351</v>
+      </c>
+      <c r="G1240" s="20" t="s">
+        <v>8913</v>
+      </c>
+      <c r="H1240" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1240" s="20" t="s">
+        <v>8603</v>
+      </c>
+      <c r="J1240" s="20">
+        <v>6901118148</v>
+      </c>
+      <c r="K1240" s="20" t="s">
+        <v>8809</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1239</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7571" uniqueCount="4472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7576" uniqueCount="4475">
   <si>
     <t>1994</t>
   </si>
@@ -13687,6 +13687,15 @@
   </si>
   <si>
     <t>ASM/1589/96</t>
+  </si>
+  <si>
+    <t>Dr. Sankura Siddika Barbhuiya/(F)  - Faijul Hoque Barbhuiya</t>
+  </si>
+  <si>
+    <t>P.O. Arunachal , P.O. Balighat, Town - Silchar, Dist. Cachar, Pin-788025</t>
+  </si>
+  <si>
+    <t>ASM/3194/2021</t>
   </si>
 </sst>
 </file>
@@ -14204,10 +14213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1238"/>
+  <dimension ref="A1:K1239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I1238"/>
+    <sheetView tabSelected="1" topLeftCell="A990" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1027" sqref="L1027"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47567,209 +47576,209 @@
       <c r="C1026" s="7"/>
       <c r="D1026" s="7"/>
       <c r="E1026" s="7" t="s">
-        <v>3873</v>
-      </c>
-      <c r="F1026" s="8"/>
+        <v>4472</v>
+      </c>
+      <c r="F1026" s="8">
+        <v>35330</v>
+      </c>
       <c r="G1026" s="7" t="s">
-        <v>3874</v>
+        <v>4473</v>
       </c>
       <c r="H1026" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1026" s="7" t="s">
-        <v>3948</v>
+        <v>4474</v>
       </c>
       <c r="J1026" s="9">
-        <v>7086644885</v>
+        <v>7086516495</v>
       </c>
       <c r="K1026" s="7" t="s">
         <v>3891</v>
       </c>
     </row>
-    <row r="1027" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1027" s="7"/>
       <c r="B1027" s="7"/>
       <c r="C1027" s="7"/>
       <c r="D1027" s="7"/>
       <c r="E1027" s="7" t="s">
-        <v>3875</v>
-      </c>
-      <c r="F1027" s="8">
-        <v>35751</v>
-      </c>
+        <v>3873</v>
+      </c>
+      <c r="F1027" s="8"/>
       <c r="G1027" s="7" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
       <c r="H1027" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1027" s="7" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="J1027" s="9">
-        <v>8638086379</v>
+        <v>7086644885</v>
       </c>
       <c r="K1027" s="7" t="s">
         <v>3891</v>
       </c>
     </row>
-    <row r="1028" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1028" s="7"/>
       <c r="B1028" s="7"/>
       <c r="C1028" s="7"/>
       <c r="D1028" s="7"/>
       <c r="E1028" s="7" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="F1028" s="8">
-        <v>35363</v>
+        <v>35751</v>
       </c>
       <c r="G1028" s="7" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="H1028" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1028" s="7" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="J1028" s="9">
-        <v>8486568013</v>
+        <v>8638086379</v>
       </c>
       <c r="K1028" s="7" t="s">
         <v>3891</v>
       </c>
     </row>
-    <row r="1029" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1029" s="7"/>
       <c r="B1029" s="7"/>
       <c r="C1029" s="7"/>
       <c r="D1029" s="7"/>
       <c r="E1029" s="7" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
       <c r="F1029" s="8">
-        <v>35474</v>
+        <v>35363</v>
       </c>
       <c r="G1029" s="7" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="H1029" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1029" s="7" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="J1029" s="9">
-        <v>9085388367</v>
+        <v>8486568013</v>
       </c>
       <c r="K1029" s="7" t="s">
         <v>3891</v>
       </c>
     </row>
-    <row r="1030" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1030" s="7"/>
       <c r="B1030" s="7"/>
       <c r="C1030" s="7"/>
       <c r="D1030" s="7"/>
       <c r="E1030" s="7" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
       <c r="F1030" s="8">
-        <v>35080</v>
+        <v>35474</v>
       </c>
       <c r="G1030" s="7" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="H1030" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1030" s="7" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="J1030" s="9">
-        <v>8822340659</v>
+        <v>9085388367</v>
       </c>
       <c r="K1030" s="7" t="s">
         <v>3891</v>
       </c>
     </row>
-    <row r="1031" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1031" s="7"/>
       <c r="B1031" s="7"/>
       <c r="C1031" s="7"/>
       <c r="D1031" s="7"/>
       <c r="E1031" s="7" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="F1031" s="8">
-        <v>35869</v>
+        <v>35080</v>
       </c>
       <c r="G1031" s="7" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="H1031" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1031" s="7" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="J1031" s="9">
-        <v>8135949992</v>
+        <v>8822340659</v>
       </c>
       <c r="K1031" s="7" t="s">
         <v>3891</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1032" s="7"/>
       <c r="B1032" s="7"/>
       <c r="C1032" s="7"/>
       <c r="D1032" s="7"/>
       <c r="E1032" s="7" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="F1032" s="8">
-        <v>35861</v>
+        <v>35869</v>
       </c>
       <c r="G1032" s="7" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="H1032" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1032" s="7" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="J1032" s="9">
-        <v>9101370189</v>
+        <v>8135949992</v>
       </c>
       <c r="K1032" s="7" t="s">
         <v>3891</v>
       </c>
     </row>
-    <row r="1033" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1033" s="7"/>
       <c r="B1033" s="7"/>
       <c r="C1033" s="7"/>
       <c r="D1033" s="7"/>
       <c r="E1033" s="7" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="F1033" s="8">
-        <v>35828</v>
+        <v>35861</v>
       </c>
       <c r="G1033" s="7" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="H1033" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1033" s="7" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="J1033" s="9">
-        <v>9101126144</v>
+        <v>9101370189</v>
       </c>
       <c r="K1033" s="7" t="s">
         <v>3891</v>
@@ -47781,76 +47790,76 @@
       <c r="C1034" s="7"/>
       <c r="D1034" s="7"/>
       <c r="E1034" s="7" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="F1034" s="8">
-        <v>36011</v>
+        <v>35828</v>
       </c>
       <c r="G1034" s="7" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="H1034" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1034" s="7" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="J1034" s="9">
-        <v>6000925311</v>
+        <v>9101126144</v>
       </c>
       <c r="K1034" s="7" t="s">
         <v>3891</v>
       </c>
     </row>
-    <row r="1035" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1035" s="10"/>
-      <c r="B1035" s="10"/>
-      <c r="C1035" s="10"/>
-      <c r="D1035" s="10"/>
-      <c r="E1035" s="10" t="s">
-        <v>4161</v>
-      </c>
-      <c r="F1035" s="11">
-        <v>21489</v>
-      </c>
-      <c r="G1035" s="10" t="s">
-        <v>3796</v>
-      </c>
-      <c r="H1035" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1035" s="10" t="s">
-        <v>3957</v>
-      </c>
-      <c r="J1035" s="10">
-        <v>9435346950</v>
-      </c>
-      <c r="K1035" s="10" t="s">
-        <v>4366</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1035" s="7"/>
+      <c r="B1035" s="7"/>
+      <c r="C1035" s="7"/>
+      <c r="D1035" s="7"/>
+      <c r="E1035" s="7" t="s">
+        <v>3889</v>
+      </c>
+      <c r="F1035" s="8">
+        <v>36011</v>
+      </c>
+      <c r="G1035" s="7" t="s">
+        <v>3890</v>
+      </c>
+      <c r="H1035" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1035" s="7" t="s">
+        <v>3956</v>
+      </c>
+      <c r="J1035" s="9">
+        <v>6000925311</v>
+      </c>
+      <c r="K1035" s="7" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1036" s="10"/>
       <c r="B1036" s="10"/>
       <c r="C1036" s="10"/>
       <c r="D1036" s="10"/>
       <c r="E1036" s="10" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="F1036" s="11">
-        <v>21765</v>
+        <v>21489</v>
       </c>
       <c r="G1036" s="10" t="s">
-        <v>4367</v>
+        <v>3796</v>
       </c>
       <c r="H1036" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1036" s="10" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="J1036" s="10">
-        <v>9435013717</v>
+        <v>9435346950</v>
       </c>
       <c r="K1036" s="10" t="s">
         <v>4366</v>
@@ -47862,49 +47871,49 @@
       <c r="C1037" s="10"/>
       <c r="D1037" s="10"/>
       <c r="E1037" s="10" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="F1037" s="11">
-        <v>21855</v>
+        <v>21765</v>
       </c>
       <c r="G1037" s="10" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="H1037" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1037" s="10" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="J1037" s="10">
-        <v>9508080227</v>
+        <v>9435013717</v>
       </c>
       <c r="K1037" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1038" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1038" s="10"/>
       <c r="B1038" s="10"/>
       <c r="C1038" s="10"/>
       <c r="D1038" s="10"/>
       <c r="E1038" s="10" t="s">
-        <v>4164</v>
+        <v>4163</v>
       </c>
       <c r="F1038" s="11">
-        <v>19993</v>
+        <v>21855</v>
       </c>
       <c r="G1038" s="10" t="s">
-        <v>3796</v>
+        <v>4368</v>
       </c>
       <c r="H1038" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1038" s="10" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="J1038" s="10">
-        <v>9864049712</v>
+        <v>9508080227</v>
       </c>
       <c r="K1038" s="10" t="s">
         <v>4366</v>
@@ -47916,10 +47925,10 @@
       <c r="C1039" s="10"/>
       <c r="D1039" s="10"/>
       <c r="E1039" s="10" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="F1039" s="11">
-        <v>17292</v>
+        <v>19993</v>
       </c>
       <c r="G1039" s="10" t="s">
         <v>3796</v>
@@ -47928,23 +47937,25 @@
         <v>5</v>
       </c>
       <c r="I1039" s="10" t="s">
-        <v>3961</v>
-      </c>
-      <c r="J1039" s="10"/>
+        <v>3960</v>
+      </c>
+      <c r="J1039" s="10">
+        <v>9864049712</v>
+      </c>
       <c r="K1039" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1040" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1040" s="10"/>
       <c r="B1040" s="10"/>
       <c r="C1040" s="10"/>
       <c r="D1040" s="10"/>
       <c r="E1040" s="10" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="F1040" s="11">
-        <v>19996</v>
+        <v>17292</v>
       </c>
       <c r="G1040" s="10" t="s">
         <v>3796</v>
@@ -47953,116 +47964,114 @@
         <v>5</v>
       </c>
       <c r="I1040" s="10" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="J1040" s="10"/>
       <c r="K1040" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1041" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1041" s="10"/>
       <c r="B1041" s="10"/>
       <c r="C1041" s="10"/>
       <c r="D1041" s="10"/>
       <c r="E1041" s="10" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="F1041" s="11">
-        <v>21916</v>
+        <v>19996</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>4369</v>
+        <v>3796</v>
       </c>
       <c r="H1041" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1041" s="10" t="s">
-        <v>3963</v>
-      </c>
-      <c r="J1041" s="10">
-        <v>9435303948</v>
-      </c>
+        <v>3962</v>
+      </c>
+      <c r="J1041" s="10"/>
       <c r="K1041" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1042" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1042" s="10"/>
       <c r="B1042" s="10"/>
       <c r="C1042" s="10"/>
       <c r="D1042" s="10"/>
       <c r="E1042" s="10" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="F1042" s="11">
-        <v>21794</v>
+        <v>21916</v>
       </c>
       <c r="G1042" s="10" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="H1042" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1042" s="10" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="J1042" s="10">
-        <v>9435301365</v>
+        <v>9435303948</v>
       </c>
       <c r="K1042" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1043" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A1043" s="10"/>
       <c r="B1043" s="10"/>
       <c r="C1043" s="10"/>
       <c r="D1043" s="10"/>
       <c r="E1043" s="10" t="s">
-        <v>4169</v>
+        <v>4168</v>
       </c>
       <c r="F1043" s="11">
-        <v>22463</v>
+        <v>21794</v>
       </c>
       <c r="G1043" s="10" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="H1043" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1043" s="10" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="J1043" s="10">
-        <v>9435558788</v>
+        <v>9435301365</v>
       </c>
       <c r="K1043" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1044" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1044" s="10"/>
       <c r="B1044" s="10"/>
       <c r="C1044" s="10"/>
       <c r="D1044" s="10"/>
       <c r="E1044" s="10" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="F1044" s="11">
-        <v>22680</v>
+        <v>22463</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="H1044" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1044" s="10" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="J1044" s="10">
-        <v>9435303854</v>
+        <v>9435558788</v>
       </c>
       <c r="K1044" s="10" t="s">
         <v>4366</v>
@@ -48074,425 +48083,425 @@
       <c r="C1045" s="10"/>
       <c r="D1045" s="10"/>
       <c r="E1045" s="10" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="F1045" s="11">
-        <v>22240</v>
+        <v>22680</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>3796</v>
+        <v>4372</v>
       </c>
       <c r="H1045" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1045" s="10" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="J1045" s="10">
-        <v>9435061608</v>
+        <v>9435303854</v>
       </c>
       <c r="K1045" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1046" s="10"/>
       <c r="B1046" s="10"/>
       <c r="C1046" s="10"/>
       <c r="D1046" s="10"/>
       <c r="E1046" s="10" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="F1046" s="11">
-        <v>22941</v>
+        <v>22240</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>4373</v>
+        <v>3796</v>
       </c>
       <c r="H1046" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1046" s="10" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="J1046" s="10">
-        <v>9864088585</v>
+        <v>9435061608</v>
       </c>
       <c r="K1046" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1047" s="10"/>
       <c r="B1047" s="10"/>
       <c r="C1047" s="10"/>
       <c r="D1047" s="10"/>
       <c r="E1047" s="10" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="F1047" s="11">
-        <v>31837</v>
+        <v>22941</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="H1047" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1047" s="10" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="J1047" s="10">
-        <v>9435046150</v>
+        <v>9864088585</v>
       </c>
       <c r="K1047" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1048" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1048" s="10"/>
       <c r="B1048" s="10"/>
       <c r="C1048" s="10"/>
       <c r="D1048" s="10"/>
       <c r="E1048" s="10" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="F1048" s="11">
-        <v>23621</v>
+        <v>31837</v>
       </c>
       <c r="G1048" s="10" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="H1048" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1048" s="10" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="J1048" s="10">
-        <v>9508076090</v>
+        <v>9435046150</v>
       </c>
       <c r="K1048" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1049" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1049" s="10"/>
       <c r="B1049" s="10"/>
       <c r="C1049" s="10"/>
       <c r="D1049" s="10"/>
       <c r="E1049" s="10" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="F1049" s="11">
-        <v>23774</v>
+        <v>23621</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="H1049" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1049" s="10" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="J1049" s="10">
-        <v>9435105093</v>
+        <v>9508076090</v>
       </c>
       <c r="K1049" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1050" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1050" s="10"/>
       <c r="B1050" s="10"/>
       <c r="C1050" s="10"/>
       <c r="D1050" s="10"/>
       <c r="E1050" s="10" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="F1050" s="11">
-        <v>23377</v>
+        <v>23774</v>
       </c>
       <c r="G1050" s="10" t="s">
-        <v>3796</v>
+        <v>4376</v>
       </c>
       <c r="H1050" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1050" s="10" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="J1050" s="10">
-        <v>9678195103</v>
+        <v>9435105093</v>
       </c>
       <c r="K1050" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1051" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1051" s="10"/>
       <c r="B1051" s="10"/>
       <c r="C1051" s="10"/>
       <c r="D1051" s="10"/>
       <c r="E1051" s="10" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="F1051" s="11">
-        <v>22678</v>
+        <v>23377</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>4377</v>
+        <v>3796</v>
       </c>
       <c r="H1051" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1051" s="10" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="J1051" s="10">
-        <v>9954135017</v>
+        <v>9678195103</v>
       </c>
       <c r="K1051" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1052" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1052" s="10"/>
       <c r="B1052" s="10"/>
       <c r="C1052" s="10"/>
       <c r="D1052" s="10"/>
       <c r="E1052" s="10" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="F1052" s="11">
-        <v>23101</v>
+        <v>22678</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="H1052" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1052" s="10" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="J1052" s="10">
-        <v>9435101850</v>
+        <v>9954135017</v>
       </c>
       <c r="K1052" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1053" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1053" s="10"/>
       <c r="B1053" s="10"/>
       <c r="C1053" s="10"/>
       <c r="D1053" s="10"/>
       <c r="E1053" s="10" t="s">
-        <v>4179</v>
-      </c>
-      <c r="F1053" s="11"/>
+        <v>4178</v>
+      </c>
+      <c r="F1053" s="11">
+        <v>23101</v>
+      </c>
       <c r="G1053" s="10" t="s">
-        <v>3796</v>
+        <v>4378</v>
       </c>
       <c r="H1053" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1053" s="10" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="J1053" s="10">
-        <v>9435068249</v>
+        <v>9435101850</v>
       </c>
       <c r="K1053" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1054" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1054" s="10"/>
       <c r="B1054" s="10"/>
       <c r="C1054" s="10"/>
       <c r="D1054" s="10"/>
       <c r="E1054" s="10" t="s">
-        <v>4180</v>
-      </c>
-      <c r="F1054" s="11">
-        <v>23275</v>
-      </c>
+        <v>4179</v>
+      </c>
+      <c r="F1054" s="11"/>
       <c r="G1054" s="10" t="s">
-        <v>4379</v>
+        <v>3796</v>
       </c>
       <c r="H1054" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1054" s="10" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="J1054" s="10">
-        <v>9678844427</v>
+        <v>9435068249</v>
       </c>
       <c r="K1054" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1055" s="10"/>
       <c r="B1055" s="10"/>
       <c r="C1055" s="10"/>
       <c r="D1055" s="10"/>
       <c r="E1055" s="10" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="F1055" s="11">
-        <v>21980</v>
+        <v>23275</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>3796</v>
+        <v>4379</v>
       </c>
       <c r="H1055" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1055" s="10" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="J1055" s="10">
-        <v>8876718938</v>
+        <v>9678844427</v>
       </c>
       <c r="K1055" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1056" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1056" s="10"/>
       <c r="B1056" s="10"/>
       <c r="C1056" s="10"/>
       <c r="D1056" s="10"/>
       <c r="E1056" s="10" t="s">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="F1056" s="11">
-        <v>22859</v>
+        <v>21980</v>
       </c>
       <c r="G1056" s="10" t="s">
-        <v>4380</v>
+        <v>3796</v>
       </c>
       <c r="H1056" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1056" s="10" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="J1056" s="10">
-        <v>9957103023</v>
+        <v>8876718938</v>
       </c>
       <c r="K1056" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1057" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1057" s="10"/>
       <c r="B1057" s="10"/>
       <c r="C1057" s="10"/>
       <c r="D1057" s="10"/>
       <c r="E1057" s="10" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="F1057" s="11">
-        <v>22657</v>
+        <v>22859</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="H1057" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1057" s="10" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="J1057" s="10">
-        <v>6001749158</v>
+        <v>9957103023</v>
       </c>
       <c r="K1057" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1058" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1058" s="10"/>
       <c r="B1058" s="10"/>
       <c r="C1058" s="10"/>
       <c r="D1058" s="10"/>
       <c r="E1058" s="10" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="F1058" s="11">
-        <v>23285</v>
+        <v>22657</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>3796</v>
+        <v>4381</v>
       </c>
       <c r="H1058" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1058" s="10" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="J1058" s="10">
-        <v>9435031780</v>
+        <v>6001749158</v>
       </c>
       <c r="K1058" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1059" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1059" s="10"/>
       <c r="B1059" s="10"/>
       <c r="C1059" s="10"/>
       <c r="D1059" s="10"/>
       <c r="E1059" s="10" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="F1059" s="11">
-        <v>22843</v>
+        <v>23285</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>4382</v>
+        <v>3796</v>
       </c>
       <c r="H1059" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1059" s="10" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="J1059" s="10">
-        <v>9864044485</v>
+        <v>9435031780</v>
       </c>
       <c r="K1059" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1060" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1060" s="10"/>
       <c r="B1060" s="10"/>
       <c r="C1060" s="10"/>
       <c r="D1060" s="10"/>
       <c r="E1060" s="10" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="F1060" s="11">
-        <v>23855</v>
+        <v>22843</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="H1060" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1060" s="10" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="J1060" s="10">
-        <v>9854185645</v>
+        <v>9864044485</v>
       </c>
       <c r="K1060" s="10" t="s">
         <v>4366</v>
@@ -48504,182 +48513,182 @@
       <c r="C1061" s="10"/>
       <c r="D1061" s="10"/>
       <c r="E1061" s="10" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="F1061" s="11">
-        <v>23773</v>
+        <v>23855</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>3796</v>
+        <v>4383</v>
       </c>
       <c r="H1061" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1061" s="10" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="J1061" s="10">
-        <v>6001497496</v>
+        <v>9854185645</v>
       </c>
       <c r="K1061" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1062" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1062" s="10"/>
       <c r="B1062" s="10"/>
       <c r="C1062" s="10"/>
       <c r="D1062" s="10"/>
       <c r="E1062" s="10" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="F1062" s="11">
-        <v>24108</v>
+        <v>23773</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>4384</v>
+        <v>3796</v>
       </c>
       <c r="H1062" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1062" s="10" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="J1062" s="10">
-        <v>9435101916</v>
+        <v>6001497496</v>
       </c>
       <c r="K1062" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1063" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1063" s="10"/>
       <c r="B1063" s="10"/>
       <c r="C1063" s="10"/>
       <c r="D1063" s="10"/>
       <c r="E1063" s="10" t="s">
-        <v>4189</v>
+        <v>4188</v>
       </c>
       <c r="F1063" s="11">
-        <v>23802</v>
+        <v>24108</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>3796</v>
+        <v>4384</v>
       </c>
       <c r="H1063" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1063" s="10" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="J1063" s="10">
-        <v>9864107951</v>
+        <v>9435101916</v>
       </c>
       <c r="K1063" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1064" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1064" s="10"/>
       <c r="B1064" s="10"/>
       <c r="C1064" s="10"/>
       <c r="D1064" s="10"/>
       <c r="E1064" s="10" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="F1064" s="11">
-        <v>24167</v>
+        <v>23802</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>4385</v>
+        <v>3796</v>
       </c>
       <c r="H1064" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1064" s="10" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="J1064" s="10">
-        <v>9435014662</v>
+        <v>9864107951</v>
       </c>
       <c r="K1064" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1065" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1065" s="10"/>
       <c r="B1065" s="10"/>
       <c r="C1065" s="10"/>
       <c r="D1065" s="10"/>
       <c r="E1065" s="10" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="F1065" s="11">
-        <v>24108</v>
+        <v>24167</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="H1065" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1065" s="10" t="s">
-        <v>3987</v>
-      </c>
-      <c r="J1065" s="10"/>
+        <v>3986</v>
+      </c>
+      <c r="J1065" s="10">
+        <v>9435014662</v>
+      </c>
       <c r="K1065" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1066" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1066" s="10"/>
       <c r="B1066" s="10"/>
       <c r="C1066" s="10"/>
       <c r="D1066" s="10"/>
       <c r="E1066" s="10" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="F1066" s="11">
-        <v>24167</v>
+        <v>24108</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>3796</v>
+        <v>4386</v>
       </c>
       <c r="H1066" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1066" s="10" t="s">
-        <v>3988</v>
-      </c>
-      <c r="J1066" s="10">
-        <v>9435741789</v>
-      </c>
+        <v>3987</v>
+      </c>
+      <c r="J1066" s="10"/>
       <c r="K1066" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1067" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1067" s="10"/>
       <c r="B1067" s="10"/>
       <c r="C1067" s="10"/>
       <c r="D1067" s="10"/>
       <c r="E1067" s="10" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="F1067" s="11">
-        <v>24529</v>
+        <v>24167</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>4387</v>
+        <v>3796</v>
       </c>
       <c r="H1067" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1067" s="10" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="J1067" s="10">
-        <v>9435045542</v>
+        <v>9435741789</v>
       </c>
       <c r="K1067" s="10" t="s">
         <v>4366</v>
@@ -48691,127 +48700,127 @@
       <c r="C1068" s="10"/>
       <c r="D1068" s="10"/>
       <c r="E1068" s="10" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="F1068" s="11">
-        <v>23986</v>
+        <v>24529</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="H1068" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1068" s="10" t="s">
-        <v>3990</v>
-      </c>
-      <c r="J1068" s="10"/>
+        <v>3989</v>
+      </c>
+      <c r="J1068" s="10">
+        <v>9435045542</v>
+      </c>
       <c r="K1068" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1069" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1069" s="10"/>
       <c r="B1069" s="10"/>
       <c r="C1069" s="10"/>
       <c r="D1069" s="10"/>
       <c r="E1069" s="10" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="F1069" s="11">
-        <v>22883</v>
+        <v>23986</v>
       </c>
       <c r="G1069" s="10" t="s">
-        <v>3796</v>
+        <v>4388</v>
       </c>
       <c r="H1069" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1069" s="10" t="s">
-        <v>3991</v>
-      </c>
-      <c r="J1069" s="10">
-        <v>7578051388</v>
-      </c>
+        <v>3990</v>
+      </c>
+      <c r="J1069" s="10"/>
       <c r="K1069" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1070" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1070" s="10"/>
       <c r="B1070" s="10"/>
       <c r="C1070" s="10"/>
       <c r="D1070" s="10"/>
       <c r="E1070" s="10" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="F1070" s="11">
-        <v>23380</v>
+        <v>22883</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>4389</v>
+        <v>3796</v>
       </c>
       <c r="H1070" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1070" s="10" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="J1070" s="10">
-        <v>9435100509</v>
+        <v>7578051388</v>
       </c>
       <c r="K1070" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1071" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1071" s="10"/>
       <c r="B1071" s="10"/>
       <c r="C1071" s="10"/>
       <c r="D1071" s="10"/>
       <c r="E1071" s="10" t="s">
-        <v>4197</v>
+        <v>4196</v>
       </c>
       <c r="F1071" s="11">
-        <v>23071</v>
+        <v>23380</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>3796</v>
+        <v>4389</v>
       </c>
       <c r="H1071" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1071" s="10" t="s">
-        <v>3993</v>
-      </c>
-      <c r="J1071" s="10"/>
+        <v>3992</v>
+      </c>
+      <c r="J1071" s="10">
+        <v>9435100509</v>
+      </c>
       <c r="K1071" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1072" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1072" s="10"/>
       <c r="B1072" s="10"/>
       <c r="C1072" s="10"/>
       <c r="D1072" s="10"/>
       <c r="E1072" s="10" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
       <c r="F1072" s="11">
-        <v>24532</v>
+        <v>23071</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>4390</v>
+        <v>3796</v>
       </c>
       <c r="H1072" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1072" s="10" t="s">
-        <v>3994</v>
-      </c>
-      <c r="J1072" s="10">
-        <v>6000371439</v>
-      </c>
+        <v>3993</v>
+      </c>
+      <c r="J1072" s="10"/>
       <c r="K1072" s="10" t="s">
         <v>4366</v>
       </c>
@@ -48822,48 +48831,50 @@
       <c r="C1073" s="10"/>
       <c r="D1073" s="10"/>
       <c r="E1073" s="10" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="F1073" s="11">
-        <v>24504</v>
+        <v>24532</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="H1073" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1073" s="10" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="J1073" s="10">
-        <v>8876411084</v>
+        <v>6000371439</v>
       </c>
       <c r="K1073" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1074" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1074" s="10"/>
       <c r="B1074" s="10"/>
       <c r="C1074" s="10"/>
       <c r="D1074" s="10"/>
       <c r="E1074" s="10" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="F1074" s="11">
-        <v>24109</v>
+        <v>24504</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>3796</v>
+        <v>4391</v>
       </c>
       <c r="H1074" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1074" s="10" t="s">
-        <v>3996</v>
-      </c>
-      <c r="J1074" s="10"/>
+        <v>3995</v>
+      </c>
+      <c r="J1074" s="10">
+        <v>8876411084</v>
+      </c>
       <c r="K1074" s="10" t="s">
         <v>4366</v>
       </c>
@@ -48874,64 +48885,62 @@
       <c r="C1075" s="10"/>
       <c r="D1075" s="10"/>
       <c r="E1075" s="10" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="F1075" s="11">
-        <v>19176</v>
+        <v>24109</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>4392</v>
+        <v>3796</v>
       </c>
       <c r="H1075" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1075" s="10" t="s">
-        <v>3997</v>
-      </c>
-      <c r="J1075" s="10">
-        <v>9864043330</v>
-      </c>
+        <v>3996</v>
+      </c>
+      <c r="J1075" s="10"/>
       <c r="K1075" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1076" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1076" s="10"/>
       <c r="B1076" s="10"/>
       <c r="C1076" s="10"/>
       <c r="D1076" s="10"/>
       <c r="E1076" s="10" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="F1076" s="11">
-        <v>24706</v>
+        <v>19176</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>3796</v>
+        <v>4392</v>
       </c>
       <c r="H1076" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1076" s="10" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="J1076" s="10">
-        <v>8638277147</v>
+        <v>9864043330</v>
       </c>
       <c r="K1076" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1077" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1077" s="10"/>
       <c r="B1077" s="10"/>
       <c r="C1077" s="10"/>
       <c r="D1077" s="10"/>
       <c r="E1077" s="10" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="F1077" s="11">
-        <v>24869</v>
+        <v>24706</v>
       </c>
       <c r="G1077" s="10" t="s">
         <v>3796</v>
@@ -48940,10 +48949,10 @@
         <v>5</v>
       </c>
       <c r="I1077" s="10" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="J1077" s="10">
-        <v>9435308739</v>
+        <v>8638277147</v>
       </c>
       <c r="K1077" s="10" t="s">
         <v>4366</v>
@@ -48955,64 +48964,64 @@
       <c r="C1078" s="10"/>
       <c r="D1078" s="10"/>
       <c r="E1078" s="10" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="F1078" s="11">
-        <v>24504</v>
+        <v>24869</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>4393</v>
+        <v>3796</v>
       </c>
       <c r="H1078" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1078" s="10" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="J1078" s="10">
-        <v>9864438120</v>
+        <v>9435308739</v>
       </c>
       <c r="K1078" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1079" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1079" s="10"/>
       <c r="B1079" s="10"/>
       <c r="C1079" s="10"/>
       <c r="D1079" s="10"/>
       <c r="E1079" s="10" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="F1079" s="11">
-        <v>25263</v>
+        <v>24504</v>
       </c>
       <c r="G1079" s="10" t="s">
-        <v>3796</v>
+        <v>4393</v>
       </c>
       <c r="H1079" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1079" s="10" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="J1079" s="10">
-        <v>9435002210</v>
+        <v>9864438120</v>
       </c>
       <c r="K1079" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1080" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1080" s="10"/>
       <c r="B1080" s="10"/>
       <c r="C1080" s="10"/>
       <c r="D1080" s="10"/>
       <c r="E1080" s="10" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="F1080" s="11">
-        <v>24898</v>
+        <v>25263</v>
       </c>
       <c r="G1080" s="10" t="s">
         <v>3796</v>
@@ -49021,25 +49030,25 @@
         <v>5</v>
       </c>
       <c r="I1080" s="10" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="J1080" s="10">
-        <v>7002339477</v>
+        <v>9435002210</v>
       </c>
       <c r="K1080" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1081" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1081" s="10"/>
       <c r="B1081" s="10"/>
       <c r="C1081" s="10"/>
       <c r="D1081" s="10"/>
       <c r="E1081" s="10" t="s">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="F1081" s="11">
-        <v>24616</v>
+        <v>24898</v>
       </c>
       <c r="G1081" s="10" t="s">
         <v>3796</v>
@@ -49048,63 +49057,65 @@
         <v>5</v>
       </c>
       <c r="I1081" s="10" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="J1081" s="10">
-        <v>9365414711</v>
+        <v>7002339477</v>
       </c>
       <c r="K1081" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1082" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1082" s="10"/>
       <c r="B1082" s="10"/>
       <c r="C1082" s="10"/>
       <c r="D1082" s="10"/>
       <c r="E1082" s="10" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="F1082" s="11">
-        <v>24838</v>
+        <v>24616</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>4394</v>
+        <v>3796</v>
       </c>
       <c r="H1082" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1082" s="10" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="J1082" s="10">
-        <v>8638693996</v>
+        <v>9365414711</v>
       </c>
       <c r="K1082" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1083" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1083" s="10"/>
       <c r="B1083" s="10"/>
       <c r="C1083" s="10"/>
       <c r="D1083" s="10"/>
       <c r="E1083" s="10" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="F1083" s="11">
-        <v>25370</v>
+        <v>24838</v>
       </c>
       <c r="G1083" s="10" t="s">
-        <v>3796</v>
+        <v>4394</v>
       </c>
       <c r="H1083" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1083" s="10" t="s">
-        <v>4005</v>
-      </c>
-      <c r="J1083" s="10"/>
+        <v>4004</v>
+      </c>
+      <c r="J1083" s="10">
+        <v>8638693996</v>
+      </c>
       <c r="K1083" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49115,10 +49126,10 @@
       <c r="C1084" s="10"/>
       <c r="D1084" s="10"/>
       <c r="E1084" s="10" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="F1084" s="11">
-        <v>25110</v>
+        <v>25370</v>
       </c>
       <c r="G1084" s="10" t="s">
         <v>3796</v>
@@ -49127,11 +49138,9 @@
         <v>5</v>
       </c>
       <c r="I1084" s="10" t="s">
-        <v>4006</v>
-      </c>
-      <c r="J1084" s="10">
-        <v>9706012998</v>
-      </c>
+        <v>4005</v>
+      </c>
+      <c r="J1084" s="10"/>
       <c r="K1084" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49142,10 +49151,10 @@
       <c r="C1085" s="10"/>
       <c r="D1085" s="10"/>
       <c r="E1085" s="10" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="F1085" s="11">
-        <v>24898</v>
+        <v>25110</v>
       </c>
       <c r="G1085" s="10" t="s">
         <v>3796</v>
@@ -49154,9 +49163,11 @@
         <v>5</v>
       </c>
       <c r="I1085" s="10" t="s">
-        <v>4007</v>
-      </c>
-      <c r="J1085" s="10"/>
+        <v>4006</v>
+      </c>
+      <c r="J1085" s="10">
+        <v>9706012998</v>
+      </c>
       <c r="K1085" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49167,10 +49178,10 @@
       <c r="C1086" s="10"/>
       <c r="D1086" s="10"/>
       <c r="E1086" s="10" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="F1086" s="11">
-        <v>25419</v>
+        <v>24898</v>
       </c>
       <c r="G1086" s="10" t="s">
         <v>3796</v>
@@ -49179,25 +49190,23 @@
         <v>5</v>
       </c>
       <c r="I1086" s="10" t="s">
-        <v>4008</v>
-      </c>
-      <c r="J1086" s="10">
-        <v>8486671399</v>
-      </c>
+        <v>4007</v>
+      </c>
+      <c r="J1086" s="10"/>
       <c r="K1086" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1087" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1087" s="10"/>
       <c r="B1087" s="10"/>
       <c r="C1087" s="10"/>
       <c r="D1087" s="10"/>
       <c r="E1087" s="10" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="F1087" s="11">
-        <v>24898</v>
+        <v>25419</v>
       </c>
       <c r="G1087" s="10" t="s">
         <v>3796</v>
@@ -49206,36 +49215,36 @@
         <v>5</v>
       </c>
       <c r="I1087" s="10" t="s">
-        <v>4009</v>
-      </c>
-      <c r="J1087" s="10"/>
+        <v>4008</v>
+      </c>
+      <c r="J1087" s="10">
+        <v>8486671399</v>
+      </c>
       <c r="K1087" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1088" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1088" s="10"/>
       <c r="B1088" s="10"/>
       <c r="C1088" s="10"/>
       <c r="D1088" s="10"/>
       <c r="E1088" s="10" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="F1088" s="11">
-        <v>23822</v>
+        <v>24898</v>
       </c>
       <c r="G1088" s="10" t="s">
-        <v>4395</v>
+        <v>3796</v>
       </c>
       <c r="H1088" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1088" s="10" t="s">
-        <v>4010</v>
-      </c>
-      <c r="J1088" s="10">
-        <v>7896916032</v>
-      </c>
+        <v>4009</v>
+      </c>
+      <c r="J1088" s="10"/>
       <c r="K1088" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49246,76 +49255,76 @@
       <c r="C1089" s="10"/>
       <c r="D1089" s="10"/>
       <c r="E1089" s="10" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="F1089" s="11">
-        <v>25628</v>
+        <v>23822</v>
       </c>
       <c r="G1089" s="10" t="s">
-        <v>3796</v>
+        <v>4395</v>
       </c>
       <c r="H1089" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1089" s="10" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="J1089" s="10">
-        <v>8006400472</v>
+        <v>7896916032</v>
       </c>
       <c r="K1089" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1090" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1090" s="10"/>
       <c r="B1090" s="10"/>
       <c r="C1090" s="10"/>
       <c r="D1090" s="10"/>
       <c r="E1090" s="10" t="s">
-        <v>4216</v>
+        <v>4215</v>
       </c>
       <c r="F1090" s="11">
-        <v>25138</v>
+        <v>25628</v>
       </c>
       <c r="G1090" s="10" t="s">
-        <v>3786</v>
+        <v>3796</v>
       </c>
       <c r="H1090" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1090" s="10" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="J1090" s="10">
-        <v>9864207119</v>
+        <v>8006400472</v>
       </c>
       <c r="K1090" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1091" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1091" s="10"/>
       <c r="B1091" s="10"/>
       <c r="C1091" s="10"/>
       <c r="D1091" s="10"/>
       <c r="E1091" s="10" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="F1091" s="11">
-        <v>24504</v>
+        <v>25138</v>
       </c>
       <c r="G1091" s="10" t="s">
-        <v>3796</v>
+        <v>3786</v>
       </c>
       <c r="H1091" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1091" s="10" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="J1091" s="10">
-        <v>9735974724</v>
+        <v>9864207119</v>
       </c>
       <c r="K1091" s="10" t="s">
         <v>4366</v>
@@ -49327,10 +49336,10 @@
       <c r="C1092" s="10"/>
       <c r="D1092" s="10"/>
       <c r="E1092" s="10" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="F1092" s="11">
-        <v>25204</v>
+        <v>24504</v>
       </c>
       <c r="G1092" s="10" t="s">
         <v>3796</v>
@@ -49339,9 +49348,11 @@
         <v>5</v>
       </c>
       <c r="I1092" s="10" t="s">
-        <v>4014</v>
-      </c>
-      <c r="J1092" s="10"/>
+        <v>4013</v>
+      </c>
+      <c r="J1092" s="10">
+        <v>9735974724</v>
+      </c>
       <c r="K1092" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49352,49 +49363,47 @@
       <c r="C1093" s="10"/>
       <c r="D1093" s="10"/>
       <c r="E1093" s="10" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="F1093" s="11">
-        <v>21667</v>
+        <v>25204</v>
       </c>
       <c r="G1093" s="10" t="s">
-        <v>4396</v>
+        <v>3796</v>
       </c>
       <c r="H1093" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1093" s="10" t="s">
-        <v>4015</v>
-      </c>
-      <c r="J1093" s="10">
-        <v>9957193324</v>
-      </c>
+        <v>4014</v>
+      </c>
+      <c r="J1093" s="10"/>
       <c r="K1093" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1094" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1094" s="10"/>
       <c r="B1094" s="10"/>
       <c r="C1094" s="10"/>
       <c r="D1094" s="10"/>
       <c r="E1094" s="10" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="F1094" s="11">
-        <v>25842</v>
+        <v>21667</v>
       </c>
       <c r="G1094" s="10" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="H1094" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1094" s="10" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="J1094" s="10">
-        <v>9436352984</v>
+        <v>9957193324</v>
       </c>
       <c r="K1094" s="10" t="s">
         <v>4366</v>
@@ -49406,48 +49415,50 @@
       <c r="C1095" s="10"/>
       <c r="D1095" s="10"/>
       <c r="E1095" s="10" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="F1095" s="11">
-        <v>26360</v>
+        <v>25842</v>
       </c>
       <c r="G1095" s="10" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="H1095" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1095" s="10" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="J1095" s="10">
-        <v>9890623260</v>
+        <v>9436352984</v>
       </c>
       <c r="K1095" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1096" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1096" s="10"/>
       <c r="B1096" s="10"/>
       <c r="C1096" s="10"/>
       <c r="D1096" s="10"/>
       <c r="E1096" s="10" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="F1096" s="11">
-        <v>26299</v>
+        <v>26360</v>
       </c>
       <c r="G1096" s="10" t="s">
-        <v>3796</v>
+        <v>4398</v>
       </c>
       <c r="H1096" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1096" s="10" t="s">
-        <v>4018</v>
-      </c>
-      <c r="J1096" s="10"/>
+        <v>4017</v>
+      </c>
+      <c r="J1096" s="10">
+        <v>9890623260</v>
+      </c>
       <c r="K1096" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49458,10 +49469,10 @@
       <c r="C1097" s="10"/>
       <c r="D1097" s="10"/>
       <c r="E1097" s="10" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="F1097" s="11">
-        <v>25173</v>
+        <v>26299</v>
       </c>
       <c r="G1097" s="10" t="s">
         <v>3796</v>
@@ -49470,11 +49481,9 @@
         <v>5</v>
       </c>
       <c r="I1097" s="10" t="s">
-        <v>4019</v>
-      </c>
-      <c r="J1097" s="10">
-        <v>9678771763</v>
-      </c>
+        <v>4018</v>
+      </c>
+      <c r="J1097" s="10"/>
       <c r="K1097" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49485,22 +49494,22 @@
       <c r="C1098" s="10"/>
       <c r="D1098" s="10"/>
       <c r="E1098" s="10" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="F1098" s="11">
-        <v>25263</v>
+        <v>25173</v>
       </c>
       <c r="G1098" s="10" t="s">
-        <v>4399</v>
+        <v>3796</v>
       </c>
       <c r="H1098" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1098" s="10" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="J1098" s="10">
-        <v>9435560369</v>
+        <v>9678771763</v>
       </c>
       <c r="K1098" s="10" t="s">
         <v>4366</v>
@@ -49512,118 +49521,118 @@
       <c r="C1099" s="10"/>
       <c r="D1099" s="10"/>
       <c r="E1099" s="10" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="F1099" s="11">
-        <v>23833</v>
+        <v>25263</v>
       </c>
       <c r="G1099" s="10" t="s">
-        <v>3796</v>
+        <v>4399</v>
       </c>
       <c r="H1099" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1099" s="10" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="J1099" s="10">
-        <v>6003582750</v>
+        <v>9435560369</v>
       </c>
       <c r="K1099" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1100" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1100" s="10"/>
       <c r="B1100" s="10"/>
       <c r="C1100" s="10"/>
       <c r="D1100" s="10"/>
       <c r="E1100" s="10" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="F1100" s="11">
-        <v>26665</v>
+        <v>23833</v>
       </c>
       <c r="G1100" s="10" t="s">
-        <v>4400</v>
+        <v>3796</v>
       </c>
       <c r="H1100" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1100" s="10" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="J1100" s="10">
-        <v>8472880802</v>
+        <v>6003582750</v>
       </c>
       <c r="K1100" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1101" s="10"/>
       <c r="B1101" s="10"/>
       <c r="C1101" s="10"/>
       <c r="D1101" s="10"/>
       <c r="E1101" s="10" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="F1101" s="11">
-        <v>26765</v>
+        <v>26665</v>
       </c>
       <c r="G1101" s="10" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="H1101" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1101" s="10" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="J1101" s="10">
-        <v>9435725345</v>
+        <v>8472880802</v>
       </c>
       <c r="K1101" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1102" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1102" s="10"/>
       <c r="B1102" s="10"/>
       <c r="C1102" s="10"/>
       <c r="D1102" s="10"/>
       <c r="E1102" s="10" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="F1102" s="11">
-        <v>25630</v>
+        <v>26765</v>
       </c>
       <c r="G1102" s="10" t="s">
-        <v>3796</v>
+        <v>4401</v>
       </c>
       <c r="H1102" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1102" s="10" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="J1102" s="10">
-        <v>9957830751</v>
+        <v>9435725345</v>
       </c>
       <c r="K1102" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1103" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1103" s="10"/>
       <c r="B1103" s="10"/>
       <c r="C1103" s="10"/>
       <c r="D1103" s="10"/>
       <c r="E1103" s="10" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="F1103" s="11">
-        <v>26032</v>
+        <v>25630</v>
       </c>
       <c r="G1103" s="10" t="s">
         <v>3796</v>
@@ -49632,77 +49641,79 @@
         <v>5</v>
       </c>
       <c r="I1103" s="10" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="J1103" s="10">
-        <v>9695741744</v>
+        <v>9957830751</v>
       </c>
       <c r="K1103" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1104" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1104" s="10"/>
       <c r="B1104" s="10"/>
       <c r="C1104" s="10"/>
       <c r="D1104" s="10"/>
       <c r="E1104" s="10" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="F1104" s="11">
-        <v>26531</v>
+        <v>26032</v>
       </c>
       <c r="G1104" s="10" t="s">
-        <v>4402</v>
+        <v>3796</v>
       </c>
       <c r="H1104" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1104" s="10" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="J1104" s="10">
-        <v>9435200104</v>
+        <v>9695741744</v>
       </c>
       <c r="K1104" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1105" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1105" s="10"/>
       <c r="B1105" s="10"/>
       <c r="C1105" s="10"/>
       <c r="D1105" s="10"/>
       <c r="E1105" s="10" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="F1105" s="11">
-        <v>26359</v>
+        <v>26531</v>
       </c>
       <c r="G1105" s="10" t="s">
-        <v>3796</v>
+        <v>4402</v>
       </c>
       <c r="H1105" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1105" s="10" t="s">
-        <v>4027</v>
-      </c>
-      <c r="J1105" s="10"/>
+        <v>4026</v>
+      </c>
+      <c r="J1105" s="10">
+        <v>9435200104</v>
+      </c>
       <c r="K1105" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1106" s="10"/>
       <c r="B1106" s="10"/>
       <c r="C1106" s="10"/>
       <c r="D1106" s="10"/>
       <c r="E1106" s="10" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="F1106" s="11">
-        <v>26665</v>
+        <v>26359</v>
       </c>
       <c r="G1106" s="10" t="s">
         <v>3796</v>
@@ -49711,25 +49722,23 @@
         <v>5</v>
       </c>
       <c r="I1106" s="10" t="s">
-        <v>4028</v>
-      </c>
-      <c r="J1106" s="10">
-        <v>9435323542</v>
-      </c>
+        <v>4027</v>
+      </c>
+      <c r="J1106" s="10"/>
       <c r="K1106" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1107" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1107" s="10"/>
       <c r="B1107" s="10"/>
       <c r="C1107" s="10"/>
       <c r="D1107" s="10"/>
       <c r="E1107" s="10" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="F1107" s="11">
-        <v>26481</v>
+        <v>26665</v>
       </c>
       <c r="G1107" s="10" t="s">
         <v>3796</v>
@@ -49738,9 +49747,11 @@
         <v>5</v>
       </c>
       <c r="I1107" s="10" t="s">
-        <v>4029</v>
-      </c>
-      <c r="J1107" s="10"/>
+        <v>4028</v>
+      </c>
+      <c r="J1107" s="10">
+        <v>9435323542</v>
+      </c>
       <c r="K1107" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49751,10 +49762,10 @@
       <c r="C1108" s="10"/>
       <c r="D1108" s="10"/>
       <c r="E1108" s="10" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="F1108" s="11">
-        <v>27215</v>
+        <v>26481</v>
       </c>
       <c r="G1108" s="10" t="s">
         <v>3796</v>
@@ -49763,64 +49774,62 @@
         <v>5</v>
       </c>
       <c r="I1108" s="10" t="s">
-        <v>4030</v>
-      </c>
-      <c r="J1108" s="10">
-        <v>9436228003</v>
-      </c>
+        <v>4029</v>
+      </c>
+      <c r="J1108" s="10"/>
       <c r="K1108" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1109" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1109" s="10"/>
       <c r="B1109" s="10"/>
       <c r="C1109" s="10"/>
       <c r="D1109" s="10"/>
       <c r="E1109" s="10" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="F1109" s="11">
-        <v>26313</v>
+        <v>27215</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>4397</v>
+        <v>3796</v>
       </c>
       <c r="H1109" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1109" s="10" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="J1109" s="10">
-        <v>9435307661</v>
+        <v>9436228003</v>
       </c>
       <c r="K1109" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1110" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1110" s="10"/>
       <c r="B1110" s="10"/>
       <c r="C1110" s="10"/>
       <c r="D1110" s="10"/>
       <c r="E1110" s="10" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="F1110" s="11">
-        <v>26936</v>
+        <v>26313</v>
       </c>
       <c r="G1110" s="10" t="s">
-        <v>3796</v>
+        <v>4397</v>
       </c>
       <c r="H1110" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1110" s="10" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="J1110" s="10">
-        <v>9435558835</v>
+        <v>9435307661</v>
       </c>
       <c r="K1110" s="10" t="s">
         <v>4366</v>
@@ -49832,10 +49841,10 @@
       <c r="C1111" s="10"/>
       <c r="D1111" s="10"/>
       <c r="E1111" s="10" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="F1111" s="11">
-        <v>27030</v>
+        <v>26936</v>
       </c>
       <c r="G1111" s="10" t="s">
         <v>3796</v>
@@ -49844,63 +49853,65 @@
         <v>5</v>
       </c>
       <c r="I1111" s="10" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="J1111" s="10">
-        <v>9957618073</v>
+        <v>9435558835</v>
       </c>
       <c r="K1111" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1112" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1112" s="10"/>
       <c r="B1112" s="10"/>
       <c r="C1112" s="10"/>
       <c r="D1112" s="10"/>
       <c r="E1112" s="10" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="F1112" s="11">
-        <v>27065</v>
+        <v>27030</v>
       </c>
       <c r="G1112" s="10" t="s">
-        <v>4403</v>
+        <v>3796</v>
       </c>
       <c r="H1112" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1112" s="10" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="J1112" s="10">
-        <v>9859938851</v>
+        <v>9957618073</v>
       </c>
       <c r="K1112" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1113" s="10"/>
       <c r="B1113" s="10"/>
       <c r="C1113" s="10"/>
       <c r="D1113" s="10"/>
       <c r="E1113" s="10" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="F1113" s="11">
-        <v>27031</v>
+        <v>27065</v>
       </c>
       <c r="G1113" s="10" t="s">
-        <v>3796</v>
+        <v>4403</v>
       </c>
       <c r="H1113" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1113" s="10" t="s">
-        <v>4035</v>
-      </c>
-      <c r="J1113" s="10"/>
+        <v>4034</v>
+      </c>
+      <c r="J1113" s="10">
+        <v>9859938851</v>
+      </c>
       <c r="K1113" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49911,23 +49922,21 @@
       <c r="C1114" s="10"/>
       <c r="D1114" s="10"/>
       <c r="E1114" s="10" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="F1114" s="11">
-        <v>26359</v>
+        <v>27031</v>
       </c>
       <c r="G1114" s="10" t="s">
-        <v>4404</v>
+        <v>3796</v>
       </c>
       <c r="H1114" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1114" s="10" t="s">
-        <v>4036</v>
-      </c>
-      <c r="J1114" s="10">
-        <v>9435087901</v>
-      </c>
+        <v>4035</v>
+      </c>
+      <c r="J1114" s="10"/>
       <c r="K1114" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49938,19 +49947,23 @@
       <c r="C1115" s="10"/>
       <c r="D1115" s="10"/>
       <c r="E1115" s="10" t="s">
-        <v>4241</v>
-      </c>
-      <c r="F1115" s="11"/>
+        <v>4240</v>
+      </c>
+      <c r="F1115" s="11">
+        <v>26359</v>
+      </c>
       <c r="G1115" s="10" t="s">
-        <v>3796</v>
+        <v>4404</v>
       </c>
       <c r="H1115" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1115" s="10" t="s">
-        <v>4037</v>
-      </c>
-      <c r="J1115" s="10"/>
+        <v>4036</v>
+      </c>
+      <c r="J1115" s="10">
+        <v>9435087901</v>
+      </c>
       <c r="K1115" s="10" t="s">
         <v>4366</v>
       </c>
@@ -49961,7 +49974,7 @@
       <c r="C1116" s="10"/>
       <c r="D1116" s="10"/>
       <c r="E1116" s="10" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="F1116" s="11"/>
       <c r="G1116" s="10" t="s">
@@ -49971,77 +49984,75 @@
         <v>5</v>
       </c>
       <c r="I1116" s="10" t="s">
-        <v>4038</v>
-      </c>
-      <c r="J1116" s="10">
-        <v>9854147614</v>
-      </c>
+        <v>4037</v>
+      </c>
+      <c r="J1116" s="10"/>
       <c r="K1116" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1117" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1117" s="10"/>
       <c r="B1117" s="10"/>
       <c r="C1117" s="10"/>
       <c r="D1117" s="10"/>
       <c r="E1117" s="10" t="s">
-        <v>4243</v>
-      </c>
-      <c r="F1117" s="11">
-        <v>26951</v>
-      </c>
+        <v>4242</v>
+      </c>
+      <c r="F1117" s="11"/>
       <c r="G1117" s="10" t="s">
-        <v>4405</v>
+        <v>3796</v>
       </c>
       <c r="H1117" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1117" s="10" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="J1117" s="10">
-        <v>9864355662</v>
+        <v>9854147614</v>
       </c>
       <c r="K1117" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1118" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1118" s="10"/>
       <c r="B1118" s="10"/>
       <c r="C1118" s="10"/>
       <c r="D1118" s="10"/>
       <c r="E1118" s="10" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="F1118" s="11">
-        <v>26314</v>
+        <v>26951</v>
       </c>
       <c r="G1118" s="10" t="s">
-        <v>3796</v>
+        <v>4405</v>
       </c>
       <c r="H1118" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1118" s="10" t="s">
-        <v>4040</v>
-      </c>
-      <c r="J1118" s="10"/>
+        <v>4039</v>
+      </c>
+      <c r="J1118" s="10">
+        <v>9864355662</v>
+      </c>
       <c r="K1118" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1119" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1119" s="10"/>
       <c r="B1119" s="10"/>
       <c r="C1119" s="10"/>
       <c r="D1119" s="10"/>
       <c r="E1119" s="10" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="F1119" s="11">
-        <v>26723</v>
+        <v>26314</v>
       </c>
       <c r="G1119" s="10" t="s">
         <v>3796</v>
@@ -50050,11 +50061,9 @@
         <v>5</v>
       </c>
       <c r="I1119" s="10" t="s">
-        <v>4041</v>
-      </c>
-      <c r="J1119" s="10">
-        <v>9435360028</v>
-      </c>
+        <v>4040</v>
+      </c>
+      <c r="J1119" s="10"/>
       <c r="K1119" s="10" t="s">
         <v>4366</v>
       </c>
@@ -50065,48 +50074,50 @@
       <c r="C1120" s="10"/>
       <c r="D1120" s="10"/>
       <c r="E1120" s="10" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="F1120" s="11">
-        <v>27030</v>
+        <v>26723</v>
       </c>
       <c r="G1120" s="10" t="s">
-        <v>4406</v>
+        <v>3796</v>
       </c>
       <c r="H1120" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1120" s="10" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="J1120" s="10">
-        <v>9613851428</v>
+        <v>9435360028</v>
       </c>
       <c r="K1120" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1121" s="10"/>
       <c r="B1121" s="10"/>
       <c r="C1121" s="10"/>
       <c r="D1121" s="10"/>
       <c r="E1121" s="10" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="F1121" s="11">
-        <v>27061</v>
+        <v>27030</v>
       </c>
       <c r="G1121" s="10" t="s">
-        <v>3796</v>
+        <v>4406</v>
       </c>
       <c r="H1121" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1121" s="10" t="s">
-        <v>4043</v>
-      </c>
-      <c r="J1121" s="10"/>
+        <v>4042</v>
+      </c>
+      <c r="J1121" s="10">
+        <v>9613851428</v>
+      </c>
       <c r="K1121" s="10" t="s">
         <v>4366</v>
       </c>
@@ -50117,10 +50128,10 @@
       <c r="C1122" s="10"/>
       <c r="D1122" s="10"/>
       <c r="E1122" s="10" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="F1122" s="11">
-        <v>27271</v>
+        <v>27061</v>
       </c>
       <c r="G1122" s="10" t="s">
         <v>3796</v>
@@ -50129,140 +50140,140 @@
         <v>5</v>
       </c>
       <c r="I1122" s="10" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="J1122" s="10"/>
       <c r="K1122" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1123" s="10"/>
       <c r="B1123" s="10"/>
       <c r="C1123" s="10"/>
       <c r="D1123" s="10"/>
       <c r="E1123" s="10" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="F1123" s="11">
-        <v>27454</v>
+        <v>27271</v>
       </c>
       <c r="G1123" s="10" t="s">
-        <v>4407</v>
+        <v>3796</v>
       </c>
       <c r="H1123" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1123" s="10" t="s">
-        <v>4045</v>
-      </c>
-      <c r="J1123" s="10">
-        <v>8638040516</v>
-      </c>
+        <v>4044</v>
+      </c>
+      <c r="J1123" s="10"/>
       <c r="K1123" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1124" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1124" s="10"/>
       <c r="B1124" s="10"/>
       <c r="C1124" s="10"/>
       <c r="D1124" s="10"/>
       <c r="E1124" s="10" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="F1124" s="11">
-        <v>27089</v>
+        <v>27454</v>
       </c>
       <c r="G1124" s="10" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="H1124" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1124" s="10" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="J1124" s="10">
-        <v>9436374061</v>
+        <v>8638040516</v>
       </c>
       <c r="K1124" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1125" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1125" s="10"/>
       <c r="B1125" s="10"/>
       <c r="C1125" s="10"/>
       <c r="D1125" s="10"/>
       <c r="E1125" s="10" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="F1125" s="11">
-        <v>25263</v>
+        <v>27089</v>
       </c>
       <c r="G1125" s="10" t="s">
-        <v>3796</v>
+        <v>4408</v>
       </c>
       <c r="H1125" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1125" s="10" t="s">
-        <v>4047</v>
-      </c>
-      <c r="J1125" s="10"/>
+        <v>4046</v>
+      </c>
+      <c r="J1125" s="10">
+        <v>9436374061</v>
+      </c>
       <c r="K1125" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1126" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1126" s="10"/>
       <c r="B1126" s="10"/>
       <c r="C1126" s="10"/>
       <c r="D1126" s="10"/>
       <c r="E1126" s="10" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="F1126" s="11">
-        <v>27058</v>
+        <v>25263</v>
       </c>
       <c r="G1126" s="10" t="s">
-        <v>4409</v>
+        <v>3796</v>
       </c>
       <c r="H1126" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1126" s="10" t="s">
-        <v>4048</v>
-      </c>
-      <c r="J1126" s="10">
-        <v>9435526792</v>
-      </c>
+        <v>4047</v>
+      </c>
+      <c r="J1126" s="10"/>
       <c r="K1126" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1127" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1127" s="10"/>
       <c r="B1127" s="10"/>
       <c r="C1127" s="10"/>
       <c r="D1127" s="10"/>
       <c r="E1127" s="10" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="F1127" s="11">
-        <v>27119</v>
+        <v>27058</v>
       </c>
       <c r="G1127" s="10" t="s">
-        <v>3796</v>
+        <v>4409</v>
       </c>
       <c r="H1127" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1127" s="10" t="s">
-        <v>4049</v>
-      </c>
-      <c r="J1127" s="10"/>
+        <v>4048</v>
+      </c>
+      <c r="J1127" s="10">
+        <v>9435526792</v>
+      </c>
       <c r="K1127" s="10" t="s">
         <v>4366</v>
       </c>
@@ -50273,10 +50284,10 @@
       <c r="C1128" s="10"/>
       <c r="D1128" s="10"/>
       <c r="E1128" s="10" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="F1128" s="11">
-        <v>28002</v>
+        <v>27119</v>
       </c>
       <c r="G1128" s="10" t="s">
         <v>3796</v>
@@ -50285,104 +50296,102 @@
         <v>5</v>
       </c>
       <c r="I1128" s="10" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="J1128" s="10"/>
       <c r="K1128" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1129" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1129" s="10"/>
       <c r="B1129" s="10"/>
       <c r="C1129" s="10"/>
       <c r="D1129" s="10"/>
       <c r="E1129" s="10" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="F1129" s="11">
-        <v>28127</v>
+        <v>28002</v>
       </c>
       <c r="G1129" s="10" t="s">
-        <v>4410</v>
+        <v>3796</v>
       </c>
       <c r="H1129" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1129" s="10" t="s">
-        <v>4051</v>
-      </c>
-      <c r="J1129" s="10">
-        <v>9864011036</v>
-      </c>
+        <v>4050</v>
+      </c>
+      <c r="J1129" s="10"/>
       <c r="K1129" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1130" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1130" s="10"/>
       <c r="B1130" s="10"/>
       <c r="C1130" s="10"/>
       <c r="D1130" s="10"/>
       <c r="E1130" s="10" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="F1130" s="11">
-        <v>27303</v>
+        <v>28127</v>
       </c>
       <c r="G1130" s="10" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="H1130" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1130" s="10" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="J1130" s="10">
-        <v>8960853297</v>
+        <v>9864011036</v>
       </c>
       <c r="K1130" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1131" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1131" s="10"/>
       <c r="B1131" s="10"/>
       <c r="C1131" s="10"/>
       <c r="D1131" s="10"/>
       <c r="E1131" s="10" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="F1131" s="11">
-        <v>26052</v>
+        <v>27303</v>
       </c>
       <c r="G1131" s="10" t="s">
-        <v>3796</v>
+        <v>4411</v>
       </c>
       <c r="H1131" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1131" s="10" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="J1131" s="10">
-        <v>7002701156</v>
+        <v>8960853297</v>
       </c>
       <c r="K1131" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1132" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1132" s="10"/>
       <c r="B1132" s="10"/>
       <c r="C1132" s="10"/>
       <c r="D1132" s="10"/>
       <c r="E1132" s="10" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="F1132" s="11">
-        <v>28449</v>
+        <v>26052</v>
       </c>
       <c r="G1132" s="10" t="s">
         <v>3796</v>
@@ -50391,23 +50400,25 @@
         <v>5</v>
       </c>
       <c r="I1132" s="10" t="s">
-        <v>4054</v>
-      </c>
-      <c r="J1132" s="10"/>
+        <v>4053</v>
+      </c>
+      <c r="J1132" s="10">
+        <v>7002701156</v>
+      </c>
       <c r="K1132" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1133" s="10"/>
       <c r="B1133" s="10"/>
       <c r="C1133" s="10"/>
       <c r="D1133" s="10"/>
       <c r="E1133" s="10" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="F1133" s="11">
-        <v>25764</v>
+        <v>28449</v>
       </c>
       <c r="G1133" s="10" t="s">
         <v>3796</v>
@@ -50416,89 +50427,87 @@
         <v>5</v>
       </c>
       <c r="I1133" s="10" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="J1133" s="10"/>
       <c r="K1133" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1134" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1134" s="10"/>
       <c r="B1134" s="10"/>
       <c r="C1134" s="10"/>
       <c r="D1134" s="10"/>
       <c r="E1134" s="10" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="F1134" s="11">
-        <v>28229</v>
+        <v>25764</v>
       </c>
       <c r="G1134" s="10" t="s">
-        <v>4412</v>
+        <v>3796</v>
       </c>
       <c r="H1134" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1134" s="10" t="s">
-        <v>4056</v>
-      </c>
-      <c r="J1134" s="10">
-        <v>9957235921</v>
-      </c>
+        <v>4055</v>
+      </c>
+      <c r="J1134" s="10"/>
       <c r="K1134" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1135" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1135" s="10"/>
       <c r="B1135" s="10"/>
       <c r="C1135" s="10"/>
       <c r="D1135" s="10"/>
       <c r="E1135" s="10" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="F1135" s="11">
-        <v>27420</v>
+        <v>28229</v>
       </c>
       <c r="G1135" s="10" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="H1135" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1135" s="10" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="J1135" s="10">
-        <v>8638152625</v>
+        <v>9957235921</v>
       </c>
       <c r="K1135" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1136" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1136" s="10"/>
       <c r="B1136" s="10"/>
       <c r="C1136" s="10"/>
       <c r="D1136" s="10"/>
       <c r="E1136" s="10" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="F1136" s="11">
-        <v>27820</v>
+        <v>27420</v>
       </c>
       <c r="G1136" s="10" t="s">
-        <v>3796</v>
+        <v>4413</v>
       </c>
       <c r="H1136" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1136" s="10" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="J1136" s="10">
-        <v>9435389809</v>
+        <v>8638152625</v>
       </c>
       <c r="K1136" s="10" t="s">
         <v>4366</v>
@@ -50510,7 +50519,7 @@
       <c r="C1137" s="10"/>
       <c r="D1137" s="10"/>
       <c r="E1137" s="10" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="F1137" s="11">
         <v>27820</v>
@@ -50522,140 +50531,142 @@
         <v>5</v>
       </c>
       <c r="I1137" s="10" t="s">
-        <v>4059</v>
-      </c>
-      <c r="J1137" s="10"/>
+        <v>4058</v>
+      </c>
+      <c r="J1137" s="10">
+        <v>9435389809</v>
+      </c>
       <c r="K1137" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1138" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1138" s="10"/>
       <c r="B1138" s="10"/>
       <c r="C1138" s="10"/>
       <c r="D1138" s="10"/>
       <c r="E1138" s="10" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="F1138" s="11">
-        <v>28725</v>
+        <v>27820</v>
       </c>
       <c r="G1138" s="10" t="s">
-        <v>4414</v>
+        <v>3796</v>
       </c>
       <c r="H1138" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1138" s="10" t="s">
-        <v>4060</v>
-      </c>
-      <c r="J1138" s="10">
-        <v>9864357161</v>
-      </c>
+        <v>4059</v>
+      </c>
+      <c r="J1138" s="10"/>
       <c r="K1138" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1139" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1139" s="10"/>
       <c r="B1139" s="10"/>
       <c r="C1139" s="10"/>
       <c r="D1139" s="10"/>
       <c r="E1139" s="10" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="F1139" s="11">
-        <v>28516</v>
+        <v>28725</v>
       </c>
       <c r="G1139" s="10" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="H1139" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1139" s="10" t="s">
-        <v>4061</v>
-      </c>
-      <c r="J1139" s="10"/>
+        <v>4060</v>
+      </c>
+      <c r="J1139" s="10">
+        <v>9864357161</v>
+      </c>
       <c r="K1139" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1140" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1140" s="10"/>
       <c r="B1140" s="10"/>
       <c r="C1140" s="10"/>
       <c r="D1140" s="10"/>
       <c r="E1140" s="10" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="F1140" s="11">
-        <v>28915</v>
+        <v>28516</v>
       </c>
       <c r="G1140" s="10" t="s">
-        <v>3796</v>
+        <v>4415</v>
       </c>
       <c r="H1140" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1140" s="10" t="s">
-        <v>4062</v>
-      </c>
-      <c r="J1140" s="10">
-        <v>9101643820</v>
-      </c>
+        <v>4061</v>
+      </c>
+      <c r="J1140" s="10"/>
       <c r="K1140" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1141" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1141" s="10"/>
       <c r="B1141" s="10"/>
       <c r="C1141" s="10"/>
       <c r="D1141" s="10"/>
       <c r="E1141" s="10" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="F1141" s="11">
-        <v>29038</v>
+        <v>28915</v>
       </c>
       <c r="G1141" s="10" t="s">
-        <v>4416</v>
+        <v>3796</v>
       </c>
       <c r="H1141" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1141" s="10" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="J1141" s="10">
-        <v>7086692677</v>
+        <v>9101643820</v>
       </c>
       <c r="K1141" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1142" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1142" s="10"/>
       <c r="B1142" s="10"/>
       <c r="C1142" s="10"/>
       <c r="D1142" s="10"/>
       <c r="E1142" s="10" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="F1142" s="11">
-        <v>28915</v>
+        <v>29038</v>
       </c>
       <c r="G1142" s="10" t="s">
-        <v>3796</v>
+        <v>4416</v>
       </c>
       <c r="H1142" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1142" s="10" t="s">
-        <v>4064</v>
-      </c>
-      <c r="J1142" s="10"/>
+        <v>4063</v>
+      </c>
+      <c r="J1142" s="10">
+        <v>7086692677</v>
+      </c>
       <c r="K1142" s="10" t="s">
         <v>4366</v>
       </c>
@@ -50666,7 +50677,7 @@
       <c r="C1143" s="10"/>
       <c r="D1143" s="10"/>
       <c r="E1143" s="10" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="F1143" s="11">
         <v>28915</v>
@@ -50678,7 +50689,7 @@
         <v>5</v>
       </c>
       <c r="I1143" s="10" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="J1143" s="10"/>
       <c r="K1143" s="10" t="s">
@@ -50691,89 +50702,89 @@
       <c r="C1144" s="10"/>
       <c r="D1144" s="10"/>
       <c r="E1144" s="10" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="F1144" s="11">
-        <v>28887</v>
+        <v>28915</v>
       </c>
       <c r="G1144" s="10" t="s">
-        <v>4417</v>
+        <v>3796</v>
       </c>
       <c r="H1144" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1144" s="10" t="s">
-        <v>4066</v>
-      </c>
-      <c r="J1144" s="10">
-        <v>9435594808</v>
-      </c>
+        <v>4065</v>
+      </c>
+      <c r="J1144" s="10"/>
       <c r="K1144" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1145" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1145" s="10"/>
       <c r="B1145" s="10"/>
       <c r="C1145" s="10"/>
       <c r="D1145" s="10"/>
       <c r="E1145" s="10" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="F1145" s="11">
-        <v>29281</v>
+        <v>28887</v>
       </c>
       <c r="G1145" s="10" t="s">
-        <v>4401</v>
+        <v>4417</v>
       </c>
       <c r="H1145" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1145" s="10" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="J1145" s="10">
-        <v>6900735453</v>
+        <v>9435594808</v>
       </c>
       <c r="K1145" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1146" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1146" s="10"/>
       <c r="B1146" s="10"/>
       <c r="C1146" s="10"/>
       <c r="D1146" s="10"/>
       <c r="E1146" s="10" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1146" s="11">
-        <v>28522</v>
+        <v>29281</v>
       </c>
       <c r="G1146" s="10" t="s">
-        <v>3796</v>
+        <v>4401</v>
       </c>
       <c r="H1146" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1146" s="10" t="s">
-        <v>4068</v>
-      </c>
-      <c r="J1146" s="10"/>
+        <v>4067</v>
+      </c>
+      <c r="J1146" s="10">
+        <v>6900735453</v>
+      </c>
       <c r="K1146" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1147" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1147" s="10"/>
       <c r="B1147" s="10"/>
       <c r="C1147" s="10"/>
       <c r="D1147" s="10"/>
       <c r="E1147" s="10" t="s">
-        <v>4273</v>
-      </c>
-      <c r="F1147" s="11" t="s">
-        <v>4365</v>
+        <v>4272</v>
+      </c>
+      <c r="F1147" s="11">
+        <v>28522</v>
       </c>
       <c r="G1147" s="10" t="s">
         <v>3796</v>
@@ -50782,79 +50793,77 @@
         <v>5</v>
       </c>
       <c r="I1147" s="10" t="s">
-        <v>4069</v>
-      </c>
-      <c r="J1147" s="10">
-        <v>9925957679</v>
-      </c>
+        <v>4068</v>
+      </c>
+      <c r="J1147" s="10"/>
       <c r="K1147" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1148" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1148" s="10"/>
       <c r="B1148" s="10"/>
       <c r="C1148" s="10"/>
       <c r="D1148" s="10"/>
       <c r="E1148" s="10" t="s">
-        <v>4274</v>
-      </c>
-      <c r="F1148" s="11">
-        <v>29271</v>
+        <v>4273</v>
+      </c>
+      <c r="F1148" s="11" t="s">
+        <v>4365</v>
       </c>
       <c r="G1148" s="10" t="s">
-        <v>4418</v>
+        <v>3796</v>
       </c>
       <c r="H1148" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1148" s="10" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="J1148" s="10">
-        <v>9678644300</v>
+        <v>9925957679</v>
       </c>
       <c r="K1148" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1149" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A1149" s="10"/>
       <c r="B1149" s="10"/>
       <c r="C1149" s="10"/>
       <c r="D1149" s="10"/>
       <c r="E1149" s="10" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="F1149" s="11">
-        <v>28915</v>
+        <v>29271</v>
       </c>
       <c r="G1149" s="10" t="s">
-        <v>3796</v>
+        <v>4418</v>
       </c>
       <c r="H1149" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1149" s="10" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="J1149" s="10">
-        <v>8787303105</v>
+        <v>9678644300</v>
       </c>
       <c r="K1149" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1150" s="10"/>
       <c r="B1150" s="10"/>
       <c r="C1150" s="10"/>
       <c r="D1150" s="10"/>
       <c r="E1150" s="10" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="F1150" s="11">
-        <v>29314</v>
+        <v>28915</v>
       </c>
       <c r="G1150" s="10" t="s">
         <v>3796</v>
@@ -50863,23 +50872,25 @@
         <v>5</v>
       </c>
       <c r="I1150" s="10" t="s">
-        <v>4072</v>
-      </c>
-      <c r="J1150" s="10"/>
+        <v>4071</v>
+      </c>
+      <c r="J1150" s="10">
+        <v>8787303105</v>
+      </c>
       <c r="K1150" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1151" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1151" s="10"/>
       <c r="B1151" s="10"/>
       <c r="C1151" s="10"/>
       <c r="D1151" s="10"/>
       <c r="E1151" s="10" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="F1151" s="11">
-        <v>29187</v>
+        <v>29314</v>
       </c>
       <c r="G1151" s="10" t="s">
         <v>3796</v>
@@ -50888,11 +50899,9 @@
         <v>5</v>
       </c>
       <c r="I1151" s="10" t="s">
-        <v>4073</v>
-      </c>
-      <c r="J1151" s="10">
-        <v>9957344764</v>
-      </c>
+        <v>4072</v>
+      </c>
+      <c r="J1151" s="10"/>
       <c r="K1151" s="10" t="s">
         <v>4366</v>
       </c>
@@ -50903,10 +50912,10 @@
       <c r="C1152" s="10"/>
       <c r="D1152" s="10"/>
       <c r="E1152" s="10" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="F1152" s="11">
-        <v>28231</v>
+        <v>29187</v>
       </c>
       <c r="G1152" s="10" t="s">
         <v>3796</v>
@@ -50915,25 +50924,25 @@
         <v>5</v>
       </c>
       <c r="I1152" s="10" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="J1152" s="10">
-        <v>9954076250</v>
+        <v>9957344764</v>
       </c>
       <c r="K1152" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1153" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1153" s="10"/>
       <c r="B1153" s="10"/>
       <c r="C1153" s="10"/>
       <c r="D1153" s="10"/>
       <c r="E1153" s="10" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="F1153" s="11">
-        <v>30133</v>
+        <v>28231</v>
       </c>
       <c r="G1153" s="10" t="s">
         <v>3796</v>
@@ -50942,9 +50951,11 @@
         <v>5</v>
       </c>
       <c r="I1153" s="10" t="s">
-        <v>4075</v>
-      </c>
-      <c r="J1153" s="10"/>
+        <v>4074</v>
+      </c>
+      <c r="J1153" s="10">
+        <v>9954076250</v>
+      </c>
       <c r="K1153" s="10" t="s">
         <v>4366</v>
       </c>
@@ -50955,10 +50966,10 @@
       <c r="C1154" s="10"/>
       <c r="D1154" s="10"/>
       <c r="E1154" s="10" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="F1154" s="11">
-        <v>28855</v>
+        <v>30133</v>
       </c>
       <c r="G1154" s="10" t="s">
         <v>3796</v>
@@ -50967,7 +50978,7 @@
         <v>5</v>
       </c>
       <c r="I1154" s="10" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="J1154" s="10"/>
       <c r="K1154" s="10" t="s">
@@ -50980,10 +50991,10 @@
       <c r="C1155" s="10"/>
       <c r="D1155" s="10"/>
       <c r="E1155" s="10" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="F1155" s="11">
-        <v>30195</v>
+        <v>28855</v>
       </c>
       <c r="G1155" s="10" t="s">
         <v>3796</v>
@@ -50992,7 +51003,7 @@
         <v>5</v>
       </c>
       <c r="I1155" s="10" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="J1155" s="10"/>
       <c r="K1155" s="10" t="s">
@@ -51005,10 +51016,10 @@
       <c r="C1156" s="10"/>
       <c r="D1156" s="10"/>
       <c r="E1156" s="10" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="F1156" s="11">
-        <v>29377</v>
+        <v>30195</v>
       </c>
       <c r="G1156" s="10" t="s">
         <v>3796</v>
@@ -51017,11 +51028,9 @@
         <v>5</v>
       </c>
       <c r="I1156" s="10" t="s">
-        <v>4078</v>
-      </c>
-      <c r="J1156" s="10">
-        <v>9864320128</v>
-      </c>
+        <v>4077</v>
+      </c>
+      <c r="J1156" s="10"/>
       <c r="K1156" s="10" t="s">
         <v>4366</v>
       </c>
@@ -51032,10 +51041,10 @@
       <c r="C1157" s="10"/>
       <c r="D1157" s="10"/>
       <c r="E1157" s="10" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="F1157" s="11">
-        <v>30132</v>
+        <v>29377</v>
       </c>
       <c r="G1157" s="10" t="s">
         <v>3796</v>
@@ -51044,9 +51053,11 @@
         <v>5</v>
       </c>
       <c r="I1157" s="10" t="s">
-        <v>4079</v>
-      </c>
-      <c r="J1157" s="10"/>
+        <v>4078</v>
+      </c>
+      <c r="J1157" s="10">
+        <v>9864320128</v>
+      </c>
       <c r="K1157" s="10" t="s">
         <v>4366</v>
       </c>
@@ -51057,10 +51068,10 @@
       <c r="C1158" s="10"/>
       <c r="D1158" s="10"/>
       <c r="E1158" s="10" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="F1158" s="11">
-        <v>30376</v>
+        <v>30132</v>
       </c>
       <c r="G1158" s="10" t="s">
         <v>3796</v>
@@ -51069,7 +51080,7 @@
         <v>5</v>
       </c>
       <c r="I1158" s="10" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="J1158" s="10"/>
       <c r="K1158" s="10" t="s">
@@ -51082,10 +51093,10 @@
       <c r="C1159" s="10"/>
       <c r="D1159" s="10"/>
       <c r="E1159" s="10" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="F1159" s="11">
-        <v>30581</v>
+        <v>30376</v>
       </c>
       <c r="G1159" s="10" t="s">
         <v>3796</v>
@@ -51094,23 +51105,23 @@
         <v>5</v>
       </c>
       <c r="I1159" s="10" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="J1159" s="10"/>
       <c r="K1159" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1160" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1160" s="10"/>
       <c r="B1160" s="10"/>
       <c r="C1160" s="10"/>
       <c r="D1160" s="10"/>
       <c r="E1160" s="10" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="F1160" s="11">
-        <v>30798</v>
+        <v>30581</v>
       </c>
       <c r="G1160" s="10" t="s">
         <v>3796</v>
@@ -51119,23 +51130,23 @@
         <v>5</v>
       </c>
       <c r="I1160" s="10" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="J1160" s="10"/>
       <c r="K1160" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1161" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1161" s="10"/>
       <c r="B1161" s="10"/>
       <c r="C1161" s="10"/>
       <c r="D1161" s="10"/>
       <c r="E1161" s="10" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="F1161" s="11">
-        <v>30376</v>
+        <v>30798</v>
       </c>
       <c r="G1161" s="10" t="s">
         <v>3796</v>
@@ -51144,62 +51155,60 @@
         <v>5</v>
       </c>
       <c r="I1161" s="10" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="J1161" s="10"/>
       <c r="K1161" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1162" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1162" s="10"/>
       <c r="B1162" s="10"/>
       <c r="C1162" s="10"/>
       <c r="D1162" s="10"/>
       <c r="E1162" s="10" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="F1162" s="11">
-        <v>30637</v>
+        <v>30376</v>
       </c>
       <c r="G1162" s="10" t="s">
-        <v>4419</v>
+        <v>3796</v>
       </c>
       <c r="H1162" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1162" s="10" t="s">
-        <v>4084</v>
-      </c>
-      <c r="J1162" s="10">
-        <v>9864622727</v>
-      </c>
+        <v>4083</v>
+      </c>
+      <c r="J1162" s="10"/>
       <c r="K1162" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1163" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1163" s="10"/>
       <c r="B1163" s="10"/>
       <c r="C1163" s="10"/>
       <c r="D1163" s="10"/>
       <c r="E1163" s="10" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="F1163" s="11">
-        <v>30852</v>
+        <v>30637</v>
       </c>
       <c r="G1163" s="10" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="H1163" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1163" s="10" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="J1163" s="10">
-        <v>7896353934</v>
+        <v>9864622727</v>
       </c>
       <c r="K1163" s="10" t="s">
         <v>4366</v>
@@ -51211,21 +51220,23 @@
       <c r="C1164" s="10"/>
       <c r="D1164" s="10"/>
       <c r="E1164" s="10" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="F1164" s="11">
-        <v>30051</v>
+        <v>30852</v>
       </c>
       <c r="G1164" s="10" t="s">
-        <v>3796</v>
+        <v>4420</v>
       </c>
       <c r="H1164" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1164" s="10" t="s">
-        <v>4086</v>
-      </c>
-      <c r="J1164" s="10"/>
+        <v>4085</v>
+      </c>
+      <c r="J1164" s="10">
+        <v>7896353934</v>
+      </c>
       <c r="K1164" s="10" t="s">
         <v>4366</v>
       </c>
@@ -51236,10 +51247,10 @@
       <c r="C1165" s="10"/>
       <c r="D1165" s="10"/>
       <c r="E1165" s="10" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="F1165" s="11">
-        <v>30907</v>
+        <v>30051</v>
       </c>
       <c r="G1165" s="10" t="s">
         <v>3796</v>
@@ -51248,7 +51259,7 @@
         <v>5</v>
       </c>
       <c r="I1165" s="10" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="J1165" s="10"/>
       <c r="K1165" s="10" t="s">
@@ -51261,10 +51272,10 @@
       <c r="C1166" s="10"/>
       <c r="D1166" s="10"/>
       <c r="E1166" s="10" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="F1166" s="11">
-        <v>30498</v>
+        <v>30907</v>
       </c>
       <c r="G1166" s="10" t="s">
         <v>3796</v>
@@ -51273,25 +51284,23 @@
         <v>5</v>
       </c>
       <c r="I1166" s="10" t="s">
-        <v>4088</v>
-      </c>
-      <c r="J1166" s="10">
-        <v>9864097628</v>
-      </c>
+        <v>4087</v>
+      </c>
+      <c r="J1166" s="10"/>
       <c r="K1166" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1167" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1167" s="10"/>
       <c r="B1167" s="10"/>
       <c r="C1167" s="10"/>
       <c r="D1167" s="10"/>
       <c r="E1167" s="10" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="F1167" s="11">
-        <v>29255</v>
+        <v>30498</v>
       </c>
       <c r="G1167" s="10" t="s">
         <v>3796</v>
@@ -51300,9 +51309,11 @@
         <v>5</v>
       </c>
       <c r="I1167" s="10" t="s">
-        <v>4089</v>
-      </c>
-      <c r="J1167" s="10"/>
+        <v>4088</v>
+      </c>
+      <c r="J1167" s="10">
+        <v>9864097628</v>
+      </c>
       <c r="K1167" s="10" t="s">
         <v>4366</v>
       </c>
@@ -51313,10 +51324,10 @@
       <c r="C1168" s="10"/>
       <c r="D1168" s="10"/>
       <c r="E1168" s="10" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="F1168" s="11">
-        <v>30593</v>
+        <v>29255</v>
       </c>
       <c r="G1168" s="10" t="s">
         <v>3796</v>
@@ -51325,62 +51336,60 @@
         <v>5</v>
       </c>
       <c r="I1168" s="10" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="J1168" s="10"/>
       <c r="K1168" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1169" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1169" s="10"/>
       <c r="B1169" s="10"/>
       <c r="C1169" s="10"/>
       <c r="D1169" s="10"/>
       <c r="E1169" s="10" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="F1169" s="11">
-        <v>30830</v>
+        <v>30593</v>
       </c>
       <c r="G1169" s="10" t="s">
-        <v>4421</v>
+        <v>3796</v>
       </c>
       <c r="H1169" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1169" s="10" t="s">
-        <v>4091</v>
-      </c>
-      <c r="J1169" s="10">
-        <v>8812850485</v>
-      </c>
+        <v>4090</v>
+      </c>
+      <c r="J1169" s="10"/>
       <c r="K1169" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1170" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1170" s="10"/>
       <c r="B1170" s="10"/>
       <c r="C1170" s="10"/>
       <c r="D1170" s="10"/>
       <c r="E1170" s="10" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="F1170" s="11">
-        <v>30920</v>
+        <v>30830</v>
       </c>
       <c r="G1170" s="10" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="H1170" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1170" s="10" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="J1170" s="10">
-        <v>9101551901</v>
+        <v>8812850485</v>
       </c>
       <c r="K1170" s="10" t="s">
         <v>4366</v>
@@ -51392,21 +51401,23 @@
       <c r="C1171" s="10"/>
       <c r="D1171" s="10"/>
       <c r="E1171" s="10" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="F1171" s="11">
-        <v>30512</v>
+        <v>30920</v>
       </c>
       <c r="G1171" s="10" t="s">
-        <v>3796</v>
+        <v>4422</v>
       </c>
       <c r="H1171" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1171" s="10" t="s">
-        <v>4093</v>
-      </c>
-      <c r="J1171" s="10"/>
+        <v>4092</v>
+      </c>
+      <c r="J1171" s="10">
+        <v>9101551901</v>
+      </c>
       <c r="K1171" s="10" t="s">
         <v>4366</v>
       </c>
@@ -51417,10 +51428,10 @@
       <c r="C1172" s="10"/>
       <c r="D1172" s="10"/>
       <c r="E1172" s="10" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="F1172" s="11">
-        <v>29494</v>
+        <v>30512</v>
       </c>
       <c r="G1172" s="10" t="s">
         <v>3796</v>
@@ -51429,23 +51440,23 @@
         <v>5</v>
       </c>
       <c r="I1172" s="10" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="J1172" s="10"/>
       <c r="K1172" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1173" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1173" s="10"/>
       <c r="B1173" s="10"/>
       <c r="C1173" s="10"/>
       <c r="D1173" s="10"/>
       <c r="E1173" s="10" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="F1173" s="11">
-        <v>29753</v>
+        <v>29494</v>
       </c>
       <c r="G1173" s="10" t="s">
         <v>3796</v>
@@ -51454,36 +51465,34 @@
         <v>5</v>
       </c>
       <c r="I1173" s="10" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="J1173" s="10"/>
       <c r="K1173" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1174" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1174" s="10"/>
       <c r="B1174" s="10"/>
       <c r="C1174" s="10"/>
       <c r="D1174" s="10"/>
       <c r="E1174" s="10" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="F1174" s="11">
-        <v>30011</v>
+        <v>29753</v>
       </c>
       <c r="G1174" s="10" t="s">
-        <v>4423</v>
+        <v>3796</v>
       </c>
       <c r="H1174" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1174" s="10" t="s">
-        <v>4096</v>
-      </c>
-      <c r="J1174" s="10">
-        <v>7002640314</v>
-      </c>
+        <v>4095</v>
+      </c>
+      <c r="J1174" s="10"/>
       <c r="K1174" s="10" t="s">
         <v>4366</v>
       </c>
@@ -51494,49 +51503,49 @@
       <c r="C1175" s="10"/>
       <c r="D1175" s="10"/>
       <c r="E1175" s="10" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="F1175" s="11">
-        <v>30725</v>
+        <v>30011</v>
       </c>
       <c r="G1175" s="10" t="s">
-        <v>3796</v>
+        <v>4423</v>
       </c>
       <c r="H1175" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1175" s="10" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="J1175" s="10">
-        <v>9435388858</v>
+        <v>7002640314</v>
       </c>
       <c r="K1175" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1176" s="10"/>
       <c r="B1176" s="10"/>
       <c r="C1176" s="10"/>
       <c r="D1176" s="10"/>
       <c r="E1176" s="10" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="F1176" s="11">
-        <v>30742</v>
+        <v>30725</v>
       </c>
       <c r="G1176" s="10" t="s">
-        <v>4424</v>
+        <v>3796</v>
       </c>
       <c r="H1176" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1176" s="10" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
       <c r="J1176" s="10">
-        <v>9864585559</v>
+        <v>9435388858</v>
       </c>
       <c r="K1176" s="10" t="s">
         <v>4366</v>
@@ -51548,22 +51557,22 @@
       <c r="C1177" s="10"/>
       <c r="D1177" s="10"/>
       <c r="E1177" s="10" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="F1177" s="11">
-        <v>30681</v>
+        <v>30742</v>
       </c>
       <c r="G1177" s="10" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="H1177" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1177" s="10" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="J1177" s="10">
-        <v>8638109474</v>
+        <v>9864585559</v>
       </c>
       <c r="K1177" s="10" t="s">
         <v>4366</v>
@@ -51575,35 +51584,37 @@
       <c r="C1178" s="10"/>
       <c r="D1178" s="10"/>
       <c r="E1178" s="10" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="F1178" s="11">
-        <v>31388</v>
+        <v>30681</v>
       </c>
       <c r="G1178" s="10" t="s">
-        <v>3796</v>
+        <v>4425</v>
       </c>
       <c r="H1178" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1178" s="10" t="s">
-        <v>4100</v>
-      </c>
-      <c r="J1178" s="10"/>
+        <v>4099</v>
+      </c>
+      <c r="J1178" s="10">
+        <v>8638109474</v>
+      </c>
       <c r="K1178" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1179" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1179" s="10"/>
       <c r="B1179" s="10"/>
       <c r="C1179" s="10"/>
       <c r="D1179" s="10"/>
       <c r="E1179" s="10" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="F1179" s="11">
-        <v>30783</v>
+        <v>31388</v>
       </c>
       <c r="G1179" s="10" t="s">
         <v>3796</v>
@@ -51612,25 +51623,23 @@
         <v>5</v>
       </c>
       <c r="I1179" s="10" t="s">
-        <v>4101</v>
-      </c>
-      <c r="J1179" s="10">
-        <v>9864655626</v>
-      </c>
+        <v>4100</v>
+      </c>
+      <c r="J1179" s="10"/>
       <c r="K1179" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1180" s="10"/>
       <c r="B1180" s="10"/>
       <c r="C1180" s="10"/>
       <c r="D1180" s="10"/>
       <c r="E1180" s="10" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="F1180" s="11">
-        <v>29699</v>
+        <v>30783</v>
       </c>
       <c r="G1180" s="10" t="s">
         <v>3796</v>
@@ -51639,10 +51648,10 @@
         <v>5</v>
       </c>
       <c r="I1180" s="10" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="J1180" s="10">
-        <v>8638461068</v>
+        <v>9864655626</v>
       </c>
       <c r="K1180" s="10" t="s">
         <v>4366</v>
@@ -51654,10 +51663,10 @@
       <c r="C1181" s="10"/>
       <c r="D1181" s="10"/>
       <c r="E1181" s="10" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="F1181" s="11">
-        <v>30965</v>
+        <v>29699</v>
       </c>
       <c r="G1181" s="10" t="s">
         <v>3796</v>
@@ -51666,23 +51675,25 @@
         <v>5</v>
       </c>
       <c r="I1181" s="10" t="s">
-        <v>4103</v>
-      </c>
-      <c r="J1181" s="10"/>
+        <v>4102</v>
+      </c>
+      <c r="J1181" s="10">
+        <v>8638461068</v>
+      </c>
       <c r="K1181" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1182" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1182" s="10"/>
       <c r="B1182" s="10"/>
       <c r="C1182" s="10"/>
       <c r="D1182" s="10"/>
       <c r="E1182" s="10" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="F1182" s="11">
-        <v>31409</v>
+        <v>30965</v>
       </c>
       <c r="G1182" s="10" t="s">
         <v>3796</v>
@@ -51691,23 +51702,23 @@
         <v>5</v>
       </c>
       <c r="I1182" s="10" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="J1182" s="10"/>
       <c r="K1182" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1183" s="10"/>
       <c r="B1183" s="10"/>
       <c r="C1183" s="10"/>
       <c r="D1183" s="10"/>
       <c r="E1183" s="10" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="F1183" s="11">
-        <v>30208</v>
+        <v>31409</v>
       </c>
       <c r="G1183" s="10" t="s">
         <v>3796</v>
@@ -51716,7 +51727,7 @@
         <v>5</v>
       </c>
       <c r="I1183" s="10" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="J1183" s="10"/>
       <c r="K1183" s="10" t="s">
@@ -51729,10 +51740,10 @@
       <c r="C1184" s="10"/>
       <c r="D1184" s="10"/>
       <c r="E1184" s="10" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="F1184" s="11">
-        <v>29785</v>
+        <v>30208</v>
       </c>
       <c r="G1184" s="10" t="s">
         <v>3796</v>
@@ -51741,23 +51752,23 @@
         <v>5</v>
       </c>
       <c r="I1184" s="10" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="J1184" s="10"/>
       <c r="K1184" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1185" s="10"/>
       <c r="B1185" s="10"/>
       <c r="C1185" s="10"/>
       <c r="D1185" s="10"/>
       <c r="E1185" s="10" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="F1185" s="11">
-        <v>31243</v>
+        <v>29785</v>
       </c>
       <c r="G1185" s="10" t="s">
         <v>3796</v>
@@ -51766,61 +51777,61 @@
         <v>5</v>
       </c>
       <c r="I1185" s="10" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="J1185" s="10"/>
       <c r="K1185" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1186" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1186" s="10"/>
       <c r="B1186" s="10"/>
       <c r="C1186" s="10"/>
       <c r="D1186" s="10"/>
       <c r="E1186" s="10" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="F1186" s="11">
-        <v>30317</v>
+        <v>31243</v>
       </c>
       <c r="G1186" s="10" t="s">
-        <v>4378</v>
+        <v>3796</v>
       </c>
       <c r="H1186" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1186" s="10" t="s">
-        <v>4108</v>
-      </c>
-      <c r="J1186" s="10">
-        <v>9957008529</v>
-      </c>
+        <v>4107</v>
+      </c>
+      <c r="J1186" s="10"/>
       <c r="K1186" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1187" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1187" s="10"/>
       <c r="B1187" s="10"/>
       <c r="C1187" s="10"/>
       <c r="D1187" s="10"/>
       <c r="E1187" s="10" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="F1187" s="11">
-        <v>31424</v>
+        <v>30317</v>
       </c>
       <c r="G1187" s="10" t="s">
-        <v>3796</v>
+        <v>4378</v>
       </c>
       <c r="H1187" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1187" s="10" t="s">
-        <v>4109</v>
-      </c>
-      <c r="J1187" s="10"/>
+        <v>4108</v>
+      </c>
+      <c r="J1187" s="10">
+        <v>9957008529</v>
+      </c>
       <c r="K1187" s="10" t="s">
         <v>4366</v>
       </c>
@@ -51831,10 +51842,10 @@
       <c r="C1188" s="10"/>
       <c r="D1188" s="10"/>
       <c r="E1188" s="10" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="F1188" s="11">
-        <v>31934</v>
+        <v>31424</v>
       </c>
       <c r="G1188" s="10" t="s">
         <v>3796</v>
@@ -51843,7 +51854,7 @@
         <v>5</v>
       </c>
       <c r="I1188" s="10" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="J1188" s="10"/>
       <c r="K1188" s="10" t="s">
@@ -51856,23 +51867,21 @@
       <c r="C1189" s="10"/>
       <c r="D1189" s="10"/>
       <c r="E1189" s="10" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="F1189" s="11">
-        <v>31442</v>
+        <v>31934</v>
       </c>
       <c r="G1189" s="10" t="s">
-        <v>4422</v>
+        <v>3796</v>
       </c>
       <c r="H1189" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1189" s="10" t="s">
-        <v>4111</v>
-      </c>
-      <c r="J1189" s="10">
-        <v>7002962867</v>
-      </c>
+        <v>4110</v>
+      </c>
+      <c r="J1189" s="10"/>
       <c r="K1189" s="10" t="s">
         <v>4366</v>
       </c>
@@ -51883,22 +51892,22 @@
       <c r="C1190" s="10"/>
       <c r="D1190" s="10"/>
       <c r="E1190" s="10" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="F1190" s="11">
-        <v>31494</v>
+        <v>31442</v>
       </c>
       <c r="G1190" s="10" t="s">
-        <v>4426</v>
+        <v>4422</v>
       </c>
       <c r="H1190" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1190" s="10" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="J1190" s="10">
-        <v>8698556075</v>
+        <v>7002962867</v>
       </c>
       <c r="K1190" s="10" t="s">
         <v>4366</v>
@@ -51910,35 +51919,37 @@
       <c r="C1191" s="10"/>
       <c r="D1191" s="10"/>
       <c r="E1191" s="10" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="F1191" s="11">
-        <v>31005</v>
+        <v>31494</v>
       </c>
       <c r="G1191" s="10" t="s">
-        <v>3796</v>
+        <v>4426</v>
       </c>
       <c r="H1191" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1191" s="10" t="s">
-        <v>4113</v>
-      </c>
-      <c r="J1191" s="10"/>
+        <v>4112</v>
+      </c>
+      <c r="J1191" s="10">
+        <v>8698556075</v>
+      </c>
       <c r="K1191" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1192" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1192" s="10"/>
       <c r="B1192" s="10"/>
       <c r="C1192" s="10"/>
       <c r="D1192" s="10"/>
       <c r="E1192" s="10" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="F1192" s="11">
-        <v>31973</v>
+        <v>31005</v>
       </c>
       <c r="G1192" s="10" t="s">
         <v>3796</v>
@@ -51947,84 +51958,84 @@
         <v>5</v>
       </c>
       <c r="I1192" s="10" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="J1192" s="10"/>
       <c r="K1192" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1193" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1193" s="10"/>
       <c r="B1193" s="10"/>
       <c r="C1193" s="10"/>
       <c r="D1193" s="10"/>
       <c r="E1193" s="10" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="F1193" s="11">
-        <v>31837</v>
+        <v>31973</v>
       </c>
       <c r="G1193" s="10" t="s">
-        <v>4427</v>
+        <v>3796</v>
       </c>
       <c r="H1193" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1193" s="10" t="s">
-        <v>4115</v>
-      </c>
-      <c r="J1193" s="10">
-        <v>9957033566</v>
-      </c>
+        <v>4114</v>
+      </c>
+      <c r="J1193" s="10"/>
       <c r="K1193" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1194" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1194" s="10"/>
       <c r="B1194" s="10"/>
       <c r="C1194" s="10"/>
       <c r="D1194" s="10"/>
       <c r="E1194" s="10" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="F1194" s="11">
-        <v>30045</v>
+        <v>31837</v>
       </c>
       <c r="G1194" s="10" t="s">
-        <v>3796</v>
+        <v>4427</v>
       </c>
       <c r="H1194" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1194" s="10" t="s">
-        <v>4116</v>
-      </c>
-      <c r="J1194" s="10"/>
+        <v>4115</v>
+      </c>
+      <c r="J1194" s="10">
+        <v>9957033566</v>
+      </c>
       <c r="K1194" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1195" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1195" s="10"/>
       <c r="B1195" s="10"/>
       <c r="C1195" s="10"/>
       <c r="D1195" s="10"/>
       <c r="E1195" s="10" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="F1195" s="11">
-        <v>32539</v>
+        <v>30045</v>
       </c>
       <c r="G1195" s="10" t="s">
-        <v>4428</v>
+        <v>3796</v>
       </c>
       <c r="H1195" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1195" s="10" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="J1195" s="10"/>
       <c r="K1195" s="10" t="s">
@@ -52037,48 +52048,46 @@
       <c r="C1196" s="10"/>
       <c r="D1196" s="10"/>
       <c r="E1196" s="10" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="F1196" s="11">
-        <v>32178</v>
+        <v>32539</v>
       </c>
       <c r="G1196" s="10" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="H1196" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1196" s="10" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="J1196" s="10"/>
       <c r="K1196" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1197" s="10"/>
       <c r="B1197" s="10"/>
       <c r="C1197" s="10"/>
       <c r="D1197" s="10"/>
       <c r="E1197" s="10" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="F1197" s="11">
-        <v>32568</v>
+        <v>32178</v>
       </c>
       <c r="G1197" s="10" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="H1197" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1197" s="10" t="s">
-        <v>4119</v>
-      </c>
-      <c r="J1197" s="10">
-        <v>9859779881</v>
-      </c>
+        <v>4118</v>
+      </c>
+      <c r="J1197" s="10"/>
       <c r="K1197" s="10" t="s">
         <v>4366</v>
       </c>
@@ -52089,71 +52098,73 @@
       <c r="C1198" s="10"/>
       <c r="D1198" s="10"/>
       <c r="E1198" s="10" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="F1198" s="11">
-        <v>32504</v>
+        <v>32568</v>
       </c>
       <c r="G1198" s="10" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="H1198" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1198" s="10" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="J1198" s="10">
-        <v>9101373476</v>
+        <v>9859779881</v>
       </c>
       <c r="K1198" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1199" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1199" s="10"/>
       <c r="B1199" s="10"/>
       <c r="C1199" s="10"/>
       <c r="D1199" s="10"/>
       <c r="E1199" s="10" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="F1199" s="11">
-        <v>29646</v>
+        <v>32504</v>
       </c>
       <c r="G1199" s="10" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="H1199" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1199" s="10" t="s">
-        <v>4121</v>
-      </c>
-      <c r="J1199" s="10"/>
+        <v>4120</v>
+      </c>
+      <c r="J1199" s="10">
+        <v>9101373476</v>
+      </c>
       <c r="K1199" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1200" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1200" s="10"/>
       <c r="B1200" s="10"/>
       <c r="C1200" s="10"/>
       <c r="D1200" s="10"/>
       <c r="E1200" s="10" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="F1200" s="11">
-        <v>31331</v>
+        <v>29646</v>
       </c>
       <c r="G1200" s="10" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="H1200" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1200" s="10" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="J1200" s="10"/>
       <c r="K1200" s="10" t="s">
@@ -52166,23 +52177,21 @@
       <c r="C1201" s="10"/>
       <c r="D1201" s="10"/>
       <c r="E1201" s="10" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="F1201" s="11">
-        <v>31833</v>
+        <v>31331</v>
       </c>
       <c r="G1201" s="10" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="H1201" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1201" s="10" t="s">
-        <v>4123</v>
-      </c>
-      <c r="J1201" s="10">
-        <v>9613726783</v>
-      </c>
+        <v>4122</v>
+      </c>
+      <c r="J1201" s="10"/>
       <c r="K1201" s="10" t="s">
         <v>4366</v>
       </c>
@@ -52193,44 +52202,46 @@
       <c r="C1202" s="10"/>
       <c r="D1202" s="10"/>
       <c r="E1202" s="10" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="F1202" s="11">
-        <v>28785</v>
+        <v>31833</v>
       </c>
       <c r="G1202" s="10" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="H1202" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1202" s="10" t="s">
-        <v>4124</v>
-      </c>
-      <c r="J1202" s="10"/>
+        <v>4123</v>
+      </c>
+      <c r="J1202" s="10">
+        <v>9613726783</v>
+      </c>
       <c r="K1202" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1203" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1203" s="10"/>
       <c r="B1203" s="10"/>
       <c r="C1203" s="10"/>
       <c r="D1203" s="10"/>
       <c r="E1203" s="10" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="F1203" s="11">
-        <v>32403</v>
+        <v>28785</v>
       </c>
       <c r="G1203" s="10" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="H1203" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1203" s="10" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="J1203" s="10"/>
       <c r="K1203" s="10" t="s">
@@ -52243,49 +52254,47 @@
       <c r="C1204" s="10"/>
       <c r="D1204" s="10"/>
       <c r="E1204" s="10" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="F1204" s="11">
-        <v>32164</v>
+        <v>32403</v>
       </c>
       <c r="G1204" s="10" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="H1204" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1204" s="10" t="s">
-        <v>4126</v>
-      </c>
-      <c r="J1204" s="10">
-        <v>8876245825</v>
-      </c>
+        <v>4125</v>
+      </c>
+      <c r="J1204" s="10"/>
       <c r="K1204" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1205" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1205" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1205" s="10"/>
       <c r="B1205" s="10"/>
       <c r="C1205" s="10"/>
       <c r="D1205" s="10"/>
       <c r="E1205" s="10" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="F1205" s="11">
-        <v>32870</v>
+        <v>32164</v>
       </c>
       <c r="G1205" s="10" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="H1205" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1205" s="10" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="J1205" s="10">
-        <v>8811989349</v>
+        <v>8876245825</v>
       </c>
       <c r="K1205" s="10" t="s">
         <v>4366</v>
@@ -52297,146 +52306,148 @@
       <c r="C1206" s="10"/>
       <c r="D1206" s="10"/>
       <c r="E1206" s="10" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="F1206" s="11">
-        <v>32774</v>
+        <v>32870</v>
       </c>
       <c r="G1206" s="10" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="H1206" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1206" s="10" t="s">
-        <v>4128</v>
-      </c>
-      <c r="J1206" s="10"/>
+        <v>4127</v>
+      </c>
+      <c r="J1206" s="10">
+        <v>8811989349</v>
+      </c>
       <c r="K1206" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1207" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1207" s="10"/>
       <c r="B1207" s="10"/>
       <c r="C1207" s="10"/>
       <c r="D1207" s="10"/>
       <c r="E1207" s="10" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="F1207" s="11">
-        <v>33266</v>
+        <v>32774</v>
       </c>
       <c r="G1207" s="10" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="H1207" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1207" s="10" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="J1207" s="10"/>
       <c r="K1207" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1208" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1208" s="10"/>
       <c r="B1208" s="10"/>
       <c r="C1208" s="10"/>
       <c r="D1208" s="10"/>
       <c r="E1208" s="10" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="F1208" s="11">
-        <v>33693</v>
+        <v>33266</v>
       </c>
       <c r="G1208" s="10" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="H1208" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1208" s="10" t="s">
-        <v>4130</v>
-      </c>
-      <c r="J1208" s="10">
-        <v>8876349101</v>
-      </c>
+        <v>4129</v>
+      </c>
+      <c r="J1208" s="10"/>
       <c r="K1208" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1209" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1209" s="10"/>
       <c r="B1209" s="10"/>
       <c r="C1209" s="10"/>
       <c r="D1209" s="10"/>
       <c r="E1209" s="10" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="F1209" s="11">
-        <v>32842</v>
+        <v>33693</v>
       </c>
       <c r="G1209" s="10" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="H1209" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1209" s="10" t="s">
-        <v>4131</v>
-      </c>
-      <c r="J1209" s="10"/>
+        <v>4130</v>
+      </c>
+      <c r="J1209" s="10">
+        <v>8876349101</v>
+      </c>
       <c r="K1209" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1210" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1210" s="10"/>
       <c r="B1210" s="10"/>
       <c r="C1210" s="10"/>
       <c r="D1210" s="10"/>
       <c r="E1210" s="10" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="F1210" s="11">
-        <v>32690</v>
+        <v>32842</v>
       </c>
       <c r="G1210" s="10" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="H1210" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1210" s="10" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="J1210" s="10"/>
       <c r="K1210" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1211" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1211" s="10"/>
       <c r="B1211" s="10"/>
       <c r="C1211" s="10"/>
       <c r="D1211" s="10"/>
       <c r="E1211" s="10" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="F1211" s="11">
-        <v>31199</v>
+        <v>32690</v>
       </c>
       <c r="G1211" s="10" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="H1211" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1211" s="10" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="J1211" s="10"/>
       <c r="K1211" s="10" t="s">
@@ -52449,19 +52460,19 @@
       <c r="C1212" s="10"/>
       <c r="D1212" s="10"/>
       <c r="E1212" s="10" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="F1212" s="11">
-        <v>32896</v>
+        <v>31199</v>
       </c>
       <c r="G1212" s="10" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="H1212" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1212" s="10" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="J1212" s="10"/>
       <c r="K1212" s="10" t="s">
@@ -52474,49 +52485,47 @@
       <c r="C1213" s="10"/>
       <c r="D1213" s="10"/>
       <c r="E1213" s="10" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="F1213" s="11">
-        <v>33216</v>
+        <v>32896</v>
       </c>
       <c r="G1213" s="10" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="H1213" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1213" s="10" t="s">
-        <v>4135</v>
-      </c>
-      <c r="J1213" s="10">
-        <v>9706886706</v>
-      </c>
+        <v>4134</v>
+      </c>
+      <c r="J1213" s="10"/>
       <c r="K1213" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1214" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1214" s="10"/>
       <c r="B1214" s="10"/>
       <c r="C1214" s="10"/>
       <c r="D1214" s="10"/>
       <c r="E1214" s="10" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="F1214" s="11">
-        <v>31826</v>
+        <v>33216</v>
       </c>
       <c r="G1214" s="10" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="H1214" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1214" s="10" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="J1214" s="10">
-        <v>7896747434</v>
+        <v>9706886706</v>
       </c>
       <c r="K1214" s="10" t="s">
         <v>4366</v>
@@ -52528,265 +52537,265 @@
       <c r="C1215" s="10"/>
       <c r="D1215" s="10"/>
       <c r="E1215" s="10" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="F1215" s="11">
-        <v>33134</v>
+        <v>31826</v>
       </c>
       <c r="G1215" s="10" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="H1215" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1215" s="10" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="J1215" s="10">
-        <v>8822525240</v>
+        <v>7896747434</v>
       </c>
       <c r="K1215" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1216" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1216" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1216" s="10"/>
       <c r="B1216" s="10"/>
       <c r="C1216" s="10"/>
       <c r="D1216" s="10"/>
       <c r="E1216" s="10" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="F1216" s="11">
-        <v>33078</v>
+        <v>33134</v>
       </c>
       <c r="G1216" s="10" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="H1216" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1216" s="10" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
       <c r="J1216" s="10">
-        <v>8724909098</v>
+        <v>8822525240</v>
       </c>
       <c r="K1216" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1217" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1217" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1217" s="10"/>
       <c r="B1217" s="10"/>
       <c r="C1217" s="10"/>
       <c r="D1217" s="10"/>
       <c r="E1217" s="10" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="F1217" s="11">
-        <v>33451</v>
+        <v>33078</v>
       </c>
       <c r="G1217" s="10" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="H1217" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1217" s="10" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="J1217" s="10">
-        <v>9706760141</v>
+        <v>8724909098</v>
       </c>
       <c r="K1217" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1218" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1218" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1218" s="10"/>
       <c r="B1218" s="10"/>
       <c r="C1218" s="10"/>
       <c r="D1218" s="10"/>
       <c r="E1218" s="10" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="F1218" s="11">
-        <v>33238</v>
+        <v>33451</v>
       </c>
       <c r="G1218" s="10" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="H1218" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1218" s="10" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="J1218" s="10">
-        <v>8011011568</v>
+        <v>9706760141</v>
       </c>
       <c r="K1218" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1219" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1219" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1219" s="10"/>
       <c r="B1219" s="10"/>
       <c r="C1219" s="10"/>
       <c r="D1219" s="10"/>
       <c r="E1219" s="10" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="F1219" s="11">
-        <v>32143</v>
+        <v>33238</v>
       </c>
       <c r="G1219" s="10" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="H1219" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1219" s="10" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="J1219" s="10">
-        <v>9864467291</v>
+        <v>8011011568</v>
       </c>
       <c r="K1219" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1220" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1220" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1220" s="10"/>
       <c r="B1220" s="10"/>
       <c r="C1220" s="10"/>
       <c r="D1220" s="10"/>
       <c r="E1220" s="10" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="F1220" s="11">
-        <v>33680</v>
+        <v>32143</v>
       </c>
       <c r="G1220" s="10" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="H1220" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1220" s="10" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="J1220" s="10">
-        <v>7399793867</v>
+        <v>9864467291</v>
       </c>
       <c r="K1220" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1221" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1221" s="10"/>
       <c r="B1221" s="10"/>
       <c r="C1221" s="10"/>
       <c r="D1221" s="10"/>
       <c r="E1221" s="10" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="F1221" s="11">
-        <v>33159</v>
+        <v>33680</v>
       </c>
       <c r="G1221" s="10" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="H1221" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1221" s="10" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="J1221" s="10">
-        <v>8876077138</v>
+        <v>7399793867</v>
       </c>
       <c r="K1221" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1222" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1222" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1222" s="10"/>
       <c r="B1222" s="10"/>
       <c r="C1222" s="10"/>
       <c r="D1222" s="10"/>
       <c r="E1222" s="10" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="F1222" s="11">
-        <v>33099</v>
+        <v>33159</v>
       </c>
       <c r="G1222" s="10" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="H1222" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1222" s="10" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="J1222" s="10">
-        <v>8133098708</v>
+        <v>8876077138</v>
       </c>
       <c r="K1222" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1223" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1223" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1223" s="10"/>
       <c r="B1223" s="10"/>
       <c r="C1223" s="10"/>
       <c r="D1223" s="10"/>
       <c r="E1223" s="10" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="F1223" s="11">
-        <v>33645</v>
+        <v>33099</v>
       </c>
       <c r="G1223" s="10" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="H1223" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1223" s="10" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="J1223" s="10">
-        <v>8474044880</v>
+        <v>8133098708</v>
       </c>
       <c r="K1223" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1224" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1224" s="10"/>
       <c r="B1224" s="10"/>
       <c r="C1224" s="10"/>
       <c r="D1224" s="10"/>
       <c r="E1224" s="10" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="F1224" s="11">
-        <v>33820</v>
+        <v>33645</v>
       </c>
       <c r="G1224" s="10" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="H1224" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1224" s="10" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="J1224" s="10">
-        <v>8876141556</v>
+        <v>8474044880</v>
       </c>
       <c r="K1224" s="10" t="s">
         <v>4366</v>
@@ -52798,22 +52807,22 @@
       <c r="C1225" s="10"/>
       <c r="D1225" s="10"/>
       <c r="E1225" s="10" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="F1225" s="11">
-        <v>33970</v>
+        <v>33820</v>
       </c>
       <c r="G1225" s="10" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="H1225" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1225" s="10" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="J1225" s="10">
-        <v>8876942380</v>
+        <v>8876141556</v>
       </c>
       <c r="K1225" s="10" t="s">
         <v>4366</v>
@@ -52825,22 +52834,22 @@
       <c r="C1226" s="10"/>
       <c r="D1226" s="10"/>
       <c r="E1226" s="10" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="F1226" s="11">
-        <v>33848</v>
+        <v>33970</v>
       </c>
       <c r="G1226" s="10" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="H1226" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1226" s="10" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="J1226" s="10">
-        <v>9864531247</v>
+        <v>8876942380</v>
       </c>
       <c r="K1226" s="10" t="s">
         <v>4366</v>
@@ -52852,22 +52861,22 @@
       <c r="C1227" s="10"/>
       <c r="D1227" s="10"/>
       <c r="E1227" s="10" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="F1227" s="11">
-        <v>34022</v>
+        <v>33848</v>
       </c>
       <c r="G1227" s="10" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="H1227" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1227" s="10" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="J1227" s="10">
-        <v>8812844376</v>
+        <v>9864531247</v>
       </c>
       <c r="K1227" s="10" t="s">
         <v>4366</v>
@@ -52879,49 +52888,49 @@
       <c r="C1228" s="10"/>
       <c r="D1228" s="10"/>
       <c r="E1228" s="10" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="F1228" s="11">
-        <v>33258</v>
+        <v>34022</v>
       </c>
       <c r="G1228" s="10" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="H1228" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1228" s="10" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="J1228" s="10">
-        <v>9678775510</v>
+        <v>8812844376</v>
       </c>
       <c r="K1228" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1229" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1229" s="10"/>
       <c r="B1229" s="10"/>
       <c r="C1229" s="10"/>
       <c r="D1229" s="10"/>
       <c r="E1229" s="10" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="F1229" s="11">
-        <v>33580</v>
+        <v>33258</v>
       </c>
       <c r="G1229" s="10" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="H1229" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1229" s="10" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="J1229" s="10">
-        <v>8485970847</v>
+        <v>9678775510</v>
       </c>
       <c r="K1229" s="10" t="s">
         <v>4366</v>
@@ -52933,49 +52942,49 @@
       <c r="C1230" s="10"/>
       <c r="D1230" s="10"/>
       <c r="E1230" s="10" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="F1230" s="11">
-        <v>34161</v>
+        <v>33580</v>
       </c>
       <c r="G1230" s="10" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="H1230" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1230" s="10" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="J1230" s="10">
-        <v>7086795912</v>
+        <v>8485970847</v>
       </c>
       <c r="K1230" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1231" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1231" s="10"/>
       <c r="B1231" s="10"/>
       <c r="C1231" s="10"/>
       <c r="D1231" s="10"/>
       <c r="E1231" s="10" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="F1231" s="11">
-        <v>34394</v>
+        <v>34161</v>
       </c>
       <c r="G1231" s="10" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="H1231" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1231" s="10" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="J1231" s="10">
-        <v>8486090175</v>
+        <v>7086795912</v>
       </c>
       <c r="K1231" s="10" t="s">
         <v>4366</v>
@@ -52987,49 +52996,49 @@
       <c r="C1232" s="10"/>
       <c r="D1232" s="10"/>
       <c r="E1232" s="10" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="F1232" s="11">
-        <v>33425</v>
+        <v>34394</v>
       </c>
       <c r="G1232" s="10" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="H1232" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1232" s="10" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="J1232" s="10">
-        <v>9706538946</v>
+        <v>8486090175</v>
       </c>
       <c r="K1232" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1233" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1233" s="10"/>
       <c r="B1233" s="10"/>
       <c r="C1233" s="10"/>
       <c r="D1233" s="10"/>
       <c r="E1233" s="10" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="F1233" s="11">
-        <v>33434</v>
+        <v>33425</v>
       </c>
       <c r="G1233" s="10" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="H1233" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1233" s="10" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="J1233" s="10">
-        <v>9706321875</v>
+        <v>9706538946</v>
       </c>
       <c r="K1233" s="10" t="s">
         <v>4366</v>
@@ -53041,7 +53050,7 @@
       <c r="C1234" s="10"/>
       <c r="D1234" s="10"/>
       <c r="E1234" s="10" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="F1234" s="11">
         <v>33434</v>
@@ -53053,7 +53062,7 @@
         <v>5</v>
       </c>
       <c r="I1234" s="10" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="J1234" s="10">
         <v>9706321875</v>
@@ -53062,28 +53071,28 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="1235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1235" s="10"/>
       <c r="B1235" s="10"/>
       <c r="C1235" s="10"/>
       <c r="D1235" s="10"/>
       <c r="E1235" s="10" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="F1235" s="11">
-        <v>33586</v>
+        <v>33434</v>
       </c>
       <c r="G1235" s="10" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="H1235" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1235" s="10" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="J1235" s="10">
-        <v>9706441462</v>
+        <v>9706321875</v>
       </c>
       <c r="K1235" s="10" t="s">
         <v>4366</v>
@@ -53095,22 +53104,22 @@
       <c r="C1236" s="10"/>
       <c r="D1236" s="10"/>
       <c r="E1236" s="10" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F1236" s="11">
-        <v>34608</v>
+        <v>33586</v>
       </c>
       <c r="G1236" s="10" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="H1236" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1236" s="10" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="J1236" s="10">
-        <v>7086254702</v>
+        <v>9706441462</v>
       </c>
       <c r="K1236" s="10" t="s">
         <v>4366</v>
@@ -53122,51 +53131,78 @@
       <c r="C1237" s="10"/>
       <c r="D1237" s="10"/>
       <c r="E1237" s="10" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="F1237" s="11">
-        <v>34000</v>
+        <v>34608</v>
       </c>
       <c r="G1237" s="10" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="H1237" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1237" s="10" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="J1237" s="10">
-        <v>8876287176</v>
+        <v>7086254702</v>
       </c>
       <c r="K1237" s="10" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="1238" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1238" s="10"/>
       <c r="B1238" s="10"/>
       <c r="C1238" s="10"/>
       <c r="D1238" s="10"/>
       <c r="E1238" s="10" t="s">
+        <v>4363</v>
+      </c>
+      <c r="F1238" s="11">
+        <v>34000</v>
+      </c>
+      <c r="G1238" s="10" t="s">
+        <v>4469</v>
+      </c>
+      <c r="H1238" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1238" s="10" t="s">
+        <v>4159</v>
+      </c>
+      <c r="J1238" s="10">
+        <v>8876287176</v>
+      </c>
+      <c r="K1238" s="10" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1239" s="10"/>
+      <c r="B1239" s="10"/>
+      <c r="C1239" s="10"/>
+      <c r="D1239" s="10"/>
+      <c r="E1239" s="10" t="s">
         <v>4364</v>
       </c>
-      <c r="F1238" s="11">
+      <c r="F1239" s="11">
         <v>33351</v>
       </c>
-      <c r="G1238" s="10" t="s">
+      <c r="G1239" s="10" t="s">
         <v>4470</v>
       </c>
-      <c r="H1238" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1238" s="10" t="s">
+      <c r="H1239" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1239" s="10" t="s">
         <v>4160</v>
       </c>
-      <c r="J1238" s="10">
+      <c r="J1239" s="10">
         <v>6901118148</v>
       </c>
-      <c r="K1238" s="10" t="s">
+      <c r="K1239" s="10" t="s">
         <v>4366</v>
       </c>
     </row>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -14247,8 +14247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" topLeftCell="A1156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1159" sqref="B1159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49536,9 +49536,15 @@
     </row>
     <row r="1098" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1098" s="10"/>
-      <c r="B1098" s="10"/>
-      <c r="C1098" s="10"/>
-      <c r="D1098" s="10"/>
+      <c r="B1098" s="10">
+        <v>1995</v>
+      </c>
+      <c r="C1098" s="10">
+        <v>834</v>
+      </c>
+      <c r="D1098" s="10">
+        <v>397</v>
+      </c>
       <c r="E1098" s="10" t="s">
         <v>4221</v>
       </c>
@@ -49563,9 +49569,15 @@
     </row>
     <row r="1099" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1099" s="10"/>
-      <c r="B1099" s="10"/>
-      <c r="C1099" s="10"/>
-      <c r="D1099" s="10"/>
+      <c r="B1099" s="10">
+        <v>1995</v>
+      </c>
+      <c r="C1099" s="10">
+        <v>4692</v>
+      </c>
+      <c r="D1099" s="10">
+        <v>597</v>
+      </c>
       <c r="E1099" s="10" t="s">
         <v>4222</v>
       </c>
@@ -49588,9 +49600,15 @@
     </row>
     <row r="1100" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1100" s="10"/>
-      <c r="B1100" s="10"/>
-      <c r="C1100" s="10"/>
-      <c r="D1100" s="10"/>
+      <c r="B1100" s="10">
+        <v>1995</v>
+      </c>
+      <c r="C1100" s="10">
+        <v>1174</v>
+      </c>
+      <c r="D1100" s="10">
+        <v>415</v>
+      </c>
       <c r="E1100" s="10" t="s">
         <v>4223</v>
       </c>
@@ -49615,9 +49633,15 @@
     </row>
     <row r="1101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1101" s="10"/>
-      <c r="B1101" s="10"/>
-      <c r="C1101" s="10"/>
-      <c r="D1101" s="10"/>
+      <c r="B1101" s="10">
+        <v>1996</v>
+      </c>
+      <c r="C1101" s="10">
+        <v>508</v>
+      </c>
+      <c r="D1101" s="10">
+        <v>539</v>
+      </c>
       <c r="E1101" s="10" t="s">
         <v>4224</v>
       </c>
@@ -49642,9 +49666,15 @@
     </row>
     <row r="1102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1102" s="10"/>
-      <c r="B1102" s="10"/>
-      <c r="C1102" s="10"/>
-      <c r="D1102" s="10"/>
+      <c r="B1102" s="10">
+        <v>1996</v>
+      </c>
+      <c r="C1102" s="10">
+        <v>738</v>
+      </c>
+      <c r="D1102" s="10">
+        <v>551</v>
+      </c>
       <c r="E1102" s="10" t="s">
         <v>4225</v>
       </c>
@@ -49669,9 +49699,15 @@
     </row>
     <row r="1103" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1103" s="10"/>
-      <c r="B1103" s="10"/>
-      <c r="C1103" s="10"/>
-      <c r="D1103" s="10"/>
+      <c r="B1103" s="10">
+        <v>1996</v>
+      </c>
+      <c r="C1103" s="10">
+        <v>548</v>
+      </c>
+      <c r="D1103" s="10">
+        <v>541</v>
+      </c>
       <c r="E1103" s="10" t="s">
         <v>4226</v>
       </c>
@@ -49696,9 +49732,15 @@
     </row>
     <row r="1104" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1104" s="10"/>
-      <c r="B1104" s="10"/>
-      <c r="C1104" s="10"/>
-      <c r="D1104" s="10"/>
+      <c r="B1104" s="10">
+        <v>1996</v>
+      </c>
+      <c r="C1104" s="10">
+        <v>648</v>
+      </c>
+      <c r="D1104" s="10">
+        <v>546</v>
+      </c>
       <c r="E1104" s="10" t="s">
         <v>4227</v>
       </c>
@@ -49723,9 +49765,15 @@
     </row>
     <row r="1105" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1105" s="10"/>
-      <c r="B1105" s="10"/>
-      <c r="C1105" s="10"/>
-      <c r="D1105" s="10"/>
+      <c r="B1105" s="10">
+        <v>1996</v>
+      </c>
+      <c r="C1105" s="10">
+        <v>1271</v>
+      </c>
+      <c r="D1105" s="10">
+        <v>579</v>
+      </c>
       <c r="E1105" s="10" t="s">
         <v>4228</v>
       </c>
@@ -49750,9 +49798,15 @@
     </row>
     <row r="1106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1106" s="10"/>
-      <c r="B1106" s="10"/>
-      <c r="C1106" s="10"/>
-      <c r="D1106" s="10"/>
+      <c r="B1106" s="10">
+        <v>1996</v>
+      </c>
+      <c r="C1106" s="10">
+        <v>503</v>
+      </c>
+      <c r="D1106" s="10">
+        <v>539</v>
+      </c>
       <c r="E1106" s="10" t="s">
         <v>4229</v>
       </c>
@@ -49777,9 +49831,15 @@
     </row>
     <row r="1107" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1107" s="10"/>
-      <c r="B1107" s="10"/>
-      <c r="C1107" s="10"/>
-      <c r="D1107" s="10"/>
+      <c r="B1107" s="10">
+        <v>1996</v>
+      </c>
+      <c r="C1107" s="10">
+        <v>2248</v>
+      </c>
+      <c r="D1107" s="10">
+        <v>629</v>
+      </c>
       <c r="E1107" s="10" t="s">
         <v>4230</v>
       </c>
@@ -49804,9 +49864,15 @@
     </row>
     <row r="1108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1108" s="10"/>
-      <c r="B1108" s="10"/>
-      <c r="C1108" s="10"/>
-      <c r="D1108" s="10"/>
+      <c r="B1108" s="10">
+        <v>1996</v>
+      </c>
+      <c r="C1108" s="10">
+        <v>864</v>
+      </c>
+      <c r="D1108" s="10">
+        <v>557</v>
+      </c>
       <c r="E1108" s="10" t="s">
         <v>4231</v>
       </c>
@@ -49881,9 +49947,15 @@
     </row>
     <row r="1111" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1111" s="10"/>
-      <c r="B1111" s="10"/>
-      <c r="C1111" s="10"/>
-      <c r="D1111" s="10"/>
+      <c r="B1111" s="10">
+        <v>1998</v>
+      </c>
+      <c r="C1111" s="10">
+        <v>908</v>
+      </c>
+      <c r="D1111" s="10">
+        <v>251</v>
+      </c>
       <c r="E1111" s="10" t="s">
         <v>4234</v>
       </c>
@@ -49935,9 +50007,15 @@
     </row>
     <row r="1113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1113" s="10"/>
-      <c r="B1113" s="10"/>
-      <c r="C1113" s="10"/>
-      <c r="D1113" s="10"/>
+      <c r="B1113" s="10">
+        <v>1998</v>
+      </c>
+      <c r="C1113" s="10">
+        <v>2416</v>
+      </c>
+      <c r="D1113" s="10">
+        <v>352</v>
+      </c>
       <c r="E1113" s="10" t="s">
         <v>4236</v>
       </c>
@@ -49962,9 +50040,15 @@
     </row>
     <row r="1114" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1114" s="10"/>
-      <c r="B1114" s="10"/>
-      <c r="C1114" s="10"/>
-      <c r="D1114" s="10"/>
+      <c r="B1114" s="10">
+        <v>1998</v>
+      </c>
+      <c r="C1114" s="10">
+        <v>1346</v>
+      </c>
+      <c r="D1114" s="10">
+        <v>280</v>
+      </c>
       <c r="E1114" s="10" t="s">
         <v>4237</v>
       </c>
@@ -49989,9 +50073,15 @@
     </row>
     <row r="1115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1115" s="10"/>
-      <c r="B1115" s="10"/>
-      <c r="C1115" s="10"/>
-      <c r="D1115" s="10"/>
+      <c r="B1115" s="10">
+        <v>1998</v>
+      </c>
+      <c r="C1115" s="10">
+        <v>545</v>
+      </c>
+      <c r="D1115" s="10">
+        <v>227</v>
+      </c>
       <c r="E1115" s="10" t="s">
         <v>4238</v>
       </c>
@@ -50016,9 +50106,15 @@
     </row>
     <row r="1116" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1116" s="10"/>
-      <c r="B1116" s="10"/>
-      <c r="C1116" s="10"/>
-      <c r="D1116" s="10"/>
+      <c r="B1116" s="10">
+        <v>1998</v>
+      </c>
+      <c r="C1116" s="10">
+        <v>913</v>
+      </c>
+      <c r="D1116" s="10">
+        <v>251</v>
+      </c>
       <c r="E1116" s="10" t="s">
         <v>4239</v>
       </c>
@@ -50041,9 +50137,15 @@
     </row>
     <row r="1117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1117" s="10"/>
-      <c r="B1117" s="10"/>
-      <c r="C1117" s="10"/>
-      <c r="D1117" s="10"/>
+      <c r="B1117" s="10">
+        <v>1998</v>
+      </c>
+      <c r="C1117" s="10">
+        <v>5994</v>
+      </c>
+      <c r="D1117" s="10">
+        <v>590</v>
+      </c>
       <c r="E1117" s="10" t="s">
         <v>4240</v>
       </c>
@@ -50091,9 +50193,15 @@
     </row>
     <row r="1119" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1119" s="10"/>
-      <c r="B1119" s="10"/>
-      <c r="C1119" s="10"/>
-      <c r="D1119" s="10"/>
+      <c r="B1119" s="10">
+        <v>1998</v>
+      </c>
+      <c r="C1119" s="10">
+        <v>5991</v>
+      </c>
+      <c r="D1119" s="10">
+        <v>590</v>
+      </c>
       <c r="E1119" s="10" t="s">
         <v>4242</v>
       </c>
@@ -50116,9 +50224,15 @@
     </row>
     <row r="1120" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1120" s="10"/>
-      <c r="B1120" s="10"/>
-      <c r="C1120" s="10"/>
-      <c r="D1120" s="10"/>
+      <c r="B1120" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1120" s="10">
+        <v>497</v>
+      </c>
+      <c r="D1120" s="10">
+        <v>195</v>
+      </c>
       <c r="E1120" s="10" t="s">
         <v>4243</v>
       </c>
@@ -50143,9 +50257,15 @@
     </row>
     <row r="1121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1121" s="10"/>
-      <c r="B1121" s="10"/>
-      <c r="C1121" s="10"/>
-      <c r="D1121" s="10"/>
+      <c r="B1121" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1121" s="10">
+        <v>324</v>
+      </c>
+      <c r="D1121" s="10">
+        <v>185</v>
+      </c>
       <c r="E1121" s="10" t="s">
         <v>4244</v>
       </c>
@@ -50168,9 +50288,15 @@
     </row>
     <row r="1122" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1122" s="10"/>
-      <c r="B1122" s="10"/>
-      <c r="C1122" s="10"/>
-      <c r="D1122" s="10"/>
+      <c r="B1122" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1122" s="10">
+        <v>1211</v>
+      </c>
+      <c r="D1122" s="10">
+        <v>237</v>
+      </c>
       <c r="E1122" s="10" t="s">
         <v>4245</v>
       </c>
@@ -50195,9 +50321,15 @@
     </row>
     <row r="1123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1123" s="10"/>
-      <c r="B1123" s="10"/>
-      <c r="C1123" s="10"/>
-      <c r="D1123" s="10"/>
+      <c r="B1123" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1123" s="10">
+        <v>704</v>
+      </c>
+      <c r="D1123" s="10">
+        <v>207</v>
+      </c>
       <c r="E1123" s="10" t="s">
         <v>4246</v>
       </c>
@@ -50222,9 +50354,15 @@
     </row>
     <row r="1124" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1124" s="10"/>
-      <c r="B1124" s="10"/>
-      <c r="C1124" s="10"/>
-      <c r="D1124" s="10"/>
+      <c r="B1124" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1124" s="10">
+        <v>264</v>
+      </c>
+      <c r="D1124" s="10">
+        <v>181</v>
+      </c>
       <c r="E1124" s="10" t="s">
         <v>4247</v>
       </c>
@@ -50247,9 +50385,15 @@
     </row>
     <row r="1125" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1125" s="10"/>
-      <c r="B1125" s="10"/>
-      <c r="C1125" s="10"/>
-      <c r="D1125" s="10"/>
+      <c r="B1125" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1125" s="10">
+        <v>1210</v>
+      </c>
+      <c r="D1125" s="10">
+        <v>237</v>
+      </c>
       <c r="E1125" s="10" t="s">
         <v>4248</v>
       </c>
@@ -50272,9 +50416,15 @@
     </row>
     <row r="1126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1126" s="10"/>
-      <c r="B1126" s="10"/>
-      <c r="C1126" s="10"/>
-      <c r="D1126" s="10"/>
+      <c r="B1126" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1126" s="10">
+        <v>287</v>
+      </c>
+      <c r="D1126" s="10">
+        <v>182</v>
+      </c>
       <c r="E1126" s="10" t="s">
         <v>4249</v>
       </c>
@@ -50299,9 +50449,15 @@
     </row>
     <row r="1127" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1127" s="10"/>
-      <c r="B1127" s="10"/>
-      <c r="C1127" s="10"/>
-      <c r="D1127" s="10"/>
+      <c r="B1127" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1127" s="10">
+        <v>686</v>
+      </c>
+      <c r="D1127" s="10">
+        <v>206</v>
+      </c>
       <c r="E1127" s="10" t="s">
         <v>4250</v>
       </c>
@@ -50326,9 +50482,15 @@
     </row>
     <row r="1128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1128" s="10"/>
-      <c r="B1128" s="10"/>
-      <c r="C1128" s="10"/>
-      <c r="D1128" s="10"/>
+      <c r="B1128" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1128" s="10">
+        <v>831</v>
+      </c>
+      <c r="D1128" s="10">
+        <v>214</v>
+      </c>
       <c r="E1128" s="10" t="s">
         <v>4251</v>
       </c>
@@ -50351,9 +50513,15 @@
     </row>
     <row r="1129" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1129" s="10"/>
-      <c r="B1129" s="10"/>
-      <c r="C1129" s="10"/>
-      <c r="D1129" s="10"/>
+      <c r="B1129" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C1129" s="10">
+        <v>1829</v>
+      </c>
+      <c r="D1129" s="10">
+        <v>406</v>
+      </c>
       <c r="E1129" s="10" t="s">
         <v>4252</v>
       </c>
@@ -50378,9 +50546,15 @@
     </row>
     <row r="1130" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1130" s="10"/>
-      <c r="B1130" s="10"/>
-      <c r="C1130" s="10"/>
-      <c r="D1130" s="10"/>
+      <c r="B1130" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C1130" s="10">
+        <v>667</v>
+      </c>
+      <c r="D1130" s="10">
+        <v>300</v>
+      </c>
       <c r="E1130" s="10" t="s">
         <v>4253</v>
       </c>
@@ -50403,9 +50577,15 @@
     </row>
     <row r="1131" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1131" s="10"/>
-      <c r="B1131" s="10"/>
-      <c r="C1131" s="10"/>
-      <c r="D1131" s="10"/>
+      <c r="B1131" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C1131" s="10">
+        <v>683</v>
+      </c>
+      <c r="D1131" s="10">
+        <v>262</v>
+      </c>
       <c r="E1131" s="10" t="s">
         <v>4254</v>
       </c>
@@ -50428,9 +50608,15 @@
     </row>
     <row r="1132" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1132" s="10"/>
-      <c r="B1132" s="10"/>
-      <c r="C1132" s="10"/>
-      <c r="D1132" s="10"/>
+      <c r="B1132" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C1132" s="10">
+        <v>485</v>
+      </c>
+      <c r="D1132" s="10">
+        <v>246</v>
+      </c>
       <c r="E1132" s="10" t="s">
         <v>4255</v>
       </c>
@@ -50455,9 +50641,15 @@
     </row>
     <row r="1133" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1133" s="10"/>
-      <c r="B1133" s="10"/>
-      <c r="C1133" s="10"/>
-      <c r="D1133" s="10"/>
+      <c r="B1133" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C1133" s="10">
+        <v>2106</v>
+      </c>
+      <c r="D1133" s="10">
+        <v>381</v>
+      </c>
       <c r="E1133" s="10" t="s">
         <v>4256</v>
       </c>
@@ -50482,9 +50674,15 @@
     </row>
     <row r="1134" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1134" s="10"/>
-      <c r="B1134" s="10"/>
-      <c r="C1134" s="10"/>
-      <c r="D1134" s="10"/>
+      <c r="B1134" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C1134" s="10">
+        <v>399</v>
+      </c>
+      <c r="D1134" s="10">
+        <v>239</v>
+      </c>
       <c r="E1134" s="10" t="s">
         <v>4257</v>
       </c>
@@ -50509,9 +50707,15 @@
     </row>
     <row r="1135" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1135" s="10"/>
-      <c r="B1135" s="10"/>
-      <c r="C1135" s="10"/>
-      <c r="D1135" s="10"/>
+      <c r="B1135" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C1135" s="10">
+        <v>544</v>
+      </c>
+      <c r="D1135" s="10">
+        <v>251</v>
+      </c>
       <c r="E1135" s="10" t="s">
         <v>4258</v>
       </c>
@@ -50534,9 +50738,15 @@
     </row>
     <row r="1136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1136" s="10"/>
-      <c r="B1136" s="10"/>
-      <c r="C1136" s="10"/>
-      <c r="D1136" s="10"/>
+      <c r="B1136" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C1136" s="10">
+        <v>1375</v>
+      </c>
+      <c r="D1136" s="10">
+        <v>320</v>
+      </c>
       <c r="E1136" s="10" t="s">
         <v>4259</v>
       </c>
@@ -50559,9 +50769,15 @@
     </row>
     <row r="1137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1137" s="10"/>
-      <c r="B1137" s="10"/>
-      <c r="C1137" s="10"/>
-      <c r="D1137" s="10"/>
+      <c r="B1137" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C1137" s="10">
+        <v>1508</v>
+      </c>
+      <c r="D1137" s="10">
+        <v>331</v>
+      </c>
       <c r="E1137" s="10" t="s">
         <v>4260</v>
       </c>
@@ -50586,9 +50802,15 @@
     </row>
     <row r="1138" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1138" s="10"/>
-      <c r="B1138" s="10"/>
-      <c r="C1138" s="10"/>
-      <c r="D1138" s="10"/>
+      <c r="B1138" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C1138" s="10">
+        <v>569</v>
+      </c>
+      <c r="D1138" s="10">
+        <v>208</v>
+      </c>
       <c r="E1138" s="10" t="s">
         <v>4261</v>
       </c>
@@ -50613,9 +50835,15 @@
     </row>
     <row r="1139" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1139" s="10"/>
-      <c r="B1139" s="10"/>
-      <c r="C1139" s="10"/>
-      <c r="D1139" s="10"/>
+      <c r="B1139" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C1139" s="10">
+        <v>320</v>
+      </c>
+      <c r="D1139" s="10">
+        <v>184</v>
+      </c>
       <c r="E1139" s="10" t="s">
         <v>4262</v>
       </c>
@@ -50640,9 +50868,15 @@
     </row>
     <row r="1140" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1140" s="10"/>
-      <c r="B1140" s="10"/>
-      <c r="C1140" s="10"/>
-      <c r="D1140" s="10"/>
+      <c r="B1140" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C1140" s="10">
+        <v>37</v>
+      </c>
+      <c r="D1140" s="10">
+        <v>155</v>
+      </c>
       <c r="E1140" s="10" t="s">
         <v>4263</v>
       </c>
@@ -50665,9 +50899,15 @@
     </row>
     <row r="1141" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1141" s="10"/>
-      <c r="B1141" s="10"/>
-      <c r="C1141" s="10"/>
-      <c r="D1141" s="10"/>
+      <c r="B1141" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C1141" s="10">
+        <v>203</v>
+      </c>
+      <c r="D1141" s="10">
+        <v>121</v>
+      </c>
       <c r="E1141" s="10" t="s">
         <v>4264</v>
       </c>
@@ -50692,9 +50932,15 @@
     </row>
     <row r="1142" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1142" s="10"/>
-      <c r="B1142" s="10"/>
-      <c r="C1142" s="10"/>
-      <c r="D1142" s="10"/>
+      <c r="B1142" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C1142" s="10">
+        <v>376</v>
+      </c>
+      <c r="D1142" s="10">
+        <v>131</v>
+      </c>
       <c r="E1142" s="10" t="s">
         <v>4265</v>
       </c>
@@ -50717,9 +50963,15 @@
     </row>
     <row r="1143" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1143" s="10"/>
-      <c r="B1143" s="10"/>
-      <c r="C1143" s="10"/>
-      <c r="D1143" s="10"/>
+      <c r="B1143" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C1143" s="10">
+        <v>1123</v>
+      </c>
+      <c r="D1143" s="10">
+        <v>176</v>
+      </c>
       <c r="E1143" s="10" t="s">
         <v>4266</v>
       </c>
@@ -50744,9 +50996,15 @@
     </row>
     <row r="1144" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1144" s="10"/>
-      <c r="B1144" s="10"/>
-      <c r="C1144" s="10"/>
-      <c r="D1144" s="10"/>
+      <c r="B1144" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C1144" s="10">
+        <v>1047</v>
+      </c>
+      <c r="D1144" s="10">
+        <v>172</v>
+      </c>
       <c r="E1144" s="10" t="s">
         <v>4267</v>
       </c>
@@ -50771,9 +51029,15 @@
     </row>
     <row r="1145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1145" s="10"/>
-      <c r="B1145" s="10"/>
-      <c r="C1145" s="10"/>
-      <c r="D1145" s="10"/>
+      <c r="B1145" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C1145" s="10">
+        <v>303</v>
+      </c>
+      <c r="D1145" s="10">
+        <v>127</v>
+      </c>
       <c r="E1145" s="10" t="s">
         <v>4268</v>
       </c>
@@ -50796,9 +51060,15 @@
     </row>
     <row r="1146" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1146" s="10"/>
-      <c r="B1146" s="10"/>
-      <c r="C1146" s="10"/>
-      <c r="D1146" s="10"/>
+      <c r="B1146" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C1146" s="10">
+        <v>356</v>
+      </c>
+      <c r="D1146" s="10">
+        <v>130</v>
+      </c>
       <c r="E1146" s="10" t="s">
         <v>4269</v>
       </c>
@@ -50821,9 +51091,15 @@
     </row>
     <row r="1147" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1147" s="10"/>
-      <c r="B1147" s="10"/>
-      <c r="C1147" s="10"/>
-      <c r="D1147" s="10"/>
+      <c r="B1147" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C1147" s="10">
+        <v>239</v>
+      </c>
+      <c r="D1147" s="10">
+        <v>123</v>
+      </c>
       <c r="E1147" s="10" t="s">
         <v>4270</v>
       </c>
@@ -50848,9 +51124,15 @@
     </row>
     <row r="1148" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1148" s="10"/>
-      <c r="B1148" s="10"/>
-      <c r="C1148" s="10"/>
-      <c r="D1148" s="10"/>
+      <c r="B1148" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C1148" s="10">
+        <v>353</v>
+      </c>
+      <c r="D1148" s="10">
+        <v>130</v>
+      </c>
       <c r="E1148" s="10" t="s">
         <v>4271</v>
       </c>
@@ -50875,9 +51157,15 @@
     </row>
     <row r="1149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1149" s="10"/>
-      <c r="B1149" s="10"/>
-      <c r="C1149" s="10"/>
-      <c r="D1149" s="10"/>
+      <c r="B1149" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C1149" s="10">
+        <v>270</v>
+      </c>
+      <c r="D1149" s="10">
+        <v>142</v>
+      </c>
       <c r="E1149" s="10" t="s">
         <v>4272</v>
       </c>
@@ -50900,9 +51188,15 @@
     </row>
     <row r="1150" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1150" s="10"/>
-      <c r="B1150" s="10"/>
-      <c r="C1150" s="10"/>
-      <c r="D1150" s="10"/>
+      <c r="B1150" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C1150" s="10">
+        <v>1074</v>
+      </c>
+      <c r="D1150" s="10">
+        <v>202</v>
+      </c>
       <c r="E1150" s="10" t="s">
         <v>4273</v>
       </c>
@@ -50927,9 +51221,15 @@
     </row>
     <row r="1151" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A1151" s="10"/>
-      <c r="B1151" s="10"/>
-      <c r="C1151" s="10"/>
-      <c r="D1151" s="10"/>
+      <c r="B1151" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C1151" s="10">
+        <v>289</v>
+      </c>
+      <c r="D1151" s="10">
+        <v>143</v>
+      </c>
       <c r="E1151" s="10" t="s">
         <v>4274</v>
       </c>
@@ -50954,9 +51254,15 @@
     </row>
     <row r="1152" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1152" s="10"/>
-      <c r="B1152" s="10"/>
-      <c r="C1152" s="10"/>
-      <c r="D1152" s="10"/>
+      <c r="B1152" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C1152" s="10">
+        <v>205</v>
+      </c>
+      <c r="D1152" s="10">
+        <v>137</v>
+      </c>
       <c r="E1152" s="10" t="s">
         <v>4275</v>
       </c>
@@ -50981,9 +51287,15 @@
     </row>
     <row r="1153" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1153" s="10"/>
-      <c r="B1153" s="10"/>
-      <c r="C1153" s="10"/>
-      <c r="D1153" s="10"/>
+      <c r="B1153" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C1153" s="10">
+        <v>141</v>
+      </c>
+      <c r="D1153" s="10">
+        <v>101</v>
+      </c>
       <c r="E1153" s="10" t="s">
         <v>4276</v>
       </c>
@@ -51006,9 +51318,15 @@
     </row>
     <row r="1154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1154" s="10"/>
-      <c r="B1154" s="10"/>
-      <c r="C1154" s="10"/>
-      <c r="D1154" s="10"/>
+      <c r="B1154" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C1154" s="10">
+        <v>446</v>
+      </c>
+      <c r="D1154" s="10">
+        <v>345</v>
+      </c>
       <c r="E1154" s="10" t="s">
         <v>4277</v>
       </c>
@@ -51033,9 +51351,15 @@
     </row>
     <row r="1155" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1155" s="10"/>
-      <c r="B1155" s="10"/>
-      <c r="C1155" s="10"/>
-      <c r="D1155" s="10"/>
+      <c r="B1155" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C1155" s="10">
+        <v>3628</v>
+      </c>
+      <c r="D1155" s="10">
+        <v>634</v>
+      </c>
       <c r="E1155" s="10" t="s">
         <v>4278</v>
       </c>
@@ -51060,9 +51384,15 @@
     </row>
     <row r="1156" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1156" s="10"/>
-      <c r="B1156" s="10"/>
-      <c r="C1156" s="10"/>
-      <c r="D1156" s="10"/>
+      <c r="B1156" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C1156" s="10">
+        <v>287</v>
+      </c>
+      <c r="D1156" s="10">
+        <v>304</v>
+      </c>
       <c r="E1156" s="10" t="s">
         <v>4279</v>
       </c>
@@ -51085,9 +51415,15 @@
     </row>
     <row r="1157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1157" s="10"/>
-      <c r="B1157" s="10"/>
-      <c r="C1157" s="10"/>
-      <c r="D1157" s="10"/>
+      <c r="B1157" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C1157" s="10">
+        <v>1937</v>
+      </c>
+      <c r="D1157" s="10">
+        <v>469</v>
+      </c>
       <c r="E1157" s="10" t="s">
         <v>4280</v>
       </c>
@@ -51110,9 +51446,15 @@
     </row>
     <row r="1158" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1158" s="10"/>
-      <c r="B1158" s="10"/>
-      <c r="C1158" s="10"/>
-      <c r="D1158" s="10"/>
+      <c r="B1158" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C1158" s="10">
+        <v>310</v>
+      </c>
+      <c r="D1158" s="10">
+        <v>307</v>
+      </c>
       <c r="E1158" s="10" t="s">
         <v>4281</v>
       </c>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -14247,8 +14247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1159" sqref="B1159"/>
+    <sheetView tabSelected="1" topLeftCell="A1236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1241" sqref="L1241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51477,9 +51477,15 @@
     </row>
     <row r="1159" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1159" s="10"/>
-      <c r="B1159" s="10"/>
-      <c r="C1159" s="10"/>
-      <c r="D1159" s="10"/>
+      <c r="B1159" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C1159" s="10">
+        <v>1938</v>
+      </c>
+      <c r="D1159" s="10">
+        <v>469</v>
+      </c>
       <c r="E1159" s="10" t="s">
         <v>4282</v>
       </c>
@@ -51529,9 +51535,15 @@
     </row>
     <row r="1161" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1161" s="10"/>
-      <c r="B1161" s="10"/>
-      <c r="C1161" s="10"/>
-      <c r="D1161" s="10"/>
+      <c r="B1161" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C1161" s="10">
+        <v>591</v>
+      </c>
+      <c r="D1161" s="10">
+        <v>335</v>
+      </c>
       <c r="E1161" s="10" t="s">
         <v>4284</v>
       </c>
@@ -51554,9 +51566,15 @@
     </row>
     <row r="1162" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1162" s="10"/>
-      <c r="B1162" s="10"/>
-      <c r="C1162" s="10"/>
-      <c r="D1162" s="10"/>
+      <c r="B1162" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C1162" s="10">
+        <v>538</v>
+      </c>
+      <c r="D1162" s="10">
+        <v>329</v>
+      </c>
       <c r="E1162" s="10" t="s">
         <v>4285</v>
       </c>
@@ -51579,9 +51597,15 @@
     </row>
     <row r="1163" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1163" s="10"/>
-      <c r="B1163" s="10"/>
-      <c r="C1163" s="10"/>
-      <c r="D1163" s="10"/>
+      <c r="B1163" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C1163" s="10">
+        <v>322</v>
+      </c>
+      <c r="D1163" s="10">
+        <v>308</v>
+      </c>
       <c r="E1163" s="10" t="s">
         <v>4286</v>
       </c>
@@ -51604,9 +51628,15 @@
     </row>
     <row r="1164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1164" s="10"/>
-      <c r="B1164" s="10"/>
-      <c r="C1164" s="10"/>
-      <c r="D1164" s="10"/>
+      <c r="B1164" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C1164" s="10">
+        <v>1943</v>
+      </c>
+      <c r="D1164" s="10">
+        <v>470</v>
+      </c>
       <c r="E1164" s="10" t="s">
         <v>4287</v>
       </c>
@@ -51629,9 +51659,15 @@
     </row>
     <row r="1165" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1165" s="10"/>
-      <c r="B1165" s="10"/>
-      <c r="C1165" s="10"/>
-      <c r="D1165" s="10"/>
+      <c r="B1165" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1165" s="10">
+        <v>1501</v>
+      </c>
+      <c r="D1165" s="10">
+        <v>1974</v>
+      </c>
       <c r="E1165" s="10" t="s">
         <v>4288</v>
       </c>
@@ -51656,9 +51692,15 @@
     </row>
     <row r="1166" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1166" s="10"/>
-      <c r="B1166" s="10"/>
-      <c r="C1166" s="10"/>
-      <c r="D1166" s="10"/>
+      <c r="B1166" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1166" s="10">
+        <v>847</v>
+      </c>
+      <c r="D1166" s="10">
+        <v>1933</v>
+      </c>
       <c r="E1166" s="10" t="s">
         <v>4289</v>
       </c>
@@ -51683,9 +51725,15 @@
     </row>
     <row r="1167" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1167" s="10"/>
-      <c r="B1167" s="10"/>
-      <c r="C1167" s="10"/>
-      <c r="D1167" s="10"/>
+      <c r="B1167" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1167" s="10">
+        <v>505</v>
+      </c>
+      <c r="D1167" s="10">
+        <v>1912</v>
+      </c>
       <c r="E1167" s="10" t="s">
         <v>4290</v>
       </c>
@@ -51708,9 +51756,15 @@
     </row>
     <row r="1168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1168" s="10"/>
-      <c r="B1168" s="10"/>
-      <c r="C1168" s="10"/>
-      <c r="D1168" s="10"/>
+      <c r="B1168" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1168" s="10">
+        <v>262</v>
+      </c>
+      <c r="D1168" s="10">
+        <v>1897</v>
+      </c>
       <c r="E1168" s="10" t="s">
         <v>4291</v>
       </c>
@@ -51733,9 +51787,15 @@
     </row>
     <row r="1169" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1169" s="10"/>
-      <c r="B1169" s="10"/>
-      <c r="C1169" s="10"/>
-      <c r="D1169" s="10"/>
+      <c r="B1169" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1169" s="10">
+        <v>394</v>
+      </c>
+      <c r="D1169" s="10">
+        <v>1905</v>
+      </c>
       <c r="E1169" s="10" t="s">
         <v>4292</v>
       </c>
@@ -51760,9 +51820,15 @@
     </row>
     <row r="1170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1170" s="10"/>
-      <c r="B1170" s="10"/>
-      <c r="C1170" s="10"/>
-      <c r="D1170" s="10"/>
+      <c r="B1170" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1170" s="10">
+        <v>40</v>
+      </c>
+      <c r="D1170" s="10">
+        <v>1883</v>
+      </c>
       <c r="E1170" s="10" t="s">
         <v>4293</v>
       </c>
@@ -51785,9 +51851,15 @@
     </row>
     <row r="1171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1171" s="10"/>
-      <c r="B1171" s="10"/>
-      <c r="C1171" s="10"/>
-      <c r="D1171" s="10"/>
+      <c r="B1171" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1171" s="10">
+        <v>819</v>
+      </c>
+      <c r="D1171" s="10">
+        <v>1932</v>
+      </c>
       <c r="E1171" s="10" t="s">
         <v>4294</v>
       </c>
@@ -51810,9 +51882,15 @@
     </row>
     <row r="1172" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1172" s="10"/>
-      <c r="B1172" s="10"/>
-      <c r="C1172" s="10"/>
-      <c r="D1172" s="10"/>
+      <c r="B1172" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1172" s="10">
+        <v>704</v>
+      </c>
+      <c r="D1172" s="10">
+        <v>1924</v>
+      </c>
       <c r="E1172" s="10" t="s">
         <v>4295</v>
       </c>
@@ -51837,9 +51915,15 @@
     </row>
     <row r="1173" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1173" s="10"/>
-      <c r="B1173" s="10"/>
-      <c r="C1173" s="10"/>
-      <c r="D1173" s="10"/>
+      <c r="B1173" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1173" s="10">
+        <v>1409</v>
+      </c>
+      <c r="D1173" s="10">
+        <v>1969</v>
+      </c>
       <c r="E1173" s="10" t="s">
         <v>4296</v>
       </c>
@@ -51864,9 +51948,15 @@
     </row>
     <row r="1174" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1174" s="10"/>
-      <c r="B1174" s="10"/>
-      <c r="C1174" s="10"/>
-      <c r="D1174" s="10"/>
+      <c r="B1174" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1174" s="10">
+        <v>977</v>
+      </c>
+      <c r="D1174" s="10">
+        <v>1942</v>
+      </c>
       <c r="E1174" s="10" t="s">
         <v>4297</v>
       </c>
@@ -51889,9 +51979,15 @@
     </row>
     <row r="1175" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1175" s="10"/>
-      <c r="B1175" s="10"/>
-      <c r="C1175" s="10"/>
-      <c r="D1175" s="10"/>
+      <c r="B1175" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1175" s="10">
+        <v>622</v>
+      </c>
+      <c r="D1175" s="10">
+        <v>1919</v>
+      </c>
       <c r="E1175" s="10" t="s">
         <v>4298</v>
       </c>
@@ -51914,9 +52010,15 @@
     </row>
     <row r="1176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1176" s="10"/>
-      <c r="B1176" s="10"/>
-      <c r="C1176" s="10"/>
-      <c r="D1176" s="10"/>
+      <c r="B1176" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1176" s="10">
+        <v>395</v>
+      </c>
+      <c r="D1176" s="10">
+        <v>1905</v>
+      </c>
       <c r="E1176" s="10" t="s">
         <v>4299</v>
       </c>
@@ -51939,9 +52041,15 @@
     </row>
     <row r="1177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1177" s="10"/>
-      <c r="B1177" s="10"/>
-      <c r="C1177" s="10"/>
-      <c r="D1177" s="10"/>
+      <c r="B1177" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C1177" s="10">
+        <v>638</v>
+      </c>
+      <c r="D1177" s="10">
+        <v>1920</v>
+      </c>
       <c r="E1177" s="10" t="s">
         <v>4300</v>
       </c>
@@ -51966,9 +52074,15 @@
     </row>
     <row r="1178" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1178" s="10"/>
-      <c r="B1178" s="10"/>
-      <c r="C1178" s="10"/>
-      <c r="D1178" s="10"/>
+      <c r="B1178" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C1178" s="10">
+        <v>465</v>
+      </c>
+      <c r="D1178" s="10">
+        <v>332</v>
+      </c>
       <c r="E1178" s="10" t="s">
         <v>4301</v>
       </c>
@@ -51993,9 +52107,15 @@
     </row>
     <row r="1179" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1179" s="10"/>
-      <c r="B1179" s="10"/>
-      <c r="C1179" s="10"/>
-      <c r="D1179" s="10"/>
+      <c r="B1179" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C1179" s="10">
+        <v>623</v>
+      </c>
+      <c r="D1179" s="10">
+        <v>341</v>
+      </c>
       <c r="E1179" s="10" t="s">
         <v>4302</v>
       </c>
@@ -52020,9 +52140,15 @@
     </row>
     <row r="1180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1180" s="10"/>
-      <c r="B1180" s="10"/>
-      <c r="C1180" s="10"/>
-      <c r="D1180" s="10"/>
+      <c r="B1180" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C1180" s="10">
+        <v>2352</v>
+      </c>
+      <c r="D1180" s="10">
+        <v>450</v>
+      </c>
       <c r="E1180" s="10" t="s">
         <v>4303</v>
       </c>
@@ -52047,9 +52173,15 @@
     </row>
     <row r="1181" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1181" s="10"/>
-      <c r="B1181" s="10"/>
-      <c r="C1181" s="10"/>
-      <c r="D1181" s="10"/>
+      <c r="B1181" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C1181" s="10">
+        <v>961</v>
+      </c>
+      <c r="D1181" s="10">
+        <v>363</v>
+      </c>
       <c r="E1181" s="10" t="s">
         <v>4304</v>
       </c>
@@ -52072,9 +52204,15 @@
     </row>
     <row r="1182" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1182" s="10"/>
-      <c r="B1182" s="10"/>
-      <c r="C1182" s="10"/>
-      <c r="D1182" s="10"/>
+      <c r="B1182" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C1182" s="10">
+        <v>385</v>
+      </c>
+      <c r="D1182" s="10">
+        <v>327</v>
+      </c>
       <c r="E1182" s="10" t="s">
         <v>4305</v>
       </c>
@@ -52099,9 +52237,15 @@
     </row>
     <row r="1183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1183" s="10"/>
-      <c r="B1183" s="10"/>
-      <c r="C1183" s="10"/>
-      <c r="D1183" s="10"/>
+      <c r="B1183" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C1183" s="10">
+        <v>72</v>
+      </c>
+      <c r="D1183" s="10">
+        <v>307</v>
+      </c>
       <c r="E1183" s="10" t="s">
         <v>4306</v>
       </c>
@@ -52126,9 +52270,15 @@
     </row>
     <row r="1184" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1184" s="10"/>
-      <c r="B1184" s="10"/>
-      <c r="C1184" s="10"/>
-      <c r="D1184" s="10"/>
+      <c r="B1184" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C1184" s="10">
+        <v>811</v>
+      </c>
+      <c r="D1184" s="10">
+        <v>353</v>
+      </c>
       <c r="E1184" s="10" t="s">
         <v>4307</v>
       </c>
@@ -52151,9 +52301,15 @@
     </row>
     <row r="1185" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1185" s="10"/>
-      <c r="B1185" s="10"/>
-      <c r="C1185" s="10"/>
-      <c r="D1185" s="10"/>
+      <c r="B1185" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C1185" s="10">
+        <v>713</v>
+      </c>
+      <c r="D1185" s="10">
+        <v>347</v>
+      </c>
       <c r="E1185" s="10" t="s">
         <v>4308</v>
       </c>
@@ -52176,9 +52332,15 @@
     </row>
     <row r="1186" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1186" s="10"/>
-      <c r="B1186" s="10"/>
-      <c r="C1186" s="10"/>
-      <c r="D1186" s="10"/>
+      <c r="B1186" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C1186" s="10">
+        <v>1933</v>
+      </c>
+      <c r="D1186" s="10">
+        <v>423</v>
+      </c>
       <c r="E1186" s="10" t="s">
         <v>4309</v>
       </c>
@@ -52226,9 +52388,15 @@
     </row>
     <row r="1188" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1188" s="10"/>
-      <c r="B1188" s="10"/>
-      <c r="C1188" s="10"/>
-      <c r="D1188" s="10"/>
+      <c r="B1188" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C1188" s="10">
+        <v>2514</v>
+      </c>
+      <c r="D1188" s="10">
+        <v>396</v>
+      </c>
       <c r="E1188" s="10" t="s">
         <v>4311</v>
       </c>
@@ -52251,9 +52419,15 @@
     </row>
     <row r="1189" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1189" s="10"/>
-      <c r="B1189" s="10"/>
-      <c r="C1189" s="10"/>
-      <c r="D1189" s="10"/>
+      <c r="B1189" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C1189" s="10">
+        <v>538</v>
+      </c>
+      <c r="D1189" s="10">
+        <v>272</v>
+      </c>
       <c r="E1189" s="10" t="s">
         <v>4312</v>
       </c>
@@ -52278,9 +52452,15 @@
     </row>
     <row r="1190" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1190" s="10"/>
-      <c r="B1190" s="10"/>
-      <c r="C1190" s="10"/>
-      <c r="D1190" s="10"/>
+      <c r="B1190" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C1190" s="10">
+        <v>2835</v>
+      </c>
+      <c r="D1190" s="10">
+        <v>416</v>
+      </c>
       <c r="E1190" s="10" t="s">
         <v>4313</v>
       </c>
@@ -52303,9 +52483,15 @@
     </row>
     <row r="1191" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1191" s="10"/>
-      <c r="B1191" s="10"/>
-      <c r="C1191" s="10"/>
-      <c r="D1191" s="10"/>
+      <c r="B1191" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C1191" s="10">
+        <v>1584</v>
+      </c>
+      <c r="D1191" s="10">
+        <v>281</v>
+      </c>
       <c r="E1191" s="10" t="s">
         <v>4314</v>
       </c>
@@ -52328,9 +52514,15 @@
     </row>
     <row r="1192" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1192" s="10"/>
-      <c r="B1192" s="10"/>
-      <c r="C1192" s="10"/>
-      <c r="D1192" s="10"/>
+      <c r="B1192" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C1192" s="10">
+        <v>488</v>
+      </c>
+      <c r="D1192" s="10">
+        <v>212</v>
+      </c>
       <c r="E1192" s="10" t="s">
         <v>4315</v>
       </c>
@@ -52355,9 +52547,15 @@
     </row>
     <row r="1193" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1193" s="10"/>
-      <c r="B1193" s="10"/>
-      <c r="C1193" s="10"/>
-      <c r="D1193" s="10"/>
+      <c r="B1193" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C1193" s="10">
+        <v>372</v>
+      </c>
+      <c r="D1193" s="10">
+        <v>114</v>
+      </c>
       <c r="E1193" s="10" t="s">
         <v>4316</v>
       </c>
@@ -52382,9 +52580,15 @@
     </row>
     <row r="1194" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1194" s="10"/>
-      <c r="B1194" s="10"/>
-      <c r="C1194" s="10"/>
-      <c r="D1194" s="10"/>
+      <c r="B1194" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C1194" s="10">
+        <v>20</v>
+      </c>
+      <c r="D1194" s="10">
+        <v>92</v>
+      </c>
       <c r="E1194" s="10" t="s">
         <v>4317</v>
       </c>
@@ -52407,9 +52611,15 @@
     </row>
     <row r="1195" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1195" s="10"/>
-      <c r="B1195" s="10"/>
-      <c r="C1195" s="10"/>
-      <c r="D1195" s="10"/>
+      <c r="B1195" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C1195" s="10">
+        <v>993</v>
+      </c>
+      <c r="D1195" s="10">
+        <v>153</v>
+      </c>
       <c r="E1195" s="10" t="s">
         <v>4318</v>
       </c>
@@ -52432,9 +52642,15 @@
     </row>
     <row r="1196" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1196" s="10"/>
-      <c r="B1196" s="10"/>
-      <c r="C1196" s="10"/>
-      <c r="D1196" s="10"/>
+      <c r="B1196" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C1196" s="10">
+        <v>735</v>
+      </c>
+      <c r="D1196" s="10">
+        <v>136</v>
+      </c>
       <c r="E1196" s="10" t="s">
         <v>4319</v>
       </c>
@@ -52459,9 +52675,15 @@
     </row>
     <row r="1197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1197" s="10"/>
-      <c r="B1197" s="10"/>
-      <c r="C1197" s="10"/>
-      <c r="D1197" s="10"/>
+      <c r="B1197" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C1197" s="10">
+        <v>313</v>
+      </c>
+      <c r="D1197" s="10">
+        <v>110</v>
+      </c>
       <c r="E1197" s="10" t="s">
         <v>4320</v>
       </c>
@@ -52484,9 +52706,15 @@
     </row>
     <row r="1198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1198" s="10"/>
-      <c r="B1198" s="10"/>
-      <c r="C1198" s="10"/>
-      <c r="D1198" s="10"/>
+      <c r="B1198" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C1198" s="10">
+        <v>339</v>
+      </c>
+      <c r="D1198" s="10">
+        <v>178</v>
+      </c>
       <c r="E1198" s="10" t="s">
         <v>4321</v>
       </c>
@@ -52509,9 +52737,15 @@
     </row>
     <row r="1199" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1199" s="10"/>
-      <c r="B1199" s="10"/>
-      <c r="C1199" s="10"/>
-      <c r="D1199" s="10"/>
+      <c r="B1199" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C1199" s="10">
+        <v>397</v>
+      </c>
+      <c r="D1199" s="10">
+        <v>181</v>
+      </c>
       <c r="E1199" s="10" t="s">
         <v>4322</v>
       </c>
@@ -52534,9 +52768,15 @@
     </row>
     <row r="1200" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1200" s="10"/>
-      <c r="B1200" s="10"/>
-      <c r="C1200" s="10"/>
-      <c r="D1200" s="10"/>
+      <c r="B1200" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C1200" s="10">
+        <v>1069</v>
+      </c>
+      <c r="D1200" s="10">
+        <v>209</v>
+      </c>
       <c r="E1200" s="10" t="s">
         <v>4323</v>
       </c>
@@ -52561,9 +52801,15 @@
     </row>
     <row r="1201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1201" s="10"/>
-      <c r="B1201" s="10"/>
-      <c r="C1201" s="10"/>
-      <c r="D1201" s="10"/>
+      <c r="B1201" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C1201" s="10">
+        <v>691</v>
+      </c>
+      <c r="D1201" s="10">
+        <v>193</v>
+      </c>
       <c r="E1201" s="10" t="s">
         <v>4324</v>
       </c>
@@ -52588,9 +52834,15 @@
     </row>
     <row r="1202" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1202" s="10"/>
-      <c r="B1202" s="10"/>
-      <c r="C1202" s="10"/>
-      <c r="D1202" s="10"/>
+      <c r="B1202" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C1202" s="10">
+        <v>1272</v>
+      </c>
+      <c r="D1202" s="10">
+        <v>217</v>
+      </c>
       <c r="E1202" s="10" t="s">
         <v>4325</v>
       </c>
@@ -52613,9 +52865,15 @@
     </row>
     <row r="1203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1203" s="10"/>
-      <c r="B1203" s="10"/>
-      <c r="C1203" s="10"/>
-      <c r="D1203" s="10"/>
+      <c r="B1203" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C1203" s="10">
+        <v>520</v>
+      </c>
+      <c r="D1203" s="10">
+        <v>186</v>
+      </c>
       <c r="E1203" s="10" t="s">
         <v>4326</v>
       </c>
@@ -52638,9 +52896,15 @@
     </row>
     <row r="1204" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1204" s="10"/>
-      <c r="B1204" s="10"/>
-      <c r="C1204" s="10"/>
-      <c r="D1204" s="10"/>
+      <c r="B1204" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C1204" s="10">
+        <v>513</v>
+      </c>
+      <c r="D1204" s="10">
+        <v>186</v>
+      </c>
       <c r="E1204" s="10" t="s">
         <v>4327</v>
       </c>
@@ -52665,9 +52929,15 @@
     </row>
     <row r="1205" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1205" s="10"/>
-      <c r="B1205" s="10"/>
-      <c r="C1205" s="10"/>
-      <c r="D1205" s="10"/>
+      <c r="B1205" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C1205" s="10">
+        <v>955</v>
+      </c>
+      <c r="D1205" s="10">
+        <v>217</v>
+      </c>
       <c r="E1205" s="10" t="s">
         <v>4328</v>
       </c>
@@ -52690,9 +52960,15 @@
     </row>
     <row r="1206" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1206" s="10"/>
-      <c r="B1206" s="10"/>
-      <c r="C1206" s="10"/>
-      <c r="D1206" s="10"/>
+      <c r="B1206" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C1206" s="10">
+        <v>1180</v>
+      </c>
+      <c r="D1206" s="10">
+        <v>230</v>
+      </c>
       <c r="E1206" s="10" t="s">
         <v>4329</v>
       </c>
@@ -52715,9 +52991,15 @@
     </row>
     <row r="1207" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1207" s="10"/>
-      <c r="B1207" s="10"/>
-      <c r="C1207" s="10"/>
-      <c r="D1207" s="10"/>
+      <c r="B1207" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C1207" s="10">
+        <v>1549</v>
+      </c>
+      <c r="D1207" s="10">
+        <v>250</v>
+      </c>
       <c r="E1207" s="10" t="s">
         <v>4330</v>
       </c>
@@ -52742,9 +53024,15 @@
     </row>
     <row r="1208" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1208" s="10"/>
-      <c r="B1208" s="10"/>
-      <c r="C1208" s="10"/>
-      <c r="D1208" s="10"/>
+      <c r="B1208" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C1208" s="10">
+        <v>1191</v>
+      </c>
+      <c r="D1208" s="10">
+        <v>230</v>
+      </c>
       <c r="E1208" s="10" t="s">
         <v>4331</v>
       </c>
@@ -52769,9 +53057,15 @@
     </row>
     <row r="1209" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1209" s="10"/>
-      <c r="B1209" s="10"/>
-      <c r="C1209" s="10"/>
-      <c r="D1209" s="10"/>
+      <c r="B1209" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C1209" s="10">
+        <v>1634</v>
+      </c>
+      <c r="D1209" s="10">
+        <v>254</v>
+      </c>
       <c r="E1209" s="10" t="s">
         <v>4332</v>
       </c>
@@ -52794,9 +53088,15 @@
     </row>
     <row r="1210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1210" s="10"/>
-      <c r="B1210" s="10"/>
-      <c r="C1210" s="10"/>
-      <c r="D1210" s="10"/>
+      <c r="B1210" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C1210" s="10">
+        <v>1296</v>
+      </c>
+      <c r="D1210" s="10">
+        <v>236</v>
+      </c>
       <c r="E1210" s="10" t="s">
         <v>4333</v>
       </c>
@@ -52819,9 +53119,15 @@
     </row>
     <row r="1211" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1211" s="10"/>
-      <c r="B1211" s="10"/>
-      <c r="C1211" s="10"/>
-      <c r="D1211" s="10"/>
+      <c r="B1211" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C1211" s="10">
+        <v>208</v>
+      </c>
+      <c r="D1211" s="10">
+        <v>154</v>
+      </c>
       <c r="E1211" s="10" t="s">
         <v>4334</v>
       </c>
@@ -52846,9 +53152,15 @@
     </row>
     <row r="1212" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1212" s="10"/>
-      <c r="B1212" s="10"/>
-      <c r="C1212" s="10"/>
-      <c r="D1212" s="10"/>
+      <c r="B1212" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C1212" s="10">
+        <v>231</v>
+      </c>
+      <c r="D1212" s="10">
+        <v>155</v>
+      </c>
       <c r="E1212" s="10" t="s">
         <v>4335</v>
       </c>
@@ -52871,9 +53183,15 @@
     </row>
     <row r="1213" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1213" s="10"/>
-      <c r="B1213" s="10"/>
-      <c r="C1213" s="10"/>
-      <c r="D1213" s="10"/>
+      <c r="B1213" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C1213" s="10">
+        <v>248</v>
+      </c>
+      <c r="D1213" s="10">
+        <v>155</v>
+      </c>
       <c r="E1213" s="10" t="s">
         <v>4336</v>
       </c>
@@ -52896,9 +53214,15 @@
     </row>
     <row r="1214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1214" s="10"/>
-      <c r="B1214" s="10"/>
-      <c r="C1214" s="10"/>
-      <c r="D1214" s="10"/>
+      <c r="B1214" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C1214" s="10">
+        <v>252</v>
+      </c>
+      <c r="D1214" s="10">
+        <v>155</v>
+      </c>
       <c r="E1214" s="10" t="s">
         <v>4337</v>
       </c>
@@ -52922,7 +53246,9 @@
     <row r="1215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1215" s="10"/>
       <c r="B1215" s="10"/>
-      <c r="C1215" s="10"/>
+      <c r="C1215" s="10">
+        <v>261</v>
+      </c>
       <c r="D1215" s="10"/>
       <c r="E1215" s="10" t="s">
         <v>4338</v>
@@ -52946,9 +53272,15 @@
     </row>
     <row r="1216" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1216" s="10"/>
-      <c r="B1216" s="10"/>
-      <c r="C1216" s="10"/>
-      <c r="D1216" s="10"/>
+      <c r="B1216" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C1216" s="10">
+        <v>256</v>
+      </c>
+      <c r="D1216" s="10">
+        <v>155</v>
+      </c>
       <c r="E1216" s="10" t="s">
         <v>4339</v>
       </c>
@@ -52973,9 +53305,15 @@
     </row>
     <row r="1217" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1217" s="10"/>
-      <c r="B1217" s="10"/>
-      <c r="C1217" s="10"/>
-      <c r="D1217" s="10"/>
+      <c r="B1217" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1217" s="10">
+        <v>178</v>
+      </c>
+      <c r="D1217" s="10">
+        <v>276</v>
+      </c>
       <c r="E1217" s="10" t="s">
         <v>4340</v>
       </c>
@@ -53000,9 +53338,15 @@
     </row>
     <row r="1218" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1218" s="10"/>
-      <c r="B1218" s="10"/>
-      <c r="C1218" s="10"/>
-      <c r="D1218" s="10"/>
+      <c r="B1218" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1218" s="10">
+        <v>181</v>
+      </c>
+      <c r="D1218" s="10">
+        <v>276</v>
+      </c>
       <c r="E1218" s="10" t="s">
         <v>4341</v>
       </c>
@@ -53027,9 +53371,15 @@
     </row>
     <row r="1219" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1219" s="10"/>
-      <c r="B1219" s="10"/>
-      <c r="C1219" s="10"/>
-      <c r="D1219" s="10"/>
+      <c r="B1219" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1219" s="10">
+        <v>193</v>
+      </c>
+      <c r="D1219" s="10">
+        <v>276</v>
+      </c>
       <c r="E1219" s="10" t="s">
         <v>4342</v>
       </c>
@@ -53054,9 +53404,15 @@
     </row>
     <row r="1220" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1220" s="10"/>
-      <c r="B1220" s="10"/>
-      <c r="C1220" s="10"/>
-      <c r="D1220" s="10"/>
+      <c r="B1220" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1220" s="10">
+        <v>194</v>
+      </c>
+      <c r="D1220" s="10">
+        <v>276</v>
+      </c>
       <c r="E1220" s="10" t="s">
         <v>4343</v>
       </c>
@@ -53081,9 +53437,15 @@
     </row>
     <row r="1221" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1221" s="10"/>
-      <c r="B1221" s="10"/>
-      <c r="C1221" s="10"/>
-      <c r="D1221" s="10"/>
+      <c r="B1221" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1221" s="10">
+        <v>206</v>
+      </c>
+      <c r="D1221" s="10">
+        <v>277</v>
+      </c>
       <c r="E1221" s="10" t="s">
         <v>4344</v>
       </c>
@@ -53108,9 +53470,15 @@
     </row>
     <row r="1222" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1222" s="10"/>
-      <c r="B1222" s="10"/>
-      <c r="C1222" s="10"/>
-      <c r="D1222" s="10"/>
+      <c r="B1222" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1222" s="10">
+        <v>219</v>
+      </c>
+      <c r="D1222" s="10">
+        <v>277</v>
+      </c>
       <c r="E1222" s="10" t="s">
         <v>4345</v>
       </c>
@@ -53135,9 +53503,15 @@
     </row>
     <row r="1223" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1223" s="10"/>
-      <c r="B1223" s="10"/>
-      <c r="C1223" s="10"/>
-      <c r="D1223" s="10"/>
+      <c r="B1223" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1223" s="10">
+        <v>243</v>
+      </c>
+      <c r="D1223" s="10">
+        <v>278</v>
+      </c>
       <c r="E1223" s="10" t="s">
         <v>4346</v>
       </c>
@@ -53162,9 +53536,15 @@
     </row>
     <row r="1224" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1224" s="10"/>
-      <c r="B1224" s="10"/>
-      <c r="C1224" s="10"/>
-      <c r="D1224" s="10"/>
+      <c r="B1224" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1224" s="10">
+        <v>249</v>
+      </c>
+      <c r="D1224" s="10">
+        <v>278</v>
+      </c>
       <c r="E1224" s="10" t="s">
         <v>4347</v>
       </c>
@@ -53189,9 +53569,15 @@
     </row>
     <row r="1225" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1225" s="10"/>
-      <c r="B1225" s="10"/>
-      <c r="C1225" s="10"/>
-      <c r="D1225" s="10"/>
+      <c r="B1225" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1225" s="10">
+        <v>264</v>
+      </c>
+      <c r="D1225" s="10">
+        <v>279</v>
+      </c>
       <c r="E1225" s="10" t="s">
         <v>4348</v>
       </c>
@@ -53216,9 +53602,15 @@
     </row>
     <row r="1226" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1226" s="10"/>
-      <c r="B1226" s="10"/>
-      <c r="C1226" s="10"/>
-      <c r="D1226" s="10"/>
+      <c r="B1226" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1226" s="10">
+        <v>270</v>
+      </c>
+      <c r="D1226" s="10">
+        <v>279</v>
+      </c>
       <c r="E1226" s="10" t="s">
         <v>4349</v>
       </c>
@@ -53243,9 +53635,15 @@
     </row>
     <row r="1227" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1227" s="10"/>
-      <c r="B1227" s="10"/>
-      <c r="C1227" s="10"/>
-      <c r="D1227" s="10"/>
+      <c r="B1227" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1227" s="10">
+        <v>282</v>
+      </c>
+      <c r="D1227" s="10">
+        <v>280</v>
+      </c>
       <c r="E1227" s="10" t="s">
         <v>4350</v>
       </c>
@@ -53270,9 +53668,15 @@
     </row>
     <row r="1228" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1228" s="10"/>
-      <c r="B1228" s="10"/>
-      <c r="C1228" s="10"/>
-      <c r="D1228" s="10"/>
+      <c r="B1228" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1228" s="10">
+        <v>300</v>
+      </c>
+      <c r="D1228" s="10">
+        <v>280</v>
+      </c>
       <c r="E1228" s="10" t="s">
         <v>4351</v>
       </c>
@@ -53297,9 +53701,15 @@
     </row>
     <row r="1229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1229" s="10"/>
-      <c r="B1229" s="10"/>
-      <c r="C1229" s="10"/>
-      <c r="D1229" s="10"/>
+      <c r="B1229" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1229" s="10">
+        <v>312</v>
+      </c>
+      <c r="D1229" s="10">
+        <v>281</v>
+      </c>
       <c r="E1229" s="10" t="s">
         <v>4352</v>
       </c>
@@ -53324,9 +53734,15 @@
     </row>
     <row r="1230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1230" s="10"/>
-      <c r="B1230" s="10"/>
-      <c r="C1230" s="10"/>
-      <c r="D1230" s="10"/>
+      <c r="B1230" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1230" s="10">
+        <v>313</v>
+      </c>
+      <c r="D1230" s="10">
+        <v>281</v>
+      </c>
       <c r="E1230" s="10" t="s">
         <v>4353</v>
       </c>
@@ -53351,9 +53767,15 @@
     </row>
     <row r="1231" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1231" s="10"/>
-      <c r="B1231" s="10"/>
-      <c r="C1231" s="10"/>
-      <c r="D1231" s="10"/>
+      <c r="B1231" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1231" s="10">
+        <v>314</v>
+      </c>
+      <c r="D1231" s="10">
+        <v>281</v>
+      </c>
       <c r="E1231" s="10" t="s">
         <v>4354</v>
       </c>
@@ -53378,9 +53800,15 @@
     </row>
     <row r="1232" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1232" s="10"/>
-      <c r="B1232" s="10"/>
-      <c r="C1232" s="10"/>
-      <c r="D1232" s="10"/>
+      <c r="B1232" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C1232" s="10">
+        <v>317</v>
+      </c>
+      <c r="D1232" s="10">
+        <v>281</v>
+      </c>
       <c r="E1232" s="10" t="s">
         <v>4355</v>
       </c>
@@ -53405,9 +53833,15 @@
     </row>
     <row r="1233" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1233" s="10"/>
-      <c r="B1233" s="10"/>
-      <c r="C1233" s="10"/>
-      <c r="D1233" s="10"/>
+      <c r="B1233" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C1233" s="10">
+        <v>195</v>
+      </c>
+      <c r="D1233" s="10">
+        <v>211</v>
+      </c>
       <c r="E1233" s="10" t="s">
         <v>4356</v>
       </c>
@@ -53432,9 +53866,15 @@
     </row>
     <row r="1234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1234" s="10"/>
-      <c r="B1234" s="10"/>
-      <c r="C1234" s="10"/>
-      <c r="D1234" s="10"/>
+      <c r="B1234" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C1234" s="10">
+        <v>212</v>
+      </c>
+      <c r="D1234" s="10">
+        <v>212</v>
+      </c>
       <c r="E1234" s="10" t="s">
         <v>4357</v>
       </c>
@@ -53459,9 +53899,15 @@
     </row>
     <row r="1235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1235" s="10"/>
-      <c r="B1235" s="10"/>
-      <c r="C1235" s="10"/>
-      <c r="D1235" s="10"/>
+      <c r="B1235" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C1235" s="10">
+        <v>217</v>
+      </c>
+      <c r="D1235" s="10">
+        <v>212</v>
+      </c>
       <c r="E1235" s="10" t="s">
         <v>4358</v>
       </c>
@@ -53486,9 +53932,15 @@
     </row>
     <row r="1236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1236" s="10"/>
-      <c r="B1236" s="10"/>
-      <c r="C1236" s="10"/>
-      <c r="D1236" s="10"/>
+      <c r="B1236" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C1236" s="10">
+        <v>229</v>
+      </c>
+      <c r="D1236" s="10">
+        <v>213</v>
+      </c>
       <c r="E1236" s="10" t="s">
         <v>4359</v>
       </c>
@@ -53513,9 +53965,15 @@
     </row>
     <row r="1237" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1237" s="10"/>
-      <c r="B1237" s="10"/>
-      <c r="C1237" s="10"/>
-      <c r="D1237" s="10"/>
+      <c r="B1237" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C1237" s="10">
+        <v>230</v>
+      </c>
+      <c r="D1237" s="10">
+        <v>213</v>
+      </c>
       <c r="E1237" s="10" t="s">
         <v>4360</v>
       </c>
@@ -53540,9 +53998,15 @@
     </row>
     <row r="1238" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1238" s="10"/>
-      <c r="B1238" s="10"/>
-      <c r="C1238" s="10"/>
-      <c r="D1238" s="10"/>
+      <c r="B1238" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C1238" s="10">
+        <v>242</v>
+      </c>
+      <c r="D1238" s="10">
+        <v>214</v>
+      </c>
       <c r="E1238" s="10" t="s">
         <v>4361</v>
       </c>
@@ -53567,9 +54031,15 @@
     </row>
     <row r="1239" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1239" s="10"/>
-      <c r="B1239" s="10"/>
-      <c r="C1239" s="10"/>
-      <c r="D1239" s="10"/>
+      <c r="B1239" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C1239" s="10">
+        <v>199</v>
+      </c>
+      <c r="D1239" s="10">
+        <v>142</v>
+      </c>
       <c r="E1239" s="10" t="s">
         <v>4362</v>
       </c>
@@ -53594,9 +54064,15 @@
     </row>
     <row r="1240" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1240" s="10"/>
-      <c r="B1240" s="10"/>
-      <c r="C1240" s="10"/>
-      <c r="D1240" s="10"/>
+      <c r="B1240" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C1240" s="10">
+        <v>216</v>
+      </c>
+      <c r="D1240" s="10">
+        <v>143</v>
+      </c>
       <c r="E1240" s="10" t="s">
         <v>4363</v>
       </c>
@@ -53621,9 +54097,15 @@
     </row>
     <row r="1241" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1241" s="10"/>
-      <c r="B1241" s="10"/>
-      <c r="C1241" s="10"/>
-      <c r="D1241" s="10"/>
+      <c r="B1241" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C1241" s="10">
+        <v>245</v>
+      </c>
+      <c r="D1241" s="10">
+        <v>144</v>
+      </c>
       <c r="E1241" s="10" t="s">
         <v>4364</v>
       </c>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -14247,8 +14247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1236" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1241" sqref="L1241"/>
+    <sheetView tabSelected="1" topLeftCell="A1101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1095" sqref="C1095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46182,9 +46182,15 @@
     </row>
     <row r="972" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A972" s="7"/>
-      <c r="B972" s="7"/>
-      <c r="C972" s="7"/>
-      <c r="D972" s="7"/>
+      <c r="B972" s="7">
+        <v>1994</v>
+      </c>
+      <c r="C972" s="7">
+        <v>312</v>
+      </c>
+      <c r="D972" s="7">
+        <v>274</v>
+      </c>
       <c r="E972" s="7" t="s">
         <v>3791</v>
       </c>
@@ -46955,9 +46961,15 @@
     </row>
     <row r="1001" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1001" s="7"/>
-      <c r="B1001" s="7"/>
-      <c r="C1001" s="7"/>
-      <c r="D1001" s="7"/>
+      <c r="B1001" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C1001" s="7">
+        <v>233</v>
+      </c>
+      <c r="D1001" s="7">
+        <v>179</v>
+      </c>
       <c r="E1001" s="7" t="s">
         <v>3837</v>
       </c>
@@ -46982,9 +46994,15 @@
     </row>
     <row r="1002" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1002" s="7"/>
-      <c r="B1002" s="7"/>
-      <c r="C1002" s="7"/>
-      <c r="D1002" s="7"/>
+      <c r="B1002" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C1002" s="7">
+        <v>1020</v>
+      </c>
+      <c r="D1002" s="7">
+        <v>225</v>
+      </c>
       <c r="E1002" s="7" t="s">
         <v>3838</v>
       </c>
@@ -47009,9 +47027,15 @@
     </row>
     <row r="1003" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1003" s="7"/>
-      <c r="B1003" s="7"/>
-      <c r="C1003" s="7"/>
-      <c r="D1003" s="7"/>
+      <c r="B1003" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C1003" s="7">
+        <v>453</v>
+      </c>
+      <c r="D1003" s="7">
+        <v>192</v>
+      </c>
       <c r="E1003" s="7" t="s">
         <v>3839</v>
       </c>
@@ -47036,9 +47060,15 @@
     </row>
     <row r="1004" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1004" s="7"/>
-      <c r="B1004" s="7"/>
-      <c r="C1004" s="7"/>
-      <c r="D1004" s="7"/>
+      <c r="B1004" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C1004" s="7">
+        <v>340</v>
+      </c>
+      <c r="D1004" s="7">
+        <v>185</v>
+      </c>
       <c r="E1004" s="7" t="s">
         <v>3841</v>
       </c>
@@ -47063,9 +47093,15 @@
     </row>
     <row r="1005" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1005" s="7"/>
-      <c r="B1005" s="7"/>
-      <c r="C1005" s="7"/>
-      <c r="D1005" s="7"/>
+      <c r="B1005" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C1005" s="7">
+        <v>263</v>
+      </c>
+      <c r="D1005" s="7">
+        <v>181</v>
+      </c>
       <c r="E1005" s="7" t="s">
         <v>3842</v>
       </c>
@@ -47090,9 +47126,15 @@
     </row>
     <row r="1006" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1006" s="7"/>
-      <c r="B1006" s="7"/>
-      <c r="C1006" s="7"/>
-      <c r="D1006" s="7"/>
+      <c r="B1006" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C1006" s="7">
+        <v>237</v>
+      </c>
+      <c r="D1006" s="7">
+        <v>179</v>
+      </c>
       <c r="E1006" s="7" t="s">
         <v>3843</v>
       </c>
@@ -47117,9 +47159,15 @@
     </row>
     <row r="1007" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1007" s="7"/>
-      <c r="B1007" s="7"/>
-      <c r="C1007" s="7"/>
-      <c r="D1007" s="7"/>
+      <c r="B1007" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C1007" s="7">
+        <v>1774</v>
+      </c>
+      <c r="D1007" s="7">
+        <v>270</v>
+      </c>
       <c r="E1007" s="7" t="s">
         <v>3844</v>
       </c>
@@ -47144,9 +47192,15 @@
     </row>
     <row r="1008" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1008" s="7"/>
-      <c r="B1008" s="7"/>
-      <c r="C1008" s="7"/>
-      <c r="D1008" s="7"/>
+      <c r="B1008" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C1008" s="7">
+        <v>1775</v>
+      </c>
+      <c r="D1008" s="7">
+        <v>270</v>
+      </c>
       <c r="E1008" s="7" t="s">
         <v>3846</v>
       </c>
@@ -47198,9 +47252,15 @@
     </row>
     <row r="1010" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1010" s="7"/>
-      <c r="B1010" s="7"/>
-      <c r="C1010" s="7"/>
-      <c r="D1010" s="7"/>
+      <c r="B1010" s="7">
+        <v>1999</v>
+      </c>
+      <c r="C1010" s="7">
+        <v>1209</v>
+      </c>
+      <c r="D1010" s="7">
+        <v>237</v>
+      </c>
       <c r="E1010" s="7" t="s">
         <v>3848</v>
       </c>
@@ -47225,9 +47285,15 @@
     </row>
     <row r="1011" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1011" s="7"/>
-      <c r="B1011" s="7"/>
-      <c r="C1011" s="7"/>
-      <c r="D1011" s="7"/>
+      <c r="B1011" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C1011" s="7">
+        <v>740</v>
+      </c>
+      <c r="D1011" s="7">
+        <v>307</v>
+      </c>
       <c r="E1011" s="7" t="s">
         <v>3850</v>
       </c>
@@ -47331,9 +47397,15 @@
     </row>
     <row r="1015" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1015" s="7"/>
-      <c r="B1015" s="7"/>
-      <c r="C1015" s="7"/>
-      <c r="D1015" s="7"/>
+      <c r="B1015" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C1015" s="7">
+        <v>1433</v>
+      </c>
+      <c r="D1015" s="7">
+        <v>370</v>
+      </c>
       <c r="E1015" s="7" t="s">
         <v>3855</v>
       </c>
@@ -47358,9 +47430,15 @@
     </row>
     <row r="1016" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1016" s="7"/>
-      <c r="B1016" s="7"/>
-      <c r="C1016" s="7"/>
-      <c r="D1016" s="7"/>
+      <c r="B1016" s="7">
+        <v>2001</v>
+      </c>
+      <c r="C1016" s="7">
+        <v>499</v>
+      </c>
+      <c r="D1016" s="7">
+        <v>247</v>
+      </c>
       <c r="E1016" s="7" t="s">
         <v>3856</v>
       </c>
@@ -47487,9 +47565,15 @@
     </row>
     <row r="1021" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1021" s="7"/>
-      <c r="B1021" s="7"/>
-      <c r="C1021" s="7"/>
-      <c r="D1021" s="7"/>
+      <c r="B1021" s="7">
+        <v>2004</v>
+      </c>
+      <c r="C1021" s="7">
+        <v>271</v>
+      </c>
+      <c r="D1021" s="7">
+        <v>142</v>
+      </c>
       <c r="E1021" s="7" t="s">
         <v>3863</v>
       </c>
@@ -47539,9 +47623,15 @@
     </row>
     <row r="1023" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1023" s="7"/>
-      <c r="B1023" s="7"/>
-      <c r="C1023" s="7"/>
-      <c r="D1023" s="7"/>
+      <c r="B1023" s="7">
+        <v>2010</v>
+      </c>
+      <c r="C1023" s="7">
+        <v>753</v>
+      </c>
+      <c r="D1023" s="7">
+        <v>286</v>
+      </c>
       <c r="E1023" s="7" t="s">
         <v>3865</v>
       </c>
@@ -47564,9 +47654,15 @@
     </row>
     <row r="1024" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1024" s="7"/>
-      <c r="B1024" s="7"/>
-      <c r="C1024" s="7"/>
-      <c r="D1024" s="7"/>
+      <c r="B1024" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C1024" s="7">
+        <v>449</v>
+      </c>
+      <c r="D1024" s="7">
+        <v>119</v>
+      </c>
       <c r="E1024" s="7" t="s">
         <v>3866</v>
       </c>
@@ -47616,9 +47712,15 @@
     </row>
     <row r="1026" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1026" s="7"/>
-      <c r="B1026" s="7"/>
-      <c r="C1026" s="7"/>
-      <c r="D1026" s="7"/>
+      <c r="B1026" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C1026" s="7">
+        <v>204</v>
+      </c>
+      <c r="D1026" s="7">
+        <v>142</v>
+      </c>
       <c r="E1026" s="7" t="s">
         <v>3869</v>
       </c>
@@ -47644,7 +47746,9 @@
     <row r="1027" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1027" s="7"/>
       <c r="B1027" s="7"/>
-      <c r="C1027" s="7"/>
+      <c r="C1027" s="7">
+        <v>225</v>
+      </c>
       <c r="D1027" s="7"/>
       <c r="E1027" s="7" t="s">
         <v>3871</v>
@@ -47722,9 +47826,15 @@
     </row>
     <row r="1030" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1030" s="7"/>
-      <c r="B1030" s="7"/>
-      <c r="C1030" s="7"/>
-      <c r="D1030" s="7"/>
+      <c r="B1030" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C1030" s="7">
+        <v>429</v>
+      </c>
+      <c r="D1030" s="7">
+        <v>344</v>
+      </c>
       <c r="E1030" s="7" t="s">
         <v>3875</v>
       </c>
@@ -47749,9 +47859,15 @@
     </row>
     <row r="1031" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1031" s="7"/>
-      <c r="B1031" s="7"/>
-      <c r="C1031" s="7"/>
-      <c r="D1031" s="7"/>
+      <c r="B1031" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C1031" s="7">
+        <v>435</v>
+      </c>
+      <c r="D1031" s="7">
+        <v>344</v>
+      </c>
       <c r="E1031" s="7" t="s">
         <v>3877</v>
       </c>
@@ -47776,9 +47892,15 @@
     </row>
     <row r="1032" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1032" s="7"/>
-      <c r="B1032" s="7"/>
-      <c r="C1032" s="7"/>
-      <c r="D1032" s="7"/>
+      <c r="B1032" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C1032" s="7">
+        <v>436</v>
+      </c>
+      <c r="D1032" s="7">
+        <v>344</v>
+      </c>
       <c r="E1032" s="7" t="s">
         <v>3879</v>
       </c>
@@ -47803,9 +47925,15 @@
     </row>
     <row r="1033" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1033" s="7"/>
-      <c r="B1033" s="7"/>
-      <c r="C1033" s="7"/>
-      <c r="D1033" s="7"/>
+      <c r="B1033" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C1033" s="7">
+        <v>437</v>
+      </c>
+      <c r="D1033" s="7">
+        <v>344</v>
+      </c>
       <c r="E1033" s="7" t="s">
         <v>3881</v>
       </c>
@@ -47830,9 +47958,15 @@
     </row>
     <row r="1034" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1034" s="7"/>
-      <c r="B1034" s="7"/>
-      <c r="C1034" s="7"/>
-      <c r="D1034" s="7"/>
+      <c r="B1034" s="7">
+        <v>2022</v>
+      </c>
+      <c r="C1034" s="7">
+        <v>438</v>
+      </c>
+      <c r="D1034" s="7">
+        <v>344</v>
+      </c>
       <c r="E1034" s="7" t="s">
         <v>3883</v>
       </c>
@@ -47857,9 +47991,15 @@
     </row>
     <row r="1035" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1035" s="7"/>
-      <c r="B1035" s="7"/>
-      <c r="C1035" s="7"/>
-      <c r="D1035" s="7"/>
+      <c r="B1035" s="7">
+        <v>2023</v>
+      </c>
+      <c r="C1035" s="7">
+        <v>275</v>
+      </c>
+      <c r="D1035" s="7">
+        <v>319</v>
+      </c>
       <c r="E1035" s="7" t="s">
         <v>3885</v>
       </c>
@@ -47884,9 +48024,15 @@
     </row>
     <row r="1036" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1036" s="7"/>
-      <c r="B1036" s="7"/>
-      <c r="C1036" s="7"/>
-      <c r="D1036" s="7"/>
+      <c r="B1036" s="7">
+        <v>2023</v>
+      </c>
+      <c r="C1036" s="7">
+        <v>276</v>
+      </c>
+      <c r="D1036" s="7">
+        <v>319</v>
+      </c>
       <c r="E1036" s="7" t="s">
         <v>3887</v>
       </c>
@@ -47911,9 +48057,15 @@
     </row>
     <row r="1037" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1037" s="7"/>
-      <c r="B1037" s="7"/>
-      <c r="C1037" s="7"/>
-      <c r="D1037" s="7"/>
+      <c r="B1037" s="7">
+        <v>2023</v>
+      </c>
+      <c r="C1037" s="7">
+        <v>277</v>
+      </c>
+      <c r="D1037" s="7">
+        <v>319</v>
+      </c>
       <c r="E1037" s="7" t="s">
         <v>3889</v>
       </c>
@@ -47938,9 +48090,15 @@
     </row>
     <row r="1038" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1038" s="10"/>
-      <c r="B1038" s="10"/>
-      <c r="C1038" s="10"/>
-      <c r="D1038" s="10"/>
+      <c r="B1038" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1038" s="10">
+        <v>292</v>
+      </c>
+      <c r="D1038" s="10">
+        <v>273</v>
+      </c>
       <c r="E1038" s="10" t="s">
         <v>4161</v>
       </c>
@@ -47992,9 +48150,15 @@
     </row>
     <row r="1040" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1040" s="10"/>
-      <c r="B1040" s="10"/>
-      <c r="C1040" s="10"/>
-      <c r="D1040" s="10"/>
+      <c r="B1040" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1040" s="10">
+        <v>284</v>
+      </c>
+      <c r="D1040" s="10">
+        <v>272</v>
+      </c>
       <c r="E1040" s="10" t="s">
         <v>4163</v>
       </c>
@@ -48019,9 +48183,15 @@
     </row>
     <row r="1041" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1041" s="10"/>
-      <c r="B1041" s="10"/>
-      <c r="C1041" s="10"/>
-      <c r="D1041" s="10"/>
+      <c r="B1041" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1041" s="10">
+        <v>215</v>
+      </c>
+      <c r="D1041" s="10">
+        <v>269</v>
+      </c>
       <c r="E1041" s="10" t="s">
         <v>4164</v>
       </c>
@@ -48046,9 +48216,15 @@
     </row>
     <row r="1042" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1042" s="10"/>
-      <c r="B1042" s="10"/>
-      <c r="C1042" s="10"/>
-      <c r="D1042" s="10"/>
+      <c r="B1042" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1042" s="10">
+        <v>85</v>
+      </c>
+      <c r="D1042" s="10">
+        <v>263</v>
+      </c>
       <c r="E1042" s="10" t="s">
         <v>4165</v>
       </c>
@@ -48071,9 +48247,15 @@
     </row>
     <row r="1043" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1043" s="10"/>
-      <c r="B1043" s="10"/>
-      <c r="C1043" s="10"/>
-      <c r="D1043" s="10"/>
+      <c r="B1043" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1043" s="10">
+        <v>345</v>
+      </c>
+      <c r="D1043" s="10">
+        <v>275</v>
+      </c>
       <c r="E1043" s="10" t="s">
         <v>4166</v>
       </c>
@@ -48123,9 +48305,15 @@
     </row>
     <row r="1045" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A1045" s="10"/>
-      <c r="B1045" s="10"/>
-      <c r="C1045" s="10"/>
-      <c r="D1045" s="10"/>
+      <c r="B1045" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1045" s="10">
+        <v>309</v>
+      </c>
+      <c r="D1045" s="10">
+        <v>274</v>
+      </c>
       <c r="E1045" s="10" t="s">
         <v>4168</v>
       </c>
@@ -48150,9 +48338,15 @@
     </row>
     <row r="1046" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1046" s="10"/>
-      <c r="B1046" s="10"/>
-      <c r="C1046" s="10"/>
-      <c r="D1046" s="10"/>
+      <c r="B1046" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1046" s="10">
+        <v>95</v>
+      </c>
+      <c r="D1046" s="10">
+        <v>264</v>
+      </c>
       <c r="E1046" s="10" t="s">
         <v>4169</v>
       </c>
@@ -48177,9 +48371,15 @@
     </row>
     <row r="1047" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1047" s="10"/>
-      <c r="B1047" s="10"/>
-      <c r="C1047" s="10"/>
-      <c r="D1047" s="10"/>
+      <c r="B1047" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1047" s="10">
+        <v>96</v>
+      </c>
+      <c r="D1047" s="10">
+        <v>264</v>
+      </c>
       <c r="E1047" s="10" t="s">
         <v>4170</v>
       </c>
@@ -48204,9 +48404,15 @@
     </row>
     <row r="1048" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1048" s="10"/>
-      <c r="B1048" s="10"/>
-      <c r="C1048" s="10"/>
-      <c r="D1048" s="10"/>
+      <c r="B1048" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1048" s="10">
+        <v>485</v>
+      </c>
+      <c r="D1048" s="10">
+        <v>281</v>
+      </c>
       <c r="E1048" s="10" t="s">
         <v>4171</v>
       </c>
@@ -48231,9 +48437,15 @@
     </row>
     <row r="1049" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1049" s="10"/>
-      <c r="B1049" s="10"/>
-      <c r="C1049" s="10"/>
-      <c r="D1049" s="10"/>
+      <c r="B1049" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1049" s="10">
+        <v>437</v>
+      </c>
+      <c r="D1049" s="10">
+        <v>279</v>
+      </c>
       <c r="E1049" s="10" t="s">
         <v>4172</v>
       </c>
@@ -48258,9 +48470,15 @@
     </row>
     <row r="1050" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1050" s="10"/>
-      <c r="B1050" s="10"/>
-      <c r="C1050" s="10"/>
-      <c r="D1050" s="10"/>
+      <c r="B1050" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1050" s="10">
+        <v>546</v>
+      </c>
+      <c r="D1050" s="10">
+        <v>284</v>
+      </c>
       <c r="E1050" s="10" t="s">
         <v>4173</v>
       </c>
@@ -48312,9 +48530,15 @@
     </row>
     <row r="1052" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1052" s="10"/>
-      <c r="B1052" s="10"/>
-      <c r="C1052" s="10"/>
-      <c r="D1052" s="10"/>
+      <c r="B1052" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1052" s="10">
+        <v>588</v>
+      </c>
+      <c r="D1052" s="10">
+        <v>285</v>
+      </c>
       <c r="E1052" s="10" t="s">
         <v>4175</v>
       </c>
@@ -48339,9 +48563,15 @@
     </row>
     <row r="1053" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1053" s="10"/>
-      <c r="B1053" s="10"/>
-      <c r="C1053" s="10"/>
-      <c r="D1053" s="10"/>
+      <c r="B1053" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1053" s="10">
+        <v>556</v>
+      </c>
+      <c r="D1053" s="10">
+        <v>284</v>
+      </c>
       <c r="E1053" s="10" t="s">
         <v>4176</v>
       </c>
@@ -48393,9 +48623,15 @@
     </row>
     <row r="1055" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1055" s="10"/>
-      <c r="B1055" s="10"/>
-      <c r="C1055" s="10"/>
-      <c r="D1055" s="10"/>
+      <c r="B1055" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1055" s="10">
+        <v>684</v>
+      </c>
+      <c r="D1055" s="10">
+        <v>289</v>
+      </c>
       <c r="E1055" s="10" t="s">
         <v>4178</v>
       </c>
@@ -48420,9 +48656,15 @@
     </row>
     <row r="1056" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1056" s="10"/>
-      <c r="B1056" s="10"/>
-      <c r="C1056" s="10"/>
-      <c r="D1056" s="10"/>
+      <c r="B1056" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1056" s="10">
+        <v>616</v>
+      </c>
+      <c r="D1056" s="10">
+        <v>286</v>
+      </c>
       <c r="E1056" s="10" t="s">
         <v>4179</v>
       </c>
@@ -48445,9 +48687,15 @@
     </row>
     <row r="1057" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1057" s="10"/>
-      <c r="B1057" s="10"/>
-      <c r="C1057" s="10"/>
-      <c r="D1057" s="10"/>
+      <c r="B1057" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1057" s="10">
+        <v>640</v>
+      </c>
+      <c r="D1057" s="10">
+        <v>287</v>
+      </c>
       <c r="E1057" s="10" t="s">
         <v>4180</v>
       </c>
@@ -48472,9 +48720,15 @@
     </row>
     <row r="1058" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1058" s="10"/>
-      <c r="B1058" s="10"/>
-      <c r="C1058" s="10"/>
-      <c r="D1058" s="10"/>
+      <c r="B1058" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1058" s="10">
+        <v>593</v>
+      </c>
+      <c r="D1058" s="10">
+        <v>285</v>
+      </c>
       <c r="E1058" s="10" t="s">
         <v>4181</v>
       </c>
@@ -48499,9 +48753,15 @@
     </row>
     <row r="1059" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1059" s="10"/>
-      <c r="B1059" s="10"/>
-      <c r="C1059" s="10"/>
-      <c r="D1059" s="10"/>
+      <c r="B1059" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1059" s="10">
+        <v>560</v>
+      </c>
+      <c r="D1059" s="10">
+        <v>284</v>
+      </c>
       <c r="E1059" s="10" t="s">
         <v>4182</v>
       </c>
@@ -48526,9 +48786,15 @@
     </row>
     <row r="1060" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A1060" s="10"/>
-      <c r="B1060" s="10"/>
-      <c r="C1060" s="10"/>
-      <c r="D1060" s="10"/>
+      <c r="B1060" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1060" s="10">
+        <v>681</v>
+      </c>
+      <c r="D1060" s="10">
+        <v>288</v>
+      </c>
       <c r="E1060" s="10" t="s">
         <v>4183</v>
       </c>
@@ -48553,9 +48819,15 @@
     </row>
     <row r="1061" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1061" s="10"/>
-      <c r="B1061" s="10"/>
-      <c r="C1061" s="10"/>
-      <c r="D1061" s="10"/>
+      <c r="B1061" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1061" s="10">
+        <v>720</v>
+      </c>
+      <c r="D1061" s="10">
+        <v>290</v>
+      </c>
       <c r="E1061" s="10" t="s">
         <v>4184</v>
       </c>
@@ -48580,9 +48852,15 @@
     </row>
     <row r="1062" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1062" s="10"/>
-      <c r="B1062" s="10"/>
-      <c r="C1062" s="10"/>
-      <c r="D1062" s="10"/>
+      <c r="B1062" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1062" s="10">
+        <v>694</v>
+      </c>
+      <c r="D1062" s="10">
+        <v>289</v>
+      </c>
       <c r="E1062" s="10" t="s">
         <v>4185</v>
       </c>
@@ -48607,9 +48885,15 @@
     </row>
     <row r="1063" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1063" s="10"/>
-      <c r="B1063" s="10"/>
-      <c r="C1063" s="10"/>
-      <c r="D1063" s="10"/>
+      <c r="B1063" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1063" s="10">
+        <v>736</v>
+      </c>
+      <c r="D1063" s="10">
+        <v>290</v>
+      </c>
       <c r="E1063" s="10" t="s">
         <v>4186</v>
       </c>
@@ -48634,9 +48918,15 @@
     </row>
     <row r="1064" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1064" s="10"/>
-      <c r="B1064" s="10"/>
-      <c r="C1064" s="10"/>
-      <c r="D1064" s="10"/>
+      <c r="B1064" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1064" s="10">
+        <v>715</v>
+      </c>
+      <c r="D1064" s="10">
+        <v>289</v>
+      </c>
       <c r="E1064" s="10" t="s">
         <v>4187</v>
       </c>
@@ -48661,9 +48951,15 @@
     </row>
     <row r="1065" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1065" s="10"/>
-      <c r="B1065" s="10"/>
-      <c r="C1065" s="10"/>
-      <c r="D1065" s="10"/>
+      <c r="B1065" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1065" s="10">
+        <v>704</v>
+      </c>
+      <c r="D1065" s="10">
+        <v>289</v>
+      </c>
       <c r="E1065" s="10" t="s">
         <v>4188</v>
       </c>
@@ -48688,9 +48984,15 @@
     </row>
     <row r="1066" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1066" s="10"/>
-      <c r="B1066" s="10"/>
-      <c r="C1066" s="10"/>
-      <c r="D1066" s="10"/>
+      <c r="B1066" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1066" s="10">
+        <v>821</v>
+      </c>
+      <c r="D1066" s="10">
+        <v>293</v>
+      </c>
       <c r="E1066" s="10" t="s">
         <v>4189</v>
       </c>
@@ -48715,9 +49017,15 @@
     </row>
     <row r="1067" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1067" s="10"/>
-      <c r="B1067" s="10"/>
-      <c r="C1067" s="10"/>
-      <c r="D1067" s="10"/>
+      <c r="B1067" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1067" s="10">
+        <v>783</v>
+      </c>
+      <c r="D1067" s="10">
+        <v>292</v>
+      </c>
       <c r="E1067" s="10" t="s">
         <v>4190</v>
       </c>
@@ -48767,9 +49075,15 @@
     </row>
     <row r="1069" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1069" s="10"/>
-      <c r="B1069" s="10"/>
-      <c r="C1069" s="10"/>
-      <c r="D1069" s="10"/>
+      <c r="B1069" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1069" s="10">
+        <v>803</v>
+      </c>
+      <c r="D1069" s="10">
+        <v>292</v>
+      </c>
       <c r="E1069" s="10" t="s">
         <v>4192</v>
       </c>
@@ -48794,9 +49108,15 @@
     </row>
     <row r="1070" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1070" s="10"/>
-      <c r="B1070" s="10"/>
-      <c r="C1070" s="10"/>
-      <c r="D1070" s="10"/>
+      <c r="B1070" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1070" s="10">
+        <v>832</v>
+      </c>
+      <c r="D1070" s="10">
+        <v>294</v>
+      </c>
       <c r="E1070" s="10" t="s">
         <v>4193</v>
       </c>
@@ -48821,9 +49141,15 @@
     </row>
     <row r="1071" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1071" s="10"/>
-      <c r="B1071" s="10"/>
-      <c r="C1071" s="10"/>
-      <c r="D1071" s="10"/>
+      <c r="B1071" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1071" s="10">
+        <v>814</v>
+      </c>
+      <c r="D1071" s="10">
+        <v>293</v>
+      </c>
       <c r="E1071" s="10" t="s">
         <v>4194</v>
       </c>
@@ -48846,9 +49172,15 @@
     </row>
     <row r="1072" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1072" s="10"/>
-      <c r="B1072" s="10"/>
-      <c r="C1072" s="10"/>
-      <c r="D1072" s="10"/>
+      <c r="B1072" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1072" s="10">
+        <v>827</v>
+      </c>
+      <c r="D1072" s="10">
+        <v>293</v>
+      </c>
       <c r="E1072" s="10" t="s">
         <v>4195</v>
       </c>
@@ -48873,9 +49205,15 @@
     </row>
     <row r="1073" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1073" s="10"/>
-      <c r="B1073" s="10"/>
-      <c r="C1073" s="10"/>
-      <c r="D1073" s="10"/>
+      <c r="B1073" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1073" s="10">
+        <v>818</v>
+      </c>
+      <c r="D1073" s="10">
+        <v>293</v>
+      </c>
       <c r="E1073" s="10" t="s">
         <v>4196</v>
       </c>
@@ -48900,9 +49238,15 @@
     </row>
     <row r="1074" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1074" s="10"/>
-      <c r="B1074" s="10"/>
-      <c r="C1074" s="10"/>
-      <c r="D1074" s="10"/>
+      <c r="B1074" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1074" s="10">
+        <v>834</v>
+      </c>
+      <c r="D1074" s="10">
+        <v>294</v>
+      </c>
       <c r="E1074" s="10" t="s">
         <v>4197</v>
       </c>
@@ -48925,9 +49269,15 @@
     </row>
     <row r="1075" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1075" s="10"/>
-      <c r="B1075" s="10"/>
-      <c r="C1075" s="10"/>
-      <c r="D1075" s="10"/>
+      <c r="B1075" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1075" s="10">
+        <v>3542</v>
+      </c>
+      <c r="D1075" s="10">
+        <v>392</v>
+      </c>
       <c r="E1075" s="10" t="s">
         <v>4198</v>
       </c>
@@ -48952,9 +49302,15 @@
     </row>
     <row r="1076" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1076" s="10"/>
-      <c r="B1076" s="10"/>
-      <c r="C1076" s="10"/>
-      <c r="D1076" s="10"/>
+      <c r="B1076" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1076" s="10">
+        <v>3568</v>
+      </c>
+      <c r="D1076" s="10">
+        <v>393</v>
+      </c>
       <c r="E1076" s="10" t="s">
         <v>4199</v>
       </c>
@@ -48979,9 +49335,15 @@
     </row>
     <row r="1077" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1077" s="10"/>
-      <c r="B1077" s="10"/>
-      <c r="C1077" s="10"/>
-      <c r="D1077" s="10"/>
+      <c r="B1077" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1077" s="10">
+        <v>3636</v>
+      </c>
+      <c r="D1077" s="10">
+        <v>396</v>
+      </c>
       <c r="E1077" s="10" t="s">
         <v>4200</v>
       </c>
@@ -49004,9 +49366,15 @@
     </row>
     <row r="1078" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1078" s="10"/>
-      <c r="B1078" s="10"/>
-      <c r="C1078" s="10"/>
-      <c r="D1078" s="10"/>
+      <c r="B1078" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1078" s="10">
+        <v>3619</v>
+      </c>
+      <c r="D1078" s="10">
+        <v>395</v>
+      </c>
       <c r="E1078" s="10" t="s">
         <v>4201</v>
       </c>
@@ -49031,9 +49399,15 @@
     </row>
     <row r="1079" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1079" s="10"/>
-      <c r="B1079" s="10"/>
-      <c r="C1079" s="10"/>
-      <c r="D1079" s="10"/>
+      <c r="B1079" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1079" s="10">
+        <v>3537</v>
+      </c>
+      <c r="D1079" s="10">
+        <v>391</v>
+      </c>
       <c r="E1079" s="10" t="s">
         <v>4202</v>
       </c>
@@ -49058,9 +49432,15 @@
     </row>
     <row r="1080" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1080" s="10"/>
-      <c r="B1080" s="10"/>
-      <c r="C1080" s="10"/>
-      <c r="D1080" s="10"/>
+      <c r="B1080" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1080" s="10">
+        <v>3966</v>
+      </c>
+      <c r="D1080" s="10">
+        <v>437</v>
+      </c>
       <c r="E1080" s="10" t="s">
         <v>4203</v>
       </c>
@@ -49085,9 +49465,15 @@
     </row>
     <row r="1081" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1081" s="10"/>
-      <c r="B1081" s="10"/>
-      <c r="C1081" s="10"/>
-      <c r="D1081" s="10"/>
+      <c r="B1081" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1081" s="10">
+        <v>2401</v>
+      </c>
+      <c r="D1081" s="10">
+        <v>359</v>
+      </c>
       <c r="E1081" s="10" t="s">
         <v>4204</v>
       </c>
@@ -49112,9 +49498,15 @@
     </row>
     <row r="1082" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1082" s="10"/>
-      <c r="B1082" s="10"/>
-      <c r="C1082" s="10"/>
-      <c r="D1082" s="10"/>
+      <c r="B1082" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1082" s="10">
+        <v>2615</v>
+      </c>
+      <c r="D1082" s="10">
+        <v>369</v>
+      </c>
       <c r="E1082" s="10" t="s">
         <v>4205</v>
       </c>
@@ -49139,9 +49531,15 @@
     </row>
     <row r="1083" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1083" s="10"/>
-      <c r="B1083" s="10"/>
-      <c r="C1083" s="10"/>
-      <c r="D1083" s="10"/>
+      <c r="B1083" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1083" s="10">
+        <v>2931</v>
+      </c>
+      <c r="D1083" s="10">
+        <v>384</v>
+      </c>
       <c r="E1083" s="10" t="s">
         <v>4206</v>
       </c>
@@ -49166,9 +49564,15 @@
     </row>
     <row r="1084" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1084" s="10"/>
-      <c r="B1084" s="10"/>
-      <c r="C1084" s="10"/>
-      <c r="D1084" s="10"/>
+      <c r="B1084" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1084" s="10">
+        <v>3390</v>
+      </c>
+      <c r="D1084" s="10">
+        <v>408</v>
+      </c>
       <c r="E1084" s="10" t="s">
         <v>4207</v>
       </c>
@@ -49220,9 +49624,15 @@
     </row>
     <row r="1086" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1086" s="10"/>
-      <c r="B1086" s="10"/>
-      <c r="C1086" s="10"/>
-      <c r="D1086" s="10"/>
+      <c r="B1086" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1086" s="10">
+        <v>1196</v>
+      </c>
+      <c r="D1086" s="10">
+        <v>295</v>
+      </c>
       <c r="E1086" s="10" t="s">
         <v>4209</v>
       </c>
@@ -49245,9 +49655,15 @@
     </row>
     <row r="1087" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1087" s="10"/>
-      <c r="B1087" s="10"/>
-      <c r="C1087" s="10"/>
-      <c r="D1087" s="10"/>
+      <c r="B1087" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1087" s="10">
+        <v>3515</v>
+      </c>
+      <c r="D1087" s="10">
+        <v>414</v>
+      </c>
       <c r="E1087" s="10" t="s">
         <v>4210</v>
       </c>
@@ -49272,9 +49688,15 @@
     </row>
     <row r="1088" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1088" s="10"/>
-      <c r="B1088" s="10"/>
-      <c r="C1088" s="10"/>
-      <c r="D1088" s="10"/>
+      <c r="B1088" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1088" s="10">
+        <v>120</v>
+      </c>
+      <c r="D1088" s="10">
+        <v>242</v>
+      </c>
       <c r="E1088" s="10" t="s">
         <v>4211</v>
       </c>
@@ -49297,9 +49719,15 @@
     </row>
     <row r="1089" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1089" s="10"/>
-      <c r="B1089" s="10"/>
-      <c r="C1089" s="10"/>
-      <c r="D1089" s="10"/>
+      <c r="B1089" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1089" s="10">
+        <v>2451</v>
+      </c>
+      <c r="D1089" s="10">
+        <v>362</v>
+      </c>
       <c r="E1089" s="10" t="s">
         <v>4212</v>
       </c>
@@ -49324,9 +49752,15 @@
     </row>
     <row r="1090" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1090" s="10"/>
-      <c r="B1090" s="10"/>
-      <c r="C1090" s="10"/>
-      <c r="D1090" s="10"/>
+      <c r="B1090" s="10">
+        <v>1994</v>
+      </c>
+      <c r="C1090" s="10">
+        <v>4297</v>
+      </c>
+      <c r="D1090" s="10">
+        <v>453</v>
+      </c>
       <c r="E1090" s="10" t="s">
         <v>4213</v>
       </c>
@@ -49349,9 +49783,15 @@
     </row>
     <row r="1091" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1091" s="10"/>
-      <c r="B1091" s="10"/>
-      <c r="C1091" s="10"/>
-      <c r="D1091" s="10"/>
+      <c r="B1091" s="10">
+        <v>1995</v>
+      </c>
+      <c r="C1091" s="10">
+        <v>590</v>
+      </c>
+      <c r="D1091" s="10">
+        <v>385</v>
+      </c>
       <c r="E1091" s="10" t="s">
         <v>4214</v>
       </c>
@@ -49376,9 +49816,15 @@
     </row>
     <row r="1092" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1092" s="10"/>
-      <c r="B1092" s="10"/>
-      <c r="C1092" s="10"/>
-      <c r="D1092" s="10"/>
+      <c r="B1092" s="10">
+        <v>1995</v>
+      </c>
+      <c r="C1092" s="10">
+        <v>5417</v>
+      </c>
+      <c r="D1092" s="10">
+        <v>635</v>
+      </c>
       <c r="E1092" s="10" t="s">
         <v>4215</v>
       </c>
@@ -49403,9 +49849,15 @@
     </row>
     <row r="1093" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1093" s="10"/>
-      <c r="B1093" s="10"/>
-      <c r="C1093" s="10"/>
-      <c r="D1093" s="10"/>
+      <c r="B1093" s="10">
+        <v>1995</v>
+      </c>
+      <c r="C1093" s="10">
+        <v>5275</v>
+      </c>
+      <c r="D1093" s="10">
+        <v>628</v>
+      </c>
       <c r="E1093" s="10" t="s">
         <v>4216</v>
       </c>
@@ -49430,9 +49882,15 @@
     </row>
     <row r="1094" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1094" s="10"/>
-      <c r="B1094" s="10"/>
-      <c r="C1094" s="10"/>
-      <c r="D1094" s="10"/>
+      <c r="B1094" s="10">
+        <v>1995</v>
+      </c>
+      <c r="C1094" s="10">
+        <v>5424</v>
+      </c>
+      <c r="D1094" s="10">
+        <v>636</v>
+      </c>
       <c r="E1094" s="10" t="s">
         <v>4217</v>
       </c>
@@ -49457,9 +49915,15 @@
     </row>
     <row r="1095" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1095" s="10"/>
-      <c r="B1095" s="10"/>
-      <c r="C1095" s="10"/>
-      <c r="D1095" s="10"/>
+      <c r="B1095" s="10">
+        <v>1995</v>
+      </c>
+      <c r="C1095" s="10">
+        <v>1245</v>
+      </c>
+      <c r="D1095" s="10">
+        <v>419</v>
+      </c>
       <c r="E1095" s="10" t="s">
         <v>4218</v>
       </c>
@@ -49482,9 +49946,15 @@
     </row>
     <row r="1096" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1096" s="10"/>
-      <c r="B1096" s="10"/>
-      <c r="C1096" s="10"/>
-      <c r="D1096" s="10"/>
+      <c r="B1096" s="10">
+        <v>1999</v>
+      </c>
+      <c r="C1096" s="10">
+        <v>4157</v>
+      </c>
+      <c r="D1096" s="10">
+        <v>570</v>
+      </c>
       <c r="E1096" s="10" t="s">
         <v>4219</v>
       </c>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -14247,8 +14247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1095" sqref="C1095"/>
+    <sheetView tabSelected="1" topLeftCell="A1024" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1027" sqref="L1027"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47745,11 +47745,15 @@
     </row>
     <row r="1027" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1027" s="7"/>
-      <c r="B1027" s="7"/>
+      <c r="B1027" s="7">
+        <v>2020</v>
+      </c>
       <c r="C1027" s="7">
         <v>225</v>
       </c>
-      <c r="D1027" s="7"/>
+      <c r="D1027" s="7">
+        <v>198</v>
+      </c>
       <c r="E1027" s="7" t="s">
         <v>3871</v>
       </c>
@@ -53715,11 +53719,15 @@
     </row>
     <row r="1215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1215" s="10"/>
-      <c r="B1215" s="10"/>
+      <c r="B1215" s="10">
+        <v>2015</v>
+      </c>
       <c r="C1215" s="10">
         <v>261</v>
       </c>
-      <c r="D1215" s="10"/>
+      <c r="D1215" s="10">
+        <v>156</v>
+      </c>
       <c r="E1215" s="10" t="s">
         <v>4338</v>
       </c>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -11640,9 +11640,6 @@
     <t>UPDATE PHONE</t>
   </si>
   <si>
-    <t>Dr. (Ms.) Rupjyoti Ojah/</t>
-  </si>
-  <si>
     <t>502 Funjan Tower Parag Das Road RP FCI P.O. Bamuni Maidam Guwahati-21 Kamrup (M)</t>
   </si>
   <si>
@@ -11652,27 +11649,15 @@
     <t>H.No.36 Brindaban path Rupnagar P.O. Indrapur Guwahati-781032.</t>
   </si>
   <si>
-    <t>Dr. Khagendra Nath Sarmah/</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Dr. Uday Kumar Saha/</t>
-  </si>
-  <si>
-    <t>Dr. Ratna Bahadur Pradhan/</t>
-  </si>
-  <si>
     <t>Dr. Jadav Sarmah/Late Dandapani Sarmah</t>
   </si>
   <si>
     <t>Department of Pharmacology College of Veterinary Science Assam Agricultural University Khanapara Guwahati-22</t>
   </si>
   <si>
-    <t>Dr. Mohanlal Smith/</t>
-  </si>
-  <si>
     <t>H/N.-24 lane No. 9 (West) Zoo Road Tiniali R.G.B. Road Guwahati-781024</t>
   </si>
   <si>
@@ -11682,30 +11667,12 @@
     <t>Dagaon Kamrup pin.-781133</t>
   </si>
   <si>
-    <t>Dr. Satya Dutta Choudhury/</t>
-  </si>
-  <si>
-    <t>Dr. Ikramul Haque/</t>
-  </si>
-  <si>
-    <t>Dr. Umesh Chandra Das/</t>
-  </si>
-  <si>
-    <t>Dr. Gagan Chandra Das/</t>
-  </si>
-  <si>
     <t>E.O. (Vety.) Gossaigaon Dev. Block Dist. Kokrajhar Assam</t>
   </si>
   <si>
-    <t>Dr. Chatra Dhar Borah/</t>
-  </si>
-  <si>
     <t>E.O. (Vety.) North Lakhimpur Dist. Lakhimpur Assam</t>
   </si>
   <si>
-    <t>Dr. Shirajul Hoque/</t>
-  </si>
-  <si>
     <t>W/No.-4 (Surjyakhata) P.O.&amp; P.S. Bilasipara Dist. Dhubri pin.-783348.</t>
   </si>
   <si>
@@ -11718,9 +11685,6 @@
     <t>Dr. Digendra Talukdar /Late Debendra Nath Talukdar</t>
   </si>
   <si>
-    <t>Dr. Krishna Pathak/</t>
-  </si>
-  <si>
     <t>Dr. Girindra Nath Sen / Sri Gajendra Nath Sen</t>
   </si>
   <si>
@@ -11796,9 +11760,6 @@
     <t>Dr. Bhupesh Chandra Bhattacharyya /Sri Golok Bhattacharyya</t>
   </si>
   <si>
-    <t>Dr. Siddhartha Kumar Barooah/</t>
-  </si>
-  <si>
     <t>Dr. Ikramul Hussain Sarkar /Md. Aftabuddin Ahmed</t>
   </si>
   <si>
@@ -12750,21 +12711,12 @@
     <t>ASM/3028/2018</t>
   </si>
   <si>
-    <t>Dr. Gauranga Mahato/</t>
-  </si>
-  <si>
     <t>Dr. (Mrs.) Arundhuti Das (Bora)/Dr. Ranjit Kumar Borah (H)</t>
   </si>
   <si>
     <t>Dr. Subimal Laskar/Late Bihari Laskar</t>
   </si>
   <si>
-    <t>Dr. Jitendra Goswami/</t>
-  </si>
-  <si>
-    <t>Dr. Tapan Barthakur/</t>
-  </si>
-  <si>
     <t>Dr.Mobir Rahman / Md. Faizur Rahman</t>
   </si>
   <si>
@@ -12780,9 +12732,6 @@
     <t>Dr. Robin Bhuyan/Late S. Bhuyan</t>
   </si>
   <si>
-    <t>Dr. Pankaj Kumar Goswami/</t>
-  </si>
-  <si>
     <t>Dr. Jogi Raj Bora/Late Prabhat Kumar Bora</t>
   </si>
   <si>
@@ -12804,15 +12753,9 @@
     <t>Dr. Manmath Talukdar/Late Bhogiram Talukdar</t>
   </si>
   <si>
-    <t>Dr. Atom Gohain/</t>
-  </si>
-  <si>
     <t>Dr. Pritam Mohan/Late Dimbeswar Mohan</t>
   </si>
   <si>
-    <t>Dr. Prasanta Kumar Das/</t>
-  </si>
-  <si>
     <t>Dr. Dipak Bhuyan /Sri Jitendra Nath Bhuyan</t>
   </si>
   <si>
@@ -12834,33 +12777,18 @@
     <t>Dr. (Ms) Arpana Das/Late Prasanna Kumar Das</t>
   </si>
   <si>
-    <t>Dr. Dilip Kumar Nath/</t>
-  </si>
-  <si>
     <t>Dr. (Ms) Anjana Choudhury /Dr. Bibeka Nanda Saikia (H)</t>
   </si>
   <si>
     <t>Dr. Ajay Kumar Sarma / Late Braja Nath Sarma</t>
   </si>
   <si>
-    <t>Dr. (Ms.) Manju Goswami/</t>
-  </si>
-  <si>
-    <t>Dr. (Ms) Barnalee Saikia/</t>
-  </si>
-  <si>
     <t>Dr. Raju Kumar Kalita/ Sjt. Bhaba Dhar Kalita</t>
   </si>
   <si>
-    <t>Dr. Tulsi Prasad Phayal/</t>
-  </si>
-  <si>
     <t>Dr. Saurabh Kumar Laskar/Late Suryya Kanta Laskar</t>
   </si>
   <si>
-    <t>Dr. Janak Ch. Saikia/</t>
-  </si>
-  <si>
     <t>Dr. Haripad Bhagabati /Late Tarani Kanta Bhagabati</t>
   </si>
   <si>
@@ -12873,18 +12801,12 @@
     <t>Dr. Abdul Mukit/Late Abdul Sattar</t>
   </si>
   <si>
-    <t>Dr. (Ms) Nasim Banu/</t>
-  </si>
-  <si>
     <t>Dr. Subodh Barman / Sri Thaneswar Barman</t>
   </si>
   <si>
     <t>Dr. Mohan Baruah / Late Adhik Chandra Baruah</t>
   </si>
   <si>
-    <t>Dr. Nayanjit Bordoloi /</t>
-  </si>
-  <si>
     <t>Dr. Pratul Mahanta /Sri Khagendra Nath Mahanta</t>
   </si>
   <si>
@@ -12906,9 +12828,6 @@
     <t>Dr. Mriganka Sekhar Baruah/ Late Durgeswar Baruah</t>
   </si>
   <si>
-    <t>Dr. Utpal Chandra Das/</t>
-  </si>
-  <si>
     <t>Dr. (Ms) Dipti Mani Baruah /Mr. Rajendra Barah (F)</t>
   </si>
   <si>
@@ -12961,9 +12880,6 @@
   </si>
   <si>
     <t>Dr. Rafiqul Islam / Md. Hanifuddin Ahmed</t>
-  </si>
-  <si>
-    <t>Dr. Pramod Kumar Patowary/</t>
   </si>
   <si>
     <t>Dr. Smriti Rani Gogoi /Sri Boluram Gogoi (F)</t>
@@ -13007,9 +12923,6 @@
   </si>
   <si>
     <t>Dr. Rafiqul Islam / Md. Ibad Ullah Sarkar</t>
-  </si>
-  <si>
-    <t>Dr. (Ms) Monideepa Bhattacharya/</t>
   </si>
   <si>
     <t>Dr. Parsha Jyoti Nath / Sri Sibaram Saikia</t>
@@ -13719,6 +13632,93 @@
   </si>
   <si>
     <t>DELETE</t>
+  </si>
+  <si>
+    <t>Dr. (Ms.) Rupjyoti Ojah</t>
+  </si>
+  <si>
+    <t>Dr. Khagendra Nath Sarmah</t>
+  </si>
+  <si>
+    <t>Dr. Uday Kumar Saha</t>
+  </si>
+  <si>
+    <t>Dr. Ratna Bahadur Pradhan</t>
+  </si>
+  <si>
+    <t>Dr. Mohanlal Smith</t>
+  </si>
+  <si>
+    <t>Dr. Satya Dutta Choudhury</t>
+  </si>
+  <si>
+    <t>Dr. Ikramul Haque</t>
+  </si>
+  <si>
+    <t>Dr. Umesh Chandra Das</t>
+  </si>
+  <si>
+    <t>Dr. Gagan Chandra Das</t>
+  </si>
+  <si>
+    <t>Dr. Chatra Dhar Borah</t>
+  </si>
+  <si>
+    <t>Dr. Shirajul Hoque</t>
+  </si>
+  <si>
+    <t>Dr. Krishna Pathak</t>
+  </si>
+  <si>
+    <t>Dr. Siddhartha Kumar Barooah</t>
+  </si>
+  <si>
+    <t>Dr. Gauranga Mahato</t>
+  </si>
+  <si>
+    <t>Dr. Jitendra Goswami</t>
+  </si>
+  <si>
+    <t>Dr. Tapan Barthakur</t>
+  </si>
+  <si>
+    <t>Dr. Pankaj Kumar Goswami</t>
+  </si>
+  <si>
+    <t>Dr. Atom Gohain</t>
+  </si>
+  <si>
+    <t>Dr. Prasanta Kumar Das</t>
+  </si>
+  <si>
+    <t>Dr. Dilip Kumar Nath</t>
+  </si>
+  <si>
+    <t>Dr. (Ms.) Manju Goswami</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Barnalee Saikia</t>
+  </si>
+  <si>
+    <t>Dr. Tulsi Prasad Phayal</t>
+  </si>
+  <si>
+    <t>Dr. Janak Ch. Saikia</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Nasim Banu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Nayanjit Bordoloi </t>
+  </si>
+  <si>
+    <t>Dr. Utpal Chandra Das</t>
+  </si>
+  <si>
+    <t>Dr. Pramod Kumar Patowary</t>
+  </si>
+  <si>
+    <t>Dr. (Ms) Monideepa Bhattacharya</t>
   </si>
 </sst>
 </file>
@@ -14247,8 +14247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1024" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1027" sqref="L1027"/>
+    <sheetView tabSelected="1" topLeftCell="A986" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P971" sqref="P971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23395,7 +23395,7 @@
         <v>1196</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>4475</v>
+        <v>4446</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>1200</v>
@@ -23405,13 +23405,13 @@
         <v>5</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>4476</v>
+        <v>4447</v>
       </c>
       <c r="J279" s="6">
         <v>9859085665</v>
       </c>
       <c r="K279" s="17" t="s">
-        <v>4481</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -25666,7 +25666,7 @@
         <v>5</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>4471</v>
+        <v>4442</v>
       </c>
       <c r="J348" s="5"/>
       <c r="K348" s="1"/>
@@ -46155,29 +46155,29 @@
         <v>0</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>4477</v>
+        <v>4448</v>
       </c>
       <c r="D971" s="1" t="s">
         <v>305</v>
       </c>
       <c r="E971" s="1" t="s">
-        <v>4478</v>
+        <v>4449</v>
       </c>
       <c r="F971" s="2"/>
       <c r="G971" s="1" t="s">
-        <v>4479</v>
+        <v>4450</v>
       </c>
       <c r="H971" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I971" s="1" t="s">
-        <v>4480</v>
+        <v>4451</v>
       </c>
       <c r="J971" s="6">
         <v>9435345578</v>
       </c>
       <c r="K971" s="17" t="s">
-        <v>4481</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="972" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46192,25 +46192,25 @@
         <v>274</v>
       </c>
       <c r="E972" s="7" t="s">
-        <v>3791</v>
+        <v>4453</v>
       </c>
       <c r="F972" s="8">
         <v>21922</v>
       </c>
       <c r="G972" s="7" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="H972" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I972" s="7" t="s">
-        <v>3892</v>
+        <v>3879</v>
       </c>
       <c r="J972" s="9">
         <v>9864132078</v>
       </c>
       <c r="K972" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="973" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46219,25 +46219,25 @@
       <c r="C973" s="7"/>
       <c r="D973" s="7"/>
       <c r="E973" s="7" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="F973" s="8">
         <v>22482</v>
       </c>
       <c r="G973" s="7" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="H973" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I973" s="7" t="s">
-        <v>3893</v>
+        <v>3880</v>
       </c>
       <c r="J973" s="9">
         <v>7896194704</v>
       </c>
       <c r="K973" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="974" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -46246,25 +46246,25 @@
       <c r="C974" s="7"/>
       <c r="D974" s="7"/>
       <c r="E974" s="7" t="s">
-        <v>3795</v>
+        <v>4454</v>
       </c>
       <c r="F974" s="8">
         <v>22706</v>
       </c>
       <c r="G974" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H974" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I974" s="7" t="s">
-        <v>3894</v>
+        <v>3881</v>
       </c>
       <c r="J974" s="9">
         <v>9435185211</v>
       </c>
       <c r="K974" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="975" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -46273,25 +46273,25 @@
       <c r="C975" s="7"/>
       <c r="D975" s="7"/>
       <c r="E975" s="7" t="s">
-        <v>3797</v>
+        <v>4455</v>
       </c>
       <c r="F975" s="8">
         <v>22288</v>
       </c>
       <c r="G975" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H975" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I975" s="7" t="s">
-        <v>3895</v>
+        <v>3882</v>
       </c>
       <c r="J975" s="9">
         <v>9435007601</v>
       </c>
       <c r="K975" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="976" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -46300,25 +46300,25 @@
       <c r="C976" s="7"/>
       <c r="D976" s="7"/>
       <c r="E976" s="7" t="s">
-        <v>3798</v>
+        <v>4456</v>
       </c>
       <c r="F976" s="8">
         <v>21620</v>
       </c>
       <c r="G976" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H976" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I976" s="7" t="s">
-        <v>3896</v>
+        <v>3883</v>
       </c>
       <c r="J976" s="9">
         <v>7086329911</v>
       </c>
       <c r="K976" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="977" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -46327,25 +46327,25 @@
       <c r="C977" s="7"/>
       <c r="D977" s="7"/>
       <c r="E977" s="7" t="s">
-        <v>3799</v>
+        <v>3795</v>
       </c>
       <c r="F977" s="8">
         <v>23798</v>
       </c>
       <c r="G977" s="7" t="s">
-        <v>3800</v>
+        <v>3796</v>
       </c>
       <c r="H977" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I977" s="7" t="s">
-        <v>3897</v>
+        <v>3884</v>
       </c>
       <c r="J977" s="9">
         <v>9435749321</v>
       </c>
       <c r="K977" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="978" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -46354,25 +46354,25 @@
       <c r="C978" s="7"/>
       <c r="D978" s="7"/>
       <c r="E978" s="7" t="s">
-        <v>3801</v>
+        <v>4457</v>
       </c>
       <c r="F978" s="8">
         <v>20375</v>
       </c>
       <c r="G978" s="7" t="s">
-        <v>3802</v>
+        <v>3797</v>
       </c>
       <c r="H978" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I978" s="7" t="s">
-        <v>3898</v>
+        <v>3885</v>
       </c>
       <c r="J978" s="9">
         <v>9435195118</v>
       </c>
       <c r="K978" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="979" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -46381,25 +46381,25 @@
       <c r="C979" s="7"/>
       <c r="D979" s="7"/>
       <c r="E979" s="7" t="s">
-        <v>3803</v>
+        <v>3798</v>
       </c>
       <c r="F979" s="8">
         <v>24167</v>
       </c>
       <c r="G979" s="7" t="s">
-        <v>3804</v>
+        <v>3799</v>
       </c>
       <c r="H979" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I979" s="7" t="s">
-        <v>3899</v>
+        <v>3886</v>
       </c>
       <c r="J979" s="9">
         <v>9435110761</v>
       </c>
       <c r="K979" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="980" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -46408,25 +46408,25 @@
       <c r="C980" s="7"/>
       <c r="D980" s="7"/>
       <c r="E980" s="7" t="s">
-        <v>3805</v>
+        <v>4458</v>
       </c>
       <c r="F980" s="8">
         <v>23429</v>
       </c>
       <c r="G980" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H980" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I980" s="7" t="s">
-        <v>3900</v>
+        <v>3887</v>
       </c>
       <c r="J980" s="9">
         <v>8638428450</v>
       </c>
       <c r="K980" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="981" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -46435,25 +46435,25 @@
       <c r="C981" s="7"/>
       <c r="D981" s="7"/>
       <c r="E981" s="7" t="s">
-        <v>3806</v>
+        <v>4459</v>
       </c>
       <c r="F981" s="8">
         <v>23102</v>
       </c>
       <c r="G981" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H981" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I981" s="7" t="s">
-        <v>3901</v>
+        <v>3888</v>
       </c>
       <c r="J981" s="9">
         <v>9435127577</v>
       </c>
       <c r="K981" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="982" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -46462,25 +46462,25 @@
       <c r="C982" s="7"/>
       <c r="D982" s="7"/>
       <c r="E982" s="7" t="s">
-        <v>3807</v>
+        <v>4460</v>
       </c>
       <c r="F982" s="8">
         <v>22287</v>
       </c>
       <c r="G982" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H982" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I982" s="7" t="s">
-        <v>3902</v>
+        <v>3889</v>
       </c>
       <c r="J982" s="9">
         <v>9577011722</v>
       </c>
       <c r="K982" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="983" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -46489,25 +46489,25 @@
       <c r="C983" s="7"/>
       <c r="D983" s="7"/>
       <c r="E983" s="7" t="s">
-        <v>3808</v>
+        <v>4461</v>
       </c>
       <c r="F983" s="8">
         <v>24110</v>
       </c>
       <c r="G983" s="7" t="s">
-        <v>3809</v>
+        <v>3800</v>
       </c>
       <c r="H983" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I983" s="7" t="s">
-        <v>3903</v>
+        <v>3890</v>
       </c>
       <c r="J983" s="9">
         <v>9954425354</v>
       </c>
       <c r="K983" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="984" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -46516,23 +46516,23 @@
       <c r="C984" s="7"/>
       <c r="D984" s="7"/>
       <c r="E984" s="7" t="s">
-        <v>3810</v>
+        <v>4462</v>
       </c>
       <c r="F984" s="8">
         <v>23224</v>
       </c>
       <c r="G984" s="7" t="s">
-        <v>3811</v>
+        <v>3801</v>
       </c>
       <c r="H984" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I984" s="7" t="s">
-        <v>3904</v>
+        <v>3891</v>
       </c>
       <c r="J984" s="9"/>
       <c r="K984" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="985" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -46541,25 +46541,25 @@
       <c r="C985" s="7"/>
       <c r="D985" s="7"/>
       <c r="E985" s="7" t="s">
-        <v>3812</v>
+        <v>4463</v>
       </c>
       <c r="F985" s="8">
         <v>24166</v>
       </c>
       <c r="G985" s="7" t="s">
-        <v>3813</v>
+        <v>3802</v>
       </c>
       <c r="H985" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I985" s="7" t="s">
-        <v>3905</v>
+        <v>3892</v>
       </c>
       <c r="J985" s="9">
         <v>7002655615</v>
       </c>
       <c r="K985" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="986" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46568,25 +46568,25 @@
       <c r="C986" s="7"/>
       <c r="D986" s="7"/>
       <c r="E986" s="7" t="s">
-        <v>3814</v>
+        <v>3803</v>
       </c>
       <c r="F986" s="8">
         <v>24929</v>
       </c>
       <c r="G986" s="7" t="s">
-        <v>3815</v>
+        <v>3804</v>
       </c>
       <c r="H986" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I986" s="7" t="s">
-        <v>3906</v>
+        <v>3893</v>
       </c>
       <c r="J986" s="9">
         <v>9435082741</v>
       </c>
       <c r="K986" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="987" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -46595,25 +46595,25 @@
       <c r="C987" s="7"/>
       <c r="D987" s="7"/>
       <c r="E987" s="7" t="s">
-        <v>3816</v>
+        <v>3805</v>
       </c>
       <c r="F987" s="8">
         <v>24504</v>
       </c>
       <c r="G987" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H987" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I987" s="7" t="s">
-        <v>3907</v>
+        <v>3894</v>
       </c>
       <c r="J987" s="9">
         <v>9435505584</v>
       </c>
       <c r="K987" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="988" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -46622,23 +46622,23 @@
       <c r="C988" s="7"/>
       <c r="D988" s="7"/>
       <c r="E988" s="7" t="s">
-        <v>3817</v>
+        <v>4464</v>
       </c>
       <c r="F988" s="8">
         <v>24193</v>
       </c>
       <c r="G988" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H988" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I988" s="7" t="s">
-        <v>3908</v>
+        <v>3895</v>
       </c>
       <c r="J988" s="9"/>
       <c r="K988" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="989" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46647,25 +46647,25 @@
       <c r="C989" s="7"/>
       <c r="D989" s="7"/>
       <c r="E989" s="7" t="s">
-        <v>3818</v>
+        <v>3806</v>
       </c>
       <c r="F989" s="8">
         <v>25263</v>
       </c>
       <c r="G989" s="7" t="s">
-        <v>3819</v>
+        <v>3807</v>
       </c>
       <c r="H989" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I989" s="7" t="s">
-        <v>3909</v>
+        <v>3896</v>
       </c>
       <c r="J989" s="9">
         <v>9854289976</v>
       </c>
       <c r="K989" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="990" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46674,25 +46674,25 @@
       <c r="C990" s="7"/>
       <c r="D990" s="7"/>
       <c r="E990" s="7" t="s">
-        <v>3820</v>
+        <v>3808</v>
       </c>
       <c r="F990" s="8">
         <v>24286</v>
       </c>
       <c r="G990" s="7" t="s">
-        <v>3821</v>
+        <v>3809</v>
       </c>
       <c r="H990" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I990" s="7" t="s">
-        <v>3910</v>
+        <v>3897</v>
       </c>
       <c r="J990" s="9">
         <v>7002852103</v>
       </c>
       <c r="K990" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="991" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46701,25 +46701,25 @@
       <c r="C991" s="7"/>
       <c r="D991" s="7"/>
       <c r="E991" s="7" t="s">
-        <v>3822</v>
+        <v>3810</v>
       </c>
       <c r="F991" s="8">
         <v>24898</v>
       </c>
       <c r="G991" s="7" t="s">
-        <v>3823</v>
+        <v>3811</v>
       </c>
       <c r="H991" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I991" s="7" t="s">
-        <v>3911</v>
+        <v>3898</v>
       </c>
       <c r="J991" s="9">
         <v>9101892538</v>
       </c>
       <c r="K991" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="992" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -46728,25 +46728,25 @@
       <c r="C992" s="7"/>
       <c r="D992" s="7"/>
       <c r="E992" s="7" t="s">
-        <v>3824</v>
+        <v>3812</v>
       </c>
       <c r="F992" s="8">
         <v>24898</v>
       </c>
       <c r="G992" s="7" t="s">
-        <v>3825</v>
+        <v>3813</v>
       </c>
       <c r="H992" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I992" s="7" t="s">
-        <v>3912</v>
+        <v>3899</v>
       </c>
       <c r="J992" s="9">
         <v>7086409597</v>
       </c>
       <c r="K992" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="993" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -46755,25 +46755,25 @@
       <c r="C993" s="7"/>
       <c r="D993" s="7"/>
       <c r="E993" s="7" t="s">
-        <v>3826</v>
+        <v>3814</v>
       </c>
       <c r="F993" s="8">
         <v>19360</v>
       </c>
       <c r="G993" s="7" t="s">
-        <v>3827</v>
+        <v>3815</v>
       </c>
       <c r="H993" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I993" s="7" t="s">
-        <v>3913</v>
+        <v>3900</v>
       </c>
       <c r="J993" s="9">
         <v>9435303966</v>
       </c>
       <c r="K993" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="994" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -46782,23 +46782,23 @@
       <c r="C994" s="7"/>
       <c r="D994" s="7"/>
       <c r="E994" s="7" t="s">
-        <v>3828</v>
+        <v>3816</v>
       </c>
       <c r="F994" s="8">
         <v>25263</v>
       </c>
       <c r="G994" s="7" t="s">
-        <v>3829</v>
+        <v>3817</v>
       </c>
       <c r="H994" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I994" s="7" t="s">
-        <v>3914</v>
+        <v>3901</v>
       </c>
       <c r="J994" s="9"/>
       <c r="K994" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="995" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -46807,25 +46807,25 @@
       <c r="C995" s="7"/>
       <c r="D995" s="7"/>
       <c r="E995" s="7" t="s">
-        <v>3830</v>
+        <v>3818</v>
       </c>
       <c r="F995" s="8">
         <v>24926</v>
       </c>
       <c r="G995" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H995" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I995" s="7" t="s">
-        <v>3915</v>
+        <v>3902</v>
       </c>
       <c r="J995" s="9">
         <v>9419011945</v>
       </c>
       <c r="K995" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="996" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -46834,25 +46834,25 @@
       <c r="C996" s="7"/>
       <c r="D996" s="7"/>
       <c r="E996" s="7" t="s">
-        <v>3831</v>
+        <v>3819</v>
       </c>
       <c r="F996" s="8">
         <v>25628</v>
       </c>
       <c r="G996" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H996" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I996" s="7" t="s">
-        <v>3916</v>
+        <v>3903</v>
       </c>
       <c r="J996" s="9">
         <v>9435083281</v>
       </c>
       <c r="K996" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="997" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -46861,23 +46861,23 @@
       <c r="C997" s="7"/>
       <c r="D997" s="7"/>
       <c r="E997" s="7" t="s">
-        <v>3832</v>
+        <v>3820</v>
       </c>
       <c r="F997" s="8">
         <v>26682</v>
       </c>
       <c r="G997" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H997" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I997" s="7" t="s">
-        <v>3917</v>
+        <v>3904</v>
       </c>
       <c r="J997" s="9"/>
       <c r="K997" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="998" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46886,23 +46886,23 @@
       <c r="C998" s="7"/>
       <c r="D998" s="7"/>
       <c r="E998" s="7" t="s">
-        <v>3833</v>
+        <v>3821</v>
       </c>
       <c r="F998" s="8">
         <v>27082</v>
       </c>
       <c r="G998" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H998" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I998" s="7" t="s">
-        <v>3918</v>
+        <v>3905</v>
       </c>
       <c r="J998" s="9"/>
       <c r="K998" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="999" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46911,25 +46911,25 @@
       <c r="C999" s="7"/>
       <c r="D999" s="7"/>
       <c r="E999" s="7" t="s">
-        <v>3834</v>
+        <v>3822</v>
       </c>
       <c r="F999" s="8">
         <v>27049</v>
       </c>
       <c r="G999" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H999" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I999" s="7" t="s">
-        <v>3919</v>
+        <v>3906</v>
       </c>
       <c r="J999" s="9">
         <v>8811014787</v>
       </c>
       <c r="K999" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1000" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46938,25 +46938,25 @@
       <c r="C1000" s="7"/>
       <c r="D1000" s="7"/>
       <c r="E1000" s="7" t="s">
-        <v>3835</v>
+        <v>3823</v>
       </c>
       <c r="F1000" s="8">
         <v>27287</v>
       </c>
       <c r="G1000" s="7" t="s">
-        <v>3836</v>
+        <v>3824</v>
       </c>
       <c r="H1000" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1000" s="7" t="s">
-        <v>3920</v>
+        <v>3907</v>
       </c>
       <c r="J1000" s="9">
         <v>8837262227</v>
       </c>
       <c r="K1000" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1001" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -46971,25 +46971,25 @@
         <v>179</v>
       </c>
       <c r="E1001" s="7" t="s">
-        <v>3837</v>
+        <v>3825</v>
       </c>
       <c r="F1001" s="8">
         <v>27504</v>
       </c>
       <c r="G1001" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1001" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1001" s="7" t="s">
-        <v>3921</v>
+        <v>3908</v>
       </c>
       <c r="J1001" s="9">
         <v>9854047807</v>
       </c>
       <c r="K1001" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1002" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47004,25 +47004,25 @@
         <v>225</v>
       </c>
       <c r="E1002" s="7" t="s">
-        <v>3838</v>
+        <v>3826</v>
       </c>
       <c r="F1002" s="8">
         <v>25902</v>
       </c>
       <c r="G1002" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1002" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1002" s="7" t="s">
-        <v>3922</v>
+        <v>3909</v>
       </c>
       <c r="J1002" s="9">
         <v>8011785954</v>
       </c>
       <c r="K1002" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1003" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47037,25 +47037,25 @@
         <v>192</v>
       </c>
       <c r="E1003" s="7" t="s">
-        <v>3839</v>
+        <v>3827</v>
       </c>
       <c r="F1003" s="8">
         <v>26011</v>
       </c>
       <c r="G1003" s="7" t="s">
-        <v>3840</v>
+        <v>3828</v>
       </c>
       <c r="H1003" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1003" s="7" t="s">
-        <v>3923</v>
+        <v>3910</v>
       </c>
       <c r="J1003" s="9">
         <v>9435702388</v>
       </c>
       <c r="K1003" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1004" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -47070,25 +47070,25 @@
         <v>185</v>
       </c>
       <c r="E1004" s="7" t="s">
-        <v>3841</v>
+        <v>3829</v>
       </c>
       <c r="F1004" s="8">
         <v>27334</v>
       </c>
       <c r="G1004" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1004" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1004" s="7" t="s">
-        <v>3924</v>
+        <v>3911</v>
       </c>
       <c r="J1004" s="9">
         <v>8753885884</v>
       </c>
       <c r="K1004" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1005" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -47103,28 +47103,28 @@
         <v>181</v>
       </c>
       <c r="E1005" s="7" t="s">
-        <v>3842</v>
+        <v>3830</v>
       </c>
       <c r="F1005" s="8">
         <v>26724</v>
       </c>
       <c r="G1005" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1005" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1005" s="7" t="s">
-        <v>3925</v>
+        <v>3912</v>
       </c>
       <c r="J1005" s="9">
         <v>9435041951</v>
       </c>
       <c r="K1005" s="7" t="s">
-        <v>3891</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1006" s="7"/>
       <c r="B1006" s="7">
         <v>1999</v>
@@ -47136,25 +47136,25 @@
         <v>179</v>
       </c>
       <c r="E1006" s="7" t="s">
-        <v>3843</v>
+        <v>4465</v>
       </c>
       <c r="F1006" s="8">
         <v>27426</v>
       </c>
       <c r="G1006" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1006" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1006" s="7" t="s">
-        <v>3926</v>
+        <v>3913</v>
       </c>
       <c r="J1006" s="9">
         <v>8402046333</v>
       </c>
       <c r="K1006" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1007" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -47169,25 +47169,25 @@
         <v>270</v>
       </c>
       <c r="E1007" s="7" t="s">
-        <v>3844</v>
+        <v>3831</v>
       </c>
       <c r="F1007" s="8">
         <v>26724</v>
       </c>
       <c r="G1007" s="7" t="s">
-        <v>3845</v>
+        <v>3832</v>
       </c>
       <c r="H1007" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1007" s="7" t="s">
-        <v>3927</v>
+        <v>3914</v>
       </c>
       <c r="J1007" s="9">
         <v>7002585745</v>
       </c>
       <c r="K1007" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1008" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -47202,25 +47202,25 @@
         <v>270</v>
       </c>
       <c r="E1008" s="7" t="s">
-        <v>3846</v>
+        <v>3833</v>
       </c>
       <c r="F1008" s="8">
         <v>25993</v>
       </c>
       <c r="G1008" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1008" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1008" s="7" t="s">
-        <v>3928</v>
+        <v>3915</v>
       </c>
       <c r="J1008" s="9">
         <v>9435182806</v>
       </c>
       <c r="K1008" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1009" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -47229,25 +47229,25 @@
       <c r="C1009" s="7"/>
       <c r="D1009" s="7"/>
       <c r="E1009" s="7" t="s">
-        <v>3847</v>
+        <v>3834</v>
       </c>
       <c r="F1009" s="8">
         <v>24926</v>
       </c>
       <c r="G1009" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1009" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1009" s="7" t="s">
-        <v>3929</v>
+        <v>3916</v>
       </c>
       <c r="J1009" s="9">
         <v>9435125082</v>
       </c>
       <c r="K1009" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1010" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -47262,25 +47262,25 @@
         <v>237</v>
       </c>
       <c r="E1010" s="7" t="s">
-        <v>3848</v>
+        <v>3835</v>
       </c>
       <c r="F1010" s="8">
         <v>27072</v>
       </c>
       <c r="G1010" s="7" t="s">
-        <v>3849</v>
+        <v>3836</v>
       </c>
       <c r="H1010" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1010" s="7" t="s">
-        <v>3930</v>
+        <v>3917</v>
       </c>
       <c r="J1010" s="9">
         <v>7002324548</v>
       </c>
       <c r="K1010" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1011" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47295,25 +47295,25 @@
         <v>307</v>
       </c>
       <c r="E1011" s="7" t="s">
-        <v>3850</v>
+        <v>3837</v>
       </c>
       <c r="F1011" s="8">
         <v>27791</v>
       </c>
       <c r="G1011" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1011" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1011" s="7" t="s">
-        <v>3931</v>
+        <v>3918</v>
       </c>
       <c r="J1011" s="9">
         <v>8473906605</v>
       </c>
       <c r="K1011" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1012" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -47322,23 +47322,23 @@
       <c r="C1012" s="7"/>
       <c r="D1012" s="7"/>
       <c r="E1012" s="7" t="s">
-        <v>3851</v>
+        <v>3838</v>
       </c>
       <c r="F1012" s="8">
         <v>27608</v>
       </c>
       <c r="G1012" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1012" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1012" s="7" t="s">
-        <v>3932</v>
+        <v>3919</v>
       </c>
       <c r="J1012" s="9"/>
       <c r="K1012" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1013" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47347,25 +47347,25 @@
       <c r="C1013" s="7"/>
       <c r="D1013" s="7"/>
       <c r="E1013" s="7" t="s">
-        <v>3852</v>
+        <v>3839</v>
       </c>
       <c r="F1013" s="8">
         <v>27691</v>
       </c>
       <c r="G1013" s="7" t="s">
-        <v>3853</v>
+        <v>3840</v>
       </c>
       <c r="H1013" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1013" s="7" t="s">
-        <v>3933</v>
+        <v>3920</v>
       </c>
       <c r="J1013" s="9">
         <v>8981558104</v>
       </c>
       <c r="K1013" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1014" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47374,25 +47374,25 @@
       <c r="C1014" s="7"/>
       <c r="D1014" s="7"/>
       <c r="E1014" s="7" t="s">
-        <v>3854</v>
+        <v>3841</v>
       </c>
       <c r="F1014" s="8">
         <v>26944</v>
       </c>
       <c r="G1014" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1014" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1014" s="7" t="s">
-        <v>3934</v>
+        <v>3921</v>
       </c>
       <c r="J1014" s="9">
         <v>9401057456</v>
       </c>
       <c r="K1014" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1015" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -47407,25 +47407,25 @@
         <v>370</v>
       </c>
       <c r="E1015" s="7" t="s">
-        <v>3855</v>
+        <v>3842</v>
       </c>
       <c r="F1015" s="8">
         <v>27023</v>
       </c>
       <c r="G1015" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1015" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1015" s="7" t="s">
-        <v>3935</v>
+        <v>3922</v>
       </c>
       <c r="J1015" s="9">
         <v>9818941573</v>
       </c>
       <c r="K1015" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1016" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47440,25 +47440,25 @@
         <v>247</v>
       </c>
       <c r="E1016" s="7" t="s">
-        <v>3856</v>
+        <v>3843</v>
       </c>
       <c r="F1016" s="8">
         <v>27819</v>
       </c>
       <c r="G1016" s="7" t="s">
-        <v>3857</v>
+        <v>3844</v>
       </c>
       <c r="H1016" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1016" s="7" t="s">
-        <v>3936</v>
+        <v>3923</v>
       </c>
       <c r="J1016" s="9">
         <v>9854243438</v>
       </c>
       <c r="K1016" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1017" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -47467,23 +47467,23 @@
       <c r="C1017" s="7"/>
       <c r="D1017" s="7"/>
       <c r="E1017" s="7" t="s">
-        <v>3858</v>
+        <v>3845</v>
       </c>
       <c r="F1017" s="8">
         <v>28185</v>
       </c>
       <c r="G1017" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1017" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1017" s="7" t="s">
-        <v>3937</v>
+        <v>3924</v>
       </c>
       <c r="J1017" s="9"/>
       <c r="K1017" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1018" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47492,23 +47492,23 @@
       <c r="C1018" s="7"/>
       <c r="D1018" s="7"/>
       <c r="E1018" s="7" t="s">
-        <v>3859</v>
+        <v>3846</v>
       </c>
       <c r="F1018" s="8">
         <v>27638</v>
       </c>
       <c r="G1018" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1018" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1018" s="7" t="s">
-        <v>3938</v>
+        <v>3925</v>
       </c>
       <c r="J1018" s="9"/>
       <c r="K1018" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1019" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47517,23 +47517,23 @@
       <c r="C1019" s="7"/>
       <c r="D1019" s="7"/>
       <c r="E1019" s="7" t="s">
-        <v>3860</v>
+        <v>3847</v>
       </c>
       <c r="F1019" s="8">
         <v>28156</v>
       </c>
       <c r="G1019" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1019" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1019" s="7" t="s">
-        <v>3939</v>
+        <v>3926</v>
       </c>
       <c r="J1019" s="9"/>
       <c r="K1019" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1020" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47542,25 +47542,25 @@
       <c r="C1020" s="7"/>
       <c r="D1020" s="7"/>
       <c r="E1020" s="7" t="s">
-        <v>3861</v>
+        <v>3848</v>
       </c>
       <c r="F1020" s="8">
         <v>27682</v>
       </c>
       <c r="G1020" s="7" t="s">
-        <v>3862</v>
+        <v>3849</v>
       </c>
       <c r="H1020" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1020" s="7" t="s">
-        <v>3940</v>
+        <v>3927</v>
       </c>
       <c r="J1020" s="9">
         <v>7002039865</v>
       </c>
       <c r="K1020" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1021" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47575,25 +47575,25 @@
         <v>142</v>
       </c>
       <c r="E1021" s="7" t="s">
-        <v>3863</v>
+        <v>3850</v>
       </c>
       <c r="F1021" s="8">
         <v>29027</v>
       </c>
       <c r="G1021" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1021" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1021" s="7" t="s">
-        <v>3941</v>
+        <v>3928</v>
       </c>
       <c r="J1021" s="9">
         <v>9866421693</v>
       </c>
       <c r="K1021" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1022" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47602,23 +47602,23 @@
       <c r="C1022" s="7"/>
       <c r="D1022" s="7"/>
       <c r="E1022" s="7" t="s">
-        <v>3864</v>
+        <v>3851</v>
       </c>
       <c r="F1022" s="8">
         <v>29646</v>
       </c>
       <c r="G1022" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1022" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1022" s="7" t="s">
-        <v>3942</v>
+        <v>3929</v>
       </c>
       <c r="J1022" s="9"/>
       <c r="K1022" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1023" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47633,23 +47633,23 @@
         <v>286</v>
       </c>
       <c r="E1023" s="7" t="s">
-        <v>3865</v>
+        <v>3852</v>
       </c>
       <c r="F1023" s="8">
         <v>29281</v>
       </c>
       <c r="G1023" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1023" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1023" s="7" t="s">
-        <v>3943</v>
+        <v>3930</v>
       </c>
       <c r="J1023" s="9"/>
       <c r="K1023" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1024" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47664,23 +47664,23 @@
         <v>119</v>
       </c>
       <c r="E1024" s="7" t="s">
-        <v>3866</v>
+        <v>3853</v>
       </c>
       <c r="F1024" s="8">
         <v>31803</v>
       </c>
       <c r="G1024" s="7" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1024" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1024" s="7" t="s">
-        <v>3944</v>
+        <v>3931</v>
       </c>
       <c r="J1024" s="9"/>
       <c r="K1024" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1025" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47689,25 +47689,25 @@
       <c r="C1025" s="7"/>
       <c r="D1025" s="7"/>
       <c r="E1025" s="7" t="s">
-        <v>3867</v>
+        <v>3854</v>
       </c>
       <c r="F1025" s="8">
         <v>25628</v>
       </c>
       <c r="G1025" s="7" t="s">
-        <v>3868</v>
+        <v>3855</v>
       </c>
       <c r="H1025" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1025" s="7" t="s">
-        <v>3945</v>
+        <v>3932</v>
       </c>
       <c r="J1025" s="9">
         <v>8473085326</v>
       </c>
       <c r="K1025" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1026" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -47722,25 +47722,25 @@
         <v>142</v>
       </c>
       <c r="E1026" s="7" t="s">
-        <v>3869</v>
+        <v>3856</v>
       </c>
       <c r="F1026" s="8">
         <v>34360</v>
       </c>
       <c r="G1026" s="7" t="s">
-        <v>3870</v>
+        <v>3857</v>
       </c>
       <c r="H1026" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1026" s="7" t="s">
-        <v>3946</v>
+        <v>3933</v>
       </c>
       <c r="J1026" s="9">
         <v>7002739184</v>
       </c>
       <c r="K1026" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1027" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -47755,25 +47755,25 @@
         <v>198</v>
       </c>
       <c r="E1027" s="7" t="s">
-        <v>3871</v>
+        <v>3858</v>
       </c>
       <c r="F1027" s="8">
         <v>34366</v>
       </c>
       <c r="G1027" s="7" t="s">
-        <v>3872</v>
+        <v>3859</v>
       </c>
       <c r="H1027" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1027" s="7" t="s">
-        <v>3947</v>
+        <v>3934</v>
       </c>
       <c r="J1027" s="9">
         <v>9707989486</v>
       </c>
       <c r="K1027" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1028" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -47782,25 +47782,25 @@
       <c r="C1028" s="7"/>
       <c r="D1028" s="7"/>
       <c r="E1028" s="7" t="s">
-        <v>4472</v>
+        <v>4443</v>
       </c>
       <c r="F1028" s="8">
         <v>35330</v>
       </c>
       <c r="G1028" s="7" t="s">
-        <v>4473</v>
+        <v>4444</v>
       </c>
       <c r="H1028" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1028" s="7" t="s">
-        <v>4474</v>
+        <v>4445</v>
       </c>
       <c r="J1028" s="9">
         <v>7086516495</v>
       </c>
       <c r="K1028" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1029" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -47809,23 +47809,23 @@
       <c r="C1029" s="7"/>
       <c r="D1029" s="7"/>
       <c r="E1029" s="7" t="s">
-        <v>3873</v>
+        <v>3860</v>
       </c>
       <c r="F1029" s="8"/>
       <c r="G1029" s="7" t="s">
-        <v>3874</v>
+        <v>3861</v>
       </c>
       <c r="H1029" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1029" s="7" t="s">
-        <v>3948</v>
+        <v>3935</v>
       </c>
       <c r="J1029" s="9">
         <v>7086644885</v>
       </c>
       <c r="K1029" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1030" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -47840,25 +47840,25 @@
         <v>344</v>
       </c>
       <c r="E1030" s="7" t="s">
-        <v>3875</v>
+        <v>3862</v>
       </c>
       <c r="F1030" s="8">
         <v>35751</v>
       </c>
       <c r="G1030" s="7" t="s">
-        <v>3876</v>
+        <v>3863</v>
       </c>
       <c r="H1030" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1030" s="7" t="s">
-        <v>3949</v>
+        <v>3936</v>
       </c>
       <c r="J1030" s="9">
         <v>8638086379</v>
       </c>
       <c r="K1030" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1031" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47873,25 +47873,25 @@
         <v>344</v>
       </c>
       <c r="E1031" s="7" t="s">
-        <v>3877</v>
+        <v>3864</v>
       </c>
       <c r="F1031" s="8">
         <v>35363</v>
       </c>
       <c r="G1031" s="7" t="s">
-        <v>3878</v>
+        <v>3865</v>
       </c>
       <c r="H1031" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1031" s="7" t="s">
-        <v>3950</v>
+        <v>3937</v>
       </c>
       <c r="J1031" s="9">
         <v>8486568013</v>
       </c>
       <c r="K1031" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1032" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -47906,25 +47906,25 @@
         <v>344</v>
       </c>
       <c r="E1032" s="7" t="s">
-        <v>3879</v>
+        <v>3866</v>
       </c>
       <c r="F1032" s="8">
         <v>35474</v>
       </c>
       <c r="G1032" s="7" t="s">
-        <v>3880</v>
+        <v>3867</v>
       </c>
       <c r="H1032" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1032" s="7" t="s">
-        <v>3951</v>
+        <v>3938</v>
       </c>
       <c r="J1032" s="9">
         <v>9085388367</v>
       </c>
       <c r="K1032" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1033" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -47939,25 +47939,25 @@
         <v>344</v>
       </c>
       <c r="E1033" s="7" t="s">
-        <v>3881</v>
+        <v>3868</v>
       </c>
       <c r="F1033" s="8">
         <v>35080</v>
       </c>
       <c r="G1033" s="7" t="s">
-        <v>3882</v>
+        <v>3869</v>
       </c>
       <c r="H1033" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1033" s="7" t="s">
-        <v>3952</v>
+        <v>3939</v>
       </c>
       <c r="J1033" s="9">
         <v>8822340659</v>
       </c>
       <c r="K1033" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1034" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47972,25 +47972,25 @@
         <v>344</v>
       </c>
       <c r="E1034" s="7" t="s">
-        <v>3883</v>
+        <v>3870</v>
       </c>
       <c r="F1034" s="8">
         <v>35869</v>
       </c>
       <c r="G1034" s="7" t="s">
-        <v>3884</v>
+        <v>3871</v>
       </c>
       <c r="H1034" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1034" s="7" t="s">
-        <v>3953</v>
+        <v>3940</v>
       </c>
       <c r="J1034" s="9">
         <v>8135949992</v>
       </c>
       <c r="K1034" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1035" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48005,25 +48005,25 @@
         <v>319</v>
       </c>
       <c r="E1035" s="7" t="s">
-        <v>3885</v>
+        <v>3872</v>
       </c>
       <c r="F1035" s="8">
         <v>35861</v>
       </c>
       <c r="G1035" s="7" t="s">
-        <v>3886</v>
+        <v>3873</v>
       </c>
       <c r="H1035" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1035" s="7" t="s">
-        <v>3954</v>
+        <v>3941</v>
       </c>
       <c r="J1035" s="9">
         <v>9101370189</v>
       </c>
       <c r="K1035" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1036" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48038,25 +48038,25 @@
         <v>319</v>
       </c>
       <c r="E1036" s="7" t="s">
-        <v>3887</v>
+        <v>3874</v>
       </c>
       <c r="F1036" s="8">
         <v>35828</v>
       </c>
       <c r="G1036" s="7" t="s">
-        <v>3888</v>
+        <v>3875</v>
       </c>
       <c r="H1036" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1036" s="7" t="s">
-        <v>3955</v>
+        <v>3942</v>
       </c>
       <c r="J1036" s="9">
         <v>9101126144</v>
       </c>
       <c r="K1036" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1037" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48071,25 +48071,25 @@
         <v>319</v>
       </c>
       <c r="E1037" s="7" t="s">
-        <v>3889</v>
+        <v>3876</v>
       </c>
       <c r="F1037" s="8">
         <v>36011</v>
       </c>
       <c r="G1037" s="7" t="s">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="H1037" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I1037" s="7" t="s">
-        <v>3956</v>
+        <v>3943</v>
       </c>
       <c r="J1037" s="9">
         <v>6000925311</v>
       </c>
       <c r="K1037" s="7" t="s">
-        <v>3891</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1038" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48104,25 +48104,25 @@
         <v>273</v>
       </c>
       <c r="E1038" s="10" t="s">
-        <v>4161</v>
+        <v>4466</v>
       </c>
       <c r="F1038" s="11">
         <v>21489</v>
       </c>
       <c r="G1038" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1038" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1038" s="10" t="s">
-        <v>3957</v>
+        <v>3944</v>
       </c>
       <c r="J1038" s="10">
         <v>9435346950</v>
       </c>
       <c r="K1038" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1039" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48131,25 +48131,25 @@
       <c r="C1039" s="10"/>
       <c r="D1039" s="10"/>
       <c r="E1039" s="10" t="s">
-        <v>4162</v>
+        <v>4148</v>
       </c>
       <c r="F1039" s="11">
         <v>21765</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>4367</v>
+        <v>4338</v>
       </c>
       <c r="H1039" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1039" s="10" t="s">
-        <v>3958</v>
+        <v>3945</v>
       </c>
       <c r="J1039" s="10">
         <v>9435013717</v>
       </c>
       <c r="K1039" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1040" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48164,25 +48164,25 @@
         <v>272</v>
       </c>
       <c r="E1040" s="10" t="s">
-        <v>4163</v>
+        <v>4149</v>
       </c>
       <c r="F1040" s="11">
         <v>21855</v>
       </c>
       <c r="G1040" s="10" t="s">
-        <v>4368</v>
+        <v>4339</v>
       </c>
       <c r="H1040" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1040" s="10" t="s">
-        <v>3959</v>
+        <v>3946</v>
       </c>
       <c r="J1040" s="10">
         <v>9508080227</v>
       </c>
       <c r="K1040" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1041" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48197,25 +48197,25 @@
         <v>269</v>
       </c>
       <c r="E1041" s="10" t="s">
-        <v>4164</v>
+        <v>4467</v>
       </c>
       <c r="F1041" s="11">
         <v>19993</v>
       </c>
       <c r="G1041" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1041" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1041" s="10" t="s">
-        <v>3960</v>
+        <v>3947</v>
       </c>
       <c r="J1041" s="10">
         <v>9864049712</v>
       </c>
       <c r="K1041" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1042" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48230,23 +48230,23 @@
         <v>263</v>
       </c>
       <c r="E1042" s="10" t="s">
-        <v>4165</v>
+        <v>4468</v>
       </c>
       <c r="F1042" s="11">
         <v>17292</v>
       </c>
       <c r="G1042" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1042" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1042" s="10" t="s">
-        <v>3961</v>
+        <v>3948</v>
       </c>
       <c r="J1042" s="10"/>
       <c r="K1042" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1043" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -48261,23 +48261,23 @@
         <v>275</v>
       </c>
       <c r="E1043" s="10" t="s">
-        <v>4166</v>
+        <v>4150</v>
       </c>
       <c r="F1043" s="11">
         <v>19996</v>
       </c>
       <c r="G1043" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1043" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1043" s="10" t="s">
-        <v>3962</v>
+        <v>3949</v>
       </c>
       <c r="J1043" s="10"/>
       <c r="K1043" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1044" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48286,25 +48286,25 @@
       <c r="C1044" s="10"/>
       <c r="D1044" s="10"/>
       <c r="E1044" s="10" t="s">
-        <v>4167</v>
+        <v>4151</v>
       </c>
       <c r="F1044" s="11">
         <v>21916</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>4369</v>
+        <v>4340</v>
       </c>
       <c r="H1044" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1044" s="10" t="s">
-        <v>3963</v>
+        <v>3950</v>
       </c>
       <c r="J1044" s="10">
         <v>9435303948</v>
       </c>
       <c r="K1044" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1045" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -48319,25 +48319,25 @@
         <v>274</v>
       </c>
       <c r="E1045" s="10" t="s">
-        <v>4168</v>
+        <v>4152</v>
       </c>
       <c r="F1045" s="11">
         <v>21794</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>4370</v>
+        <v>4341</v>
       </c>
       <c r="H1045" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1045" s="10" t="s">
-        <v>3964</v>
+        <v>3951</v>
       </c>
       <c r="J1045" s="10">
         <v>9435301365</v>
       </c>
       <c r="K1045" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1046" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48352,25 +48352,25 @@
         <v>264</v>
       </c>
       <c r="E1046" s="10" t="s">
-        <v>4169</v>
+        <v>4153</v>
       </c>
       <c r="F1046" s="11">
         <v>22463</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>4371</v>
+        <v>4342</v>
       </c>
       <c r="H1046" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1046" s="10" t="s">
-        <v>3965</v>
+        <v>3952</v>
       </c>
       <c r="J1046" s="10">
         <v>9435558788</v>
       </c>
       <c r="K1046" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1047" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -48385,25 +48385,25 @@
         <v>264</v>
       </c>
       <c r="E1047" s="10" t="s">
-        <v>4170</v>
+        <v>4154</v>
       </c>
       <c r="F1047" s="11">
         <v>22680</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>4372</v>
+        <v>4343</v>
       </c>
       <c r="H1047" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1047" s="10" t="s">
-        <v>3966</v>
+        <v>3953</v>
       </c>
       <c r="J1047" s="10">
         <v>9435303854</v>
       </c>
       <c r="K1047" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1048" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -48418,25 +48418,25 @@
         <v>281</v>
       </c>
       <c r="E1048" s="10" t="s">
-        <v>4171</v>
+        <v>4469</v>
       </c>
       <c r="F1048" s="11">
         <v>22240</v>
       </c>
       <c r="G1048" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1048" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1048" s="10" t="s">
-        <v>3967</v>
+        <v>3954</v>
       </c>
       <c r="J1048" s="10">
         <v>9435061608</v>
       </c>
       <c r="K1048" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1049" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48451,25 +48451,25 @@
         <v>279</v>
       </c>
       <c r="E1049" s="10" t="s">
-        <v>4172</v>
+        <v>4155</v>
       </c>
       <c r="F1049" s="11">
         <v>22941</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>4373</v>
+        <v>4344</v>
       </c>
       <c r="H1049" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1049" s="10" t="s">
-        <v>3968</v>
+        <v>3955</v>
       </c>
       <c r="J1049" s="10">
         <v>9864088585</v>
       </c>
       <c r="K1049" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1050" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48484,25 +48484,25 @@
         <v>284</v>
       </c>
       <c r="E1050" s="10" t="s">
-        <v>4173</v>
+        <v>4156</v>
       </c>
       <c r="F1050" s="11">
         <v>31837</v>
       </c>
       <c r="G1050" s="10" t="s">
-        <v>4374</v>
+        <v>4345</v>
       </c>
       <c r="H1050" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1050" s="10" t="s">
-        <v>3969</v>
+        <v>3956</v>
       </c>
       <c r="J1050" s="10">
         <v>9435046150</v>
       </c>
       <c r="K1050" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1051" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48511,25 +48511,25 @@
       <c r="C1051" s="10"/>
       <c r="D1051" s="10"/>
       <c r="E1051" s="10" t="s">
-        <v>4174</v>
+        <v>4157</v>
       </c>
       <c r="F1051" s="11">
         <v>23621</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>4375</v>
+        <v>4346</v>
       </c>
       <c r="H1051" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1051" s="10" t="s">
-        <v>3970</v>
+        <v>3957</v>
       </c>
       <c r="J1051" s="10">
         <v>9508076090</v>
       </c>
       <c r="K1051" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1052" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48544,25 +48544,25 @@
         <v>285</v>
       </c>
       <c r="E1052" s="10" t="s">
-        <v>4175</v>
+        <v>4158</v>
       </c>
       <c r="F1052" s="11">
         <v>23774</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>4376</v>
+        <v>4347</v>
       </c>
       <c r="H1052" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1052" s="10" t="s">
-        <v>3971</v>
+        <v>3958</v>
       </c>
       <c r="J1052" s="10">
         <v>9435105093</v>
       </c>
       <c r="K1052" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1053" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -48577,25 +48577,25 @@
         <v>284</v>
       </c>
       <c r="E1053" s="10" t="s">
-        <v>4176</v>
+        <v>4159</v>
       </c>
       <c r="F1053" s="11">
         <v>23377</v>
       </c>
       <c r="G1053" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1053" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1053" s="10" t="s">
-        <v>3972</v>
+        <v>3959</v>
       </c>
       <c r="J1053" s="10">
         <v>9678195103</v>
       </c>
       <c r="K1053" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1054" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48604,25 +48604,25 @@
       <c r="C1054" s="10"/>
       <c r="D1054" s="10"/>
       <c r="E1054" s="10" t="s">
-        <v>4177</v>
+        <v>4160</v>
       </c>
       <c r="F1054" s="11">
         <v>22678</v>
       </c>
       <c r="G1054" s="10" t="s">
-        <v>4377</v>
+        <v>4348</v>
       </c>
       <c r="H1054" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1054" s="10" t="s">
-        <v>3973</v>
+        <v>3960</v>
       </c>
       <c r="J1054" s="10">
         <v>9954135017</v>
       </c>
       <c r="K1054" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1055" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48637,25 +48637,25 @@
         <v>289</v>
       </c>
       <c r="E1055" s="10" t="s">
-        <v>4178</v>
+        <v>4161</v>
       </c>
       <c r="F1055" s="11">
         <v>23101</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>4378</v>
+        <v>4349</v>
       </c>
       <c r="H1055" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1055" s="10" t="s">
-        <v>3974</v>
+        <v>3961</v>
       </c>
       <c r="J1055" s="10">
         <v>9435101850</v>
       </c>
       <c r="K1055" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1056" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48670,23 +48670,23 @@
         <v>286</v>
       </c>
       <c r="E1056" s="10" t="s">
-        <v>4179</v>
+        <v>4470</v>
       </c>
       <c r="F1056" s="11"/>
       <c r="G1056" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1056" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1056" s="10" t="s">
-        <v>3975</v>
+        <v>3962</v>
       </c>
       <c r="J1056" s="10">
         <v>9435068249</v>
       </c>
       <c r="K1056" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1057" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48701,25 +48701,25 @@
         <v>287</v>
       </c>
       <c r="E1057" s="10" t="s">
-        <v>4180</v>
+        <v>4162</v>
       </c>
       <c r="F1057" s="11">
         <v>23275</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>4379</v>
+        <v>4350</v>
       </c>
       <c r="H1057" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1057" s="10" t="s">
-        <v>3976</v>
+        <v>3963</v>
       </c>
       <c r="J1057" s="10">
         <v>9678844427</v>
       </c>
       <c r="K1057" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1058" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48734,25 +48734,25 @@
         <v>285</v>
       </c>
       <c r="E1058" s="10" t="s">
-        <v>4181</v>
+        <v>4471</v>
       </c>
       <c r="F1058" s="11">
         <v>21980</v>
       </c>
       <c r="G1058" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1058" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1058" s="10" t="s">
-        <v>3977</v>
+        <v>3964</v>
       </c>
       <c r="J1058" s="10">
         <v>8876718938</v>
       </c>
       <c r="K1058" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1059" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48767,25 +48767,25 @@
         <v>284</v>
       </c>
       <c r="E1059" s="10" t="s">
-        <v>4182</v>
+        <v>4163</v>
       </c>
       <c r="F1059" s="11">
         <v>22859</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>4380</v>
+        <v>4351</v>
       </c>
       <c r="H1059" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1059" s="10" t="s">
-        <v>3978</v>
+        <v>3965</v>
       </c>
       <c r="J1059" s="10">
         <v>9957103023</v>
       </c>
       <c r="K1059" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1060" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -48800,25 +48800,25 @@
         <v>288</v>
       </c>
       <c r="E1060" s="10" t="s">
-        <v>4183</v>
+        <v>4164</v>
       </c>
       <c r="F1060" s="11">
         <v>22657</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>4381</v>
+        <v>4352</v>
       </c>
       <c r="H1060" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1060" s="10" t="s">
-        <v>3979</v>
+        <v>3966</v>
       </c>
       <c r="J1060" s="10">
         <v>6001749158</v>
       </c>
       <c r="K1060" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1061" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48833,25 +48833,25 @@
         <v>290</v>
       </c>
       <c r="E1061" s="10" t="s">
-        <v>4184</v>
+        <v>4165</v>
       </c>
       <c r="F1061" s="11">
         <v>23285</v>
       </c>
       <c r="G1061" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1061" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1061" s="10" t="s">
-        <v>3980</v>
+        <v>3967</v>
       </c>
       <c r="J1061" s="10">
         <v>9435031780</v>
       </c>
       <c r="K1061" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1062" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48866,25 +48866,25 @@
         <v>289</v>
       </c>
       <c r="E1062" s="10" t="s">
-        <v>4185</v>
+        <v>4166</v>
       </c>
       <c r="F1062" s="11">
         <v>22843</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>4382</v>
+        <v>4353</v>
       </c>
       <c r="H1062" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1062" s="10" t="s">
-        <v>3981</v>
+        <v>3968</v>
       </c>
       <c r="J1062" s="10">
         <v>9864044485</v>
       </c>
       <c r="K1062" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1063" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48899,25 +48899,25 @@
         <v>290</v>
       </c>
       <c r="E1063" s="10" t="s">
-        <v>4186</v>
+        <v>4167</v>
       </c>
       <c r="F1063" s="11">
         <v>23855</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>4383</v>
+        <v>4354</v>
       </c>
       <c r="H1063" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1063" s="10" t="s">
-        <v>3982</v>
+        <v>3969</v>
       </c>
       <c r="J1063" s="10">
         <v>9854185645</v>
       </c>
       <c r="K1063" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1064" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48932,25 +48932,25 @@
         <v>289</v>
       </c>
       <c r="E1064" s="10" t="s">
-        <v>4187</v>
+        <v>4168</v>
       </c>
       <c r="F1064" s="11">
         <v>23773</v>
       </c>
       <c r="G1064" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1064" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1064" s="10" t="s">
-        <v>3983</v>
+        <v>3970</v>
       </c>
       <c r="J1064" s="10">
         <v>6001497496</v>
       </c>
       <c r="K1064" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1065" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48965,25 +48965,25 @@
         <v>289</v>
       </c>
       <c r="E1065" s="10" t="s">
-        <v>4188</v>
+        <v>4169</v>
       </c>
       <c r="F1065" s="11">
         <v>24108</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>4384</v>
+        <v>4355</v>
       </c>
       <c r="H1065" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1065" s="10" t="s">
-        <v>3984</v>
+        <v>3971</v>
       </c>
       <c r="J1065" s="10">
         <v>9435101916</v>
       </c>
       <c r="K1065" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1066" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48998,25 +48998,25 @@
         <v>293</v>
       </c>
       <c r="E1066" s="10" t="s">
-        <v>4189</v>
+        <v>4472</v>
       </c>
       <c r="F1066" s="11">
         <v>23802</v>
       </c>
       <c r="G1066" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1066" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1066" s="10" t="s">
-        <v>3985</v>
+        <v>3972</v>
       </c>
       <c r="J1066" s="10">
         <v>9864107951</v>
       </c>
       <c r="K1066" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1067" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49031,25 +49031,25 @@
         <v>292</v>
       </c>
       <c r="E1067" s="10" t="s">
-        <v>4190</v>
+        <v>4170</v>
       </c>
       <c r="F1067" s="11">
         <v>24167</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>4385</v>
+        <v>4356</v>
       </c>
       <c r="H1067" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1067" s="10" t="s">
-        <v>3986</v>
+        <v>3973</v>
       </c>
       <c r="J1067" s="10">
         <v>9435014662</v>
       </c>
       <c r="K1067" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1068" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49058,23 +49058,23 @@
       <c r="C1068" s="10"/>
       <c r="D1068" s="10"/>
       <c r="E1068" s="10" t="s">
-        <v>4191</v>
+        <v>4171</v>
       </c>
       <c r="F1068" s="11">
         <v>24108</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>4386</v>
+        <v>4357</v>
       </c>
       <c r="H1068" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1068" s="10" t="s">
-        <v>3987</v>
+        <v>3974</v>
       </c>
       <c r="J1068" s="10"/>
       <c r="K1068" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1069" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49089,25 +49089,25 @@
         <v>292</v>
       </c>
       <c r="E1069" s="10" t="s">
-        <v>4192</v>
+        <v>4473</v>
       </c>
       <c r="F1069" s="11">
         <v>24167</v>
       </c>
       <c r="G1069" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1069" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1069" s="10" t="s">
-        <v>3988</v>
+        <v>3975</v>
       </c>
       <c r="J1069" s="10">
         <v>9435741789</v>
       </c>
       <c r="K1069" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1070" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49122,25 +49122,25 @@
         <v>294</v>
       </c>
       <c r="E1070" s="10" t="s">
-        <v>4193</v>
+        <v>4474</v>
       </c>
       <c r="F1070" s="11">
         <v>24529</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>4387</v>
+        <v>4358</v>
       </c>
       <c r="H1070" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1070" s="10" t="s">
-        <v>3989</v>
+        <v>3976</v>
       </c>
       <c r="J1070" s="10">
         <v>9435045542</v>
       </c>
       <c r="K1070" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1071" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49155,23 +49155,23 @@
         <v>293</v>
       </c>
       <c r="E1071" s="10" t="s">
-        <v>4194</v>
+        <v>4172</v>
       </c>
       <c r="F1071" s="11">
         <v>23986</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>4388</v>
+        <v>4359</v>
       </c>
       <c r="H1071" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1071" s="10" t="s">
-        <v>3990</v>
+        <v>3977</v>
       </c>
       <c r="J1071" s="10"/>
       <c r="K1071" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1072" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49186,25 +49186,25 @@
         <v>293</v>
       </c>
       <c r="E1072" s="10" t="s">
-        <v>4195</v>
+        <v>4475</v>
       </c>
       <c r="F1072" s="11">
         <v>22883</v>
       </c>
       <c r="G1072" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1072" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1072" s="10" t="s">
-        <v>3991</v>
+        <v>3978</v>
       </c>
       <c r="J1072" s="10">
         <v>7578051388</v>
       </c>
       <c r="K1072" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1073" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49219,25 +49219,25 @@
         <v>293</v>
       </c>
       <c r="E1073" s="10" t="s">
-        <v>4196</v>
+        <v>4173</v>
       </c>
       <c r="F1073" s="11">
         <v>23380</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>4389</v>
+        <v>4360</v>
       </c>
       <c r="H1073" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1073" s="10" t="s">
-        <v>3992</v>
+        <v>3979</v>
       </c>
       <c r="J1073" s="10">
         <v>9435100509</v>
       </c>
       <c r="K1073" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1074" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49252,23 +49252,23 @@
         <v>294</v>
       </c>
       <c r="E1074" s="10" t="s">
-        <v>4197</v>
+        <v>4476</v>
       </c>
       <c r="F1074" s="11">
         <v>23071</v>
       </c>
       <c r="G1074" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1074" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1074" s="10" t="s">
-        <v>3993</v>
+        <v>3980</v>
       </c>
       <c r="J1074" s="10"/>
       <c r="K1074" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1075" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49283,25 +49283,25 @@
         <v>392</v>
       </c>
       <c r="E1075" s="10" t="s">
-        <v>4198</v>
+        <v>4174</v>
       </c>
       <c r="F1075" s="11">
         <v>24532</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>4390</v>
+        <v>4361</v>
       </c>
       <c r="H1075" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1075" s="10" t="s">
-        <v>3994</v>
+        <v>3981</v>
       </c>
       <c r="J1075" s="10">
         <v>6000371439</v>
       </c>
       <c r="K1075" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1076" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49316,25 +49316,25 @@
         <v>393</v>
       </c>
       <c r="E1076" s="10" t="s">
-        <v>4199</v>
+        <v>4175</v>
       </c>
       <c r="F1076" s="11">
         <v>24504</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>4391</v>
+        <v>4362</v>
       </c>
       <c r="H1076" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1076" s="10" t="s">
-        <v>3995</v>
+        <v>3982</v>
       </c>
       <c r="J1076" s="10">
         <v>8876411084</v>
       </c>
       <c r="K1076" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1077" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -49349,23 +49349,23 @@
         <v>396</v>
       </c>
       <c r="E1077" s="10" t="s">
-        <v>4200</v>
+        <v>4176</v>
       </c>
       <c r="F1077" s="11">
         <v>24109</v>
       </c>
       <c r="G1077" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1077" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1077" s="10" t="s">
-        <v>3996</v>
+        <v>3983</v>
       </c>
       <c r="J1077" s="10"/>
       <c r="K1077" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1078" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -49380,25 +49380,25 @@
         <v>395</v>
       </c>
       <c r="E1078" s="10" t="s">
-        <v>4201</v>
+        <v>4177</v>
       </c>
       <c r="F1078" s="11">
         <v>19176</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>4392</v>
+        <v>4363</v>
       </c>
       <c r="H1078" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1078" s="10" t="s">
-        <v>3997</v>
+        <v>3984</v>
       </c>
       <c r="J1078" s="10">
         <v>9864043330</v>
       </c>
       <c r="K1078" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1079" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49413,25 +49413,25 @@
         <v>391</v>
       </c>
       <c r="E1079" s="10" t="s">
-        <v>4202</v>
+        <v>4477</v>
       </c>
       <c r="F1079" s="11">
         <v>24706</v>
       </c>
       <c r="G1079" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1079" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1079" s="10" t="s">
-        <v>3998</v>
+        <v>3985</v>
       </c>
       <c r="J1079" s="10">
         <v>8638277147</v>
       </c>
       <c r="K1079" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1080" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49446,25 +49446,25 @@
         <v>437</v>
       </c>
       <c r="E1080" s="10" t="s">
-        <v>4203</v>
+        <v>4178</v>
       </c>
       <c r="F1080" s="11">
         <v>24869</v>
       </c>
       <c r="G1080" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1080" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1080" s="10" t="s">
-        <v>3999</v>
+        <v>3986</v>
       </c>
       <c r="J1080" s="10">
         <v>9435308739</v>
       </c>
       <c r="K1080" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1081" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49479,25 +49479,25 @@
         <v>359</v>
       </c>
       <c r="E1081" s="10" t="s">
-        <v>4204</v>
+        <v>4179</v>
       </c>
       <c r="F1081" s="11">
         <v>24504</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>4393</v>
+        <v>4364</v>
       </c>
       <c r="H1081" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1081" s="10" t="s">
-        <v>4000</v>
+        <v>3987</v>
       </c>
       <c r="J1081" s="10">
         <v>9864438120</v>
       </c>
       <c r="K1081" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1082" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49512,25 +49512,25 @@
         <v>369</v>
       </c>
       <c r="E1082" s="10" t="s">
-        <v>4205</v>
+        <v>4478</v>
       </c>
       <c r="F1082" s="11">
         <v>25263</v>
       </c>
       <c r="G1082" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1082" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1082" s="10" t="s">
-        <v>4001</v>
+        <v>3988</v>
       </c>
       <c r="J1082" s="10">
         <v>9435002210</v>
       </c>
       <c r="K1082" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1083" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49545,25 +49545,25 @@
         <v>384</v>
       </c>
       <c r="E1083" s="10" t="s">
-        <v>4206</v>
+        <v>4180</v>
       </c>
       <c r="F1083" s="11">
         <v>24898</v>
       </c>
       <c r="G1083" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1083" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1083" s="10" t="s">
-        <v>4002</v>
+        <v>3989</v>
       </c>
       <c r="J1083" s="10">
         <v>7002339477</v>
       </c>
       <c r="K1083" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1084" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49578,25 +49578,25 @@
         <v>408</v>
       </c>
       <c r="E1084" s="10" t="s">
-        <v>4207</v>
+        <v>4181</v>
       </c>
       <c r="F1084" s="11">
         <v>24616</v>
       </c>
       <c r="G1084" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1084" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1084" s="10" t="s">
-        <v>4003</v>
+        <v>3990</v>
       </c>
       <c r="J1084" s="10">
         <v>9365414711</v>
       </c>
       <c r="K1084" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1085" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -49605,25 +49605,25 @@
       <c r="C1085" s="10"/>
       <c r="D1085" s="10"/>
       <c r="E1085" s="10" t="s">
-        <v>4208</v>
+        <v>4182</v>
       </c>
       <c r="F1085" s="11">
         <v>24838</v>
       </c>
       <c r="G1085" s="10" t="s">
-        <v>4394</v>
+        <v>4365</v>
       </c>
       <c r="H1085" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1085" s="10" t="s">
-        <v>4004</v>
+        <v>3991</v>
       </c>
       <c r="J1085" s="10">
         <v>8638693996</v>
       </c>
       <c r="K1085" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1086" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49638,23 +49638,23 @@
         <v>295</v>
       </c>
       <c r="E1086" s="10" t="s">
-        <v>4209</v>
+        <v>4183</v>
       </c>
       <c r="F1086" s="11">
         <v>25370</v>
       </c>
       <c r="G1086" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1086" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1086" s="10" t="s">
-        <v>4005</v>
+        <v>3992</v>
       </c>
       <c r="J1086" s="10"/>
       <c r="K1086" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1087" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49669,25 +49669,25 @@
         <v>414</v>
       </c>
       <c r="E1087" s="10" t="s">
-        <v>4210</v>
+        <v>4184</v>
       </c>
       <c r="F1087" s="11">
         <v>25110</v>
       </c>
       <c r="G1087" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1087" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1087" s="10" t="s">
-        <v>4006</v>
+        <v>3993</v>
       </c>
       <c r="J1087" s="10">
         <v>9706012998</v>
       </c>
       <c r="K1087" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1088" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49702,23 +49702,23 @@
         <v>242</v>
       </c>
       <c r="E1088" s="10" t="s">
-        <v>4211</v>
+        <v>4185</v>
       </c>
       <c r="F1088" s="11">
         <v>24898</v>
       </c>
       <c r="G1088" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1088" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1088" s="10" t="s">
-        <v>4007</v>
+        <v>3994</v>
       </c>
       <c r="J1088" s="10"/>
       <c r="K1088" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1089" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49733,25 +49733,25 @@
         <v>362</v>
       </c>
       <c r="E1089" s="10" t="s">
-        <v>4212</v>
+        <v>4186</v>
       </c>
       <c r="F1089" s="11">
         <v>25419</v>
       </c>
       <c r="G1089" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1089" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1089" s="10" t="s">
-        <v>4008</v>
+        <v>3995</v>
       </c>
       <c r="J1089" s="10">
         <v>8486671399</v>
       </c>
       <c r="K1089" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1090" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49766,23 +49766,23 @@
         <v>453</v>
       </c>
       <c r="E1090" s="10" t="s">
-        <v>4213</v>
+        <v>4479</v>
       </c>
       <c r="F1090" s="11">
         <v>24898</v>
       </c>
       <c r="G1090" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1090" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1090" s="10" t="s">
-        <v>4009</v>
+        <v>3996</v>
       </c>
       <c r="J1090" s="10"/>
       <c r="K1090" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1091" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49797,25 +49797,25 @@
         <v>385</v>
       </c>
       <c r="E1091" s="10" t="s">
-        <v>4214</v>
+        <v>4187</v>
       </c>
       <c r="F1091" s="11">
         <v>23822</v>
       </c>
       <c r="G1091" s="10" t="s">
-        <v>4395</v>
+        <v>4366</v>
       </c>
       <c r="H1091" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1091" s="10" t="s">
-        <v>4010</v>
+        <v>3997</v>
       </c>
       <c r="J1091" s="10">
         <v>7896916032</v>
       </c>
       <c r="K1091" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1092" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49830,25 +49830,25 @@
         <v>635</v>
       </c>
       <c r="E1092" s="10" t="s">
-        <v>4215</v>
+        <v>4188</v>
       </c>
       <c r="F1092" s="11">
         <v>25628</v>
       </c>
       <c r="G1092" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1092" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1092" s="10" t="s">
-        <v>4011</v>
+        <v>3998</v>
       </c>
       <c r="J1092" s="10">
         <v>8006400472</v>
       </c>
       <c r="K1092" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1093" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49863,7 +49863,7 @@
         <v>628</v>
       </c>
       <c r="E1093" s="10" t="s">
-        <v>4216</v>
+        <v>4189</v>
       </c>
       <c r="F1093" s="11">
         <v>25138</v>
@@ -49875,13 +49875,13 @@
         <v>5</v>
       </c>
       <c r="I1093" s="10" t="s">
-        <v>4012</v>
+        <v>3999</v>
       </c>
       <c r="J1093" s="10">
         <v>9864207119</v>
       </c>
       <c r="K1093" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1094" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49896,25 +49896,25 @@
         <v>636</v>
       </c>
       <c r="E1094" s="10" t="s">
-        <v>4217</v>
+        <v>4190</v>
       </c>
       <c r="F1094" s="11">
         <v>24504</v>
       </c>
       <c r="G1094" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1094" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1094" s="10" t="s">
-        <v>4013</v>
+        <v>4000</v>
       </c>
       <c r="J1094" s="10">
         <v>9735974724</v>
       </c>
       <c r="K1094" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1095" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49929,23 +49929,23 @@
         <v>419</v>
       </c>
       <c r="E1095" s="10" t="s">
-        <v>4218</v>
+        <v>4191</v>
       </c>
       <c r="F1095" s="11">
         <v>25204</v>
       </c>
       <c r="G1095" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1095" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1095" s="10" t="s">
-        <v>4014</v>
+        <v>4001</v>
       </c>
       <c r="J1095" s="10"/>
       <c r="K1095" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1096" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49960,25 +49960,25 @@
         <v>570</v>
       </c>
       <c r="E1096" s="10" t="s">
-        <v>4219</v>
+        <v>4192</v>
       </c>
       <c r="F1096" s="11">
         <v>21667</v>
       </c>
       <c r="G1096" s="10" t="s">
-        <v>4396</v>
+        <v>4367</v>
       </c>
       <c r="H1096" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1096" s="10" t="s">
-        <v>4015</v>
+        <v>4002</v>
       </c>
       <c r="J1096" s="10">
         <v>9957193324</v>
       </c>
       <c r="K1096" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1097" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -49987,25 +49987,25 @@
       <c r="C1097" s="10"/>
       <c r="D1097" s="10"/>
       <c r="E1097" s="10" t="s">
-        <v>4220</v>
+        <v>4193</v>
       </c>
       <c r="F1097" s="11">
         <v>25842</v>
       </c>
       <c r="G1097" s="10" t="s">
-        <v>4397</v>
+        <v>4368</v>
       </c>
       <c r="H1097" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1097" s="10" t="s">
-        <v>4016</v>
+        <v>4003</v>
       </c>
       <c r="J1097" s="10">
         <v>9436352984</v>
       </c>
       <c r="K1097" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1098" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50020,25 +50020,25 @@
         <v>397</v>
       </c>
       <c r="E1098" s="10" t="s">
-        <v>4221</v>
+        <v>4194</v>
       </c>
       <c r="F1098" s="11">
         <v>26360</v>
       </c>
       <c r="G1098" s="10" t="s">
-        <v>4398</v>
+        <v>4369</v>
       </c>
       <c r="H1098" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1098" s="10" t="s">
-        <v>4017</v>
+        <v>4004</v>
       </c>
       <c r="J1098" s="10">
         <v>9890623260</v>
       </c>
       <c r="K1098" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1099" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50053,23 +50053,23 @@
         <v>597</v>
       </c>
       <c r="E1099" s="10" t="s">
-        <v>4222</v>
+        <v>4195</v>
       </c>
       <c r="F1099" s="11">
         <v>26299</v>
       </c>
       <c r="G1099" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1099" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1099" s="10" t="s">
-        <v>4018</v>
+        <v>4005</v>
       </c>
       <c r="J1099" s="10"/>
       <c r="K1099" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1100" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50084,25 +50084,25 @@
         <v>415</v>
       </c>
       <c r="E1100" s="10" t="s">
-        <v>4223</v>
+        <v>4196</v>
       </c>
       <c r="F1100" s="11">
         <v>25173</v>
       </c>
       <c r="G1100" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1100" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1100" s="10" t="s">
-        <v>4019</v>
+        <v>4006</v>
       </c>
       <c r="J1100" s="10">
         <v>9678771763</v>
       </c>
       <c r="K1100" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50117,25 +50117,25 @@
         <v>539</v>
       </c>
       <c r="E1101" s="10" t="s">
-        <v>4224</v>
+        <v>4197</v>
       </c>
       <c r="F1101" s="11">
         <v>25263</v>
       </c>
       <c r="G1101" s="10" t="s">
-        <v>4399</v>
+        <v>4370</v>
       </c>
       <c r="H1101" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1101" s="10" t="s">
-        <v>4020</v>
+        <v>4007</v>
       </c>
       <c r="J1101" s="10">
         <v>9435560369</v>
       </c>
       <c r="K1101" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50150,25 +50150,25 @@
         <v>551</v>
       </c>
       <c r="E1102" s="10" t="s">
-        <v>4225</v>
+        <v>4198</v>
       </c>
       <c r="F1102" s="11">
         <v>23833</v>
       </c>
       <c r="G1102" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1102" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1102" s="10" t="s">
-        <v>4021</v>
+        <v>4008</v>
       </c>
       <c r="J1102" s="10">
         <v>6003582750</v>
       </c>
       <c r="K1102" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1103" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -50183,25 +50183,25 @@
         <v>541</v>
       </c>
       <c r="E1103" s="10" t="s">
-        <v>4226</v>
+        <v>4199</v>
       </c>
       <c r="F1103" s="11">
         <v>26665</v>
       </c>
       <c r="G1103" s="10" t="s">
-        <v>4400</v>
+        <v>4371</v>
       </c>
       <c r="H1103" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1103" s="10" t="s">
-        <v>4022</v>
+        <v>4009</v>
       </c>
       <c r="J1103" s="10">
         <v>8472880802</v>
       </c>
       <c r="K1103" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1104" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50216,25 +50216,25 @@
         <v>546</v>
       </c>
       <c r="E1104" s="10" t="s">
-        <v>4227</v>
+        <v>4200</v>
       </c>
       <c r="F1104" s="11">
         <v>26765</v>
       </c>
       <c r="G1104" s="10" t="s">
-        <v>4401</v>
+        <v>4372</v>
       </c>
       <c r="H1104" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1104" s="10" t="s">
-        <v>4023</v>
+        <v>4010</v>
       </c>
       <c r="J1104" s="10">
         <v>9435725345</v>
       </c>
       <c r="K1104" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1105" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -50249,25 +50249,25 @@
         <v>579</v>
       </c>
       <c r="E1105" s="10" t="s">
-        <v>4228</v>
+        <v>4201</v>
       </c>
       <c r="F1105" s="11">
         <v>25630</v>
       </c>
       <c r="G1105" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1105" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1105" s="10" t="s">
-        <v>4024</v>
+        <v>4011</v>
       </c>
       <c r="J1105" s="10">
         <v>9957830751</v>
       </c>
       <c r="K1105" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50282,25 +50282,25 @@
         <v>539</v>
       </c>
       <c r="E1106" s="10" t="s">
-        <v>4229</v>
+        <v>4202</v>
       </c>
       <c r="F1106" s="11">
         <v>26032</v>
       </c>
       <c r="G1106" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1106" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1106" s="10" t="s">
-        <v>4025</v>
+        <v>4012</v>
       </c>
       <c r="J1106" s="10">
         <v>9695741744</v>
       </c>
       <c r="K1106" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1107" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -50315,25 +50315,25 @@
         <v>629</v>
       </c>
       <c r="E1107" s="10" t="s">
-        <v>4230</v>
+        <v>4203</v>
       </c>
       <c r="F1107" s="11">
         <v>26531</v>
       </c>
       <c r="G1107" s="10" t="s">
-        <v>4402</v>
+        <v>4373</v>
       </c>
       <c r="H1107" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1107" s="10" t="s">
-        <v>4026</v>
+        <v>4013</v>
       </c>
       <c r="J1107" s="10">
         <v>9435200104</v>
       </c>
       <c r="K1107" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50348,23 +50348,23 @@
         <v>557</v>
       </c>
       <c r="E1108" s="10" t="s">
-        <v>4231</v>
+        <v>4204</v>
       </c>
       <c r="F1108" s="11">
         <v>26359</v>
       </c>
       <c r="G1108" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1108" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1108" s="10" t="s">
-        <v>4027</v>
+        <v>4014</v>
       </c>
       <c r="J1108" s="10"/>
       <c r="K1108" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50373,25 +50373,25 @@
       <c r="C1109" s="10"/>
       <c r="D1109" s="10"/>
       <c r="E1109" s="10" t="s">
-        <v>4232</v>
+        <v>4480</v>
       </c>
       <c r="F1109" s="11">
         <v>26665</v>
       </c>
       <c r="G1109" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1109" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1109" s="10" t="s">
-        <v>4028</v>
+        <v>4015</v>
       </c>
       <c r="J1109" s="10">
         <v>9435323542</v>
       </c>
       <c r="K1109" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1110" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50400,23 +50400,23 @@
       <c r="C1110" s="10"/>
       <c r="D1110" s="10"/>
       <c r="E1110" s="10" t="s">
-        <v>4233</v>
+        <v>4205</v>
       </c>
       <c r="F1110" s="11">
         <v>26481</v>
       </c>
       <c r="G1110" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1110" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1110" s="10" t="s">
-        <v>4029</v>
+        <v>4016</v>
       </c>
       <c r="J1110" s="10"/>
       <c r="K1110" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1111" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50431,25 +50431,25 @@
         <v>251</v>
       </c>
       <c r="E1111" s="10" t="s">
-        <v>4234</v>
+        <v>4206</v>
       </c>
       <c r="F1111" s="11">
         <v>27215</v>
       </c>
       <c r="G1111" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1111" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1111" s="10" t="s">
-        <v>4030</v>
+        <v>4017</v>
       </c>
       <c r="J1111" s="10">
         <v>9436228003</v>
       </c>
       <c r="K1111" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1112" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -50458,25 +50458,25 @@
       <c r="C1112" s="10"/>
       <c r="D1112" s="10"/>
       <c r="E1112" s="10" t="s">
-        <v>4235</v>
+        <v>4207</v>
       </c>
       <c r="F1112" s="11">
         <v>26313</v>
       </c>
       <c r="G1112" s="10" t="s">
-        <v>4397</v>
+        <v>4368</v>
       </c>
       <c r="H1112" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1112" s="10" t="s">
-        <v>4031</v>
+        <v>4018</v>
       </c>
       <c r="J1112" s="10">
         <v>9435307661</v>
       </c>
       <c r="K1112" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50491,25 +50491,25 @@
         <v>352</v>
       </c>
       <c r="E1113" s="10" t="s">
-        <v>4236</v>
+        <v>4208</v>
       </c>
       <c r="F1113" s="11">
         <v>26936</v>
       </c>
       <c r="G1113" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1113" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1113" s="10" t="s">
-        <v>4032</v>
+        <v>4019</v>
       </c>
       <c r="J1113" s="10">
         <v>9435558835</v>
       </c>
       <c r="K1113" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1114" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50524,25 +50524,25 @@
         <v>280</v>
       </c>
       <c r="E1114" s="10" t="s">
-        <v>4237</v>
+        <v>4209</v>
       </c>
       <c r="F1114" s="11">
         <v>27030</v>
       </c>
       <c r="G1114" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1114" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1114" s="10" t="s">
-        <v>4033</v>
+        <v>4020</v>
       </c>
       <c r="J1114" s="10">
         <v>9957618073</v>
       </c>
       <c r="K1114" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -50557,25 +50557,25 @@
         <v>227</v>
       </c>
       <c r="E1115" s="10" t="s">
-        <v>4238</v>
+        <v>4210</v>
       </c>
       <c r="F1115" s="11">
         <v>27065</v>
       </c>
       <c r="G1115" s="10" t="s">
-        <v>4403</v>
+        <v>4374</v>
       </c>
       <c r="H1115" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1115" s="10" t="s">
-        <v>4034</v>
+        <v>4021</v>
       </c>
       <c r="J1115" s="10">
         <v>9859938851</v>
       </c>
       <c r="K1115" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1116" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50590,23 +50590,23 @@
         <v>251</v>
       </c>
       <c r="E1116" s="10" t="s">
-        <v>4239</v>
+        <v>4211</v>
       </c>
       <c r="F1116" s="11">
         <v>27031</v>
       </c>
       <c r="G1116" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1116" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1116" s="10" t="s">
-        <v>4035</v>
+        <v>4022</v>
       </c>
       <c r="J1116" s="10"/>
       <c r="K1116" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50621,25 +50621,25 @@
         <v>590</v>
       </c>
       <c r="E1117" s="10" t="s">
-        <v>4240</v>
+        <v>4212</v>
       </c>
       <c r="F1117" s="11">
         <v>26359</v>
       </c>
       <c r="G1117" s="10" t="s">
-        <v>4404</v>
+        <v>4375</v>
       </c>
       <c r="H1117" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1117" s="10" t="s">
-        <v>4036</v>
+        <v>4023</v>
       </c>
       <c r="J1117" s="10">
         <v>9435087901</v>
       </c>
       <c r="K1117" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1118" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50648,21 +50648,21 @@
       <c r="C1118" s="10"/>
       <c r="D1118" s="10"/>
       <c r="E1118" s="10" t="s">
-        <v>4241</v>
+        <v>4213</v>
       </c>
       <c r="F1118" s="11"/>
       <c r="G1118" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1118" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1118" s="10" t="s">
-        <v>4037</v>
+        <v>4024</v>
       </c>
       <c r="J1118" s="10"/>
       <c r="K1118" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1119" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50677,23 +50677,23 @@
         <v>590</v>
       </c>
       <c r="E1119" s="10" t="s">
-        <v>4242</v>
+        <v>4214</v>
       </c>
       <c r="F1119" s="11"/>
       <c r="G1119" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1119" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1119" s="10" t="s">
-        <v>4038</v>
+        <v>4025</v>
       </c>
       <c r="J1119" s="10">
         <v>9854147614</v>
       </c>
       <c r="K1119" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1120" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -50708,25 +50708,25 @@
         <v>195</v>
       </c>
       <c r="E1120" s="10" t="s">
-        <v>4243</v>
+        <v>4215</v>
       </c>
       <c r="F1120" s="11">
         <v>26951</v>
       </c>
       <c r="G1120" s="10" t="s">
-        <v>4405</v>
+        <v>4376</v>
       </c>
       <c r="H1120" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1120" s="10" t="s">
-        <v>4039</v>
+        <v>4026</v>
       </c>
       <c r="J1120" s="10">
         <v>9864355662</v>
       </c>
       <c r="K1120" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50741,23 +50741,23 @@
         <v>185</v>
       </c>
       <c r="E1121" s="10" t="s">
-        <v>4244</v>
+        <v>4216</v>
       </c>
       <c r="F1121" s="11">
         <v>26314</v>
       </c>
       <c r="G1121" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1121" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1121" s="10" t="s">
-        <v>4040</v>
+        <v>4027</v>
       </c>
       <c r="J1121" s="10"/>
       <c r="K1121" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1122" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50772,25 +50772,25 @@
         <v>237</v>
       </c>
       <c r="E1122" s="10" t="s">
-        <v>4245</v>
+        <v>4217</v>
       </c>
       <c r="F1122" s="11">
         <v>26723</v>
       </c>
       <c r="G1122" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1122" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1122" s="10" t="s">
-        <v>4041</v>
+        <v>4028</v>
       </c>
       <c r="J1122" s="10">
         <v>9435360028</v>
       </c>
       <c r="K1122" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50805,25 +50805,25 @@
         <v>207</v>
       </c>
       <c r="E1123" s="10" t="s">
-        <v>4246</v>
+        <v>4218</v>
       </c>
       <c r="F1123" s="11">
         <v>27030</v>
       </c>
       <c r="G1123" s="10" t="s">
-        <v>4406</v>
+        <v>4377</v>
       </c>
       <c r="H1123" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1123" s="10" t="s">
-        <v>4042</v>
+        <v>4029</v>
       </c>
       <c r="J1123" s="10">
         <v>9613851428</v>
       </c>
       <c r="K1123" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1124" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50838,23 +50838,23 @@
         <v>181</v>
       </c>
       <c r="E1124" s="10" t="s">
-        <v>4247</v>
+        <v>4481</v>
       </c>
       <c r="F1124" s="11">
         <v>27061</v>
       </c>
       <c r="G1124" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1124" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1124" s="10" t="s">
-        <v>4043</v>
+        <v>4030</v>
       </c>
       <c r="J1124" s="10"/>
       <c r="K1124" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1125" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50869,23 +50869,23 @@
         <v>237</v>
       </c>
       <c r="E1125" s="10" t="s">
-        <v>4248</v>
+        <v>4219</v>
       </c>
       <c r="F1125" s="11">
         <v>27271</v>
       </c>
       <c r="G1125" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1125" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1125" s="10" t="s">
-        <v>4044</v>
+        <v>4031</v>
       </c>
       <c r="J1125" s="10"/>
       <c r="K1125" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50900,25 +50900,25 @@
         <v>182</v>
       </c>
       <c r="E1126" s="10" t="s">
-        <v>4249</v>
+        <v>4220</v>
       </c>
       <c r="F1126" s="11">
         <v>27454</v>
       </c>
       <c r="G1126" s="10" t="s">
-        <v>4407</v>
+        <v>4378</v>
       </c>
       <c r="H1126" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1126" s="10" t="s">
-        <v>4045</v>
+        <v>4032</v>
       </c>
       <c r="J1126" s="10">
         <v>8638040516</v>
       </c>
       <c r="K1126" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1127" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -50933,25 +50933,25 @@
         <v>206</v>
       </c>
       <c r="E1127" s="10" t="s">
-        <v>4250</v>
+        <v>4221</v>
       </c>
       <c r="F1127" s="11">
         <v>27089</v>
       </c>
       <c r="G1127" s="10" t="s">
-        <v>4408</v>
+        <v>4379</v>
       </c>
       <c r="H1127" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1127" s="10" t="s">
-        <v>4046</v>
+        <v>4033</v>
       </c>
       <c r="J1127" s="10">
         <v>9436374061</v>
       </c>
       <c r="K1127" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50966,23 +50966,23 @@
         <v>214</v>
       </c>
       <c r="E1128" s="10" t="s">
-        <v>4251</v>
+        <v>4222</v>
       </c>
       <c r="F1128" s="11">
         <v>25263</v>
       </c>
       <c r="G1128" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1128" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1128" s="10" t="s">
-        <v>4047</v>
+        <v>4034</v>
       </c>
       <c r="J1128" s="10"/>
       <c r="K1128" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1129" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -50997,25 +50997,25 @@
         <v>406</v>
       </c>
       <c r="E1129" s="10" t="s">
-        <v>4252</v>
+        <v>4223</v>
       </c>
       <c r="F1129" s="11">
         <v>27058</v>
       </c>
       <c r="G1129" s="10" t="s">
-        <v>4409</v>
+        <v>4380</v>
       </c>
       <c r="H1129" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1129" s="10" t="s">
-        <v>4048</v>
+        <v>4035</v>
       </c>
       <c r="J1129" s="10">
         <v>9435526792</v>
       </c>
       <c r="K1129" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1130" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51030,23 +51030,23 @@
         <v>300</v>
       </c>
       <c r="E1130" s="10" t="s">
-        <v>4253</v>
+        <v>4224</v>
       </c>
       <c r="F1130" s="11">
         <v>27119</v>
       </c>
       <c r="G1130" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1130" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1130" s="10" t="s">
-        <v>4049</v>
+        <v>4036</v>
       </c>
       <c r="J1130" s="10"/>
       <c r="K1130" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1131" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51061,23 +51061,23 @@
         <v>262</v>
       </c>
       <c r="E1131" s="10" t="s">
-        <v>4254</v>
+        <v>4225</v>
       </c>
       <c r="F1131" s="11">
         <v>28002</v>
       </c>
       <c r="G1131" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1131" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1131" s="10" t="s">
-        <v>4050</v>
+        <v>4037</v>
       </c>
       <c r="J1131" s="10"/>
       <c r="K1131" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1132" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51092,25 +51092,25 @@
         <v>246</v>
       </c>
       <c r="E1132" s="10" t="s">
-        <v>4255</v>
+        <v>4226</v>
       </c>
       <c r="F1132" s="11">
         <v>28127</v>
       </c>
       <c r="G1132" s="10" t="s">
-        <v>4410</v>
+        <v>4381</v>
       </c>
       <c r="H1132" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1132" s="10" t="s">
-        <v>4051</v>
+        <v>4038</v>
       </c>
       <c r="J1132" s="10">
         <v>9864011036</v>
       </c>
       <c r="K1132" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1133" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -51125,25 +51125,25 @@
         <v>381</v>
       </c>
       <c r="E1133" s="10" t="s">
-        <v>4256</v>
+        <v>4227</v>
       </c>
       <c r="F1133" s="11">
         <v>27303</v>
       </c>
       <c r="G1133" s="10" t="s">
-        <v>4411</v>
+        <v>4382</v>
       </c>
       <c r="H1133" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1133" s="10" t="s">
-        <v>4052</v>
+        <v>4039</v>
       </c>
       <c r="J1133" s="10">
         <v>8960853297</v>
       </c>
       <c r="K1133" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1134" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51158,25 +51158,25 @@
         <v>239</v>
       </c>
       <c r="E1134" s="10" t="s">
-        <v>4257</v>
+        <v>4228</v>
       </c>
       <c r="F1134" s="11">
         <v>26052</v>
       </c>
       <c r="G1134" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1134" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1134" s="10" t="s">
-        <v>4053</v>
+        <v>4040</v>
       </c>
       <c r="J1134" s="10">
         <v>7002701156</v>
       </c>
       <c r="K1134" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1135" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51191,23 +51191,23 @@
         <v>251</v>
       </c>
       <c r="E1135" s="10" t="s">
-        <v>4258</v>
+        <v>4229</v>
       </c>
       <c r="F1135" s="11">
         <v>28449</v>
       </c>
       <c r="G1135" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1135" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1135" s="10" t="s">
-        <v>4054</v>
+        <v>4041</v>
       </c>
       <c r="J1135" s="10"/>
       <c r="K1135" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51222,23 +51222,23 @@
         <v>320</v>
       </c>
       <c r="E1136" s="10" t="s">
-        <v>4259</v>
+        <v>4230</v>
       </c>
       <c r="F1136" s="11">
         <v>25764</v>
       </c>
       <c r="G1136" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1136" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1136" s="10" t="s">
-        <v>4055</v>
+        <v>4042</v>
       </c>
       <c r="J1136" s="10"/>
       <c r="K1136" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51253,25 +51253,25 @@
         <v>331</v>
       </c>
       <c r="E1137" s="10" t="s">
-        <v>4260</v>
+        <v>4231</v>
       </c>
       <c r="F1137" s="11">
         <v>28229</v>
       </c>
       <c r="G1137" s="10" t="s">
-        <v>4412</v>
+        <v>4383</v>
       </c>
       <c r="H1137" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1137" s="10" t="s">
-        <v>4056</v>
+        <v>4043</v>
       </c>
       <c r="J1137" s="10">
         <v>9957235921</v>
       </c>
       <c r="K1137" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1138" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51286,25 +51286,25 @@
         <v>208</v>
       </c>
       <c r="E1138" s="10" t="s">
-        <v>4261</v>
+        <v>4232</v>
       </c>
       <c r="F1138" s="11">
         <v>27420</v>
       </c>
       <c r="G1138" s="10" t="s">
-        <v>4413</v>
+        <v>4384</v>
       </c>
       <c r="H1138" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1138" s="10" t="s">
-        <v>4057</v>
+        <v>4044</v>
       </c>
       <c r="J1138" s="10">
         <v>8638152625</v>
       </c>
       <c r="K1138" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1139" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51319,25 +51319,25 @@
         <v>184</v>
       </c>
       <c r="E1139" s="10" t="s">
-        <v>4262</v>
+        <v>4233</v>
       </c>
       <c r="F1139" s="11">
         <v>27820</v>
       </c>
       <c r="G1139" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1139" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1139" s="10" t="s">
-        <v>4058</v>
+        <v>4045</v>
       </c>
       <c r="J1139" s="10">
         <v>9435389809</v>
       </c>
       <c r="K1139" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1140" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51352,23 +51352,23 @@
         <v>155</v>
       </c>
       <c r="E1140" s="10" t="s">
-        <v>4263</v>
+        <v>4234</v>
       </c>
       <c r="F1140" s="11">
         <v>27820</v>
       </c>
       <c r="G1140" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1140" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1140" s="10" t="s">
-        <v>4059</v>
+        <v>4046</v>
       </c>
       <c r="J1140" s="10"/>
       <c r="K1140" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1141" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -51383,25 +51383,25 @@
         <v>121</v>
       </c>
       <c r="E1141" s="10" t="s">
-        <v>4264</v>
+        <v>4235</v>
       </c>
       <c r="F1141" s="11">
         <v>28725</v>
       </c>
       <c r="G1141" s="10" t="s">
-        <v>4414</v>
+        <v>4385</v>
       </c>
       <c r="H1141" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1141" s="10" t="s">
-        <v>4060</v>
+        <v>4047</v>
       </c>
       <c r="J1141" s="10">
         <v>9864357161</v>
       </c>
       <c r="K1141" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1142" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51416,23 +51416,23 @@
         <v>131</v>
       </c>
       <c r="E1142" s="10" t="s">
-        <v>4265</v>
+        <v>4236</v>
       </c>
       <c r="F1142" s="11">
         <v>28516</v>
       </c>
       <c r="G1142" s="10" t="s">
-        <v>4415</v>
+        <v>4386</v>
       </c>
       <c r="H1142" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1142" s="10" t="s">
-        <v>4061</v>
+        <v>4048</v>
       </c>
       <c r="J1142" s="10"/>
       <c r="K1142" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1143" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51447,25 +51447,25 @@
         <v>176</v>
       </c>
       <c r="E1143" s="10" t="s">
-        <v>4266</v>
+        <v>4237</v>
       </c>
       <c r="F1143" s="11">
         <v>28915</v>
       </c>
       <c r="G1143" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1143" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1143" s="10" t="s">
-        <v>4062</v>
+        <v>4049</v>
       </c>
       <c r="J1143" s="10">
         <v>9101643820</v>
       </c>
       <c r="K1143" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1144" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51480,25 +51480,25 @@
         <v>172</v>
       </c>
       <c r="E1144" s="10" t="s">
-        <v>4267</v>
+        <v>4238</v>
       </c>
       <c r="F1144" s="11">
         <v>29038</v>
       </c>
       <c r="G1144" s="10" t="s">
-        <v>4416</v>
+        <v>4387</v>
       </c>
       <c r="H1144" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1144" s="10" t="s">
-        <v>4063</v>
+        <v>4050</v>
       </c>
       <c r="J1144" s="10">
         <v>7086692677</v>
       </c>
       <c r="K1144" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51513,23 +51513,23 @@
         <v>127</v>
       </c>
       <c r="E1145" s="10" t="s">
-        <v>4268</v>
+        <v>4239</v>
       </c>
       <c r="F1145" s="11">
         <v>28915</v>
       </c>
       <c r="G1145" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1145" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1145" s="10" t="s">
-        <v>4064</v>
+        <v>4051</v>
       </c>
       <c r="J1145" s="10"/>
       <c r="K1145" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1146" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51544,23 +51544,23 @@
         <v>130</v>
       </c>
       <c r="E1146" s="10" t="s">
-        <v>4269</v>
+        <v>4240</v>
       </c>
       <c r="F1146" s="11">
         <v>28915</v>
       </c>
       <c r="G1146" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1146" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1146" s="10" t="s">
-        <v>4065</v>
+        <v>4052</v>
       </c>
       <c r="J1146" s="10"/>
       <c r="K1146" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1147" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51575,25 +51575,25 @@
         <v>123</v>
       </c>
       <c r="E1147" s="10" t="s">
-        <v>4270</v>
+        <v>4241</v>
       </c>
       <c r="F1147" s="11">
         <v>28887</v>
       </c>
       <c r="G1147" s="10" t="s">
-        <v>4417</v>
+        <v>4388</v>
       </c>
       <c r="H1147" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1147" s="10" t="s">
-        <v>4066</v>
+        <v>4053</v>
       </c>
       <c r="J1147" s="10">
         <v>9435594808</v>
       </c>
       <c r="K1147" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1148" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51608,25 +51608,25 @@
         <v>130</v>
       </c>
       <c r="E1148" s="10" t="s">
-        <v>4271</v>
+        <v>4242</v>
       </c>
       <c r="F1148" s="11">
         <v>29281</v>
       </c>
       <c r="G1148" s="10" t="s">
-        <v>4401</v>
+        <v>4372</v>
       </c>
       <c r="H1148" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1148" s="10" t="s">
-        <v>4067</v>
+        <v>4054</v>
       </c>
       <c r="J1148" s="10">
         <v>6900735453</v>
       </c>
       <c r="K1148" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51641,23 +51641,23 @@
         <v>142</v>
       </c>
       <c r="E1149" s="10" t="s">
-        <v>4272</v>
+        <v>4243</v>
       </c>
       <c r="F1149" s="11">
         <v>28522</v>
       </c>
       <c r="G1149" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1149" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1149" s="10" t="s">
-        <v>4068</v>
+        <v>4055</v>
       </c>
       <c r="J1149" s="10"/>
       <c r="K1149" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1150" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51672,25 +51672,25 @@
         <v>202</v>
       </c>
       <c r="E1150" s="10" t="s">
-        <v>4273</v>
+        <v>4244</v>
       </c>
       <c r="F1150" s="11" t="s">
-        <v>4365</v>
+        <v>4336</v>
       </c>
       <c r="G1150" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1150" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1150" s="10" t="s">
-        <v>4069</v>
+        <v>4056</v>
       </c>
       <c r="J1150" s="10">
         <v>9925957679</v>
       </c>
       <c r="K1150" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1151" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -51705,25 +51705,25 @@
         <v>143</v>
       </c>
       <c r="E1151" s="10" t="s">
-        <v>4274</v>
+        <v>4245</v>
       </c>
       <c r="F1151" s="11">
         <v>29271</v>
       </c>
       <c r="G1151" s="10" t="s">
-        <v>4418</v>
+        <v>4389</v>
       </c>
       <c r="H1151" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1151" s="10" t="s">
-        <v>4070</v>
+        <v>4057</v>
       </c>
       <c r="J1151" s="10">
         <v>9678644300</v>
       </c>
       <c r="K1151" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1152" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51738,25 +51738,25 @@
         <v>137</v>
       </c>
       <c r="E1152" s="10" t="s">
-        <v>4275</v>
+        <v>4246</v>
       </c>
       <c r="F1152" s="11">
         <v>28915</v>
       </c>
       <c r="G1152" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1152" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1152" s="10" t="s">
-        <v>4071</v>
+        <v>4058</v>
       </c>
       <c r="J1152" s="10">
         <v>8787303105</v>
       </c>
       <c r="K1152" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1153" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51771,23 +51771,23 @@
         <v>101</v>
       </c>
       <c r="E1153" s="10" t="s">
-        <v>4276</v>
+        <v>4247</v>
       </c>
       <c r="F1153" s="11">
         <v>29314</v>
       </c>
       <c r="G1153" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1153" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1153" s="10" t="s">
-        <v>4072</v>
+        <v>4059</v>
       </c>
       <c r="J1153" s="10"/>
       <c r="K1153" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51802,25 +51802,25 @@
         <v>345</v>
       </c>
       <c r="E1154" s="10" t="s">
-        <v>4277</v>
+        <v>4248</v>
       </c>
       <c r="F1154" s="11">
         <v>29187</v>
       </c>
       <c r="G1154" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1154" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1154" s="10" t="s">
-        <v>4073</v>
+        <v>4060</v>
       </c>
       <c r="J1154" s="10">
         <v>9957344764</v>
       </c>
       <c r="K1154" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1155" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51835,25 +51835,25 @@
         <v>634</v>
       </c>
       <c r="E1155" s="10" t="s">
-        <v>4278</v>
+        <v>4249</v>
       </c>
       <c r="F1155" s="11">
         <v>28231</v>
       </c>
       <c r="G1155" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1155" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1155" s="10" t="s">
-        <v>4074</v>
+        <v>4061</v>
       </c>
       <c r="J1155" s="10">
         <v>9954076250</v>
       </c>
       <c r="K1155" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1156" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51868,23 +51868,23 @@
         <v>304</v>
       </c>
       <c r="E1156" s="10" t="s">
-        <v>4279</v>
+        <v>4250</v>
       </c>
       <c r="F1156" s="11">
         <v>30133</v>
       </c>
       <c r="G1156" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1156" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1156" s="10" t="s">
-        <v>4075</v>
+        <v>4062</v>
       </c>
       <c r="J1156" s="10"/>
       <c r="K1156" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51899,23 +51899,23 @@
         <v>469</v>
       </c>
       <c r="E1157" s="10" t="s">
-        <v>4280</v>
+        <v>4251</v>
       </c>
       <c r="F1157" s="11">
         <v>28855</v>
       </c>
       <c r="G1157" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1157" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1157" s="10" t="s">
-        <v>4076</v>
+        <v>4063</v>
       </c>
       <c r="J1157" s="10"/>
       <c r="K1157" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1158" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51930,23 +51930,23 @@
         <v>307</v>
       </c>
       <c r="E1158" s="10" t="s">
-        <v>4281</v>
+        <v>4252</v>
       </c>
       <c r="F1158" s="11">
         <v>30195</v>
       </c>
       <c r="G1158" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1158" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1158" s="10" t="s">
-        <v>4077</v>
+        <v>4064</v>
       </c>
       <c r="J1158" s="10"/>
       <c r="K1158" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1159" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51961,25 +51961,25 @@
         <v>469</v>
       </c>
       <c r="E1159" s="10" t="s">
-        <v>4282</v>
+        <v>4253</v>
       </c>
       <c r="F1159" s="11">
         <v>29377</v>
       </c>
       <c r="G1159" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1159" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1159" s="10" t="s">
-        <v>4078</v>
+        <v>4065</v>
       </c>
       <c r="J1159" s="10">
         <v>9864320128</v>
       </c>
       <c r="K1159" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51988,23 +51988,23 @@
       <c r="C1160" s="10"/>
       <c r="D1160" s="10"/>
       <c r="E1160" s="10" t="s">
-        <v>4283</v>
+        <v>4254</v>
       </c>
       <c r="F1160" s="11">
         <v>30132</v>
       </c>
       <c r="G1160" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1160" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1160" s="10" t="s">
-        <v>4079</v>
+        <v>4066</v>
       </c>
       <c r="J1160" s="10"/>
       <c r="K1160" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1161" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52019,23 +52019,23 @@
         <v>335</v>
       </c>
       <c r="E1161" s="10" t="s">
-        <v>4284</v>
+        <v>4255</v>
       </c>
       <c r="F1161" s="11">
         <v>30376</v>
       </c>
       <c r="G1161" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1161" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1161" s="10" t="s">
-        <v>4080</v>
+        <v>4067</v>
       </c>
       <c r="J1161" s="10"/>
       <c r="K1161" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1162" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52050,23 +52050,23 @@
         <v>329</v>
       </c>
       <c r="E1162" s="10" t="s">
-        <v>4285</v>
+        <v>4256</v>
       </c>
       <c r="F1162" s="11">
         <v>30581</v>
       </c>
       <c r="G1162" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1162" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1162" s="10" t="s">
-        <v>4081</v>
+        <v>4068</v>
       </c>
       <c r="J1162" s="10"/>
       <c r="K1162" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1163" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52081,23 +52081,23 @@
         <v>308</v>
       </c>
       <c r="E1163" s="10" t="s">
-        <v>4286</v>
+        <v>4257</v>
       </c>
       <c r="F1163" s="11">
         <v>30798</v>
       </c>
       <c r="G1163" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1163" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1163" s="10" t="s">
-        <v>4082</v>
+        <v>4069</v>
       </c>
       <c r="J1163" s="10"/>
       <c r="K1163" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52112,23 +52112,23 @@
         <v>470</v>
       </c>
       <c r="E1164" s="10" t="s">
-        <v>4287</v>
+        <v>4258</v>
       </c>
       <c r="F1164" s="11">
         <v>30376</v>
       </c>
       <c r="G1164" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1164" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1164" s="10" t="s">
-        <v>4083</v>
+        <v>4070</v>
       </c>
       <c r="J1164" s="10"/>
       <c r="K1164" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1165" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52143,25 +52143,25 @@
         <v>1974</v>
       </c>
       <c r="E1165" s="10" t="s">
-        <v>4288</v>
+        <v>4259</v>
       </c>
       <c r="F1165" s="11">
         <v>30637</v>
       </c>
       <c r="G1165" s="10" t="s">
-        <v>4419</v>
+        <v>4390</v>
       </c>
       <c r="H1165" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1165" s="10" t="s">
-        <v>4084</v>
+        <v>4071</v>
       </c>
       <c r="J1165" s="10">
         <v>9864622727</v>
       </c>
       <c r="K1165" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1166" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52176,25 +52176,25 @@
         <v>1933</v>
       </c>
       <c r="E1166" s="10" t="s">
-        <v>4289</v>
+        <v>4260</v>
       </c>
       <c r="F1166" s="11">
         <v>30852</v>
       </c>
       <c r="G1166" s="10" t="s">
-        <v>4420</v>
+        <v>4391</v>
       </c>
       <c r="H1166" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1166" s="10" t="s">
-        <v>4085</v>
+        <v>4072</v>
       </c>
       <c r="J1166" s="10">
         <v>7896353934</v>
       </c>
       <c r="K1166" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1167" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52209,23 +52209,23 @@
         <v>1912</v>
       </c>
       <c r="E1167" s="10" t="s">
-        <v>4290</v>
+        <v>4261</v>
       </c>
       <c r="F1167" s="11">
         <v>30051</v>
       </c>
       <c r="G1167" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1167" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1167" s="10" t="s">
-        <v>4086</v>
+        <v>4073</v>
       </c>
       <c r="J1167" s="10"/>
       <c r="K1167" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52240,23 +52240,23 @@
         <v>1897</v>
       </c>
       <c r="E1168" s="10" t="s">
-        <v>4291</v>
+        <v>4262</v>
       </c>
       <c r="F1168" s="11">
         <v>30907</v>
       </c>
       <c r="G1168" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1168" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1168" s="10" t="s">
-        <v>4087</v>
+        <v>4074</v>
       </c>
       <c r="J1168" s="10"/>
       <c r="K1168" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1169" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52271,25 +52271,25 @@
         <v>1905</v>
       </c>
       <c r="E1169" s="10" t="s">
-        <v>4292</v>
+        <v>4263</v>
       </c>
       <c r="F1169" s="11">
         <v>30498</v>
       </c>
       <c r="G1169" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1169" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1169" s="10" t="s">
-        <v>4088</v>
+        <v>4075</v>
       </c>
       <c r="J1169" s="10">
         <v>9864097628</v>
       </c>
       <c r="K1169" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52304,23 +52304,23 @@
         <v>1883</v>
       </c>
       <c r="E1170" s="10" t="s">
-        <v>4293</v>
+        <v>4264</v>
       </c>
       <c r="F1170" s="11">
         <v>29255</v>
       </c>
       <c r="G1170" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1170" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1170" s="10" t="s">
-        <v>4089</v>
+        <v>4076</v>
       </c>
       <c r="J1170" s="10"/>
       <c r="K1170" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52335,23 +52335,23 @@
         <v>1932</v>
       </c>
       <c r="E1171" s="10" t="s">
-        <v>4294</v>
+        <v>4265</v>
       </c>
       <c r="F1171" s="11">
         <v>30593</v>
       </c>
       <c r="G1171" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1171" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1171" s="10" t="s">
-        <v>4090</v>
+        <v>4077</v>
       </c>
       <c r="J1171" s="10"/>
       <c r="K1171" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1172" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52366,25 +52366,25 @@
         <v>1924</v>
       </c>
       <c r="E1172" s="10" t="s">
-        <v>4295</v>
+        <v>4266</v>
       </c>
       <c r="F1172" s="11">
         <v>30830</v>
       </c>
       <c r="G1172" s="10" t="s">
-        <v>4421</v>
+        <v>4392</v>
       </c>
       <c r="H1172" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1172" s="10" t="s">
-        <v>4091</v>
+        <v>4078</v>
       </c>
       <c r="J1172" s="10">
         <v>8812850485</v>
       </c>
       <c r="K1172" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1173" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52399,25 +52399,25 @@
         <v>1969</v>
       </c>
       <c r="E1173" s="10" t="s">
-        <v>4296</v>
+        <v>4267</v>
       </c>
       <c r="F1173" s="11">
         <v>30920</v>
       </c>
       <c r="G1173" s="10" t="s">
-        <v>4422</v>
+        <v>4393</v>
       </c>
       <c r="H1173" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1173" s="10" t="s">
-        <v>4092</v>
+        <v>4079</v>
       </c>
       <c r="J1173" s="10">
         <v>9101551901</v>
       </c>
       <c r="K1173" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1174" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52432,23 +52432,23 @@
         <v>1942</v>
       </c>
       <c r="E1174" s="10" t="s">
-        <v>4297</v>
+        <v>4268</v>
       </c>
       <c r="F1174" s="11">
         <v>30512</v>
       </c>
       <c r="G1174" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1174" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1174" s="10" t="s">
-        <v>4093</v>
+        <v>4080</v>
       </c>
       <c r="J1174" s="10"/>
       <c r="K1174" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1175" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52463,23 +52463,23 @@
         <v>1919</v>
       </c>
       <c r="E1175" s="10" t="s">
-        <v>4298</v>
+        <v>4269</v>
       </c>
       <c r="F1175" s="11">
         <v>29494</v>
       </c>
       <c r="G1175" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1175" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1175" s="10" t="s">
-        <v>4094</v>
+        <v>4081</v>
       </c>
       <c r="J1175" s="10"/>
       <c r="K1175" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52494,23 +52494,23 @@
         <v>1905</v>
       </c>
       <c r="E1176" s="10" t="s">
-        <v>4299</v>
+        <v>4270</v>
       </c>
       <c r="F1176" s="11">
         <v>29753</v>
       </c>
       <c r="G1176" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1176" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1176" s="10" t="s">
-        <v>4095</v>
+        <v>4082</v>
       </c>
       <c r="J1176" s="10"/>
       <c r="K1176" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52525,25 +52525,25 @@
         <v>1920</v>
       </c>
       <c r="E1177" s="10" t="s">
-        <v>4300</v>
+        <v>4271</v>
       </c>
       <c r="F1177" s="11">
         <v>30011</v>
       </c>
       <c r="G1177" s="10" t="s">
-        <v>4423</v>
+        <v>4394</v>
       </c>
       <c r="H1177" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1177" s="10" t="s">
-        <v>4096</v>
+        <v>4083</v>
       </c>
       <c r="J1177" s="10">
         <v>7002640314</v>
       </c>
       <c r="K1177" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1178" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52558,25 +52558,25 @@
         <v>332</v>
       </c>
       <c r="E1178" s="10" t="s">
-        <v>4301</v>
+        <v>4272</v>
       </c>
       <c r="F1178" s="11">
         <v>30725</v>
       </c>
       <c r="G1178" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1178" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1178" s="10" t="s">
-        <v>4097</v>
+        <v>4084</v>
       </c>
       <c r="J1178" s="10">
         <v>9435388858</v>
       </c>
       <c r="K1178" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1179" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52591,25 +52591,25 @@
         <v>341</v>
       </c>
       <c r="E1179" s="10" t="s">
-        <v>4302</v>
+        <v>4273</v>
       </c>
       <c r="F1179" s="11">
         <v>30742</v>
       </c>
       <c r="G1179" s="10" t="s">
-        <v>4424</v>
+        <v>4395</v>
       </c>
       <c r="H1179" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1179" s="10" t="s">
-        <v>4098</v>
+        <v>4085</v>
       </c>
       <c r="J1179" s="10">
         <v>9864585559</v>
       </c>
       <c r="K1179" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52624,25 +52624,25 @@
         <v>450</v>
       </c>
       <c r="E1180" s="10" t="s">
-        <v>4303</v>
+        <v>4274</v>
       </c>
       <c r="F1180" s="11">
         <v>30681</v>
       </c>
       <c r="G1180" s="10" t="s">
-        <v>4425</v>
+        <v>4396</v>
       </c>
       <c r="H1180" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1180" s="10" t="s">
-        <v>4099</v>
+        <v>4086</v>
       </c>
       <c r="J1180" s="10">
         <v>8638109474</v>
       </c>
       <c r="K1180" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1181" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52657,23 +52657,23 @@
         <v>363</v>
       </c>
       <c r="E1181" s="10" t="s">
-        <v>4304</v>
+        <v>4275</v>
       </c>
       <c r="F1181" s="11">
         <v>31388</v>
       </c>
       <c r="G1181" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1181" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1181" s="10" t="s">
-        <v>4100</v>
+        <v>4087</v>
       </c>
       <c r="J1181" s="10"/>
       <c r="K1181" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1182" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -52688,25 +52688,25 @@
         <v>327</v>
       </c>
       <c r="E1182" s="10" t="s">
-        <v>4305</v>
+        <v>4276</v>
       </c>
       <c r="F1182" s="11">
         <v>30783</v>
       </c>
       <c r="G1182" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1182" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1182" s="10" t="s">
-        <v>4101</v>
+        <v>4088</v>
       </c>
       <c r="J1182" s="10">
         <v>9864655626</v>
       </c>
       <c r="K1182" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52721,25 +52721,25 @@
         <v>307</v>
       </c>
       <c r="E1183" s="10" t="s">
-        <v>4306</v>
+        <v>4277</v>
       </c>
       <c r="F1183" s="11">
         <v>29699</v>
       </c>
       <c r="G1183" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1183" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1183" s="10" t="s">
-        <v>4102</v>
+        <v>4089</v>
       </c>
       <c r="J1183" s="10">
         <v>8638461068</v>
       </c>
       <c r="K1183" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1184" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52754,23 +52754,23 @@
         <v>353</v>
       </c>
       <c r="E1184" s="10" t="s">
-        <v>4307</v>
+        <v>4278</v>
       </c>
       <c r="F1184" s="11">
         <v>30965</v>
       </c>
       <c r="G1184" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1184" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1184" s="10" t="s">
-        <v>4103</v>
+        <v>4090</v>
       </c>
       <c r="J1184" s="10"/>
       <c r="K1184" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1185" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52785,23 +52785,23 @@
         <v>347</v>
       </c>
       <c r="E1185" s="10" t="s">
-        <v>4308</v>
+        <v>4279</v>
       </c>
       <c r="F1185" s="11">
         <v>31409</v>
       </c>
       <c r="G1185" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1185" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1185" s="10" t="s">
-        <v>4104</v>
+        <v>4091</v>
       </c>
       <c r="J1185" s="10"/>
       <c r="K1185" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1186" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52816,23 +52816,23 @@
         <v>423</v>
       </c>
       <c r="E1186" s="10" t="s">
-        <v>4309</v>
+        <v>4280</v>
       </c>
       <c r="F1186" s="11">
         <v>30208</v>
       </c>
       <c r="G1186" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1186" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1186" s="10" t="s">
-        <v>4105</v>
+        <v>4092</v>
       </c>
       <c r="J1186" s="10"/>
       <c r="K1186" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1187" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52841,23 +52841,23 @@
       <c r="C1187" s="10"/>
       <c r="D1187" s="10"/>
       <c r="E1187" s="10" t="s">
-        <v>4310</v>
+        <v>4281</v>
       </c>
       <c r="F1187" s="11">
         <v>29785</v>
       </c>
       <c r="G1187" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1187" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1187" s="10" t="s">
-        <v>4106</v>
+        <v>4093</v>
       </c>
       <c r="J1187" s="10"/>
       <c r="K1187" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1188" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52872,23 +52872,23 @@
         <v>396</v>
       </c>
       <c r="E1188" s="10" t="s">
-        <v>4311</v>
+        <v>4282</v>
       </c>
       <c r="F1188" s="11">
         <v>31243</v>
       </c>
       <c r="G1188" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1188" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1188" s="10" t="s">
-        <v>4107</v>
+        <v>4094</v>
       </c>
       <c r="J1188" s="10"/>
       <c r="K1188" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1189" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52903,25 +52903,25 @@
         <v>272</v>
       </c>
       <c r="E1189" s="10" t="s">
-        <v>4312</v>
+        <v>4283</v>
       </c>
       <c r="F1189" s="11">
         <v>30317</v>
       </c>
       <c r="G1189" s="10" t="s">
-        <v>4378</v>
+        <v>4349</v>
       </c>
       <c r="H1189" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1189" s="10" t="s">
-        <v>4108</v>
+        <v>4095</v>
       </c>
       <c r="J1189" s="10">
         <v>9957008529</v>
       </c>
       <c r="K1189" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1190" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52936,23 +52936,23 @@
         <v>416</v>
       </c>
       <c r="E1190" s="10" t="s">
-        <v>4313</v>
+        <v>4284</v>
       </c>
       <c r="F1190" s="11">
         <v>31424</v>
       </c>
       <c r="G1190" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1190" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1190" s="10" t="s">
-        <v>4109</v>
+        <v>4096</v>
       </c>
       <c r="J1190" s="10"/>
       <c r="K1190" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1191" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52967,23 +52967,23 @@
         <v>281</v>
       </c>
       <c r="E1191" s="10" t="s">
-        <v>4314</v>
+        <v>4285</v>
       </c>
       <c r="F1191" s="11">
         <v>31934</v>
       </c>
       <c r="G1191" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1191" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1191" s="10" t="s">
-        <v>4110</v>
+        <v>4097</v>
       </c>
       <c r="J1191" s="10"/>
       <c r="K1191" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1192" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52998,25 +52998,25 @@
         <v>212</v>
       </c>
       <c r="E1192" s="10" t="s">
-        <v>4315</v>
+        <v>4286</v>
       </c>
       <c r="F1192" s="11">
         <v>31442</v>
       </c>
       <c r="G1192" s="10" t="s">
-        <v>4422</v>
+        <v>4393</v>
       </c>
       <c r="H1192" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1192" s="10" t="s">
-        <v>4111</v>
+        <v>4098</v>
       </c>
       <c r="J1192" s="10">
         <v>7002962867</v>
       </c>
       <c r="K1192" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1193" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53031,25 +53031,25 @@
         <v>114</v>
       </c>
       <c r="E1193" s="10" t="s">
-        <v>4316</v>
+        <v>4287</v>
       </c>
       <c r="F1193" s="11">
         <v>31494</v>
       </c>
       <c r="G1193" s="10" t="s">
-        <v>4426</v>
+        <v>4397</v>
       </c>
       <c r="H1193" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1193" s="10" t="s">
-        <v>4112</v>
+        <v>4099</v>
       </c>
       <c r="J1193" s="10">
         <v>8698556075</v>
       </c>
       <c r="K1193" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1194" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53064,23 +53064,23 @@
         <v>92</v>
       </c>
       <c r="E1194" s="10" t="s">
-        <v>4317</v>
+        <v>4288</v>
       </c>
       <c r="F1194" s="11">
         <v>31005</v>
       </c>
       <c r="G1194" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1194" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1194" s="10" t="s">
-        <v>4113</v>
+        <v>4100</v>
       </c>
       <c r="J1194" s="10"/>
       <c r="K1194" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1195" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -53095,23 +53095,23 @@
         <v>153</v>
       </c>
       <c r="E1195" s="10" t="s">
-        <v>4318</v>
+        <v>4289</v>
       </c>
       <c r="F1195" s="11">
         <v>31973</v>
       </c>
       <c r="G1195" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1195" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1195" s="10" t="s">
-        <v>4114</v>
+        <v>4101</v>
       </c>
       <c r="J1195" s="10"/>
       <c r="K1195" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1196" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53126,25 +53126,25 @@
         <v>136</v>
       </c>
       <c r="E1196" s="10" t="s">
-        <v>4319</v>
+        <v>4290</v>
       </c>
       <c r="F1196" s="11">
         <v>31837</v>
       </c>
       <c r="G1196" s="10" t="s">
-        <v>4427</v>
+        <v>4398</v>
       </c>
       <c r="H1196" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1196" s="10" t="s">
-        <v>4115</v>
+        <v>4102</v>
       </c>
       <c r="J1196" s="10">
         <v>9957033566</v>
       </c>
       <c r="K1196" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53159,23 +53159,23 @@
         <v>110</v>
       </c>
       <c r="E1197" s="10" t="s">
-        <v>4320</v>
+        <v>4291</v>
       </c>
       <c r="F1197" s="11">
         <v>30045</v>
       </c>
       <c r="G1197" s="10" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="H1197" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1197" s="10" t="s">
-        <v>4116</v>
+        <v>4103</v>
       </c>
       <c r="J1197" s="10"/>
       <c r="K1197" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53190,23 +53190,23 @@
         <v>178</v>
       </c>
       <c r="E1198" s="10" t="s">
-        <v>4321</v>
+        <v>4292</v>
       </c>
       <c r="F1198" s="11">
         <v>32539</v>
       </c>
       <c r="G1198" s="10" t="s">
-        <v>4428</v>
+        <v>4399</v>
       </c>
       <c r="H1198" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1198" s="10" t="s">
-        <v>4117</v>
+        <v>4104</v>
       </c>
       <c r="J1198" s="10"/>
       <c r="K1198" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1199" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53221,23 +53221,23 @@
         <v>181</v>
       </c>
       <c r="E1199" s="10" t="s">
-        <v>4322</v>
+        <v>4293</v>
       </c>
       <c r="F1199" s="11">
         <v>32178</v>
       </c>
       <c r="G1199" s="10" t="s">
-        <v>4429</v>
+        <v>4400</v>
       </c>
       <c r="H1199" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1199" s="10" t="s">
-        <v>4118</v>
+        <v>4105</v>
       </c>
       <c r="J1199" s="10"/>
       <c r="K1199" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1200" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53252,25 +53252,25 @@
         <v>209</v>
       </c>
       <c r="E1200" s="10" t="s">
-        <v>4323</v>
+        <v>4294</v>
       </c>
       <c r="F1200" s="11">
         <v>32568</v>
       </c>
       <c r="G1200" s="10" t="s">
-        <v>4430</v>
+        <v>4401</v>
       </c>
       <c r="H1200" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1200" s="10" t="s">
-        <v>4119</v>
+        <v>4106</v>
       </c>
       <c r="J1200" s="10">
         <v>9859779881</v>
       </c>
       <c r="K1200" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53285,25 +53285,25 @@
         <v>193</v>
       </c>
       <c r="E1201" s="10" t="s">
-        <v>4324</v>
+        <v>4295</v>
       </c>
       <c r="F1201" s="11">
         <v>32504</v>
       </c>
       <c r="G1201" s="10" t="s">
-        <v>4431</v>
+        <v>4402</v>
       </c>
       <c r="H1201" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1201" s="10" t="s">
-        <v>4120</v>
+        <v>4107</v>
       </c>
       <c r="J1201" s="10">
         <v>9101373476</v>
       </c>
       <c r="K1201" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1202" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -53318,23 +53318,23 @@
         <v>217</v>
       </c>
       <c r="E1202" s="10" t="s">
-        <v>4325</v>
+        <v>4296</v>
       </c>
       <c r="F1202" s="11">
         <v>29646</v>
       </c>
       <c r="G1202" s="10" t="s">
-        <v>4432</v>
+        <v>4403</v>
       </c>
       <c r="H1202" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1202" s="10" t="s">
-        <v>4121</v>
+        <v>4108</v>
       </c>
       <c r="J1202" s="10"/>
       <c r="K1202" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53349,23 +53349,23 @@
         <v>186</v>
       </c>
       <c r="E1203" s="10" t="s">
-        <v>4326</v>
+        <v>4297</v>
       </c>
       <c r="F1203" s="11">
         <v>31331</v>
       </c>
       <c r="G1203" s="10" t="s">
-        <v>4433</v>
+        <v>4404</v>
       </c>
       <c r="H1203" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1203" s="10" t="s">
-        <v>4122</v>
+        <v>4109</v>
       </c>
       <c r="J1203" s="10"/>
       <c r="K1203" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1204" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53380,25 +53380,25 @@
         <v>186</v>
       </c>
       <c r="E1204" s="10" t="s">
-        <v>4327</v>
+        <v>4298</v>
       </c>
       <c r="F1204" s="11">
         <v>31833</v>
       </c>
       <c r="G1204" s="10" t="s">
-        <v>4434</v>
+        <v>4405</v>
       </c>
       <c r="H1204" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1204" s="10" t="s">
-        <v>4123</v>
+        <v>4110</v>
       </c>
       <c r="J1204" s="10">
         <v>9613726783</v>
       </c>
       <c r="K1204" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1205" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53413,23 +53413,23 @@
         <v>217</v>
       </c>
       <c r="E1205" s="10" t="s">
-        <v>4328</v>
+        <v>4299</v>
       </c>
       <c r="F1205" s="11">
         <v>28785</v>
       </c>
       <c r="G1205" s="10" t="s">
-        <v>4435</v>
+        <v>4406</v>
       </c>
       <c r="H1205" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1205" s="10" t="s">
-        <v>4124</v>
+        <v>4111</v>
       </c>
       <c r="J1205" s="10"/>
       <c r="K1205" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1206" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53444,23 +53444,23 @@
         <v>230</v>
       </c>
       <c r="E1206" s="10" t="s">
-        <v>4329</v>
+        <v>4300</v>
       </c>
       <c r="F1206" s="11">
         <v>32403</v>
       </c>
       <c r="G1206" s="10" t="s">
-        <v>4436</v>
+        <v>4407</v>
       </c>
       <c r="H1206" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1206" s="10" t="s">
-        <v>4125</v>
+        <v>4112</v>
       </c>
       <c r="J1206" s="10"/>
       <c r="K1206" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1207" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53475,25 +53475,25 @@
         <v>250</v>
       </c>
       <c r="E1207" s="10" t="s">
-        <v>4330</v>
+        <v>4301</v>
       </c>
       <c r="F1207" s="11">
         <v>32164</v>
       </c>
       <c r="G1207" s="10" t="s">
-        <v>4437</v>
+        <v>4408</v>
       </c>
       <c r="H1207" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1207" s="10" t="s">
-        <v>4126</v>
+        <v>4113</v>
       </c>
       <c r="J1207" s="10">
         <v>8876245825</v>
       </c>
       <c r="K1207" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1208" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53508,25 +53508,25 @@
         <v>230</v>
       </c>
       <c r="E1208" s="10" t="s">
-        <v>4331</v>
+        <v>4302</v>
       </c>
       <c r="F1208" s="11">
         <v>32870</v>
       </c>
       <c r="G1208" s="10" t="s">
-        <v>4438</v>
+        <v>4409</v>
       </c>
       <c r="H1208" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1208" s="10" t="s">
-        <v>4127</v>
+        <v>4114</v>
       </c>
       <c r="J1208" s="10">
         <v>8811989349</v>
       </c>
       <c r="K1208" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1209" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53541,23 +53541,23 @@
         <v>254</v>
       </c>
       <c r="E1209" s="10" t="s">
-        <v>4332</v>
+        <v>4303</v>
       </c>
       <c r="F1209" s="11">
         <v>32774</v>
       </c>
       <c r="G1209" s="10" t="s">
-        <v>4439</v>
+        <v>4410</v>
       </c>
       <c r="H1209" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1209" s="10" t="s">
-        <v>4128</v>
+        <v>4115</v>
       </c>
       <c r="J1209" s="10"/>
       <c r="K1209" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53572,23 +53572,23 @@
         <v>236</v>
       </c>
       <c r="E1210" s="10" t="s">
-        <v>4333</v>
+        <v>4304</v>
       </c>
       <c r="F1210" s="11">
         <v>33266</v>
       </c>
       <c r="G1210" s="10" t="s">
-        <v>4440</v>
+        <v>4411</v>
       </c>
       <c r="H1210" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1210" s="10" t="s">
-        <v>4129</v>
+        <v>4116</v>
       </c>
       <c r="J1210" s="10"/>
       <c r="K1210" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1211" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -53603,25 +53603,25 @@
         <v>154</v>
       </c>
       <c r="E1211" s="10" t="s">
-        <v>4334</v>
+        <v>4305</v>
       </c>
       <c r="F1211" s="11">
         <v>33693</v>
       </c>
       <c r="G1211" s="10" t="s">
-        <v>4441</v>
+        <v>4412</v>
       </c>
       <c r="H1211" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1211" s="10" t="s">
-        <v>4130</v>
+        <v>4117</v>
       </c>
       <c r="J1211" s="10">
         <v>8876349101</v>
       </c>
       <c r="K1211" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1212" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53636,23 +53636,23 @@
         <v>155</v>
       </c>
       <c r="E1212" s="10" t="s">
-        <v>4335</v>
+        <v>4306</v>
       </c>
       <c r="F1212" s="11">
         <v>32842</v>
       </c>
       <c r="G1212" s="10" t="s">
-        <v>4442</v>
+        <v>4413</v>
       </c>
       <c r="H1212" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1212" s="10" t="s">
-        <v>4131</v>
+        <v>4118</v>
       </c>
       <c r="J1212" s="10"/>
       <c r="K1212" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1213" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53667,23 +53667,23 @@
         <v>155</v>
       </c>
       <c r="E1213" s="10" t="s">
-        <v>4336</v>
+        <v>4307</v>
       </c>
       <c r="F1213" s="11">
         <v>32690</v>
       </c>
       <c r="G1213" s="10" t="s">
-        <v>4443</v>
+        <v>4414</v>
       </c>
       <c r="H1213" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1213" s="10" t="s">
-        <v>4132</v>
+        <v>4119</v>
       </c>
       <c r="J1213" s="10"/>
       <c r="K1213" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53698,23 +53698,23 @@
         <v>155</v>
       </c>
       <c r="E1214" s="10" t="s">
-        <v>4337</v>
+        <v>4308</v>
       </c>
       <c r="F1214" s="11">
         <v>31199</v>
       </c>
       <c r="G1214" s="10" t="s">
-        <v>4444</v>
+        <v>4415</v>
       </c>
       <c r="H1214" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1214" s="10" t="s">
-        <v>4133</v>
+        <v>4120</v>
       </c>
       <c r="J1214" s="10"/>
       <c r="K1214" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53729,23 +53729,23 @@
         <v>156</v>
       </c>
       <c r="E1215" s="10" t="s">
-        <v>4338</v>
+        <v>4309</v>
       </c>
       <c r="F1215" s="11">
         <v>32896</v>
       </c>
       <c r="G1215" s="10" t="s">
-        <v>4445</v>
+        <v>4416</v>
       </c>
       <c r="H1215" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1215" s="10" t="s">
-        <v>4134</v>
+        <v>4121</v>
       </c>
       <c r="J1215" s="10"/>
       <c r="K1215" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1216" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53760,25 +53760,25 @@
         <v>155</v>
       </c>
       <c r="E1216" s="10" t="s">
-        <v>4339</v>
+        <v>4310</v>
       </c>
       <c r="F1216" s="11">
         <v>33216</v>
       </c>
       <c r="G1216" s="10" t="s">
-        <v>4446</v>
+        <v>4417</v>
       </c>
       <c r="H1216" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1216" s="10" t="s">
-        <v>4135</v>
+        <v>4122</v>
       </c>
       <c r="J1216" s="10">
         <v>9706886706</v>
       </c>
       <c r="K1216" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1217" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53793,25 +53793,25 @@
         <v>276</v>
       </c>
       <c r="E1217" s="10" t="s">
-        <v>4340</v>
+        <v>4311</v>
       </c>
       <c r="F1217" s="11">
         <v>31826</v>
       </c>
       <c r="G1217" s="10" t="s">
-        <v>4447</v>
+        <v>4418</v>
       </c>
       <c r="H1217" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1217" s="10" t="s">
-        <v>4136</v>
+        <v>4123</v>
       </c>
       <c r="J1217" s="10">
         <v>7896747434</v>
       </c>
       <c r="K1217" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1218" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53826,25 +53826,25 @@
         <v>276</v>
       </c>
       <c r="E1218" s="10" t="s">
-        <v>4341</v>
+        <v>4312</v>
       </c>
       <c r="F1218" s="11">
         <v>33134</v>
       </c>
       <c r="G1218" s="10" t="s">
-        <v>4448</v>
+        <v>4419</v>
       </c>
       <c r="H1218" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1218" s="10" t="s">
-        <v>4137</v>
+        <v>4124</v>
       </c>
       <c r="J1218" s="10">
         <v>8822525240</v>
       </c>
       <c r="K1218" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1219" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -53859,25 +53859,25 @@
         <v>276</v>
       </c>
       <c r="E1219" s="10" t="s">
-        <v>4342</v>
+        <v>4313</v>
       </c>
       <c r="F1219" s="11">
         <v>33078</v>
       </c>
       <c r="G1219" s="10" t="s">
-        <v>4449</v>
+        <v>4420</v>
       </c>
       <c r="H1219" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1219" s="10" t="s">
-        <v>4138</v>
+        <v>4125</v>
       </c>
       <c r="J1219" s="10">
         <v>8724909098</v>
       </c>
       <c r="K1219" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1220" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53892,25 +53892,25 @@
         <v>276</v>
       </c>
       <c r="E1220" s="10" t="s">
-        <v>4343</v>
+        <v>4314</v>
       </c>
       <c r="F1220" s="11">
         <v>33451</v>
       </c>
       <c r="G1220" s="10" t="s">
-        <v>4450</v>
+        <v>4421</v>
       </c>
       <c r="H1220" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1220" s="10" t="s">
-        <v>4139</v>
+        <v>4126</v>
       </c>
       <c r="J1220" s="10">
         <v>9706760141</v>
       </c>
       <c r="K1220" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1221" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53925,25 +53925,25 @@
         <v>277</v>
       </c>
       <c r="E1221" s="10" t="s">
-        <v>4344</v>
+        <v>4315</v>
       </c>
       <c r="F1221" s="11">
         <v>33238</v>
       </c>
       <c r="G1221" s="10" t="s">
-        <v>4451</v>
+        <v>4422</v>
       </c>
       <c r="H1221" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1221" s="10" t="s">
-        <v>4140</v>
+        <v>4127</v>
       </c>
       <c r="J1221" s="10">
         <v>8011011568</v>
       </c>
       <c r="K1221" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1222" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53958,25 +53958,25 @@
         <v>277</v>
       </c>
       <c r="E1222" s="10" t="s">
-        <v>4345</v>
+        <v>4316</v>
       </c>
       <c r="F1222" s="11">
         <v>32143</v>
       </c>
       <c r="G1222" s="10" t="s">
-        <v>4452</v>
+        <v>4423</v>
       </c>
       <c r="H1222" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1222" s="10" t="s">
-        <v>4141</v>
+        <v>4128</v>
       </c>
       <c r="J1222" s="10">
         <v>9864467291</v>
       </c>
       <c r="K1222" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1223" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53991,25 +53991,25 @@
         <v>278</v>
       </c>
       <c r="E1223" s="10" t="s">
-        <v>4346</v>
+        <v>4317</v>
       </c>
       <c r="F1223" s="11">
         <v>33680</v>
       </c>
       <c r="G1223" s="10" t="s">
-        <v>4453</v>
+        <v>4424</v>
       </c>
       <c r="H1223" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1223" s="10" t="s">
-        <v>4142</v>
+        <v>4129</v>
       </c>
       <c r="J1223" s="10">
         <v>7399793867</v>
       </c>
       <c r="K1223" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1224" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54024,25 +54024,25 @@
         <v>278</v>
       </c>
       <c r="E1224" s="10" t="s">
-        <v>4347</v>
+        <v>4318</v>
       </c>
       <c r="F1224" s="11">
         <v>33159</v>
       </c>
       <c r="G1224" s="10" t="s">
-        <v>4454</v>
+        <v>4425</v>
       </c>
       <c r="H1224" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1224" s="10" t="s">
-        <v>4143</v>
+        <v>4130</v>
       </c>
       <c r="J1224" s="10">
         <v>8876077138</v>
       </c>
       <c r="K1224" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1225" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54057,25 +54057,25 @@
         <v>279</v>
       </c>
       <c r="E1225" s="10" t="s">
-        <v>4348</v>
+        <v>4319</v>
       </c>
       <c r="F1225" s="11">
         <v>33099</v>
       </c>
       <c r="G1225" s="10" t="s">
-        <v>4455</v>
+        <v>4426</v>
       </c>
       <c r="H1225" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1225" s="10" t="s">
-        <v>4144</v>
+        <v>4131</v>
       </c>
       <c r="J1225" s="10">
         <v>8133098708</v>
       </c>
       <c r="K1225" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1226" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54090,25 +54090,25 @@
         <v>279</v>
       </c>
       <c r="E1226" s="10" t="s">
-        <v>4349</v>
+        <v>4320</v>
       </c>
       <c r="F1226" s="11">
         <v>33645</v>
       </c>
       <c r="G1226" s="10" t="s">
-        <v>4456</v>
+        <v>4427</v>
       </c>
       <c r="H1226" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1226" s="10" t="s">
-        <v>4145</v>
+        <v>4132</v>
       </c>
       <c r="J1226" s="10">
         <v>8474044880</v>
       </c>
       <c r="K1226" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1227" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54123,25 +54123,25 @@
         <v>280</v>
       </c>
       <c r="E1227" s="10" t="s">
-        <v>4350</v>
+        <v>4321</v>
       </c>
       <c r="F1227" s="11">
         <v>33820</v>
       </c>
       <c r="G1227" s="10" t="s">
-        <v>4457</v>
+        <v>4428</v>
       </c>
       <c r="H1227" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1227" s="10" t="s">
-        <v>4146</v>
+        <v>4133</v>
       </c>
       <c r="J1227" s="10">
         <v>8876141556</v>
       </c>
       <c r="K1227" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1228" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54156,25 +54156,25 @@
         <v>280</v>
       </c>
       <c r="E1228" s="10" t="s">
-        <v>4351</v>
+        <v>4322</v>
       </c>
       <c r="F1228" s="11">
         <v>33970</v>
       </c>
       <c r="G1228" s="10" t="s">
-        <v>4458</v>
+        <v>4429</v>
       </c>
       <c r="H1228" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1228" s="10" t="s">
-        <v>4147</v>
+        <v>4134</v>
       </c>
       <c r="J1228" s="10">
         <v>8876942380</v>
       </c>
       <c r="K1228" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54189,25 +54189,25 @@
         <v>281</v>
       </c>
       <c r="E1229" s="10" t="s">
-        <v>4352</v>
+        <v>4323</v>
       </c>
       <c r="F1229" s="11">
         <v>33848</v>
       </c>
       <c r="G1229" s="10" t="s">
-        <v>4459</v>
+        <v>4430</v>
       </c>
       <c r="H1229" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1229" s="10" t="s">
-        <v>4148</v>
+        <v>4135</v>
       </c>
       <c r="J1229" s="10">
         <v>9864531247</v>
       </c>
       <c r="K1229" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54222,25 +54222,25 @@
         <v>281</v>
       </c>
       <c r="E1230" s="10" t="s">
-        <v>4353</v>
+        <v>4324</v>
       </c>
       <c r="F1230" s="11">
         <v>34022</v>
       </c>
       <c r="G1230" s="10" t="s">
-        <v>4460</v>
+        <v>4431</v>
       </c>
       <c r="H1230" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1230" s="10" t="s">
-        <v>4149</v>
+        <v>4136</v>
       </c>
       <c r="J1230" s="10">
         <v>8812844376</v>
       </c>
       <c r="K1230" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1231" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54255,25 +54255,25 @@
         <v>281</v>
       </c>
       <c r="E1231" s="10" t="s">
-        <v>4354</v>
+        <v>4325</v>
       </c>
       <c r="F1231" s="11">
         <v>33258</v>
       </c>
       <c r="G1231" s="10" t="s">
-        <v>4461</v>
+        <v>4432</v>
       </c>
       <c r="H1231" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1231" s="10" t="s">
-        <v>4150</v>
+        <v>4137</v>
       </c>
       <c r="J1231" s="10">
         <v>9678775510</v>
       </c>
       <c r="K1231" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1232" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54288,25 +54288,25 @@
         <v>281</v>
       </c>
       <c r="E1232" s="10" t="s">
-        <v>4355</v>
+        <v>4326</v>
       </c>
       <c r="F1232" s="11">
         <v>33580</v>
       </c>
       <c r="G1232" s="10" t="s">
-        <v>4462</v>
+        <v>4433</v>
       </c>
       <c r="H1232" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1232" s="10" t="s">
-        <v>4151</v>
+        <v>4138</v>
       </c>
       <c r="J1232" s="10">
         <v>8485970847</v>
       </c>
       <c r="K1232" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1233" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54321,25 +54321,25 @@
         <v>211</v>
       </c>
       <c r="E1233" s="10" t="s">
-        <v>4356</v>
+        <v>4327</v>
       </c>
       <c r="F1233" s="11">
         <v>34161</v>
       </c>
       <c r="G1233" s="10" t="s">
-        <v>4463</v>
+        <v>4434</v>
       </c>
       <c r="H1233" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1233" s="10" t="s">
-        <v>4152</v>
+        <v>4139</v>
       </c>
       <c r="J1233" s="10">
         <v>7086795912</v>
       </c>
       <c r="K1233" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54354,25 +54354,25 @@
         <v>212</v>
       </c>
       <c r="E1234" s="10" t="s">
-        <v>4357</v>
+        <v>4328</v>
       </c>
       <c r="F1234" s="11">
         <v>34394</v>
       </c>
       <c r="G1234" s="10" t="s">
-        <v>4464</v>
+        <v>4435</v>
       </c>
       <c r="H1234" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1234" s="10" t="s">
-        <v>4153</v>
+        <v>4140</v>
       </c>
       <c r="J1234" s="10">
         <v>8486090175</v>
       </c>
       <c r="K1234" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54387,25 +54387,25 @@
         <v>212</v>
       </c>
       <c r="E1235" s="10" t="s">
-        <v>4358</v>
+        <v>4329</v>
       </c>
       <c r="F1235" s="11">
         <v>33425</v>
       </c>
       <c r="G1235" s="10" t="s">
-        <v>4465</v>
+        <v>4436</v>
       </c>
       <c r="H1235" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1235" s="10" t="s">
-        <v>4154</v>
+        <v>4141</v>
       </c>
       <c r="J1235" s="10">
         <v>9706538946</v>
       </c>
       <c r="K1235" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -54420,25 +54420,25 @@
         <v>213</v>
       </c>
       <c r="E1236" s="10" t="s">
-        <v>4359</v>
+        <v>4330</v>
       </c>
       <c r="F1236" s="11">
         <v>33434</v>
       </c>
       <c r="G1236" s="10" t="s">
-        <v>4466</v>
+        <v>4437</v>
       </c>
       <c r="H1236" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1236" s="10" t="s">
-        <v>4155</v>
+        <v>4142</v>
       </c>
       <c r="J1236" s="10">
         <v>9706321875</v>
       </c>
       <c r="K1236" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1237" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -54453,25 +54453,25 @@
         <v>213</v>
       </c>
       <c r="E1237" s="10" t="s">
-        <v>4360</v>
+        <v>4331</v>
       </c>
       <c r="F1237" s="11">
         <v>33434</v>
       </c>
       <c r="G1237" s="10" t="s">
-        <v>4466</v>
+        <v>4437</v>
       </c>
       <c r="H1237" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1237" s="10" t="s">
-        <v>4156</v>
+        <v>4143</v>
       </c>
       <c r="J1237" s="10">
         <v>9706321875</v>
       </c>
       <c r="K1237" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1238" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54486,25 +54486,25 @@
         <v>214</v>
       </c>
       <c r="E1238" s="10" t="s">
-        <v>4361</v>
+        <v>4332</v>
       </c>
       <c r="F1238" s="11">
         <v>33586</v>
       </c>
       <c r="G1238" s="10" t="s">
-        <v>4467</v>
+        <v>4438</v>
       </c>
       <c r="H1238" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1238" s="10" t="s">
-        <v>4157</v>
+        <v>4144</v>
       </c>
       <c r="J1238" s="10">
         <v>9706441462</v>
       </c>
       <c r="K1238" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1239" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54519,25 +54519,25 @@
         <v>142</v>
       </c>
       <c r="E1239" s="10" t="s">
-        <v>4362</v>
+        <v>4333</v>
       </c>
       <c r="F1239" s="11">
         <v>34608</v>
       </c>
       <c r="G1239" s="10" t="s">
-        <v>4468</v>
+        <v>4439</v>
       </c>
       <c r="H1239" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1239" s="10" t="s">
-        <v>4158</v>
+        <v>4145</v>
       </c>
       <c r="J1239" s="10">
         <v>7086254702</v>
       </c>
       <c r="K1239" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1240" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54552,25 +54552,25 @@
         <v>143</v>
       </c>
       <c r="E1240" s="10" t="s">
-        <v>4363</v>
+        <v>4334</v>
       </c>
       <c r="F1240" s="11">
         <v>34000</v>
       </c>
       <c r="G1240" s="10" t="s">
-        <v>4469</v>
+        <v>4440</v>
       </c>
       <c r="H1240" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1240" s="10" t="s">
-        <v>4159</v>
+        <v>4146</v>
       </c>
       <c r="J1240" s="10">
         <v>8876287176</v>
       </c>
       <c r="K1240" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1241" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54585,25 +54585,25 @@
         <v>144</v>
       </c>
       <c r="E1241" s="10" t="s">
-        <v>4364</v>
+        <v>4335</v>
       </c>
       <c r="F1241" s="11">
         <v>33351</v>
       </c>
       <c r="G1241" s="10" t="s">
-        <v>4470</v>
+        <v>4441</v>
       </c>
       <c r="H1241" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I1241" s="10" t="s">
-        <v>4160</v>
+        <v>4147</v>
       </c>
       <c r="J1241" s="10">
         <v>6901118148</v>
       </c>
       <c r="K1241" s="10" t="s">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
   </sheetData>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7604" uniqueCount="4488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7604" uniqueCount="4487">
   <si>
     <t>1994</t>
   </si>
@@ -13243,9 +13243,6 @@
     <t>31/09/1977</t>
   </si>
   <si>
-    <t>NEW ENTRY B</t>
-  </si>
-  <si>
     <t>Flat A2, Jiabhoroli Apartment, Nabagiri road, Chandmari, Guwahati-781003</t>
   </si>
   <si>
@@ -13712,9 +13709,6 @@
     <t>SYEDMEHTAZ,S/oSh.SyedIdrishAliDewan</t>
   </si>
   <si>
-    <t>UPDATE NAME AND PHONE</t>
-  </si>
-  <si>
     <t>KHANAMUKH BHITORUAL GAON PO. BHITORUAL VIA. JANJI DIST. SIBSAGAR ASSAM</t>
   </si>
   <si>
@@ -13724,9 +13718,6 @@
     <t>HN 77 GANESH NAGAR BASISTHA GUWAHATI 781029 ASSAM</t>
   </si>
   <si>
-    <t>UPDATE PHONE UPDATE ADDRESS</t>
-  </si>
-  <si>
     <t>AkshyavatKesari/SriSurajNarayanSingh</t>
   </si>
   <si>
@@ -13737,6 +13728,12 @@
   </si>
   <si>
     <t>SENDURI ALI KANAK NAGAR WARD NO 13 PO NAMTIAL PATHAR SIVASAGAR ASSAM PIN 785697</t>
+  </si>
+  <si>
+    <t>UPDATE PHONE AND ADDRESS</t>
+  </si>
+  <si>
+    <t>UPDATE PHONE AND NAME</t>
   </si>
 </sst>
 </file>
@@ -13823,7 +13820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -13874,6 +13871,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -14265,8 +14268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1076" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1080" sqref="Q1080"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L971" sqref="L971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14445,38 +14448,38 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="12">
         <v>4435</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="13">
         <v>21459</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>4487</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="12" t="s">
+        <v>4484</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="14">
         <v>9435516621</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>4472</v>
+      <c r="K6" s="12" t="s">
+        <v>4471</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -14722,7 +14725,7 @@
         <v>21155</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>4482</v>
+        <v>4480</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>5</v>
@@ -14734,7 +14737,7 @@
         <v>7002191047</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>4483</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -15749,38 +15752,38 @@
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="12">
         <v>4475</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="13">
         <v>21064</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="14">
         <v>9435328038</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>4481</v>
+      <c r="K46" s="12" t="s">
+        <v>4479</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -19687,38 +19690,38 @@
       <c r="K165" s="1"/>
     </row>
     <row r="166" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+      <c r="A166" s="12">
         <v>4595</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>4484</v>
-      </c>
-      <c r="F166" s="2">
+      <c r="E166" s="12" t="s">
+        <v>4481</v>
+      </c>
+      <c r="F166" s="13">
         <v>24699</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>4485</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I166" s="1" t="s">
+      <c r="G166" s="12" t="s">
+        <v>4482</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I166" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="J166" s="6">
+      <c r="J166" s="14">
         <v>7002102453</v>
       </c>
-      <c r="K166" s="1" t="s">
-        <v>4486</v>
+      <c r="K166" s="12" t="s">
+        <v>4483</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -22723,38 +22726,38 @@
       <c r="K257" s="1"/>
     </row>
     <row r="258" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
+      <c r="A258" s="12">
         <v>4687</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="B258" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="12" t="s">
         <v>1106</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="D258" s="12" t="s">
         <v>1107</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E258" s="12" t="s">
         <v>1108</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258" s="13">
         <v>25476</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="G258" s="12" t="s">
+        <v>4470</v>
+      </c>
+      <c r="H258" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I258" s="12" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J258" s="14">
+        <v>8876405881</v>
+      </c>
+      <c r="K258" s="12" t="s">
         <v>4471</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I258" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="J258" s="6">
-        <v>8876405881</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>4472</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -23408,36 +23411,36 @@
       <c r="K278" s="1"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
+      <c r="A279" s="17">
         <v>4708</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B279" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C279" s="17" t="s">
         <v>1190</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="D279" s="17" t="s">
         <v>1191</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E279" s="17" t="s">
+        <v>4433</v>
+      </c>
+      <c r="F279" s="18" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G279" s="17"/>
+      <c r="H279" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I279" s="17" t="s">
         <v>4434</v>
       </c>
-      <c r="F279" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G279" s="1"/>
-      <c r="H279" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>4435</v>
-      </c>
-      <c r="J279" s="6">
+      <c r="J279" s="19">
         <v>9859085665</v>
       </c>
       <c r="K279" s="17" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -25174,38 +25177,38 @@
       <c r="K332" s="1"/>
     </row>
     <row r="333" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
+      <c r="A333" s="12">
         <v>4762</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B333" s="12" t="s">
         <v>1339</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="C333" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="D333" s="12" t="s">
         <v>1429</v>
       </c>
-      <c r="E333" s="1" t="s">
+      <c r="E333" s="12" t="s">
         <v>1430</v>
       </c>
-      <c r="F333" s="2">
+      <c r="F333" s="13">
         <v>26755</v>
       </c>
-      <c r="G333" s="1" t="s">
-        <v>4476</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I333" s="1" t="s">
+      <c r="G333" s="12" t="s">
+        <v>4475</v>
+      </c>
+      <c r="H333" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I333" s="12" t="s">
         <v>1431</v>
       </c>
-      <c r="J333" s="6">
+      <c r="J333" s="14">
         <v>9508103776</v>
       </c>
-      <c r="K333" s="1" t="s">
-        <v>4472</v>
+      <c r="K333" s="12" t="s">
+        <v>4471</v>
       </c>
     </row>
     <row r="334" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -25694,7 +25697,7 @@
         <v>5</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="J348" s="5"/>
       <c r="K348" s="1"/>
@@ -26787,38 +26790,38 @@
       <c r="K381" s="1"/>
     </row>
     <row r="382" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
+      <c r="A382" s="12">
         <v>4811</v>
       </c>
-      <c r="B382" s="1" t="s">
+      <c r="B382" s="12" t="s">
         <v>1621</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C382" s="12" t="s">
         <v>1639</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="D382" s="12" t="s">
         <v>1640</v>
       </c>
-      <c r="E382" s="1" t="s">
+      <c r="E382" s="12" t="s">
         <v>1641</v>
       </c>
-      <c r="F382" s="2">
+      <c r="F382" s="13">
         <v>27572</v>
       </c>
-      <c r="G382" s="1" t="s">
-        <v>4480</v>
-      </c>
-      <c r="H382" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I382" s="1" t="s">
+      <c r="G382" s="12" t="s">
+        <v>4478</v>
+      </c>
+      <c r="H382" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I382" s="12" t="s">
         <v>1642</v>
       </c>
-      <c r="J382" s="6">
+      <c r="J382" s="14">
         <v>7002540689</v>
       </c>
-      <c r="K382" s="1" t="s">
-        <v>4472</v>
+      <c r="K382" s="12" t="s">
+        <v>4471</v>
       </c>
     </row>
     <row r="383" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -27852,37 +27855,37 @@
       <c r="K414" s="1"/>
     </row>
     <row r="415" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A415" s="1">
+      <c r="A415" s="12">
         <v>4844</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="B415" s="12" t="s">
         <v>1753</v>
       </c>
-      <c r="C415" s="1" t="s">
+      <c r="C415" s="12" t="s">
         <v>1774</v>
       </c>
-      <c r="D415" s="1" t="s">
+      <c r="D415" s="12" t="s">
         <v>1717</v>
       </c>
-      <c r="E415" s="1" t="s">
+      <c r="E415" s="12" t="s">
         <v>1775</v>
       </c>
-      <c r="F415" s="2">
+      <c r="F415" s="13">
         <v>26846</v>
       </c>
-      <c r="G415" s="1" t="s">
+      <c r="G415" s="12" t="s">
         <v>1776</v>
       </c>
-      <c r="H415" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I415" s="1" t="s">
+      <c r="H415" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I415" s="12" t="s">
         <v>1777</v>
       </c>
-      <c r="J415" s="6">
+      <c r="J415" s="14">
         <v>9101318454</v>
       </c>
-      <c r="K415" s="1" t="s">
+      <c r="K415" s="12" t="s">
         <v>3779</v>
       </c>
     </row>
@@ -30270,38 +30273,38 @@
       <c r="K488" s="1"/>
     </row>
     <row r="489" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A489" s="1">
+      <c r="A489" s="12">
         <v>4918</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="B489" s="12" t="s">
         <v>2035</v>
       </c>
-      <c r="C489" s="1" t="s">
+      <c r="C489" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D489" s="1" t="s">
+      <c r="D489" s="12" t="s">
         <v>2087</v>
       </c>
-      <c r="E489" s="1" t="s">
-        <v>4475</v>
-      </c>
-      <c r="F489" s="2">
+      <c r="E489" s="12" t="s">
+        <v>4474</v>
+      </c>
+      <c r="F489" s="13">
         <v>29573</v>
       </c>
-      <c r="G489" s="1" t="s">
+      <c r="G489" s="12" t="s">
         <v>2088</v>
       </c>
-      <c r="H489" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I489" s="1" t="s">
+      <c r="H489" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I489" s="12" t="s">
         <v>2089</v>
       </c>
-      <c r="J489" s="6">
+      <c r="J489" s="14">
         <v>9864348963</v>
       </c>
-      <c r="K489" s="1" t="s">
-        <v>4474</v>
+      <c r="K489" s="12" t="s">
+        <v>4473</v>
       </c>
     </row>
     <row r="490" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -30759,38 +30762,38 @@
       <c r="K503" s="1"/>
     </row>
     <row r="504" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A504" s="1">
+      <c r="A504" s="12">
         <v>4933</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="B504" s="12" t="s">
         <v>2142</v>
       </c>
-      <c r="C504" s="1" t="s">
+      <c r="C504" s="12" t="s">
         <v>2151</v>
       </c>
-      <c r="D504" s="1" t="s">
+      <c r="D504" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="E504" s="1" t="s">
-        <v>4478</v>
-      </c>
-      <c r="F504" s="2">
+      <c r="E504" s="12" t="s">
+        <v>4477</v>
+      </c>
+      <c r="F504" s="13">
         <v>29688</v>
       </c>
-      <c r="G504" s="1" t="s">
+      <c r="G504" s="12" t="s">
         <v>2152</v>
       </c>
-      <c r="H504" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I504" s="1" t="s">
+      <c r="H504" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I504" s="12" t="s">
         <v>2153</v>
       </c>
-      <c r="J504" s="6">
+      <c r="J504" s="14">
         <v>9864238491</v>
       </c>
-      <c r="K504" s="1" t="s">
-        <v>4479</v>
+      <c r="K504" s="12" t="s">
+        <v>4486</v>
       </c>
     </row>
     <row r="505" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -31089,38 +31092,38 @@
       <c r="K513" s="1"/>
     </row>
     <row r="514" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A514" s="1">
+      <c r="A514" s="12">
         <v>4943</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B514" s="12" t="s">
         <v>2142</v>
       </c>
-      <c r="C514" s="1" t="s">
+      <c r="C514" s="12" t="s">
         <v>2189</v>
       </c>
-      <c r="D514" s="1" t="s">
+      <c r="D514" s="12" t="s">
         <v>1531</v>
       </c>
-      <c r="E514" s="1" t="s">
+      <c r="E514" s="12" t="s">
+        <v>4472</v>
+      </c>
+      <c r="F514" s="13">
+        <v>30589</v>
+      </c>
+      <c r="G514" s="12" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H514" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I514" s="12" t="s">
+        <v>2191</v>
+      </c>
+      <c r="J514" s="14">
+        <v>7002908690</v>
+      </c>
+      <c r="K514" s="12" t="s">
         <v>4473</v>
-      </c>
-      <c r="F514" s="2">
-        <v>30589</v>
-      </c>
-      <c r="G514" s="1" t="s">
-        <v>2190</v>
-      </c>
-      <c r="H514" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I514" s="1" t="s">
-        <v>2191</v>
-      </c>
-      <c r="J514" s="6">
-        <v>7002908690</v>
-      </c>
-      <c r="K514" s="1" t="s">
-        <v>4474</v>
       </c>
     </row>
     <row r="515" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -36705,38 +36708,38 @@
       <c r="K683" s="1"/>
     </row>
     <row r="684" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A684" s="1">
+      <c r="A684" s="12">
         <v>5113</v>
       </c>
-      <c r="B684" s="1" t="s">
+      <c r="B684" s="12" t="s">
         <v>2698</v>
       </c>
-      <c r="C684" s="1" t="s">
+      <c r="C684" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D684" s="1" t="s">
+      <c r="D684" s="12" t="s">
         <v>1687</v>
       </c>
-      <c r="E684" s="1" t="s">
+      <c r="E684" s="12" t="s">
         <v>2861</v>
       </c>
-      <c r="F684" s="2">
+      <c r="F684" s="13">
         <v>33098</v>
       </c>
-      <c r="G684" s="1" t="s">
+      <c r="G684" s="12" t="s">
         <v>2862</v>
       </c>
-      <c r="H684" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I684" s="1" t="s">
+      <c r="H684" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I684" s="12" t="s">
         <v>2863</v>
       </c>
-      <c r="J684" s="6">
+      <c r="J684" s="14">
         <v>8876161334</v>
       </c>
-      <c r="K684" s="1" t="s">
-        <v>4481</v>
+      <c r="K684" s="12" t="s">
+        <v>4479</v>
       </c>
     </row>
     <row r="685" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -41927,38 +41930,38 @@
       <c r="K841" s="1"/>
     </row>
     <row r="842" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A842" s="1">
+      <c r="A842" s="12">
         <v>5271</v>
       </c>
-      <c r="B842" s="1">
+      <c r="B842" s="12">
         <v>2021</v>
       </c>
-      <c r="C842" s="1">
+      <c r="C842" s="12">
         <v>78</v>
       </c>
-      <c r="D842" s="1">
+      <c r="D842" s="12">
         <v>292</v>
       </c>
-      <c r="E842" s="1" t="s">
-        <v>4477</v>
-      </c>
-      <c r="F842" s="2">
+      <c r="E842" s="12" t="s">
+        <v>4476</v>
+      </c>
+      <c r="F842" s="13">
         <v>35446</v>
       </c>
-      <c r="G842" s="1" t="s">
+      <c r="G842" s="12" t="s">
         <v>3345</v>
       </c>
-      <c r="H842" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I842" s="1" t="s">
+      <c r="H842" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I842" s="12" t="s">
         <v>3346</v>
       </c>
-      <c r="J842" s="6">
+      <c r="J842" s="14">
         <v>7086752581</v>
       </c>
-      <c r="K842" s="1" t="s">
-        <v>4474</v>
+      <c r="K842" s="12" t="s">
+        <v>4473</v>
       </c>
     </row>
     <row r="843" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46190,36 +46193,36 @@
       <c r="K970" s="1"/>
     </row>
     <row r="971" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A971" s="1">
+      <c r="A971" s="17">
         <v>5400</v>
       </c>
-      <c r="B971" s="1" t="s">
+      <c r="B971" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C971" s="1" t="s">
+      <c r="C971" s="17" t="s">
+        <v>4435</v>
+      </c>
+      <c r="D971" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E971" s="17" t="s">
         <v>4436</v>
       </c>
-      <c r="D971" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E971" s="1" t="s">
+      <c r="F971" s="18"/>
+      <c r="G971" s="17" t="s">
         <v>4437</v>
       </c>
-      <c r="F971" s="2"/>
-      <c r="G971" s="1" t="s">
+      <c r="H971" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I971" s="17" t="s">
         <v>4438</v>
       </c>
-      <c r="H971" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I971" s="1" t="s">
+      <c r="J971" s="19">
+        <v>9435345578</v>
+      </c>
+      <c r="K971" s="17" t="s">
         <v>4439</v>
-      </c>
-      <c r="J971" s="6">
-        <v>9435345578</v>
-      </c>
-      <c r="K971" s="17" t="s">
-        <v>4440</v>
       </c>
     </row>
     <row r="972" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46234,7 +46237,7 @@
         <v>274</v>
       </c>
       <c r="E972" s="7" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="F972" s="8">
         <v>21922</v>
@@ -46288,7 +46291,7 @@
       <c r="C974" s="7"/>
       <c r="D974" s="7"/>
       <c r="E974" s="7" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="F974" s="8">
         <v>22706</v>
@@ -46315,7 +46318,7 @@
       <c r="C975" s="7"/>
       <c r="D975" s="7"/>
       <c r="E975" s="7" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="F975" s="8">
         <v>22288</v>
@@ -46342,7 +46345,7 @@
       <c r="C976" s="7"/>
       <c r="D976" s="7"/>
       <c r="E976" s="7" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="F976" s="8">
         <v>21620</v>
@@ -46396,7 +46399,7 @@
       <c r="C978" s="7"/>
       <c r="D978" s="7"/>
       <c r="E978" s="7" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="F978" s="8">
         <v>20375</v>
@@ -46450,7 +46453,7 @@
       <c r="C980" s="7"/>
       <c r="D980" s="7"/>
       <c r="E980" s="7" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="F980" s="8">
         <v>23429</v>
@@ -46477,7 +46480,7 @@
       <c r="C981" s="7"/>
       <c r="D981" s="7"/>
       <c r="E981" s="7" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="F981" s="8">
         <v>23102</v>
@@ -46504,7 +46507,7 @@
       <c r="C982" s="7"/>
       <c r="D982" s="7"/>
       <c r="E982" s="7" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="F982" s="8">
         <v>22287</v>
@@ -46531,7 +46534,7 @@
       <c r="C983" s="7"/>
       <c r="D983" s="7"/>
       <c r="E983" s="7" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="F983" s="8">
         <v>24110</v>
@@ -46558,7 +46561,7 @@
       <c r="C984" s="7"/>
       <c r="D984" s="7"/>
       <c r="E984" s="7" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="F984" s="8">
         <v>23224</v>
@@ -46583,7 +46586,7 @@
       <c r="C985" s="7"/>
       <c r="D985" s="7"/>
       <c r="E985" s="7" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="F985" s="8">
         <v>24166</v>
@@ -46664,7 +46667,7 @@
       <c r="C988" s="7"/>
       <c r="D988" s="7"/>
       <c r="E988" s="7" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="F988" s="8">
         <v>24193</v>
@@ -47178,7 +47181,7 @@
         <v>179</v>
       </c>
       <c r="E1006" s="7" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="F1006" s="8">
         <v>27426</v>
@@ -47488,7 +47491,7 @@
         <v>27819</v>
       </c>
       <c r="G1016" s="7" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="H1016" s="7" t="s">
         <v>5</v>
@@ -47824,19 +47827,19 @@
       <c r="C1028" s="7"/>
       <c r="D1028" s="7"/>
       <c r="E1028" s="7" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="F1028" s="8">
         <v>35330</v>
       </c>
       <c r="G1028" s="7" t="s">
+        <v>4431</v>
+      </c>
+      <c r="H1028" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1028" s="7" t="s">
         <v>4432</v>
-      </c>
-      <c r="H1028" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1028" s="7" t="s">
-        <v>4433</v>
       </c>
       <c r="J1028" s="9">
         <v>7086516495</v>
@@ -48146,7 +48149,7 @@
         <v>273</v>
       </c>
       <c r="E1038" s="10" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="F1038" s="11">
         <v>21489</v>
@@ -48164,7 +48167,7 @@
         <v>9435346950</v>
       </c>
       <c r="K1038" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1039" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48179,7 +48182,7 @@
         <v>21765</v>
       </c>
       <c r="G1039" s="10" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="H1039" s="10" t="s">
         <v>5</v>
@@ -48191,7 +48194,7 @@
         <v>9435013717</v>
       </c>
       <c r="K1039" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1040" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48212,7 +48215,7 @@
         <v>21855</v>
       </c>
       <c r="G1040" s="10" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="H1040" s="10" t="s">
         <v>5</v>
@@ -48224,7 +48227,7 @@
         <v>9508080227</v>
       </c>
       <c r="K1040" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1041" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48239,7 +48242,7 @@
         <v>269</v>
       </c>
       <c r="E1041" s="10" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="F1041" s="11">
         <v>19993</v>
@@ -48257,7 +48260,7 @@
         <v>9864049712</v>
       </c>
       <c r="K1041" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1042" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48272,7 +48275,7 @@
         <v>263</v>
       </c>
       <c r="E1042" s="10" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="F1042" s="11">
         <v>17292</v>
@@ -48288,7 +48291,7 @@
       </c>
       <c r="J1042" s="10"/>
       <c r="K1042" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1043" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -48319,7 +48322,7 @@
       </c>
       <c r="J1043" s="10"/>
       <c r="K1043" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1044" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48334,7 +48337,7 @@
         <v>21916</v>
       </c>
       <c r="G1044" s="10" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="H1044" s="10" t="s">
         <v>5</v>
@@ -48346,7 +48349,7 @@
         <v>9435303948</v>
       </c>
       <c r="K1044" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1045" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -48367,7 +48370,7 @@
         <v>21794</v>
       </c>
       <c r="G1045" s="10" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="H1045" s="10" t="s">
         <v>5</v>
@@ -48379,7 +48382,7 @@
         <v>9435301365</v>
       </c>
       <c r="K1045" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1046" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48400,7 +48403,7 @@
         <v>22463</v>
       </c>
       <c r="G1046" s="10" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="H1046" s="10" t="s">
         <v>5</v>
@@ -48412,7 +48415,7 @@
         <v>9435558788</v>
       </c>
       <c r="K1046" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1047" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -48433,7 +48436,7 @@
         <v>22680</v>
       </c>
       <c r="G1047" s="10" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="H1047" s="10" t="s">
         <v>5</v>
@@ -48445,7 +48448,7 @@
         <v>9435303854</v>
       </c>
       <c r="K1047" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1048" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -48460,7 +48463,7 @@
         <v>281</v>
       </c>
       <c r="E1048" s="10" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="F1048" s="11">
         <v>22240</v>
@@ -48478,7 +48481,7 @@
         <v>9435061608</v>
       </c>
       <c r="K1048" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1049" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48499,7 +48502,7 @@
         <v>22941</v>
       </c>
       <c r="G1049" s="10" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="H1049" s="10" t="s">
         <v>5</v>
@@ -48511,7 +48514,7 @@
         <v>9864088585</v>
       </c>
       <c r="K1049" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1050" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48532,7 +48535,7 @@
         <v>31837</v>
       </c>
       <c r="G1050" s="10" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="H1050" s="10" t="s">
         <v>5</v>
@@ -48544,7 +48547,7 @@
         <v>9435046150</v>
       </c>
       <c r="K1050" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1051" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48559,7 +48562,7 @@
         <v>23621</v>
       </c>
       <c r="G1051" s="10" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="H1051" s="10" t="s">
         <v>5</v>
@@ -48571,7 +48574,7 @@
         <v>9508076090</v>
       </c>
       <c r="K1051" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1052" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48592,7 +48595,7 @@
         <v>23774</v>
       </c>
       <c r="G1052" s="10" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="H1052" s="10" t="s">
         <v>5</v>
@@ -48604,7 +48607,7 @@
         <v>9435105093</v>
       </c>
       <c r="K1052" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1053" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -48637,7 +48640,7 @@
         <v>9678195103</v>
       </c>
       <c r="K1053" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1054" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48652,7 +48655,7 @@
         <v>22678</v>
       </c>
       <c r="G1054" s="10" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="H1054" s="10" t="s">
         <v>5</v>
@@ -48664,7 +48667,7 @@
         <v>9954135017</v>
       </c>
       <c r="K1054" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1055" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48685,7 +48688,7 @@
         <v>23101</v>
       </c>
       <c r="G1055" s="10" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="H1055" s="10" t="s">
         <v>5</v>
@@ -48697,7 +48700,7 @@
         <v>9435101850</v>
       </c>
       <c r="K1055" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1056" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48712,7 +48715,7 @@
         <v>286</v>
       </c>
       <c r="E1056" s="10" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="F1056" s="11"/>
       <c r="G1056" s="10" t="s">
@@ -48728,7 +48731,7 @@
         <v>9435068249</v>
       </c>
       <c r="K1056" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1057" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48749,7 +48752,7 @@
         <v>23275</v>
       </c>
       <c r="G1057" s="10" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="H1057" s="10" t="s">
         <v>5</v>
@@ -48761,7 +48764,7 @@
         <v>9678844427</v>
       </c>
       <c r="K1057" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1058" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -48776,7 +48779,7 @@
         <v>285</v>
       </c>
       <c r="E1058" s="10" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="F1058" s="11">
         <v>21980</v>
@@ -48794,7 +48797,7 @@
         <v>8876718938</v>
       </c>
       <c r="K1058" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1059" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48815,7 +48818,7 @@
         <v>22859</v>
       </c>
       <c r="G1059" s="10" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="H1059" s="10" t="s">
         <v>5</v>
@@ -48827,7 +48830,7 @@
         <v>9957103023</v>
       </c>
       <c r="K1059" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1060" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -48848,7 +48851,7 @@
         <v>22657</v>
       </c>
       <c r="G1060" s="10" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="H1060" s="10" t="s">
         <v>5</v>
@@ -48860,7 +48863,7 @@
         <v>6001749158</v>
       </c>
       <c r="K1060" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1061" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48893,7 +48896,7 @@
         <v>9435031780</v>
       </c>
       <c r="K1061" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1062" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -48914,7 +48917,7 @@
         <v>22843</v>
       </c>
       <c r="G1062" s="10" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="H1062" s="10" t="s">
         <v>5</v>
@@ -48926,7 +48929,7 @@
         <v>9864044485</v>
       </c>
       <c r="K1062" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1063" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48947,7 +48950,7 @@
         <v>23855</v>
       </c>
       <c r="G1063" s="10" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="H1063" s="10" t="s">
         <v>5</v>
@@ -48959,7 +48962,7 @@
         <v>9854185645</v>
       </c>
       <c r="K1063" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1064" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48992,7 +48995,7 @@
         <v>6001497496</v>
       </c>
       <c r="K1064" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1065" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49013,7 +49016,7 @@
         <v>24108</v>
       </c>
       <c r="G1065" s="10" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="H1065" s="10" t="s">
         <v>5</v>
@@ -49025,7 +49028,7 @@
         <v>9435101916</v>
       </c>
       <c r="K1065" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1066" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49040,7 +49043,7 @@
         <v>293</v>
       </c>
       <c r="E1066" s="10" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="F1066" s="11">
         <v>23802</v>
@@ -49058,7 +49061,7 @@
         <v>9864107951</v>
       </c>
       <c r="K1066" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1067" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49079,7 +49082,7 @@
         <v>24167</v>
       </c>
       <c r="G1067" s="10" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="H1067" s="10" t="s">
         <v>5</v>
@@ -49091,7 +49094,7 @@
         <v>9435014662</v>
       </c>
       <c r="K1067" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1068" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49106,7 +49109,7 @@
         <v>24108</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="H1068" s="10" t="s">
         <v>5</v>
@@ -49116,7 +49119,7 @@
       </c>
       <c r="J1068" s="10"/>
       <c r="K1068" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1069" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49131,7 +49134,7 @@
         <v>292</v>
       </c>
       <c r="E1069" s="10" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="F1069" s="11">
         <v>24167</v>
@@ -49149,7 +49152,7 @@
         <v>9435741789</v>
       </c>
       <c r="K1069" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1070" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49164,13 +49167,13 @@
         <v>294</v>
       </c>
       <c r="E1070" s="10" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="F1070" s="11">
         <v>24529</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="H1070" s="10" t="s">
         <v>5</v>
@@ -49182,7 +49185,7 @@
         <v>9435045542</v>
       </c>
       <c r="K1070" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1071" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49203,7 +49206,7 @@
         <v>23986</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="H1071" s="10" t="s">
         <v>5</v>
@@ -49213,7 +49216,7 @@
       </c>
       <c r="J1071" s="10"/>
       <c r="K1071" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1072" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49228,7 +49231,7 @@
         <v>293</v>
       </c>
       <c r="E1072" s="10" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="F1072" s="11">
         <v>22883</v>
@@ -49246,7 +49249,7 @@
         <v>7578051388</v>
       </c>
       <c r="K1072" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1073" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49267,7 +49270,7 @@
         <v>23380</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="H1073" s="10" t="s">
         <v>5</v>
@@ -49279,7 +49282,7 @@
         <v>9435100509</v>
       </c>
       <c r="K1073" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1074" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49294,7 +49297,7 @@
         <v>294</v>
       </c>
       <c r="E1074" s="10" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="F1074" s="11">
         <v>23071</v>
@@ -49310,7 +49313,7 @@
       </c>
       <c r="J1074" s="10"/>
       <c r="K1074" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1075" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49331,7 +49334,7 @@
         <v>24532</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="H1075" s="10" t="s">
         <v>5</v>
@@ -49343,7 +49346,7 @@
         <v>6000371439</v>
       </c>
       <c r="K1075" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1076" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49364,7 +49367,7 @@
         <v>24504</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="H1076" s="10" t="s">
         <v>5</v>
@@ -49376,7 +49379,7 @@
         <v>8876411084</v>
       </c>
       <c r="K1076" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1077" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -49407,7 +49410,7 @@
       </c>
       <c r="J1077" s="10"/>
       <c r="K1077" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1078" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -49428,7 +49431,7 @@
         <v>19176</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="H1078" s="10" t="s">
         <v>5</v>
@@ -49440,7 +49443,7 @@
         <v>9864043330</v>
       </c>
       <c r="K1078" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1079" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49455,7 +49458,7 @@
         <v>391</v>
       </c>
       <c r="E1079" s="10" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="F1079" s="11">
         <v>24706</v>
@@ -49473,7 +49476,7 @@
         <v>8638277147</v>
       </c>
       <c r="K1079" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1080" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49506,7 +49509,7 @@
         <v>9435308739</v>
       </c>
       <c r="K1080" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1081" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49527,7 +49530,7 @@
         <v>24504</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="H1081" s="10" t="s">
         <v>5</v>
@@ -49539,7 +49542,7 @@
         <v>9864438120</v>
       </c>
       <c r="K1081" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1082" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49554,7 +49557,7 @@
         <v>369</v>
       </c>
       <c r="E1082" s="10" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="F1082" s="11">
         <v>25263</v>
@@ -49572,7 +49575,7 @@
         <v>9435002210</v>
       </c>
       <c r="K1082" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1083" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49605,7 +49608,7 @@
         <v>7002339477</v>
       </c>
       <c r="K1083" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1084" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49638,7 +49641,7 @@
         <v>9365414711</v>
       </c>
       <c r="K1084" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1085" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -49653,7 +49656,7 @@
         <v>24838</v>
       </c>
       <c r="G1085" s="10" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="H1085" s="10" t="s">
         <v>5</v>
@@ -49665,7 +49668,7 @@
         <v>8638693996</v>
       </c>
       <c r="K1085" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1086" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49696,7 +49699,7 @@
       </c>
       <c r="J1086" s="10"/>
       <c r="K1086" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1087" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49729,7 +49732,7 @@
         <v>9706012998</v>
       </c>
       <c r="K1087" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1088" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49760,7 +49763,7 @@
       </c>
       <c r="J1088" s="10"/>
       <c r="K1088" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1089" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49793,7 +49796,7 @@
         <v>8486671399</v>
       </c>
       <c r="K1089" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1090" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49808,7 +49811,7 @@
         <v>453</v>
       </c>
       <c r="E1090" s="10" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="F1090" s="11">
         <v>24898</v>
@@ -49824,7 +49827,7 @@
       </c>
       <c r="J1090" s="10"/>
       <c r="K1090" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1091" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49845,7 +49848,7 @@
         <v>23822</v>
       </c>
       <c r="G1091" s="10" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="H1091" s="10" t="s">
         <v>5</v>
@@ -49857,7 +49860,7 @@
         <v>7896916032</v>
       </c>
       <c r="K1091" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1092" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49890,7 +49893,7 @@
         <v>8006400472</v>
       </c>
       <c r="K1092" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1093" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -49923,7 +49926,7 @@
         <v>9864207119</v>
       </c>
       <c r="K1093" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1094" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49956,7 +49959,7 @@
         <v>9735974724</v>
       </c>
       <c r="K1094" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1095" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49987,7 +49990,7 @@
       </c>
       <c r="J1095" s="10"/>
       <c r="K1095" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1096" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50008,7 +50011,7 @@
         <v>21667</v>
       </c>
       <c r="G1096" s="10" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="H1096" s="10" t="s">
         <v>5</v>
@@ -50020,7 +50023,7 @@
         <v>9957193324</v>
       </c>
       <c r="K1096" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1097" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50035,7 +50038,7 @@
         <v>25842</v>
       </c>
       <c r="G1097" s="10" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="H1097" s="10" t="s">
         <v>5</v>
@@ -50047,7 +50050,7 @@
         <v>9436352984</v>
       </c>
       <c r="K1097" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1098" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50068,7 +50071,7 @@
         <v>26360</v>
       </c>
       <c r="G1098" s="10" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="H1098" s="10" t="s">
         <v>5</v>
@@ -50080,7 +50083,7 @@
         <v>9890623260</v>
       </c>
       <c r="K1098" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1099" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50111,7 +50114,7 @@
       </c>
       <c r="J1099" s="10"/>
       <c r="K1099" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1100" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50144,7 +50147,7 @@
         <v>9678771763</v>
       </c>
       <c r="K1100" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1101" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50165,7 +50168,7 @@
         <v>25263</v>
       </c>
       <c r="G1101" s="10" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="H1101" s="10" t="s">
         <v>5</v>
@@ -50177,7 +50180,7 @@
         <v>9435560369</v>
       </c>
       <c r="K1101" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1102" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50210,7 +50213,7 @@
         <v>6003582750</v>
       </c>
       <c r="K1102" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1103" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -50231,7 +50234,7 @@
         <v>26665</v>
       </c>
       <c r="G1103" s="10" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="H1103" s="10" t="s">
         <v>5</v>
@@ -50243,7 +50246,7 @@
         <v>8472880802</v>
       </c>
       <c r="K1103" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1104" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50264,7 +50267,7 @@
         <v>26765</v>
       </c>
       <c r="G1104" s="10" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="H1104" s="10" t="s">
         <v>5</v>
@@ -50276,7 +50279,7 @@
         <v>9435725345</v>
       </c>
       <c r="K1104" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1105" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -50309,7 +50312,7 @@
         <v>9957830751</v>
       </c>
       <c r="K1105" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50342,7 +50345,7 @@
         <v>9695741744</v>
       </c>
       <c r="K1106" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1107" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -50363,7 +50366,7 @@
         <v>26531</v>
       </c>
       <c r="G1107" s="10" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="H1107" s="10" t="s">
         <v>5</v>
@@ -50375,7 +50378,7 @@
         <v>9435200104</v>
       </c>
       <c r="K1107" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1108" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50406,7 +50409,7 @@
       </c>
       <c r="J1108" s="10"/>
       <c r="K1108" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50415,7 +50418,7 @@
       <c r="C1109" s="10"/>
       <c r="D1109" s="10"/>
       <c r="E1109" s="10" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="F1109" s="11">
         <v>26665</v>
@@ -50433,7 +50436,7 @@
         <v>9435323542</v>
       </c>
       <c r="K1109" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1110" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50458,7 +50461,7 @@
       </c>
       <c r="J1110" s="10"/>
       <c r="K1110" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1111" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50491,7 +50494,7 @@
         <v>9436228003</v>
       </c>
       <c r="K1111" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1112" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -50506,7 +50509,7 @@
         <v>26313</v>
       </c>
       <c r="G1112" s="10" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="H1112" s="10" t="s">
         <v>5</v>
@@ -50518,7 +50521,7 @@
         <v>9435307661</v>
       </c>
       <c r="K1112" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1113" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50551,7 +50554,7 @@
         <v>9435558835</v>
       </c>
       <c r="K1113" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1114" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50584,7 +50587,7 @@
         <v>9957618073</v>
       </c>
       <c r="K1114" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -50605,7 +50608,7 @@
         <v>27065</v>
       </c>
       <c r="G1115" s="10" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="H1115" s="10" t="s">
         <v>5</v>
@@ -50617,7 +50620,7 @@
         <v>9859938851</v>
       </c>
       <c r="K1115" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1116" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50648,7 +50651,7 @@
       </c>
       <c r="J1116" s="10"/>
       <c r="K1116" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50669,7 +50672,7 @@
         <v>26359</v>
       </c>
       <c r="G1117" s="10" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="H1117" s="10" t="s">
         <v>5</v>
@@ -50681,7 +50684,7 @@
         <v>9435087901</v>
       </c>
       <c r="K1117" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1118" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50704,7 +50707,7 @@
       </c>
       <c r="J1118" s="10"/>
       <c r="K1118" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1119" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50735,7 +50738,7 @@
         <v>9854147614</v>
       </c>
       <c r="K1119" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1120" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -50756,7 +50759,7 @@
         <v>26951</v>
       </c>
       <c r="G1120" s="10" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="H1120" s="10" t="s">
         <v>5</v>
@@ -50768,7 +50771,7 @@
         <v>9864355662</v>
       </c>
       <c r="K1120" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50799,7 +50802,7 @@
       </c>
       <c r="J1121" s="10"/>
       <c r="K1121" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1122" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50832,7 +50835,7 @@
         <v>9435360028</v>
       </c>
       <c r="K1122" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1123" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50853,7 +50856,7 @@
         <v>27030</v>
       </c>
       <c r="G1123" s="10" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="H1123" s="10" t="s">
         <v>5</v>
@@ -50865,7 +50868,7 @@
         <v>9613851428</v>
       </c>
       <c r="K1123" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1124" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50880,7 +50883,7 @@
         <v>181</v>
       </c>
       <c r="E1124" s="10" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="F1124" s="11">
         <v>27061</v>
@@ -50896,7 +50899,7 @@
       </c>
       <c r="J1124" s="10"/>
       <c r="K1124" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1125" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -50927,7 +50930,7 @@
       </c>
       <c r="J1125" s="10"/>
       <c r="K1125" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1126" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50948,7 +50951,7 @@
         <v>27454</v>
       </c>
       <c r="G1126" s="10" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="H1126" s="10" t="s">
         <v>5</v>
@@ -50960,7 +50963,7 @@
         <v>8638040516</v>
       </c>
       <c r="K1126" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1127" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -50981,7 +50984,7 @@
         <v>27089</v>
       </c>
       <c r="G1127" s="10" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="H1127" s="10" t="s">
         <v>5</v>
@@ -50993,7 +50996,7 @@
         <v>9436374061</v>
       </c>
       <c r="K1127" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1128" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51024,7 +51027,7 @@
       </c>
       <c r="J1128" s="10"/>
       <c r="K1128" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1129" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51045,7 +51048,7 @@
         <v>27058</v>
       </c>
       <c r="G1129" s="10" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="H1129" s="10" t="s">
         <v>5</v>
@@ -51057,7 +51060,7 @@
         <v>9435526792</v>
       </c>
       <c r="K1129" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1130" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51088,7 +51091,7 @@
       </c>
       <c r="J1130" s="10"/>
       <c r="K1130" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1131" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51119,7 +51122,7 @@
       </c>
       <c r="J1131" s="10"/>
       <c r="K1131" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1132" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51140,7 +51143,7 @@
         <v>28127</v>
       </c>
       <c r="G1132" s="10" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="H1132" s="10" t="s">
         <v>5</v>
@@ -51152,7 +51155,7 @@
         <v>9864011036</v>
       </c>
       <c r="K1132" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1133" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -51173,7 +51176,7 @@
         <v>27303</v>
       </c>
       <c r="G1133" s="10" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="H1133" s="10" t="s">
         <v>5</v>
@@ -51185,7 +51188,7 @@
         <v>8960853297</v>
       </c>
       <c r="K1133" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1134" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51218,7 +51221,7 @@
         <v>7002701156</v>
       </c>
       <c r="K1134" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1135" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51249,7 +51252,7 @@
       </c>
       <c r="J1135" s="10"/>
       <c r="K1135" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51280,7 +51283,7 @@
       </c>
       <c r="J1136" s="10"/>
       <c r="K1136" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51301,7 +51304,7 @@
         <v>28229</v>
       </c>
       <c r="G1137" s="10" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="H1137" s="10" t="s">
         <v>5</v>
@@ -51313,7 +51316,7 @@
         <v>9957235921</v>
       </c>
       <c r="K1137" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1138" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51334,7 +51337,7 @@
         <v>27420</v>
       </c>
       <c r="G1138" s="10" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="H1138" s="10" t="s">
         <v>5</v>
@@ -51346,7 +51349,7 @@
         <v>8638152625</v>
       </c>
       <c r="K1138" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1139" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51379,7 +51382,7 @@
         <v>9435389809</v>
       </c>
       <c r="K1139" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1140" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51410,7 +51413,7 @@
       </c>
       <c r="J1140" s="10"/>
       <c r="K1140" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1141" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -51431,7 +51434,7 @@
         <v>28725</v>
       </c>
       <c r="G1141" s="10" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="H1141" s="10" t="s">
         <v>5</v>
@@ -51443,7 +51446,7 @@
         <v>9864357161</v>
       </c>
       <c r="K1141" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1142" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51464,7 +51467,7 @@
         <v>28516</v>
       </c>
       <c r="G1142" s="10" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="H1142" s="10" t="s">
         <v>5</v>
@@ -51474,7 +51477,7 @@
       </c>
       <c r="J1142" s="10"/>
       <c r="K1142" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1143" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51507,7 +51510,7 @@
         <v>9101643820</v>
       </c>
       <c r="K1143" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1144" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51528,7 +51531,7 @@
         <v>29038</v>
       </c>
       <c r="G1144" s="10" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="H1144" s="10" t="s">
         <v>5</v>
@@ -51540,7 +51543,7 @@
         <v>7086692677</v>
       </c>
       <c r="K1144" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1145" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51571,7 +51574,7 @@
       </c>
       <c r="J1145" s="10"/>
       <c r="K1145" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1146" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51602,7 +51605,7 @@
       </c>
       <c r="J1146" s="10"/>
       <c r="K1146" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1147" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51623,7 +51626,7 @@
         <v>28887</v>
       </c>
       <c r="G1147" s="10" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="H1147" s="10" t="s">
         <v>5</v>
@@ -51635,7 +51638,7 @@
         <v>9435594808</v>
       </c>
       <c r="K1147" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1148" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51656,7 +51659,7 @@
         <v>29281</v>
       </c>
       <c r="G1148" s="10" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="H1148" s="10" t="s">
         <v>5</v>
@@ -51668,7 +51671,7 @@
         <v>6900735453</v>
       </c>
       <c r="K1148" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51699,7 +51702,7 @@
       </c>
       <c r="J1149" s="10"/>
       <c r="K1149" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1150" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51732,7 +51735,7 @@
         <v>9925957679</v>
       </c>
       <c r="K1150" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1151" spans="1:11" ht="165" x14ac:dyDescent="0.25">
@@ -51753,7 +51756,7 @@
         <v>29271</v>
       </c>
       <c r="G1151" s="10" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="H1151" s="10" t="s">
         <v>5</v>
@@ -51765,7 +51768,7 @@
         <v>9678644300</v>
       </c>
       <c r="K1151" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1152" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51798,7 +51801,7 @@
         <v>8787303105</v>
       </c>
       <c r="K1152" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1153" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51829,7 +51832,7 @@
       </c>
       <c r="J1153" s="10"/>
       <c r="K1153" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1154" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51862,7 +51865,7 @@
         <v>9957344764</v>
       </c>
       <c r="K1154" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1155" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -51895,7 +51898,7 @@
         <v>9954076250</v>
       </c>
       <c r="K1155" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1156" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51926,7 +51929,7 @@
       </c>
       <c r="J1156" s="10"/>
       <c r="K1156" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1157" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51957,7 +51960,7 @@
       </c>
       <c r="J1157" s="10"/>
       <c r="K1157" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1158" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51988,7 +51991,7 @@
       </c>
       <c r="J1158" s="10"/>
       <c r="K1158" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1159" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52021,7 +52024,7 @@
         <v>9864320128</v>
       </c>
       <c r="K1159" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1160" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52046,7 +52049,7 @@
       </c>
       <c r="J1160" s="10"/>
       <c r="K1160" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1161" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52077,7 +52080,7 @@
       </c>
       <c r="J1161" s="10"/>
       <c r="K1161" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1162" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52108,7 +52111,7 @@
       </c>
       <c r="J1162" s="10"/>
       <c r="K1162" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1163" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52139,7 +52142,7 @@
       </c>
       <c r="J1163" s="10"/>
       <c r="K1163" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52170,7 +52173,7 @@
       </c>
       <c r="J1164" s="10"/>
       <c r="K1164" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1165" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52191,7 +52194,7 @@
         <v>30637</v>
       </c>
       <c r="G1165" s="10" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="H1165" s="10" t="s">
         <v>5</v>
@@ -52203,7 +52206,7 @@
         <v>9864622727</v>
       </c>
       <c r="K1165" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1166" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52224,7 +52227,7 @@
         <v>30852</v>
       </c>
       <c r="G1166" s="10" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="H1166" s="10" t="s">
         <v>5</v>
@@ -52236,7 +52239,7 @@
         <v>7896353934</v>
       </c>
       <c r="K1166" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1167" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52267,7 +52270,7 @@
       </c>
       <c r="J1167" s="10"/>
       <c r="K1167" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52298,7 +52301,7 @@
       </c>
       <c r="J1168" s="10"/>
       <c r="K1168" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1169" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52331,7 +52334,7 @@
         <v>9864097628</v>
       </c>
       <c r="K1169" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52362,7 +52365,7 @@
       </c>
       <c r="J1170" s="10"/>
       <c r="K1170" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52393,7 +52396,7 @@
       </c>
       <c r="J1171" s="10"/>
       <c r="K1171" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1172" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52414,7 +52417,7 @@
         <v>30830</v>
       </c>
       <c r="G1172" s="10" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="H1172" s="10" t="s">
         <v>5</v>
@@ -52426,7 +52429,7 @@
         <v>8812850485</v>
       </c>
       <c r="K1172" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1173" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52447,7 +52450,7 @@
         <v>30920</v>
       </c>
       <c r="G1173" s="10" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="H1173" s="10" t="s">
         <v>5</v>
@@ -52459,7 +52462,7 @@
         <v>9101551901</v>
       </c>
       <c r="K1173" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1174" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52490,7 +52493,7 @@
       </c>
       <c r="J1174" s="10"/>
       <c r="K1174" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1175" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52521,7 +52524,7 @@
       </c>
       <c r="J1175" s="10"/>
       <c r="K1175" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52552,7 +52555,7 @@
       </c>
       <c r="J1176" s="10"/>
       <c r="K1176" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1177" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52573,7 +52576,7 @@
         <v>30011</v>
       </c>
       <c r="G1177" s="10" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="H1177" s="10" t="s">
         <v>5</v>
@@ -52585,7 +52588,7 @@
         <v>7002640314</v>
       </c>
       <c r="K1177" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1178" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52618,7 +52621,7 @@
         <v>9435388858</v>
       </c>
       <c r="K1178" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1179" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52639,7 +52642,7 @@
         <v>30742</v>
       </c>
       <c r="G1179" s="10" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="H1179" s="10" t="s">
         <v>5</v>
@@ -52651,7 +52654,7 @@
         <v>9864585559</v>
       </c>
       <c r="K1179" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1180" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52672,7 +52675,7 @@
         <v>30681</v>
       </c>
       <c r="G1180" s="10" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="H1180" s="10" t="s">
         <v>5</v>
@@ -52684,7 +52687,7 @@
         <v>8638109474</v>
       </c>
       <c r="K1180" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1181" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52715,7 +52718,7 @@
       </c>
       <c r="J1181" s="10"/>
       <c r="K1181" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1182" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -52748,7 +52751,7 @@
         <v>9864655626</v>
       </c>
       <c r="K1182" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1183" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52781,7 +52784,7 @@
         <v>8638461068</v>
       </c>
       <c r="K1183" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1184" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52812,7 +52815,7 @@
       </c>
       <c r="J1184" s="10"/>
       <c r="K1184" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1185" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52843,7 +52846,7 @@
       </c>
       <c r="J1185" s="10"/>
       <c r="K1185" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1186" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52874,7 +52877,7 @@
       </c>
       <c r="J1186" s="10"/>
       <c r="K1186" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1187" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52899,7 +52902,7 @@
       </c>
       <c r="J1187" s="10"/>
       <c r="K1187" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1188" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52930,7 +52933,7 @@
       </c>
       <c r="J1188" s="10"/>
       <c r="K1188" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1189" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -52951,7 +52954,7 @@
         <v>30317</v>
       </c>
       <c r="G1189" s="10" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="H1189" s="10" t="s">
         <v>5</v>
@@ -52963,7 +52966,7 @@
         <v>9957008529</v>
       </c>
       <c r="K1189" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1190" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52994,7 +52997,7 @@
       </c>
       <c r="J1190" s="10"/>
       <c r="K1190" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1191" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53025,7 +53028,7 @@
       </c>
       <c r="J1191" s="10"/>
       <c r="K1191" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1192" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53046,7 +53049,7 @@
         <v>31442</v>
       </c>
       <c r="G1192" s="10" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="H1192" s="10" t="s">
         <v>5</v>
@@ -53058,7 +53061,7 @@
         <v>7002962867</v>
       </c>
       <c r="K1192" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1193" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53079,7 +53082,7 @@
         <v>31494</v>
       </c>
       <c r="G1193" s="10" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="H1193" s="10" t="s">
         <v>5</v>
@@ -53091,7 +53094,7 @@
         <v>8698556075</v>
       </c>
       <c r="K1193" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1194" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53122,7 +53125,7 @@
       </c>
       <c r="J1194" s="10"/>
       <c r="K1194" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1195" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -53153,7 +53156,7 @@
       </c>
       <c r="J1195" s="10"/>
       <c r="K1195" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1196" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53174,7 +53177,7 @@
         <v>31837</v>
       </c>
       <c r="G1196" s="10" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="H1196" s="10" t="s">
         <v>5</v>
@@ -53186,7 +53189,7 @@
         <v>9957033566</v>
       </c>
       <c r="K1196" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1197" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53217,7 +53220,7 @@
       </c>
       <c r="J1197" s="10"/>
       <c r="K1197" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1198" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53238,7 +53241,7 @@
         <v>32539</v>
       </c>
       <c r="G1198" s="10" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="H1198" s="10" t="s">
         <v>5</v>
@@ -53248,7 +53251,7 @@
       </c>
       <c r="J1198" s="10"/>
       <c r="K1198" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1199" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53269,7 +53272,7 @@
         <v>32178</v>
       </c>
       <c r="G1199" s="10" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="H1199" s="10" t="s">
         <v>5</v>
@@ -53279,7 +53282,7 @@
       </c>
       <c r="J1199" s="10"/>
       <c r="K1199" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1200" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53300,7 +53303,7 @@
         <v>32568</v>
       </c>
       <c r="G1200" s="10" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="H1200" s="10" t="s">
         <v>5</v>
@@ -53312,7 +53315,7 @@
         <v>9859779881</v>
       </c>
       <c r="K1200" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1201" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53333,7 +53336,7 @@
         <v>32504</v>
       </c>
       <c r="G1201" s="10" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="H1201" s="10" t="s">
         <v>5</v>
@@ -53345,7 +53348,7 @@
         <v>9101373476</v>
       </c>
       <c r="K1201" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1202" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -53366,7 +53369,7 @@
         <v>29646</v>
       </c>
       <c r="G1202" s="10" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="H1202" s="10" t="s">
         <v>5</v>
@@ -53376,7 +53379,7 @@
       </c>
       <c r="J1202" s="10"/>
       <c r="K1202" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1203" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53397,7 +53400,7 @@
         <v>31331</v>
       </c>
       <c r="G1203" s="10" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="H1203" s="10" t="s">
         <v>5</v>
@@ -53407,7 +53410,7 @@
       </c>
       <c r="J1203" s="10"/>
       <c r="K1203" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1204" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53428,7 +53431,7 @@
         <v>31833</v>
       </c>
       <c r="G1204" s="10" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="H1204" s="10" t="s">
         <v>5</v>
@@ -53440,7 +53443,7 @@
         <v>9613726783</v>
       </c>
       <c r="K1204" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1205" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53461,7 +53464,7 @@
         <v>28785</v>
       </c>
       <c r="G1205" s="10" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="H1205" s="10" t="s">
         <v>5</v>
@@ -53471,7 +53474,7 @@
       </c>
       <c r="J1205" s="10"/>
       <c r="K1205" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1206" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53492,7 +53495,7 @@
         <v>32403</v>
       </c>
       <c r="G1206" s="10" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="H1206" s="10" t="s">
         <v>5</v>
@@ -53502,7 +53505,7 @@
       </c>
       <c r="J1206" s="10"/>
       <c r="K1206" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1207" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53523,7 +53526,7 @@
         <v>32164</v>
       </c>
       <c r="G1207" s="10" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="H1207" s="10" t="s">
         <v>5</v>
@@ -53535,7 +53538,7 @@
         <v>8876245825</v>
       </c>
       <c r="K1207" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1208" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53556,7 +53559,7 @@
         <v>32870</v>
       </c>
       <c r="G1208" s="10" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="H1208" s="10" t="s">
         <v>5</v>
@@ -53568,7 +53571,7 @@
         <v>8811989349</v>
       </c>
       <c r="K1208" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1209" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53589,7 +53592,7 @@
         <v>32774</v>
       </c>
       <c r="G1209" s="10" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="H1209" s="10" t="s">
         <v>5</v>
@@ -53599,7 +53602,7 @@
       </c>
       <c r="J1209" s="10"/>
       <c r="K1209" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1210" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53620,7 +53623,7 @@
         <v>33266</v>
       </c>
       <c r="G1210" s="10" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="H1210" s="10" t="s">
         <v>5</v>
@@ -53630,7 +53633,7 @@
       </c>
       <c r="J1210" s="10"/>
       <c r="K1210" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1211" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -53651,7 +53654,7 @@
         <v>33693</v>
       </c>
       <c r="G1211" s="10" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="H1211" s="10" t="s">
         <v>5</v>
@@ -53663,7 +53666,7 @@
         <v>8876349101</v>
       </c>
       <c r="K1211" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1212" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53684,7 +53687,7 @@
         <v>32842</v>
       </c>
       <c r="G1212" s="10" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="H1212" s="10" t="s">
         <v>5</v>
@@ -53694,7 +53697,7 @@
       </c>
       <c r="J1212" s="10"/>
       <c r="K1212" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1213" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53715,7 +53718,7 @@
         <v>32690</v>
       </c>
       <c r="G1213" s="10" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="H1213" s="10" t="s">
         <v>5</v>
@@ -53725,7 +53728,7 @@
       </c>
       <c r="J1213" s="10"/>
       <c r="K1213" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1214" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53746,7 +53749,7 @@
         <v>31199</v>
       </c>
       <c r="G1214" s="10" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="H1214" s="10" t="s">
         <v>5</v>
@@ -53756,7 +53759,7 @@
       </c>
       <c r="J1214" s="10"/>
       <c r="K1214" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53777,7 +53780,7 @@
         <v>32896</v>
       </c>
       <c r="G1215" s="10" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="H1215" s="10" t="s">
         <v>5</v>
@@ -53787,7 +53790,7 @@
       </c>
       <c r="J1215" s="10"/>
       <c r="K1215" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1216" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53808,7 +53811,7 @@
         <v>33216</v>
       </c>
       <c r="G1216" s="10" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="H1216" s="10" t="s">
         <v>5</v>
@@ -53820,7 +53823,7 @@
         <v>9706886706</v>
       </c>
       <c r="K1216" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1217" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53841,7 +53844,7 @@
         <v>31826</v>
       </c>
       <c r="G1217" s="10" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="H1217" s="10" t="s">
         <v>5</v>
@@ -53853,7 +53856,7 @@
         <v>7896747434</v>
       </c>
       <c r="K1217" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1218" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53874,7 +53877,7 @@
         <v>33134</v>
       </c>
       <c r="G1218" s="10" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="H1218" s="10" t="s">
         <v>5</v>
@@ -53886,7 +53889,7 @@
         <v>8822525240</v>
       </c>
       <c r="K1218" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1219" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -53907,7 +53910,7 @@
         <v>33078</v>
       </c>
       <c r="G1219" s="10" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="H1219" s="10" t="s">
         <v>5</v>
@@ -53919,7 +53922,7 @@
         <v>8724909098</v>
       </c>
       <c r="K1219" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1220" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -53940,7 +53943,7 @@
         <v>33451</v>
       </c>
       <c r="G1220" s="10" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="H1220" s="10" t="s">
         <v>5</v>
@@ -53952,7 +53955,7 @@
         <v>9706760141</v>
       </c>
       <c r="K1220" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1221" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53973,7 +53976,7 @@
         <v>33238</v>
       </c>
       <c r="G1221" s="10" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="H1221" s="10" t="s">
         <v>5</v>
@@ -53985,7 +53988,7 @@
         <v>8011011568</v>
       </c>
       <c r="K1221" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1222" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54006,7 +54009,7 @@
         <v>32143</v>
       </c>
       <c r="G1222" s="10" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="H1222" s="10" t="s">
         <v>5</v>
@@ -54018,7 +54021,7 @@
         <v>9864467291</v>
       </c>
       <c r="K1222" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1223" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54039,7 +54042,7 @@
         <v>33680</v>
       </c>
       <c r="G1223" s="10" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="H1223" s="10" t="s">
         <v>5</v>
@@ -54051,7 +54054,7 @@
         <v>7399793867</v>
       </c>
       <c r="K1223" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1224" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54072,7 +54075,7 @@
         <v>33159</v>
       </c>
       <c r="G1224" s="10" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="H1224" s="10" t="s">
         <v>5</v>
@@ -54084,7 +54087,7 @@
         <v>8876077138</v>
       </c>
       <c r="K1224" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1225" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54105,7 +54108,7 @@
         <v>33099</v>
       </c>
       <c r="G1225" s="10" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="H1225" s="10" t="s">
         <v>5</v>
@@ -54117,7 +54120,7 @@
         <v>8133098708</v>
       </c>
       <c r="K1225" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1226" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54138,7 +54141,7 @@
         <v>33645</v>
       </c>
       <c r="G1226" s="10" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="H1226" s="10" t="s">
         <v>5</v>
@@ -54150,7 +54153,7 @@
         <v>8474044880</v>
       </c>
       <c r="K1226" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1227" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54171,7 +54174,7 @@
         <v>33820</v>
       </c>
       <c r="G1227" s="10" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="H1227" s="10" t="s">
         <v>5</v>
@@ -54183,7 +54186,7 @@
         <v>8876141556</v>
       </c>
       <c r="K1227" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1228" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54204,7 +54207,7 @@
         <v>33970</v>
       </c>
       <c r="G1228" s="10" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="H1228" s="10" t="s">
         <v>5</v>
@@ -54216,7 +54219,7 @@
         <v>8876942380</v>
       </c>
       <c r="K1228" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1229" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54237,7 +54240,7 @@
         <v>33848</v>
       </c>
       <c r="G1229" s="10" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="H1229" s="10" t="s">
         <v>5</v>
@@ -54249,7 +54252,7 @@
         <v>9864531247</v>
       </c>
       <c r="K1229" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1230" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54270,7 +54273,7 @@
         <v>34022</v>
       </c>
       <c r="G1230" s="10" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="H1230" s="10" t="s">
         <v>5</v>
@@ -54282,7 +54285,7 @@
         <v>8812844376</v>
       </c>
       <c r="K1230" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1231" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54303,7 +54306,7 @@
         <v>33258</v>
       </c>
       <c r="G1231" s="10" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="H1231" s="10" t="s">
         <v>5</v>
@@ -54315,7 +54318,7 @@
         <v>9678775510</v>
       </c>
       <c r="K1231" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1232" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54336,7 +54339,7 @@
         <v>33580</v>
       </c>
       <c r="G1232" s="10" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="H1232" s="10" t="s">
         <v>5</v>
@@ -54348,7 +54351,7 @@
         <v>8485970847</v>
       </c>
       <c r="K1232" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1233" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54369,7 +54372,7 @@
         <v>34161</v>
       </c>
       <c r="G1233" s="10" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="H1233" s="10" t="s">
         <v>5</v>
@@ -54381,7 +54384,7 @@
         <v>7086795912</v>
       </c>
       <c r="K1233" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54402,7 +54405,7 @@
         <v>34394</v>
       </c>
       <c r="G1234" s="10" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="H1234" s="10" t="s">
         <v>5</v>
@@ -54414,7 +54417,7 @@
         <v>8486090175</v>
       </c>
       <c r="K1234" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1235" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54435,7 +54438,7 @@
         <v>33425</v>
       </c>
       <c r="G1235" s="10" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="H1235" s="10" t="s">
         <v>5</v>
@@ -54447,7 +54450,7 @@
         <v>9706538946</v>
       </c>
       <c r="K1235" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -54468,7 +54471,7 @@
         <v>33434</v>
       </c>
       <c r="G1236" s="10" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="H1236" s="10" t="s">
         <v>5</v>
@@ -54480,7 +54483,7 @@
         <v>9706321875</v>
       </c>
       <c r="K1236" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1237" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -54501,7 +54504,7 @@
         <v>33434</v>
       </c>
       <c r="G1237" s="10" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="H1237" s="10" t="s">
         <v>5</v>
@@ -54513,7 +54516,7 @@
         <v>9706321875</v>
       </c>
       <c r="K1237" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1238" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54534,7 +54537,7 @@
         <v>33586</v>
       </c>
       <c r="G1238" s="10" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="H1238" s="10" t="s">
         <v>5</v>
@@ -54546,7 +54549,7 @@
         <v>9706441462</v>
       </c>
       <c r="K1238" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1239" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54567,7 +54570,7 @@
         <v>34608</v>
       </c>
       <c r="G1239" s="10" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="H1239" s="10" t="s">
         <v>5</v>
@@ -54579,7 +54582,7 @@
         <v>7086254702</v>
       </c>
       <c r="K1239" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1240" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54600,7 +54603,7 @@
         <v>34000</v>
       </c>
       <c r="G1240" s="10" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="H1240" s="10" t="s">
         <v>5</v>
@@ -54612,7 +54615,7 @@
         <v>8876287176</v>
       </c>
       <c r="K1240" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1241" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -54633,7 +54636,7 @@
         <v>33351</v>
       </c>
       <c r="G1241" s="10" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="H1241" s="10" t="s">
         <v>5</v>
@@ -54645,7 +54648,7 @@
         <v>6901118148</v>
       </c>
       <c r="K1241" s="10" t="s">
-        <v>4325</v>
+        <v>3866</v>
       </c>
     </row>
   </sheetData>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7599" uniqueCount="4485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7620" uniqueCount="4487">
   <si>
     <t>1994</t>
   </si>
@@ -13728,6 +13728,12 @@
   </si>
   <si>
     <t>UPDATE PHONE AND NAME</t>
+  </si>
+  <si>
+    <t>UPDATE PHONE (2)</t>
+  </si>
+  <si>
+    <t>JUPDATE PHONE (2)</t>
   </si>
 </sst>
 </file>
@@ -14265,8 +14271,8 @@
   </sheetPr>
   <dimension ref="A1:K1240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B125" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F127" sqref="A1:K1240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14320,8 +14326,8 @@
       <c r="A2" s="1">
         <v>4431</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+      <c r="B2" s="1">
+        <v>1994</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -14375,8 +14381,12 @@
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="5">
+        <v>9435050847</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -14930,8 +14940,12 @@
       <c r="I20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="5">
+        <v>8638580902</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -15358,7 +15372,7 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4463</v>
       </c>
@@ -15386,8 +15400,12 @@
       <c r="I34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="1"/>
+      <c r="J34" s="5">
+        <v>9864328100</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -16432,8 +16450,12 @@
       <c r="I66" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="J66" s="5"/>
-      <c r="K66" s="1"/>
+      <c r="J66" s="5">
+        <v>9435016076</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -16464,9 +16486,11 @@
         <v>292</v>
       </c>
       <c r="J67" s="6">
-        <v>9435109106</v>
-      </c>
-      <c r="K67" s="1"/>
+        <v>9101087240</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -20014,9 +20038,11 @@
         <v>735</v>
       </c>
       <c r="J175" s="6">
-        <v>9864848639</v>
-      </c>
-      <c r="K175" s="1"/>
+        <v>7002771001</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
@@ -20875,7 +20901,7 @@
         <v>9435312957</v>
       </c>
       <c r="K201" s="12" t="s">
-        <v>3779</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -23078,8 +23104,12 @@
       <c r="I268" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="J268" s="5"/>
-      <c r="K268" s="1"/>
+      <c r="J268" s="5">
+        <v>8638870192</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="269" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
@@ -24384,8 +24414,12 @@
       <c r="I308" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="J308" s="5"/>
-      <c r="K308" s="1"/>
+      <c r="J308" s="5">
+        <v>9435061785</v>
+      </c>
+      <c r="K308" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
@@ -26717,8 +26751,12 @@
       <c r="I379" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="J379" s="5"/>
-      <c r="K379" s="1"/>
+      <c r="J379" s="5">
+        <v>7002347341</v>
+      </c>
+      <c r="K379" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="380" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
@@ -27297,8 +27335,12 @@
       <c r="I397" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="J397" s="5"/>
-      <c r="K397" s="1"/>
+      <c r="J397" s="5">
+        <v>9916133405</v>
+      </c>
+      <c r="K397" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="398" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
@@ -28081,8 +28123,12 @@
       <c r="I421" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="J421" s="5"/>
-      <c r="K421" s="1"/>
+      <c r="J421" s="5">
+        <v>9678009368</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="422" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
@@ -28145,8 +28191,12 @@
       <c r="I423" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="J423" s="5"/>
-      <c r="K423" s="1"/>
+      <c r="J423" s="5">
+        <v>9435095751</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="424" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
@@ -28473,8 +28523,12 @@
       <c r="I433" s="1" t="s">
         <v>1852</v>
       </c>
-      <c r="J433" s="5"/>
-      <c r="K433" s="1"/>
+      <c r="J433" s="5">
+        <v>9435020575</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="434" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
@@ -29389,8 +29443,12 @@
       <c r="I461" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="J461" s="5"/>
-      <c r="K461" s="1"/>
+      <c r="J461" s="5">
+        <v>9586170777</v>
+      </c>
+      <c r="K461" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="462" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
@@ -30691,8 +30749,12 @@
       <c r="I501" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="J501" s="5"/>
-      <c r="K501" s="1"/>
+      <c r="J501" s="5">
+        <v>9971550644</v>
+      </c>
+      <c r="K501" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="502" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
@@ -32430,8 +32492,12 @@
       <c r="I554" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="J554" s="5"/>
-      <c r="K554" s="1"/>
+      <c r="J554" s="5">
+        <v>9859910394</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="555" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
@@ -32494,8 +32560,12 @@
       <c r="I556" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="J556" s="5"/>
-      <c r="K556" s="1"/>
+      <c r="J556" s="5">
+        <v>9864382221</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="557" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
@@ -32620,8 +32690,12 @@
       <c r="I560" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="J560" s="5"/>
-      <c r="K560" s="1"/>
+      <c r="J560" s="5">
+        <v>9707024408</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="561" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
@@ -32973,8 +33047,12 @@
       <c r="I571" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="J571" s="5"/>
-      <c r="K571" s="1"/>
+      <c r="J571" s="5">
+        <v>9707681843</v>
+      </c>
+      <c r="K571" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="572" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
@@ -33204,8 +33282,12 @@
       <c r="I578" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="J578" s="5"/>
-      <c r="K578" s="1"/>
+      <c r="J578" s="5">
+        <v>9864743034</v>
+      </c>
+      <c r="K578" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="579" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
@@ -33301,8 +33383,12 @@
       <c r="I581" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="J581" s="5"/>
-      <c r="K581" s="1"/>
+      <c r="J581" s="5">
+        <v>9864811414</v>
+      </c>
+      <c r="K581" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
@@ -38585,9 +38671,11 @@
         <v>3040</v>
       </c>
       <c r="J740" s="6">
-        <v>8011501506</v>
-      </c>
-      <c r="K740" s="1"/>
+        <v>6001576058</v>
+      </c>
+      <c r="K740" s="1" t="s">
+        <v>4485</v>
+      </c>
     </row>
     <row r="741" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
@@ -47680,9 +47768,11 @@
       <c r="I1018" s="7" t="s">
         <v>3913</v>
       </c>
-      <c r="J1018" s="9"/>
+      <c r="J1018" s="9">
+        <v>8059556620</v>
+      </c>
       <c r="K1018" s="7" t="s">
-        <v>3866</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1019" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -49561,9 +49651,11 @@
       <c r="I1077" s="10" t="s">
         <v>3971</v>
       </c>
-      <c r="J1077" s="10"/>
+      <c r="J1077" s="10">
+        <v>9101477435</v>
+      </c>
       <c r="K1077" s="10" t="s">
-        <v>3866</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1078" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51409,9 +51501,11 @@
       <c r="I1135" s="10" t="s">
         <v>4029</v>
       </c>
-      <c r="J1135" s="10"/>
+      <c r="J1135" s="10">
+        <v>9401274039</v>
+      </c>
       <c r="K1135" s="10" t="s">
-        <v>3866</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -52148,9 +52242,11 @@
       <c r="I1158" s="10" t="s">
         <v>4052</v>
       </c>
-      <c r="J1158" s="10"/>
+      <c r="J1158" s="10">
+        <v>9854119126</v>
+      </c>
       <c r="K1158" s="10" t="s">
-        <v>3866</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1159" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52433,9 +52529,11 @@
       <c r="I1167" s="10" t="s">
         <v>4061</v>
       </c>
-      <c r="J1167" s="10"/>
+      <c r="J1167" s="10">
+        <v>8133019095</v>
+      </c>
       <c r="K1167" s="10" t="s">
-        <v>3866</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53643,7 +53741,9 @@
       <c r="I1205" s="10" t="s">
         <v>4099</v>
       </c>
-      <c r="J1205" s="10"/>
+      <c r="J1205" s="10">
+        <v>8463803076</v>
+      </c>
       <c r="K1205" s="10" t="s">
         <v>3866</v>
       </c>
@@ -53740,9 +53840,11 @@
       <c r="I1208" s="10" t="s">
         <v>4102</v>
       </c>
-      <c r="J1208" s="10"/>
+      <c r="J1208" s="10">
+        <v>8638789035</v>
+      </c>
       <c r="K1208" s="10" t="s">
-        <v>3866</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="1209" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53928,9 +54030,11 @@
       <c r="I1214" s="10" t="s">
         <v>4108</v>
       </c>
-      <c r="J1214" s="10"/>
+      <c r="J1214" s="10">
+        <v>8146550405</v>
+      </c>
       <c r="K1214" s="10" t="s">
-        <v>3866</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1215" spans="1:11" ht="60" x14ac:dyDescent="0.25">

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -14268,8 +14268,8 @@
   </sheetPr>
   <dimension ref="A1:K1240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E161" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J167" sqref="J167"/>
+    <sheetView tabSelected="1" topLeftCell="E376" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E379" sqref="E379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46972,10 +46972,10 @@
         <v>3887</v>
       </c>
       <c r="J992" s="9">
-        <v>7086409597</v>
+        <v>9435064120</v>
       </c>
       <c r="K992" s="7" t="s">
-        <v>3866</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="993" spans="1:11" ht="90" x14ac:dyDescent="0.25">

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -13294,9 +13294,6 @@
     <t>Production Officer. Institute of Vety. Biologicals, Khanapara, Guwahati-22</t>
   </si>
   <si>
-    <t>VAS. State Vety. Hospital, Nalbari, Dist. Nalbari</t>
-  </si>
-  <si>
     <t>Epidemiologist, NERDDL, Animal Health Centre, Khanapara,</t>
   </si>
   <si>
@@ -13731,6 +13728,9 @@
   </si>
   <si>
     <t>UPDATE PHONE (2)</t>
+  </si>
+  <si>
+    <t>Fodder Development Officer, Chenikuthi, Guwahati-03</t>
   </si>
 </sst>
 </file>
@@ -14268,8 +14268,8 @@
   </sheetPr>
   <dimension ref="A1:K1240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E376" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E379" sqref="E379"/>
+    <sheetView tabSelected="1" topLeftCell="E1065" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I1068" sqref="I1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14382,7 +14382,7 @@
         <v>9435050847</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -14471,7 +14471,7 @@
         <v>21459</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>5</v>
@@ -14483,7 +14483,7 @@
         <v>9435516621</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -14729,7 +14729,7 @@
         <v>21155</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>5</v>
@@ -14741,7 +14741,7 @@
         <v>7002191047</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -14941,7 +14941,7 @@
         <v>8638580902</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -15401,7 +15401,7 @@
         <v>9864328100</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -15795,7 +15795,7 @@
         <v>9435328038</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -15989,7 +15989,7 @@
         <v>8135027078</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -16451,7 +16451,7 @@
         <v>9435016076</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -16486,7 +16486,7 @@
         <v>9101087240</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -19721,13 +19721,13 @@
         <v>565</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="F166" s="13">
         <v>24699</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="H166" s="12" t="s">
         <v>5</v>
@@ -19739,7 +19739,7 @@
         <v>7002102453</v>
       </c>
       <c r="K166" s="12" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -20038,7 +20038,7 @@
         <v>7002771001</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -20898,7 +20898,7 @@
         <v>9435312957</v>
       </c>
       <c r="K201" s="12" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -22765,7 +22765,7 @@
         <v>25476</v>
       </c>
       <c r="G258" s="12" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="H258" s="12" t="s">
         <v>5</v>
@@ -22777,7 +22777,7 @@
         <v>8876405881</v>
       </c>
       <c r="K258" s="12" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -23105,7 +23105,7 @@
         <v>8638870192</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -23448,7 +23448,7 @@
         <v>1191</v>
       </c>
       <c r="E279" s="17" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="F279" s="18" t="s">
         <v>1195</v>
@@ -23458,13 +23458,13 @@
         <v>5</v>
       </c>
       <c r="I279" s="17" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="J279" s="19">
         <v>9859085665</v>
       </c>
       <c r="K279" s="17" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -24415,7 +24415,7 @@
         <v>9435061785</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -25224,7 +25224,7 @@
         <v>26755</v>
       </c>
       <c r="G333" s="12" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="H333" s="12" t="s">
         <v>5</v>
@@ -25236,7 +25236,7 @@
         <v>9508103776</v>
       </c>
       <c r="K333" s="12" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="334" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -25725,7 +25725,7 @@
         <v>5</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="J348" s="5"/>
       <c r="K348" s="1"/>
@@ -26752,7 +26752,7 @@
         <v>7002347341</v>
       </c>
       <c r="K379" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="380" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -26841,7 +26841,7 @@
         <v>27572</v>
       </c>
       <c r="G382" s="12" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="H382" s="12" t="s">
         <v>5</v>
@@ -26853,7 +26853,7 @@
         <v>7002540689</v>
       </c>
       <c r="K382" s="12" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="383" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -27336,7 +27336,7 @@
         <v>9916133405</v>
       </c>
       <c r="K397" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="398" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -28124,7 +28124,7 @@
         <v>9678009368</v>
       </c>
       <c r="K421" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="422" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -28192,7 +28192,7 @@
         <v>9435095751</v>
       </c>
       <c r="K423" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="424" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -28524,7 +28524,7 @@
         <v>9435020575</v>
       </c>
       <c r="K433" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="434" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -29312,7 +29312,7 @@
         <v>9854323619</v>
       </c>
       <c r="K457" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="458" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -29446,7 +29446,7 @@
         <v>9586170777</v>
       </c>
       <c r="K461" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="462" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -30340,7 +30340,7 @@
         <v>2087</v>
       </c>
       <c r="E489" s="12" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="F489" s="13">
         <v>29573</v>
@@ -30358,7 +30358,7 @@
         <v>9864348963</v>
       </c>
       <c r="K489" s="12" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="490" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -30752,7 +30752,7 @@
         <v>9971550644</v>
       </c>
       <c r="K501" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="502" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -30833,7 +30833,7 @@
         <v>923</v>
       </c>
       <c r="E504" s="12" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="F504" s="13">
         <v>29688</v>
@@ -30851,7 +30851,7 @@
         <v>9864238491</v>
       </c>
       <c r="K504" s="12" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="505" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -31163,7 +31163,7 @@
         <v>1531</v>
       </c>
       <c r="E514" s="12" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="F514" s="13">
         <v>30589</v>
@@ -31181,7 +31181,7 @@
         <v>7002908690</v>
       </c>
       <c r="K514" s="12" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="515" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -32495,7 +32495,7 @@
         <v>9859910394</v>
       </c>
       <c r="K554" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="555" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -32563,7 +32563,7 @@
         <v>9864382221</v>
       </c>
       <c r="K556" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="557" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -32693,7 +32693,7 @@
         <v>9707024408</v>
       </c>
       <c r="K560" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="561" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -33050,7 +33050,7 @@
         <v>9707681843</v>
       </c>
       <c r="K571" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="572" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -33285,7 +33285,7 @@
         <v>9864743034</v>
       </c>
       <c r="K578" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="579" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -33386,7 +33386,7 @@
         <v>9864811414</v>
       </c>
       <c r="K581" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="582" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -36821,7 +36821,7 @@
         <v>8876161334</v>
       </c>
       <c r="K684" s="12" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="685" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -38673,7 +38673,7 @@
         <v>6001576058</v>
       </c>
       <c r="K740" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="741" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -42027,7 +42027,7 @@
         <v>292</v>
       </c>
       <c r="E842" s="12" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="F842" s="13">
         <v>35446</v>
@@ -42045,7 +42045,7 @@
         <v>7086752581</v>
       </c>
       <c r="K842" s="12" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="843" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -42938,7 +42938,7 @@
         <v>9435673248</v>
       </c>
       <c r="K869" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="870" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -43270,7 +43270,7 @@
         <v>9101763282</v>
       </c>
       <c r="K879" s="1" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="880" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46288,29 +46288,29 @@
         <v>0</v>
       </c>
       <c r="C971" s="17" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="D971" s="17" t="s">
         <v>303</v>
       </c>
       <c r="E971" s="17" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="F971" s="18"/>
       <c r="G971" s="17" t="s">
+        <v>4434</v>
+      </c>
+      <c r="H971" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I971" s="17" t="s">
         <v>4435</v>
-      </c>
-      <c r="H971" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I971" s="17" t="s">
-        <v>4436</v>
       </c>
       <c r="J971" s="19">
         <v>9435345578</v>
       </c>
       <c r="K971" s="17" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="972" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -46325,7 +46325,7 @@
         <v>274</v>
       </c>
       <c r="E972" s="7" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="F972" s="8">
         <v>21922</v>
@@ -46391,7 +46391,7 @@
         <v>27</v>
       </c>
       <c r="E974" s="7" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="F974" s="8">
         <v>22706</v>
@@ -46418,7 +46418,7 @@
       <c r="C975" s="7"/>
       <c r="D975" s="7"/>
       <c r="E975" s="7" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="F975" s="8">
         <v>22288</v>
@@ -46445,7 +46445,7 @@
       <c r="C976" s="7"/>
       <c r="D976" s="7"/>
       <c r="E976" s="7" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="F976" s="8">
         <v>21620</v>
@@ -46511,7 +46511,7 @@
         <v>46</v>
       </c>
       <c r="E978" s="7" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="F978" s="8">
         <v>20375</v>
@@ -46577,7 +46577,7 @@
         <v>47</v>
       </c>
       <c r="E980" s="7" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="F980" s="8">
         <v>23429</v>
@@ -46610,7 +46610,7 @@
         <v>49</v>
       </c>
       <c r="E981" s="7" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="F981" s="8">
         <v>23102</v>
@@ -46643,7 +46643,7 @@
         <v>48</v>
       </c>
       <c r="E982" s="7" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="F982" s="8">
         <v>22287</v>
@@ -46676,7 +46676,7 @@
         <v>53</v>
       </c>
       <c r="E983" s="7" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="F983" s="8">
         <v>24110</v>
@@ -46703,7 +46703,7 @@
       <c r="C984" s="7"/>
       <c r="D984" s="7"/>
       <c r="E984" s="7" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="F984" s="8">
         <v>23224</v>
@@ -46734,7 +46734,7 @@
         <v>234</v>
       </c>
       <c r="E985" s="7" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="F985" s="8">
         <v>24166</v>
@@ -46827,7 +46827,7 @@
       <c r="C988" s="7"/>
       <c r="D988" s="7"/>
       <c r="E988" s="7" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
       <c r="F988" s="8">
         <v>24193</v>
@@ -46975,7 +46975,7 @@
         <v>9435064120</v>
       </c>
       <c r="K992" s="7" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="993" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -47389,7 +47389,7 @@
         <v>179</v>
       </c>
       <c r="E1006" s="7" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="F1006" s="8">
         <v>27426</v>
@@ -47705,7 +47705,7 @@
         <v>27819</v>
       </c>
       <c r="G1016" s="7" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="H1016" s="7" t="s">
         <v>5</v>
@@ -47775,7 +47775,7 @@
         <v>8059556620</v>
       </c>
       <c r="K1018" s="7" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1019" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -48049,19 +48049,19 @@
       <c r="C1028" s="7"/>
       <c r="D1028" s="7"/>
       <c r="E1028" s="7" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="F1028" s="8">
         <v>35330</v>
       </c>
       <c r="G1028" s="7" t="s">
+        <v>4428</v>
+      </c>
+      <c r="H1028" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1028" s="7" t="s">
         <v>4429</v>
-      </c>
-      <c r="H1028" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1028" s="7" t="s">
-        <v>4430</v>
       </c>
       <c r="J1028" s="9">
         <v>7086516495</v>
@@ -48371,7 +48371,7 @@
         <v>273</v>
       </c>
       <c r="E1038" s="10" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="F1038" s="11">
         <v>21489</v>
@@ -48470,7 +48470,7 @@
         <v>269</v>
       </c>
       <c r="E1041" s="10" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="F1041" s="11">
         <v>19993</v>
@@ -48503,7 +48503,7 @@
         <v>263</v>
       </c>
       <c r="E1042" s="10" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="F1042" s="11">
         <v>17292</v>
@@ -48691,7 +48691,7 @@
         <v>281</v>
       </c>
       <c r="E1048" s="10" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="F1048" s="11">
         <v>22240</v>
@@ -48955,7 +48955,7 @@
         <v>286</v>
       </c>
       <c r="E1056" s="10" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="F1056" s="11"/>
       <c r="G1056" s="10" t="s">
@@ -49019,7 +49019,7 @@
         <v>285</v>
       </c>
       <c r="E1058" s="10" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="F1058" s="11">
         <v>21980</v>
@@ -49283,7 +49283,7 @@
         <v>293</v>
       </c>
       <c r="E1066" s="10" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="F1066" s="11">
         <v>23802</v>
@@ -49355,7 +49355,7 @@
         <v>24108</v>
       </c>
       <c r="G1068" s="10" t="s">
-        <v>4342</v>
+        <v>4485</v>
       </c>
       <c r="H1068" s="10" t="s">
         <v>5</v>
@@ -49363,9 +49363,11 @@
       <c r="I1068" s="10" t="s">
         <v>3962</v>
       </c>
-      <c r="J1068" s="10"/>
+      <c r="J1068" s="10">
+        <v>6002683761</v>
+      </c>
       <c r="K1068" s="10" t="s">
-        <v>3866</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1069" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -49380,7 +49382,7 @@
         <v>292</v>
       </c>
       <c r="E1069" s="10" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="F1069" s="11">
         <v>24167</v>
@@ -49413,13 +49415,13 @@
         <v>294</v>
       </c>
       <c r="E1070" s="10" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="F1070" s="11">
         <v>24529</v>
       </c>
       <c r="G1070" s="10" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="H1070" s="10" t="s">
         <v>5</v>
@@ -49452,7 +49454,7 @@
         <v>23986</v>
       </c>
       <c r="G1071" s="10" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="H1071" s="10" t="s">
         <v>5</v>
@@ -49477,7 +49479,7 @@
         <v>293</v>
       </c>
       <c r="E1072" s="10" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="F1072" s="11">
         <v>22883</v>
@@ -49516,7 +49518,7 @@
         <v>23380</v>
       </c>
       <c r="G1073" s="10" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="H1073" s="10" t="s">
         <v>5</v>
@@ -49543,7 +49545,7 @@
         <v>294</v>
       </c>
       <c r="E1074" s="10" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="F1074" s="11">
         <v>23071</v>
@@ -49580,7 +49582,7 @@
         <v>24532</v>
       </c>
       <c r="G1075" s="10" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="H1075" s="10" t="s">
         <v>5</v>
@@ -49613,7 +49615,7 @@
         <v>24504</v>
       </c>
       <c r="G1076" s="10" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="H1076" s="10" t="s">
         <v>5</v>
@@ -49658,7 +49660,7 @@
         <v>9101477435</v>
       </c>
       <c r="K1077" s="10" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1078" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -49679,7 +49681,7 @@
         <v>19176</v>
       </c>
       <c r="G1078" s="10" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="H1078" s="10" t="s">
         <v>5</v>
@@ -49706,7 +49708,7 @@
         <v>391</v>
       </c>
       <c r="E1079" s="10" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="F1079" s="11">
         <v>24706</v>
@@ -49778,7 +49780,7 @@
         <v>24504</v>
       </c>
       <c r="G1081" s="10" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="H1081" s="10" t="s">
         <v>5</v>
@@ -49805,7 +49807,7 @@
         <v>369</v>
       </c>
       <c r="E1082" s="10" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="F1082" s="11">
         <v>25263</v>
@@ -49910,7 +49912,7 @@
         <v>24838</v>
       </c>
       <c r="G1085" s="10" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="H1085" s="10" t="s">
         <v>5</v>
@@ -50067,7 +50069,7 @@
         <v>453</v>
       </c>
       <c r="E1090" s="10" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="F1090" s="11">
         <v>24898</v>
@@ -50104,7 +50106,7 @@
         <v>23822</v>
       </c>
       <c r="G1091" s="10" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="H1091" s="10" t="s">
         <v>5</v>
@@ -50267,7 +50269,7 @@
         <v>21667</v>
       </c>
       <c r="G1096" s="10" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="H1096" s="10" t="s">
         <v>5</v>
@@ -50294,7 +50296,7 @@
         <v>25842</v>
       </c>
       <c r="G1097" s="10" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="H1097" s="10" t="s">
         <v>5</v>
@@ -50327,7 +50329,7 @@
         <v>26360</v>
       </c>
       <c r="G1098" s="10" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="H1098" s="10" t="s">
         <v>5</v>
@@ -50424,7 +50426,7 @@
         <v>25263</v>
       </c>
       <c r="G1101" s="10" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="H1101" s="10" t="s">
         <v>5</v>
@@ -50490,7 +50492,7 @@
         <v>26665</v>
       </c>
       <c r="G1103" s="10" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="H1103" s="10" t="s">
         <v>5</v>
@@ -50523,7 +50525,7 @@
         <v>26765</v>
       </c>
       <c r="G1104" s="10" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="H1104" s="10" t="s">
         <v>5</v>
@@ -50622,7 +50624,7 @@
         <v>26531</v>
       </c>
       <c r="G1107" s="10" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="H1107" s="10" t="s">
         <v>5</v>
@@ -50674,7 +50676,7 @@
       <c r="C1109" s="10"/>
       <c r="D1109" s="10"/>
       <c r="E1109" s="10" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="F1109" s="11">
         <v>26665</v>
@@ -50765,7 +50767,7 @@
         <v>26313</v>
       </c>
       <c r="G1112" s="10" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="H1112" s="10" t="s">
         <v>5</v>
@@ -50864,7 +50866,7 @@
         <v>27065</v>
       </c>
       <c r="G1115" s="10" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="H1115" s="10" t="s">
         <v>5</v>
@@ -50928,7 +50930,7 @@
         <v>26359</v>
       </c>
       <c r="G1117" s="10" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="H1117" s="10" t="s">
         <v>5</v>
@@ -51015,7 +51017,7 @@
         <v>26951</v>
       </c>
       <c r="G1120" s="10" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="H1120" s="10" t="s">
         <v>5</v>
@@ -51112,7 +51114,7 @@
         <v>27030</v>
       </c>
       <c r="G1123" s="10" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="H1123" s="10" t="s">
         <v>5</v>
@@ -51139,7 +51141,7 @@
         <v>181</v>
       </c>
       <c r="E1124" s="10" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="F1124" s="11">
         <v>27061</v>
@@ -51207,7 +51209,7 @@
         <v>27454</v>
       </c>
       <c r="G1126" s="10" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="H1126" s="10" t="s">
         <v>5</v>
@@ -51240,7 +51242,7 @@
         <v>27089</v>
       </c>
       <c r="G1127" s="10" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="H1127" s="10" t="s">
         <v>5</v>
@@ -51304,7 +51306,7 @@
         <v>27058</v>
       </c>
       <c r="G1129" s="10" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="H1129" s="10" t="s">
         <v>5</v>
@@ -51399,7 +51401,7 @@
         <v>28127</v>
       </c>
       <c r="G1132" s="10" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="H1132" s="10" t="s">
         <v>5</v>
@@ -51432,7 +51434,7 @@
         <v>27303</v>
       </c>
       <c r="G1133" s="10" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="H1133" s="10" t="s">
         <v>5</v>
@@ -51510,7 +51512,7 @@
         <v>9401274039</v>
       </c>
       <c r="K1135" s="10" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -51562,7 +51564,7 @@
         <v>28229</v>
       </c>
       <c r="G1137" s="10" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="H1137" s="10" t="s">
         <v>5</v>
@@ -51595,7 +51597,7 @@
         <v>27420</v>
       </c>
       <c r="G1138" s="10" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="H1138" s="10" t="s">
         <v>5</v>
@@ -51692,7 +51694,7 @@
         <v>28725</v>
       </c>
       <c r="G1141" s="10" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="H1141" s="10" t="s">
         <v>5</v>
@@ -51725,7 +51727,7 @@
         <v>28516</v>
       </c>
       <c r="G1142" s="10" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="H1142" s="10" t="s">
         <v>5</v>
@@ -51789,7 +51791,7 @@
         <v>29038</v>
       </c>
       <c r="G1144" s="10" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="H1144" s="10" t="s">
         <v>5</v>
@@ -51884,7 +51886,7 @@
         <v>28887</v>
       </c>
       <c r="G1147" s="10" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="H1147" s="10" t="s">
         <v>5</v>
@@ -51917,7 +51919,7 @@
         <v>29281</v>
       </c>
       <c r="G1148" s="10" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="H1148" s="10" t="s">
         <v>5</v>
@@ -52014,7 +52016,7 @@
         <v>29271</v>
       </c>
       <c r="G1151" s="10" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="H1151" s="10" t="s">
         <v>5</v>
@@ -52251,7 +52253,7 @@
         <v>9854119126</v>
       </c>
       <c r="K1158" s="10" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1159" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52460,7 +52462,7 @@
         <v>30637</v>
       </c>
       <c r="G1165" s="10" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="H1165" s="10" t="s">
         <v>5</v>
@@ -52493,7 +52495,7 @@
         <v>30852</v>
       </c>
       <c r="G1166" s="10" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="H1166" s="10" t="s">
         <v>5</v>
@@ -52538,7 +52540,7 @@
         <v>8133019095</v>
       </c>
       <c r="K1167" s="10" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1168" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -52685,7 +52687,7 @@
         <v>30830</v>
       </c>
       <c r="G1172" s="10" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="H1172" s="10" t="s">
         <v>5</v>
@@ -52718,7 +52720,7 @@
         <v>30920</v>
       </c>
       <c r="G1173" s="10" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="H1173" s="10" t="s">
         <v>5</v>
@@ -52844,7 +52846,7 @@
         <v>30011</v>
       </c>
       <c r="G1177" s="10" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="H1177" s="10" t="s">
         <v>5</v>
@@ -52910,7 +52912,7 @@
         <v>30742</v>
       </c>
       <c r="G1179" s="10" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="H1179" s="10" t="s">
         <v>5</v>
@@ -52943,7 +52945,7 @@
         <v>30681</v>
       </c>
       <c r="G1180" s="10" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="H1180" s="10" t="s">
         <v>5</v>
@@ -53292,7 +53294,7 @@
         <v>31442</v>
       </c>
       <c r="G1191" s="10" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="H1191" s="10" t="s">
         <v>5</v>
@@ -53325,7 +53327,7 @@
         <v>31494</v>
       </c>
       <c r="G1192" s="10" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
       <c r="H1192" s="10" t="s">
         <v>5</v>
@@ -53420,7 +53422,7 @@
         <v>31837</v>
       </c>
       <c r="G1195" s="10" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="H1195" s="10" t="s">
         <v>5</v>
@@ -53484,7 +53486,7 @@
         <v>32539</v>
       </c>
       <c r="G1197" s="10" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="H1197" s="10" t="s">
         <v>5</v>
@@ -53515,7 +53517,7 @@
         <v>32178</v>
       </c>
       <c r="G1198" s="10" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="H1198" s="10" t="s">
         <v>5</v>
@@ -53546,7 +53548,7 @@
         <v>32568</v>
       </c>
       <c r="G1199" s="10" t="s">
-        <v>4386</v>
+        <v>4385</v>
       </c>
       <c r="H1199" s="10" t="s">
         <v>5</v>
@@ -53579,7 +53581,7 @@
         <v>32504</v>
       </c>
       <c r="G1200" s="10" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="H1200" s="10" t="s">
         <v>5</v>
@@ -53612,7 +53614,7 @@
         <v>29646</v>
       </c>
       <c r="G1201" s="10" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="H1201" s="10" t="s">
         <v>5</v>
@@ -53643,7 +53645,7 @@
         <v>31331</v>
       </c>
       <c r="G1202" s="10" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="H1202" s="10" t="s">
         <v>5</v>
@@ -53674,7 +53676,7 @@
         <v>31833</v>
       </c>
       <c r="G1203" s="10" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="H1203" s="10" t="s">
         <v>5</v>
@@ -53707,7 +53709,7 @@
         <v>28785</v>
       </c>
       <c r="G1204" s="10" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="H1204" s="10" t="s">
         <v>5</v>
@@ -53738,7 +53740,7 @@
         <v>32403</v>
       </c>
       <c r="G1205" s="10" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="H1205" s="10" t="s">
         <v>5</v>
@@ -53771,7 +53773,7 @@
         <v>32164</v>
       </c>
       <c r="G1206" s="10" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="H1206" s="10" t="s">
         <v>5</v>
@@ -53804,7 +53806,7 @@
         <v>32870</v>
       </c>
       <c r="G1207" s="10" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="H1207" s="10" t="s">
         <v>5</v>
@@ -53837,7 +53839,7 @@
         <v>32774</v>
       </c>
       <c r="G1208" s="10" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="H1208" s="10" t="s">
         <v>5</v>
@@ -53849,7 +53851,7 @@
         <v>8638789035</v>
       </c>
       <c r="K1208" s="10" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1209" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -53870,7 +53872,7 @@
         <v>33266</v>
       </c>
       <c r="G1209" s="10" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="H1209" s="10" t="s">
         <v>5</v>
@@ -53901,7 +53903,7 @@
         <v>33693</v>
       </c>
       <c r="G1210" s="10" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="H1210" s="10" t="s">
         <v>5</v>
@@ -53934,7 +53936,7 @@
         <v>32842</v>
       </c>
       <c r="G1211" s="10" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="H1211" s="10" t="s">
         <v>5</v>
@@ -53965,7 +53967,7 @@
         <v>32690</v>
       </c>
       <c r="G1212" s="10" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="H1212" s="10" t="s">
         <v>5</v>
@@ -53996,7 +53998,7 @@
         <v>31199</v>
       </c>
       <c r="G1213" s="10" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="H1213" s="10" t="s">
         <v>5</v>
@@ -54027,7 +54029,7 @@
         <v>32896</v>
       </c>
       <c r="G1214" s="10" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="H1214" s="10" t="s">
         <v>5</v>
@@ -54039,7 +54041,7 @@
         <v>8146550405</v>
       </c>
       <c r="K1214" s="10" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1215" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54060,7 +54062,7 @@
         <v>33216</v>
       </c>
       <c r="G1215" s="10" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="H1215" s="10" t="s">
         <v>5</v>
@@ -54093,7 +54095,7 @@
         <v>31826</v>
       </c>
       <c r="G1216" s="10" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="H1216" s="10" t="s">
         <v>5</v>
@@ -54126,7 +54128,7 @@
         <v>33134</v>
       </c>
       <c r="G1217" s="10" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="H1217" s="10" t="s">
         <v>5</v>
@@ -54159,7 +54161,7 @@
         <v>33078</v>
       </c>
       <c r="G1218" s="10" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="H1218" s="10" t="s">
         <v>5</v>
@@ -54192,7 +54194,7 @@
         <v>33451</v>
       </c>
       <c r="G1219" s="10" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="H1219" s="10" t="s">
         <v>5</v>
@@ -54225,7 +54227,7 @@
         <v>33238</v>
       </c>
       <c r="G1220" s="10" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="H1220" s="10" t="s">
         <v>5</v>
@@ -54258,7 +54260,7 @@
         <v>32143</v>
       </c>
       <c r="G1221" s="10" t="s">
-        <v>4408</v>
+        <v>4407</v>
       </c>
       <c r="H1221" s="10" t="s">
         <v>5</v>
@@ -54291,7 +54293,7 @@
         <v>33680</v>
       </c>
       <c r="G1222" s="10" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="H1222" s="10" t="s">
         <v>5</v>
@@ -54324,7 +54326,7 @@
         <v>33159</v>
       </c>
       <c r="G1223" s="10" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="H1223" s="10" t="s">
         <v>5</v>
@@ -54357,7 +54359,7 @@
         <v>33099</v>
       </c>
       <c r="G1224" s="10" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="H1224" s="10" t="s">
         <v>5</v>
@@ -54390,7 +54392,7 @@
         <v>33645</v>
       </c>
       <c r="G1225" s="10" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="H1225" s="10" t="s">
         <v>5</v>
@@ -54423,7 +54425,7 @@
         <v>33820</v>
       </c>
       <c r="G1226" s="10" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="H1226" s="10" t="s">
         <v>5</v>
@@ -54456,7 +54458,7 @@
         <v>33970</v>
       </c>
       <c r="G1227" s="10" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="H1227" s="10" t="s">
         <v>5</v>
@@ -54489,7 +54491,7 @@
         <v>33848</v>
       </c>
       <c r="G1228" s="10" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="H1228" s="10" t="s">
         <v>5</v>
@@ -54522,7 +54524,7 @@
         <v>34022</v>
       </c>
       <c r="G1229" s="10" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="H1229" s="10" t="s">
         <v>5</v>
@@ -54555,7 +54557,7 @@
         <v>33258</v>
       </c>
       <c r="G1230" s="10" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="H1230" s="10" t="s">
         <v>5</v>
@@ -54588,7 +54590,7 @@
         <v>33580</v>
       </c>
       <c r="G1231" s="10" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="H1231" s="10" t="s">
         <v>5</v>
@@ -54621,7 +54623,7 @@
         <v>34161</v>
       </c>
       <c r="G1232" s="10" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="H1232" s="10" t="s">
         <v>5</v>
@@ -54654,7 +54656,7 @@
         <v>34394</v>
       </c>
       <c r="G1233" s="10" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="H1233" s="10" t="s">
         <v>5</v>
@@ -54687,7 +54689,7 @@
         <v>33425</v>
       </c>
       <c r="G1234" s="10" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="H1234" s="10" t="s">
         <v>5</v>
@@ -54720,7 +54722,7 @@
         <v>33434</v>
       </c>
       <c r="G1235" s="10" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="H1235" s="10" t="s">
         <v>5</v>
@@ -54753,7 +54755,7 @@
         <v>33434</v>
       </c>
       <c r="G1236" s="10" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="H1236" s="10" t="s">
         <v>5</v>
@@ -54786,7 +54788,7 @@
         <v>33586</v>
       </c>
       <c r="G1237" s="10" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="H1237" s="10" t="s">
         <v>5</v>
@@ -54819,7 +54821,7 @@
         <v>34608</v>
       </c>
       <c r="G1238" s="10" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="H1238" s="10" t="s">
         <v>5</v>
@@ -54852,7 +54854,7 @@
         <v>34000</v>
       </c>
       <c r="G1239" s="10" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="H1239" s="10" t="s">
         <v>5</v>
@@ -54885,7 +54887,7 @@
         <v>33351</v>
       </c>
       <c r="G1240" s="10" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="H1240" s="10" t="s">
         <v>5</v>

--- a/ASSAM_ELECROLL.xlsx
+++ b/ASSAM_ELECROLL.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7623" uniqueCount="4486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7624" uniqueCount="4486">
   <si>
     <t>1994</t>
   </si>
@@ -14268,8 +14268,8 @@
   </sheetPr>
   <dimension ref="A1:K1240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1065" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1068" sqref="I1068"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24479,8 +24479,12 @@
       <c r="I310" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="J310" s="5"/>
-      <c r="K310" s="1"/>
+      <c r="J310" s="5">
+        <v>9435349301</v>
+      </c>
+      <c r="K310" s="1" t="s">
+        <v>4484</v>
+      </c>
     </row>
     <row r="311" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
@@ -47621,10 +47625,10 @@
         <v>3908</v>
       </c>
       <c r="J1013" s="9">
-        <v>8981558104</v>
+        <v>8017719660</v>
       </c>
       <c r="K1013" s="7" t="s">
-        <v>3866</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1014" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -47824,10 +47828,10 @@
         <v>3915</v>
       </c>
       <c r="J1020" s="9">
-        <v>7002039865</v>
+        <v>7002039861</v>
       </c>
       <c r="K1020" s="7" t="s">
-        <v>3866</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1021" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -50246,9 +50250,11 @@
       <c r="I1095" s="10" t="s">
         <v>3989</v>
       </c>
-      <c r="J1095" s="10"/>
+      <c r="J1095" s="10">
+        <v>8638039391</v>
+      </c>
       <c r="K1095" s="10" t="s">
-        <v>3866</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1096" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -51347,9 +51353,11 @@
       <c r="I1130" s="10" t="s">
         <v>4024</v>
       </c>
-      <c r="J1130" s="10"/>
+      <c r="J1130" s="10">
+        <v>9440616346</v>
+      </c>
       <c r="K1130" s="10" t="s">
-        <v>3866</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1131" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -54903,8 +54911,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1240"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="73" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup scale="72" fitToHeight="0" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>